--- a/play/play.xlsx
+++ b/play/play.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="38010" windowHeight="15165"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="38010" windowHeight="15165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="613">
   <si>
     <t>待办事项列表</t>
   </si>
@@ -2135,17 +2135,52 @@
 地铁早上四小时做的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>01-tcp ip协议
+02-wireshark抓包工具-安装
+03-wireshark抓包工具-使用
+04-2台电脑通信、网络掩码
+05-集线器、交换器组网、arp获取mac地址等
+06-路由器链接多个网络、默认网关
+07-浏览器访问服务器的过程
+08-ip不变、mac地址发生变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.1 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第八章：磁盘与文件系统管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第八章：磁盘与文件系统管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01-课程介绍
+02-多进程-面向对象-web服务器
+03-静态资源、动态资源、web服务器支持动态解析
+04-静态、动态资源强调
+05-实现很简单的框架，让web服务器支持
+06-（重点）WSGI的介绍
+07-web服务器支持WSGI
+08-web服务器通过字典将需要的参数传递给mini_frame框架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_(&quot;₫&quot;* #,##0_);_(&quot;₫&quot;* \(#,##0\);_(&quot;₫&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;₫&quot;* #,##0.00_);_(&quot;₫&quot;* \(#,##0.00\);_(&quot;₫&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2651,7 +2686,7 @@
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -2707,6 +2742,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -2883,8 +2921,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="项目_1" displayName="项目_1" ref="B7:F19" totalsRowShown="0">
-  <autoFilter ref="B7:F19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="项目_1" displayName="项目_1" ref="B7:F79" totalsRowShown="0">
+  <autoFilter ref="B7:F79"/>
   <tableColumns count="5">
     <tableColumn id="1" name="完成百分比"/>
     <tableColumn id="2" name="阶段" dataDxfId="1"/>
@@ -3249,10 +3287,10 @@
     <tabColor theme="5" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E16358" sqref="E16358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="30" customHeight="1"/>
@@ -3428,7 +3466,9 @@
       <c r="B16" s="5">
         <v>0</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="9">
+        <v>11.7</v>
+      </c>
       <c r="D16" s="6" t="s">
         <v>602</v>
       </c>
@@ -3436,26 +3476,464 @@
         <v>605</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" customHeight="1">
+    <row r="17" spans="2:5" ht="164.25" customHeight="1">
       <c r="B17" s="5">
         <v>0</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1">
+      <c r="C17" s="9">
+        <v>11.8</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="E17" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="30" customHeight="1">
       <c r="B18" s="5">
         <v>0</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="9">
+        <v>11.9</v>
+      </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="2:4" ht="30" customHeight="1">
+    <row r="19" spans="2:5" ht="30" customHeight="1">
       <c r="B19" s="5">
         <v>0</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>609</v>
+      </c>
       <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="2:5" ht="168" customHeight="1">
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9">
+        <v>11.11</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>611</v>
+      </c>
+      <c r="E20" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="30" customHeight="1">
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="20"/>
+    </row>
+    <row r="22" spans="2:5" ht="30" customHeight="1">
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="20"/>
+    </row>
+    <row r="23" spans="2:5" ht="30" customHeight="1">
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" spans="2:5" ht="30" customHeight="1">
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="2:5" ht="30" customHeight="1">
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="20"/>
+    </row>
+    <row r="26" spans="2:5" ht="30" customHeight="1">
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="20"/>
+    </row>
+    <row r="27" spans="2:5" ht="30" customHeight="1">
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="20"/>
+    </row>
+    <row r="28" spans="2:5" ht="30" customHeight="1">
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="20"/>
+    </row>
+    <row r="29" spans="2:5" ht="30" customHeight="1">
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="20"/>
+    </row>
+    <row r="30" spans="2:5" ht="30" customHeight="1">
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="20"/>
+    </row>
+    <row r="31" spans="2:5" ht="30" customHeight="1">
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="20"/>
+    </row>
+    <row r="32" spans="2:5" ht="30" customHeight="1">
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="20"/>
+    </row>
+    <row r="33" spans="2:4" ht="30" customHeight="1">
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="20"/>
+    </row>
+    <row r="34" spans="2:4" ht="30" customHeight="1">
+      <c r="B34" s="5">
+        <v>0</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="20"/>
+    </row>
+    <row r="35" spans="2:4" ht="30" customHeight="1">
+      <c r="B35" s="5">
+        <v>0</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="20"/>
+    </row>
+    <row r="36" spans="2:4" ht="30" customHeight="1">
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="20"/>
+    </row>
+    <row r="37" spans="2:4" ht="30" customHeight="1">
+      <c r="B37" s="5">
+        <v>0</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="20"/>
+    </row>
+    <row r="38" spans="2:4" ht="30" customHeight="1">
+      <c r="B38" s="5">
+        <v>0</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="20"/>
+    </row>
+    <row r="39" spans="2:4" ht="30" customHeight="1">
+      <c r="B39" s="5">
+        <v>0</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="20"/>
+    </row>
+    <row r="40" spans="2:4" ht="30" customHeight="1">
+      <c r="B40" s="5">
+        <v>0</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="20"/>
+    </row>
+    <row r="41" spans="2:4" ht="30" customHeight="1">
+      <c r="B41" s="5">
+        <v>0</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="20"/>
+    </row>
+    <row r="42" spans="2:4" ht="30" customHeight="1">
+      <c r="B42" s="5">
+        <v>0</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="20"/>
+    </row>
+    <row r="43" spans="2:4" ht="30" customHeight="1">
+      <c r="B43" s="5">
+        <v>0</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="20"/>
+    </row>
+    <row r="44" spans="2:4" ht="30" customHeight="1">
+      <c r="B44" s="5">
+        <v>0</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="2:4" ht="30" customHeight="1">
+      <c r="B45" s="5">
+        <v>0</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="2:4" ht="30" customHeight="1">
+      <c r="B46" s="5">
+        <v>0</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="20"/>
+    </row>
+    <row r="47" spans="2:4" ht="30" customHeight="1">
+      <c r="B47" s="5">
+        <v>0</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="2:4" ht="30" customHeight="1">
+      <c r="B48" s="5">
+        <v>0</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="20"/>
+    </row>
+    <row r="49" spans="2:4" ht="30" customHeight="1">
+      <c r="B49" s="5">
+        <v>0</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="20"/>
+    </row>
+    <row r="50" spans="2:4" ht="30" customHeight="1">
+      <c r="B50" s="5">
+        <v>0</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="2:4" ht="30" customHeight="1">
+      <c r="B51" s="5">
+        <v>0</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="20"/>
+    </row>
+    <row r="52" spans="2:4" ht="30" customHeight="1">
+      <c r="B52" s="5">
+        <v>0</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="20"/>
+    </row>
+    <row r="53" spans="2:4" ht="30" customHeight="1">
+      <c r="B53" s="5">
+        <v>0</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="20"/>
+    </row>
+    <row r="54" spans="2:4" ht="30" customHeight="1">
+      <c r="B54" s="5">
+        <v>0</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="20"/>
+    </row>
+    <row r="55" spans="2:4" ht="30" customHeight="1">
+      <c r="B55" s="5">
+        <v>0</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="2:4" ht="30" customHeight="1">
+      <c r="B56" s="5">
+        <v>0</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="2:4" ht="30" customHeight="1">
+      <c r="B57" s="5">
+        <v>0</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="20"/>
+    </row>
+    <row r="58" spans="2:4" ht="30" customHeight="1">
+      <c r="B58" s="5">
+        <v>0</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="20"/>
+    </row>
+    <row r="59" spans="2:4" ht="30" customHeight="1">
+      <c r="B59" s="5">
+        <v>0</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="2:4" ht="30" customHeight="1">
+      <c r="B60" s="5">
+        <v>0</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="2:4" ht="30" customHeight="1">
+      <c r="B61" s="5">
+        <v>0</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="20"/>
+    </row>
+    <row r="62" spans="2:4" ht="30" customHeight="1">
+      <c r="B62" s="5">
+        <v>0</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="20"/>
+    </row>
+    <row r="63" spans="2:4" ht="30" customHeight="1">
+      <c r="B63" s="5">
+        <v>0</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="2:4" ht="30" customHeight="1">
+      <c r="B64" s="5">
+        <v>0</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="2:4" ht="30" customHeight="1">
+      <c r="B65" s="5">
+        <v>0</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="20"/>
+    </row>
+    <row r="66" spans="2:4" ht="30" customHeight="1">
+      <c r="B66" s="5">
+        <v>0</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="20"/>
+    </row>
+    <row r="67" spans="2:4" ht="30" customHeight="1">
+      <c r="B67" s="5">
+        <v>0</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="20"/>
+    </row>
+    <row r="68" spans="2:4" ht="30" customHeight="1">
+      <c r="B68" s="5">
+        <v>0</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="20"/>
+    </row>
+    <row r="69" spans="2:4" ht="30" customHeight="1">
+      <c r="B69" s="5">
+        <v>0</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="20"/>
+    </row>
+    <row r="70" spans="2:4" ht="30" customHeight="1">
+      <c r="B70" s="5">
+        <v>0</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="20"/>
+    </row>
+    <row r="71" spans="2:4" ht="30" customHeight="1">
+      <c r="B71" s="5">
+        <v>0</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="20"/>
+    </row>
+    <row r="72" spans="2:4" ht="30" customHeight="1">
+      <c r="B72" s="5">
+        <v>0</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="20"/>
+    </row>
+    <row r="73" spans="2:4" ht="30" customHeight="1">
+      <c r="B73" s="5">
+        <v>0</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="20"/>
+    </row>
+    <row r="74" spans="2:4" ht="30" customHeight="1">
+      <c r="B74" s="5">
+        <v>0</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="20"/>
+    </row>
+    <row r="75" spans="2:4" ht="30" customHeight="1">
+      <c r="B75" s="5">
+        <v>0</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="20"/>
+    </row>
+    <row r="76" spans="2:4" ht="30" customHeight="1">
+      <c r="B76" s="5">
+        <v>0</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="D76" s="20"/>
+    </row>
+    <row r="77" spans="2:4" ht="30" customHeight="1">
+      <c r="B77" s="5">
+        <v>0</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="20"/>
+    </row>
+    <row r="78" spans="2:4" ht="30" customHeight="1">
+      <c r="B78" s="5">
+        <v>0</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="20"/>
+    </row>
+    <row r="79" spans="2:4" ht="30" customHeight="1">
+      <c r="B79" s="5">
+        <v>0</v>
+      </c>
+      <c r="C79" s="9"/>
+      <c r="D79" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3466,7 +3944,7 @@
     <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B8:B19">
+  <conditionalFormatting sqref="B8:B79">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -3504,8 +3982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C490"/>
   <sheetViews>
-    <sheetView topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8116,6 +8594,86 @@
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="A483:A487"/>
+    <mergeCell ref="A488:A489"/>
+    <mergeCell ref="A448:A454"/>
+    <mergeCell ref="A455:A459"/>
+    <mergeCell ref="A460:A463"/>
+    <mergeCell ref="A464:A468"/>
+    <mergeCell ref="A469:A476"/>
+    <mergeCell ref="A478:A482"/>
+    <mergeCell ref="A443:A447"/>
+    <mergeCell ref="A369:A371"/>
+    <mergeCell ref="A372:A376"/>
+    <mergeCell ref="A377:A382"/>
+    <mergeCell ref="A383:A392"/>
+    <mergeCell ref="A393:A395"/>
+    <mergeCell ref="A396:A408"/>
+    <mergeCell ref="A409:A419"/>
+    <mergeCell ref="A420:A431"/>
+    <mergeCell ref="A432:A434"/>
+    <mergeCell ref="A435:A436"/>
+    <mergeCell ref="A437:A442"/>
+    <mergeCell ref="A367:A368"/>
+    <mergeCell ref="A300:A307"/>
+    <mergeCell ref="A315:A322"/>
+    <mergeCell ref="A308:A314"/>
+    <mergeCell ref="A323:A327"/>
+    <mergeCell ref="A328:A336"/>
+    <mergeCell ref="A337:A341"/>
+    <mergeCell ref="A342:A348"/>
+    <mergeCell ref="A349:A354"/>
+    <mergeCell ref="A355:A358"/>
+    <mergeCell ref="A359:A364"/>
+    <mergeCell ref="A365:A366"/>
+    <mergeCell ref="A292:A299"/>
+    <mergeCell ref="A245:A250"/>
+    <mergeCell ref="A251:A253"/>
+    <mergeCell ref="A254:A256"/>
+    <mergeCell ref="A257:A260"/>
+    <mergeCell ref="A261:A265"/>
+    <mergeCell ref="A266:A268"/>
+    <mergeCell ref="A269:A270"/>
+    <mergeCell ref="A271:A277"/>
+    <mergeCell ref="A278:A283"/>
+    <mergeCell ref="A284:A286"/>
+    <mergeCell ref="A287:A291"/>
+    <mergeCell ref="A241:A244"/>
+    <mergeCell ref="A189:A194"/>
+    <mergeCell ref="A195:A202"/>
+    <mergeCell ref="A203:A206"/>
+    <mergeCell ref="A207:A209"/>
+    <mergeCell ref="A210:A218"/>
+    <mergeCell ref="A219:A224"/>
+    <mergeCell ref="A225:A227"/>
+    <mergeCell ref="A228:A230"/>
+    <mergeCell ref="A231:A233"/>
+    <mergeCell ref="A234:A237"/>
+    <mergeCell ref="A238:A240"/>
+    <mergeCell ref="A183:A188"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="A156:A160"/>
+    <mergeCell ref="A161:A169"/>
+    <mergeCell ref="A171:A174"/>
+    <mergeCell ref="A175:A180"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="A135:A139"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="A105:A111"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A132:A134"/>
     <mergeCell ref="A89:A95"/>
     <mergeCell ref="A3:A13"/>
     <mergeCell ref="A14:A16"/>
@@ -8128,86 +8686,6 @@
     <mergeCell ref="A67:A70"/>
     <mergeCell ref="A71:A79"/>
     <mergeCell ref="A80:A88"/>
-    <mergeCell ref="A135:A139"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="A105:A111"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A183:A188"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="A156:A160"/>
-    <mergeCell ref="A161:A169"/>
-    <mergeCell ref="A171:A174"/>
-    <mergeCell ref="A175:A180"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="A241:A244"/>
-    <mergeCell ref="A189:A194"/>
-    <mergeCell ref="A195:A202"/>
-    <mergeCell ref="A203:A206"/>
-    <mergeCell ref="A207:A209"/>
-    <mergeCell ref="A210:A218"/>
-    <mergeCell ref="A219:A224"/>
-    <mergeCell ref="A225:A227"/>
-    <mergeCell ref="A228:A230"/>
-    <mergeCell ref="A231:A233"/>
-    <mergeCell ref="A234:A237"/>
-    <mergeCell ref="A238:A240"/>
-    <mergeCell ref="A292:A299"/>
-    <mergeCell ref="A245:A250"/>
-    <mergeCell ref="A251:A253"/>
-    <mergeCell ref="A254:A256"/>
-    <mergeCell ref="A257:A260"/>
-    <mergeCell ref="A261:A265"/>
-    <mergeCell ref="A266:A268"/>
-    <mergeCell ref="A269:A270"/>
-    <mergeCell ref="A271:A277"/>
-    <mergeCell ref="A278:A283"/>
-    <mergeCell ref="A284:A286"/>
-    <mergeCell ref="A287:A291"/>
-    <mergeCell ref="A367:A368"/>
-    <mergeCell ref="A300:A307"/>
-    <mergeCell ref="A315:A322"/>
-    <mergeCell ref="A308:A314"/>
-    <mergeCell ref="A323:A327"/>
-    <mergeCell ref="A328:A336"/>
-    <mergeCell ref="A337:A341"/>
-    <mergeCell ref="A342:A348"/>
-    <mergeCell ref="A349:A354"/>
-    <mergeCell ref="A355:A358"/>
-    <mergeCell ref="A359:A364"/>
-    <mergeCell ref="A365:A366"/>
-    <mergeCell ref="A443:A447"/>
-    <mergeCell ref="A369:A371"/>
-    <mergeCell ref="A372:A376"/>
-    <mergeCell ref="A377:A382"/>
-    <mergeCell ref="A383:A392"/>
-    <mergeCell ref="A393:A395"/>
-    <mergeCell ref="A396:A408"/>
-    <mergeCell ref="A409:A419"/>
-    <mergeCell ref="A420:A431"/>
-    <mergeCell ref="A432:A434"/>
-    <mergeCell ref="A435:A436"/>
-    <mergeCell ref="A437:A442"/>
-    <mergeCell ref="A483:A487"/>
-    <mergeCell ref="A488:A489"/>
-    <mergeCell ref="A448:A454"/>
-    <mergeCell ref="A455:A459"/>
-    <mergeCell ref="A460:A463"/>
-    <mergeCell ref="A464:A468"/>
-    <mergeCell ref="A469:A476"/>
-    <mergeCell ref="A478:A482"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/play/play.xlsx
+++ b/play/play.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="38010" windowHeight="15165" activeTab="1"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="38010" windowHeight="15165"/>
   </bookViews>
   <sheets>
     <sheet name="项目 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="614">
   <si>
     <t>待办事项列表</t>
   </si>
@@ -2167,6 +2167,13 @@
 06-（重点）WSGI的介绍
 07-web服务器支持WSGI
 08-web服务器通过字典将需要的参数传递给mini_frame框架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">09-mini_frame获取页面模板数据
+10-给程序传递参数、添加web服务器的配置文件、添加shell功能
+01-数据的准备，基本查询
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2721,6 +2728,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2742,9 +2752,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -3289,8 +3296,8 @@
   </sheetPr>
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E16358" sqref="E16358"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="30" customHeight="1"/>
@@ -3317,33 +3324,33 @@
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1"/>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="52.5" customHeight="1">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="46.5" customHeight="1">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="14" t="s">
         <v>598</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1"/>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B7" s="3" t="s">
@@ -3515,425 +3522,428 @@
       <c r="C20" s="9">
         <v>11.11</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="12" t="s">
         <v>611</v>
       </c>
       <c r="E20" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="30" customHeight="1">
+    <row r="21" spans="2:5" ht="87.75" customHeight="1">
       <c r="B21" s="5">
         <v>0</v>
       </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="20"/>
+      <c r="D21" s="12"/>
+      <c r="E21" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="22" spans="2:5" ht="30" customHeight="1">
       <c r="B22" s="5">
         <v>0</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="20"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="2:5" ht="30" customHeight="1">
       <c r="B23" s="5">
         <v>0</v>
       </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="20"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="2:5" ht="30" customHeight="1">
       <c r="B24" s="5">
         <v>0</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="20"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="2:5" ht="30" customHeight="1">
       <c r="B25" s="5">
         <v>0</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="20"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="2:5" ht="30" customHeight="1">
       <c r="B26" s="5">
         <v>0</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="20"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="2:5" ht="30" customHeight="1">
       <c r="B27" s="5">
         <v>0</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="20"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="2:5" ht="30" customHeight="1">
       <c r="B28" s="5">
         <v>0</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="20"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="2:5" ht="30" customHeight="1">
       <c r="B29" s="5">
         <v>0</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="20"/>
+      <c r="D29" s="12"/>
     </row>
     <row r="30" spans="2:5" ht="30" customHeight="1">
       <c r="B30" s="5">
         <v>0</v>
       </c>
       <c r="C30" s="9"/>
-      <c r="D30" s="20"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="2:5" ht="30" customHeight="1">
       <c r="B31" s="5">
         <v>0</v>
       </c>
       <c r="C31" s="9"/>
-      <c r="D31" s="20"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="2:5" ht="30" customHeight="1">
       <c r="B32" s="5">
         <v>0</v>
       </c>
       <c r="C32" s="9"/>
-      <c r="D32" s="20"/>
+      <c r="D32" s="12"/>
     </row>
     <row r="33" spans="2:4" ht="30" customHeight="1">
       <c r="B33" s="5">
         <v>0</v>
       </c>
       <c r="C33" s="9"/>
-      <c r="D33" s="20"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="34" spans="2:4" ht="30" customHeight="1">
       <c r="B34" s="5">
         <v>0</v>
       </c>
       <c r="C34" s="9"/>
-      <c r="D34" s="20"/>
+      <c r="D34" s="12"/>
     </row>
     <row r="35" spans="2:4" ht="30" customHeight="1">
       <c r="B35" s="5">
         <v>0</v>
       </c>
       <c r="C35" s="9"/>
-      <c r="D35" s="20"/>
+      <c r="D35" s="12"/>
     </row>
     <row r="36" spans="2:4" ht="30" customHeight="1">
       <c r="B36" s="5">
         <v>0</v>
       </c>
       <c r="C36" s="9"/>
-      <c r="D36" s="20"/>
+      <c r="D36" s="12"/>
     </row>
     <row r="37" spans="2:4" ht="30" customHeight="1">
       <c r="B37" s="5">
         <v>0</v>
       </c>
       <c r="C37" s="9"/>
-      <c r="D37" s="20"/>
+      <c r="D37" s="12"/>
     </row>
     <row r="38" spans="2:4" ht="30" customHeight="1">
       <c r="B38" s="5">
         <v>0</v>
       </c>
       <c r="C38" s="9"/>
-      <c r="D38" s="20"/>
+      <c r="D38" s="12"/>
     </row>
     <row r="39" spans="2:4" ht="30" customHeight="1">
       <c r="B39" s="5">
         <v>0</v>
       </c>
       <c r="C39" s="9"/>
-      <c r="D39" s="20"/>
+      <c r="D39" s="12"/>
     </row>
     <row r="40" spans="2:4" ht="30" customHeight="1">
       <c r="B40" s="5">
         <v>0</v>
       </c>
       <c r="C40" s="9"/>
-      <c r="D40" s="20"/>
+      <c r="D40" s="12"/>
     </row>
     <row r="41" spans="2:4" ht="30" customHeight="1">
       <c r="B41" s="5">
         <v>0</v>
       </c>
       <c r="C41" s="9"/>
-      <c r="D41" s="20"/>
+      <c r="D41" s="12"/>
     </row>
     <row r="42" spans="2:4" ht="30" customHeight="1">
       <c r="B42" s="5">
         <v>0</v>
       </c>
       <c r="C42" s="9"/>
-      <c r="D42" s="20"/>
+      <c r="D42" s="12"/>
     </row>
     <row r="43" spans="2:4" ht="30" customHeight="1">
       <c r="B43" s="5">
         <v>0</v>
       </c>
       <c r="C43" s="9"/>
-      <c r="D43" s="20"/>
+      <c r="D43" s="12"/>
     </row>
     <row r="44" spans="2:4" ht="30" customHeight="1">
       <c r="B44" s="5">
         <v>0</v>
       </c>
       <c r="C44" s="9"/>
-      <c r="D44" s="20"/>
+      <c r="D44" s="12"/>
     </row>
     <row r="45" spans="2:4" ht="30" customHeight="1">
       <c r="B45" s="5">
         <v>0</v>
       </c>
       <c r="C45" s="9"/>
-      <c r="D45" s="20"/>
+      <c r="D45" s="12"/>
     </row>
     <row r="46" spans="2:4" ht="30" customHeight="1">
       <c r="B46" s="5">
         <v>0</v>
       </c>
       <c r="C46" s="9"/>
-      <c r="D46" s="20"/>
+      <c r="D46" s="12"/>
     </row>
     <row r="47" spans="2:4" ht="30" customHeight="1">
       <c r="B47" s="5">
         <v>0</v>
       </c>
       <c r="C47" s="9"/>
-      <c r="D47" s="20"/>
+      <c r="D47" s="12"/>
     </row>
     <row r="48" spans="2:4" ht="30" customHeight="1">
       <c r="B48" s="5">
         <v>0</v>
       </c>
       <c r="C48" s="9"/>
-      <c r="D48" s="20"/>
+      <c r="D48" s="12"/>
     </row>
     <row r="49" spans="2:4" ht="30" customHeight="1">
       <c r="B49" s="5">
         <v>0</v>
       </c>
       <c r="C49" s="9"/>
-      <c r="D49" s="20"/>
+      <c r="D49" s="12"/>
     </row>
     <row r="50" spans="2:4" ht="30" customHeight="1">
       <c r="B50" s="5">
         <v>0</v>
       </c>
       <c r="C50" s="9"/>
-      <c r="D50" s="20"/>
+      <c r="D50" s="12"/>
     </row>
     <row r="51" spans="2:4" ht="30" customHeight="1">
       <c r="B51" s="5">
         <v>0</v>
       </c>
       <c r="C51" s="9"/>
-      <c r="D51" s="20"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="52" spans="2:4" ht="30" customHeight="1">
       <c r="B52" s="5">
         <v>0</v>
       </c>
       <c r="C52" s="9"/>
-      <c r="D52" s="20"/>
+      <c r="D52" s="12"/>
     </row>
     <row r="53" spans="2:4" ht="30" customHeight="1">
       <c r="B53" s="5">
         <v>0</v>
       </c>
       <c r="C53" s="9"/>
-      <c r="D53" s="20"/>
+      <c r="D53" s="12"/>
     </row>
     <row r="54" spans="2:4" ht="30" customHeight="1">
       <c r="B54" s="5">
         <v>0</v>
       </c>
       <c r="C54" s="9"/>
-      <c r="D54" s="20"/>
+      <c r="D54" s="12"/>
     </row>
     <row r="55" spans="2:4" ht="30" customHeight="1">
       <c r="B55" s="5">
         <v>0</v>
       </c>
       <c r="C55" s="9"/>
-      <c r="D55" s="20"/>
+      <c r="D55" s="12"/>
     </row>
     <row r="56" spans="2:4" ht="30" customHeight="1">
       <c r="B56" s="5">
         <v>0</v>
       </c>
       <c r="C56" s="9"/>
-      <c r="D56" s="20"/>
+      <c r="D56" s="12"/>
     </row>
     <row r="57" spans="2:4" ht="30" customHeight="1">
       <c r="B57" s="5">
         <v>0</v>
       </c>
       <c r="C57" s="9"/>
-      <c r="D57" s="20"/>
+      <c r="D57" s="12"/>
     </row>
     <row r="58" spans="2:4" ht="30" customHeight="1">
       <c r="B58" s="5">
         <v>0</v>
       </c>
       <c r="C58" s="9"/>
-      <c r="D58" s="20"/>
+      <c r="D58" s="12"/>
     </row>
     <row r="59" spans="2:4" ht="30" customHeight="1">
       <c r="B59" s="5">
         <v>0</v>
       </c>
       <c r="C59" s="9"/>
-      <c r="D59" s="20"/>
+      <c r="D59" s="12"/>
     </row>
     <row r="60" spans="2:4" ht="30" customHeight="1">
       <c r="B60" s="5">
         <v>0</v>
       </c>
       <c r="C60" s="9"/>
-      <c r="D60" s="20"/>
+      <c r="D60" s="12"/>
     </row>
     <row r="61" spans="2:4" ht="30" customHeight="1">
       <c r="B61" s="5">
         <v>0</v>
       </c>
       <c r="C61" s="9"/>
-      <c r="D61" s="20"/>
+      <c r="D61" s="12"/>
     </row>
     <row r="62" spans="2:4" ht="30" customHeight="1">
       <c r="B62" s="5">
         <v>0</v>
       </c>
       <c r="C62" s="9"/>
-      <c r="D62" s="20"/>
+      <c r="D62" s="12"/>
     </row>
     <row r="63" spans="2:4" ht="30" customHeight="1">
       <c r="B63" s="5">
         <v>0</v>
       </c>
       <c r="C63" s="9"/>
-      <c r="D63" s="20"/>
+      <c r="D63" s="12"/>
     </row>
     <row r="64" spans="2:4" ht="30" customHeight="1">
       <c r="B64" s="5">
         <v>0</v>
       </c>
       <c r="C64" s="9"/>
-      <c r="D64" s="20"/>
+      <c r="D64" s="12"/>
     </row>
     <row r="65" spans="2:4" ht="30" customHeight="1">
       <c r="B65" s="5">
         <v>0</v>
       </c>
       <c r="C65" s="9"/>
-      <c r="D65" s="20"/>
+      <c r="D65" s="12"/>
     </row>
     <row r="66" spans="2:4" ht="30" customHeight="1">
       <c r="B66" s="5">
         <v>0</v>
       </c>
       <c r="C66" s="9"/>
-      <c r="D66" s="20"/>
+      <c r="D66" s="12"/>
     </row>
     <row r="67" spans="2:4" ht="30" customHeight="1">
       <c r="B67" s="5">
         <v>0</v>
       </c>
       <c r="C67" s="9"/>
-      <c r="D67" s="20"/>
+      <c r="D67" s="12"/>
     </row>
     <row r="68" spans="2:4" ht="30" customHeight="1">
       <c r="B68" s="5">
         <v>0</v>
       </c>
       <c r="C68" s="9"/>
-      <c r="D68" s="20"/>
+      <c r="D68" s="12"/>
     </row>
     <row r="69" spans="2:4" ht="30" customHeight="1">
       <c r="B69" s="5">
         <v>0</v>
       </c>
       <c r="C69" s="9"/>
-      <c r="D69" s="20"/>
+      <c r="D69" s="12"/>
     </row>
     <row r="70" spans="2:4" ht="30" customHeight="1">
       <c r="B70" s="5">
         <v>0</v>
       </c>
       <c r="C70" s="9"/>
-      <c r="D70" s="20"/>
+      <c r="D70" s="12"/>
     </row>
     <row r="71" spans="2:4" ht="30" customHeight="1">
       <c r="B71" s="5">
         <v>0</v>
       </c>
       <c r="C71" s="9"/>
-      <c r="D71" s="20"/>
+      <c r="D71" s="12"/>
     </row>
     <row r="72" spans="2:4" ht="30" customHeight="1">
       <c r="B72" s="5">
         <v>0</v>
       </c>
       <c r="C72" s="9"/>
-      <c r="D72" s="20"/>
+      <c r="D72" s="12"/>
     </row>
     <row r="73" spans="2:4" ht="30" customHeight="1">
       <c r="B73" s="5">
         <v>0</v>
       </c>
       <c r="C73" s="9"/>
-      <c r="D73" s="20"/>
+      <c r="D73" s="12"/>
     </row>
     <row r="74" spans="2:4" ht="30" customHeight="1">
       <c r="B74" s="5">
         <v>0</v>
       </c>
       <c r="C74" s="9"/>
-      <c r="D74" s="20"/>
+      <c r="D74" s="12"/>
     </row>
     <row r="75" spans="2:4" ht="30" customHeight="1">
       <c r="B75" s="5">
         <v>0</v>
       </c>
       <c r="C75" s="9"/>
-      <c r="D75" s="20"/>
+      <c r="D75" s="12"/>
     </row>
     <row r="76" spans="2:4" ht="30" customHeight="1">
       <c r="B76" s="5">
         <v>0</v>
       </c>
       <c r="C76" s="9"/>
-      <c r="D76" s="20"/>
+      <c r="D76" s="12"/>
     </row>
     <row r="77" spans="2:4" ht="30" customHeight="1">
       <c r="B77" s="5">
         <v>0</v>
       </c>
       <c r="C77" s="9"/>
-      <c r="D77" s="20"/>
+      <c r="D77" s="12"/>
     </row>
     <row r="78" spans="2:4" ht="30" customHeight="1">
       <c r="B78" s="5">
         <v>0</v>
       </c>
       <c r="C78" s="9"/>
-      <c r="D78" s="20"/>
+      <c r="D78" s="12"/>
     </row>
     <row r="79" spans="2:4" ht="30" customHeight="1">
       <c r="B79" s="5">
         <v>0</v>
       </c>
       <c r="C79" s="9"/>
-      <c r="D79" s="20"/>
+      <c r="D79" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3982,8 +3992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4016,7 +4026,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B3" t="s">
@@ -4027,7 +4037,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -4036,7 +4046,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -4045,7 +4055,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -4054,7 +4064,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -4063,7 +4073,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="18"/>
+      <c r="A8" s="19"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -4072,7 +4082,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -4081,7 +4091,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -4090,7 +4100,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="18"/>
+      <c r="A11" s="19"/>
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -4099,7 +4109,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="18"/>
+      <c r="A12" s="19"/>
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -4108,7 +4118,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -4117,7 +4127,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B14" t="s">
@@ -4128,7 +4138,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="18"/>
+      <c r="A15" s="19"/>
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -4137,7 +4147,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="33">
-      <c r="A16" s="18"/>
+      <c r="A16" s="19"/>
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -4146,7 +4156,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>36</v>
       </c>
       <c r="B17" t="s">
@@ -4157,7 +4167,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
       <c r="B18" t="s">
         <v>32</v>
       </c>
@@ -4166,7 +4176,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="18"/>
+      <c r="A19" s="19"/>
       <c r="B19" t="s">
         <v>33</v>
       </c>
@@ -4175,7 +4185,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="18"/>
+      <c r="A20" s="19"/>
       <c r="B20" t="s">
         <v>34</v>
       </c>
@@ -4184,7 +4194,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="33">
-      <c r="A21" s="18"/>
+      <c r="A21" s="19"/>
       <c r="B21" t="s">
         <v>35</v>
       </c>
@@ -4193,7 +4203,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B22" t="s">
@@ -4204,7 +4214,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="18"/>
+      <c r="A23" s="19"/>
       <c r="B23" t="s">
         <v>38</v>
       </c>
@@ -4213,7 +4223,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="18"/>
+      <c r="A24" s="19"/>
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -4222,7 +4232,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="18"/>
+      <c r="A25" s="19"/>
       <c r="B25" t="s">
         <v>40</v>
       </c>
@@ -4231,7 +4241,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="33">
-      <c r="A26" s="18"/>
+      <c r="A26" s="19"/>
       <c r="B26" t="s">
         <v>603</v>
       </c>
@@ -4240,7 +4250,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="18"/>
+      <c r="A27" s="19"/>
       <c r="B27" t="s">
         <v>41</v>
       </c>
@@ -4249,7 +4259,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="33">
-      <c r="A28" s="18"/>
+      <c r="A28" s="19"/>
       <c r="B28" t="s">
         <v>42</v>
       </c>
@@ -4258,7 +4268,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="18"/>
+      <c r="A29" s="19"/>
       <c r="B29" t="s">
         <v>43</v>
       </c>
@@ -4267,7 +4277,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="18"/>
+      <c r="A30" s="19"/>
       <c r="B30" t="s">
         <v>44</v>
       </c>
@@ -4276,7 +4286,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="18"/>
+      <c r="A31" s="19"/>
       <c r="B31" t="s">
         <v>45</v>
       </c>
@@ -4285,7 +4295,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="18"/>
+      <c r="A32" s="19"/>
       <c r="B32" t="s">
         <v>46</v>
       </c>
@@ -4294,7 +4304,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B33" t="s">
@@ -4305,7 +4315,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="18"/>
+      <c r="A34" s="19"/>
       <c r="B34" t="s">
         <v>49</v>
       </c>
@@ -4314,7 +4324,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="18"/>
+      <c r="A35" s="19"/>
       <c r="B35" t="s">
         <v>50</v>
       </c>
@@ -4323,7 +4333,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="18"/>
+      <c r="A36" s="19"/>
       <c r="B36" t="s">
         <v>51</v>
       </c>
@@ -4332,7 +4342,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="18"/>
+      <c r="A37" s="19"/>
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -4341,7 +4351,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="18"/>
+      <c r="A38" s="19"/>
       <c r="B38" t="s">
         <v>53</v>
       </c>
@@ -4350,7 +4360,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="18"/>
+      <c r="A39" s="19"/>
       <c r="B39" t="s">
         <v>54</v>
       </c>
@@ -4359,7 +4369,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="18"/>
+      <c r="A40" s="19"/>
       <c r="B40" t="s">
         <v>55</v>
       </c>
@@ -4368,7 +4378,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B41" t="s">
@@ -4379,7 +4389,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="18"/>
+      <c r="A42" s="19"/>
       <c r="B42" t="s">
         <v>58</v>
       </c>
@@ -4388,7 +4398,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="18"/>
+      <c r="A43" s="19"/>
       <c r="B43" t="s">
         <v>59</v>
       </c>
@@ -4397,7 +4407,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="18"/>
+      <c r="A44" s="19"/>
       <c r="B44" t="s">
         <v>60</v>
       </c>
@@ -4406,7 +4416,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="18"/>
+      <c r="A45" s="19"/>
       <c r="B45" t="s">
         <v>61</v>
       </c>
@@ -4415,7 +4425,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="18"/>
+      <c r="A46" s="19"/>
       <c r="B46" t="s">
         <v>62</v>
       </c>
@@ -4424,7 +4434,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="18"/>
+      <c r="A47" s="19"/>
       <c r="B47" t="s">
         <v>63</v>
       </c>
@@ -4433,7 +4443,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="18"/>
+      <c r="A48" s="19"/>
       <c r="B48" t="s">
         <v>64</v>
       </c>
@@ -4442,7 +4452,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="18"/>
+      <c r="A49" s="19"/>
       <c r="B49" t="s">
         <v>65</v>
       </c>
@@ -4451,7 +4461,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="19" t="s">
         <v>74</v>
       </c>
       <c r="B50" t="s">
@@ -4462,7 +4472,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="18"/>
+      <c r="A51" s="19"/>
       <c r="B51" t="s">
         <v>68</v>
       </c>
@@ -4471,7 +4481,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="18"/>
+      <c r="A52" s="19"/>
       <c r="B52" t="s">
         <v>69</v>
       </c>
@@ -4480,7 +4490,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="18"/>
+      <c r="A53" s="19"/>
       <c r="B53" t="s">
         <v>70</v>
       </c>
@@ -4489,7 +4499,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="18"/>
+      <c r="A54" s="19"/>
       <c r="B54" t="s">
         <v>73</v>
       </c>
@@ -4498,7 +4508,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="18"/>
+      <c r="A55" s="19"/>
       <c r="B55" t="s">
         <v>71</v>
       </c>
@@ -4507,7 +4517,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="18"/>
+      <c r="A56" s="19"/>
       <c r="B56" t="s">
         <v>72</v>
       </c>
@@ -4516,7 +4526,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B57" t="s">
@@ -4527,7 +4537,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="18"/>
+      <c r="A58" s="19"/>
       <c r="B58" t="s">
         <v>76</v>
       </c>
@@ -4536,7 +4546,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="33">
-      <c r="A59" s="18"/>
+      <c r="A59" s="19"/>
       <c r="B59" t="s">
         <v>77</v>
       </c>
@@ -4545,7 +4555,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="18"/>
+      <c r="A60" s="19"/>
       <c r="B60" t="s">
         <v>78</v>
       </c>
@@ -4554,7 +4564,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="18"/>
+      <c r="A61" s="19"/>
       <c r="B61" t="s">
         <v>79</v>
       </c>
@@ -4563,7 +4573,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="18"/>
+      <c r="A62" s="19"/>
       <c r="B62" t="s">
         <v>80</v>
       </c>
@@ -4572,7 +4582,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="18"/>
+      <c r="A63" s="19"/>
       <c r="B63" t="s">
         <v>81</v>
       </c>
@@ -4581,7 +4591,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="33">
-      <c r="A64" s="18"/>
+      <c r="A64" s="19"/>
       <c r="B64" t="s">
         <v>82</v>
       </c>
@@ -4590,7 +4600,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="18"/>
+      <c r="A65" s="19"/>
       <c r="B65" t="s">
         <v>83</v>
       </c>
@@ -4599,7 +4609,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="33">
-      <c r="A66" s="18"/>
+      <c r="A66" s="19"/>
       <c r="B66" t="s">
         <v>84</v>
       </c>
@@ -4608,7 +4618,7 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="19" t="s">
         <v>90</v>
       </c>
       <c r="B67" t="s">
@@ -4619,7 +4629,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="18"/>
+      <c r="A68" s="19"/>
       <c r="B68" t="s">
         <v>87</v>
       </c>
@@ -4628,7 +4638,7 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="18"/>
+      <c r="A69" s="19"/>
       <c r="B69" t="s">
         <v>88</v>
       </c>
@@ -4637,7 +4647,7 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="18"/>
+      <c r="A70" s="19"/>
       <c r="B70" t="s">
         <v>89</v>
       </c>
@@ -4646,7 +4656,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="19" t="s">
         <v>100</v>
       </c>
       <c r="B71" t="s">
@@ -4657,7 +4667,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="18"/>
+      <c r="A72" s="19"/>
       <c r="B72" t="s">
         <v>92</v>
       </c>
@@ -4666,7 +4676,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="33">
-      <c r="A73" s="18"/>
+      <c r="A73" s="19"/>
       <c r="B73" t="s">
         <v>93</v>
       </c>
@@ -4675,7 +4685,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="18"/>
+      <c r="A74" s="19"/>
       <c r="B74" t="s">
         <v>94</v>
       </c>
@@ -4684,7 +4694,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="18"/>
+      <c r="A75" s="19"/>
       <c r="B75" t="s">
         <v>95</v>
       </c>
@@ -4693,7 +4703,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="33">
-      <c r="A76" s="18"/>
+      <c r="A76" s="19"/>
       <c r="B76" t="s">
         <v>96</v>
       </c>
@@ -4702,7 +4712,7 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="18"/>
+      <c r="A77" s="19"/>
       <c r="B77" t="s">
         <v>97</v>
       </c>
@@ -4711,7 +4721,7 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="18"/>
+      <c r="A78" s="19"/>
       <c r="B78" t="s">
         <v>98</v>
       </c>
@@ -4720,7 +4730,7 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="18"/>
+      <c r="A79" s="19"/>
       <c r="B79" t="s">
         <v>99</v>
       </c>
@@ -4729,7 +4739,7 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="18" t="s">
+      <c r="A80" s="19" t="s">
         <v>110</v>
       </c>
       <c r="B80" t="s">
@@ -4740,7 +4750,7 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="18"/>
+      <c r="A81" s="19"/>
       <c r="B81" t="s">
         <v>102</v>
       </c>
@@ -4749,7 +4759,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="18"/>
+      <c r="A82" s="19"/>
       <c r="B82" t="s">
         <v>103</v>
       </c>
@@ -4758,7 +4768,7 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="18"/>
+      <c r="A83" s="19"/>
       <c r="B83" t="s">
         <v>104</v>
       </c>
@@ -4767,7 +4777,7 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="18"/>
+      <c r="A84" s="19"/>
       <c r="B84" t="s">
         <v>105</v>
       </c>
@@ -4776,7 +4786,7 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="18"/>
+      <c r="A85" s="19"/>
       <c r="B85" t="s">
         <v>106</v>
       </c>
@@ -4785,7 +4795,7 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="18"/>
+      <c r="A86" s="19"/>
       <c r="B86" t="s">
         <v>107</v>
       </c>
@@ -4794,7 +4804,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="18"/>
+      <c r="A87" s="19"/>
       <c r="B87" t="s">
         <v>108</v>
       </c>
@@ -4803,7 +4813,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="18"/>
+      <c r="A88" s="19"/>
       <c r="B88" t="s">
         <v>109</v>
       </c>
@@ -4812,7 +4822,7 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="18" t="s">
+      <c r="A89" s="19" t="s">
         <v>118</v>
       </c>
       <c r="B89" t="s">
@@ -4823,7 +4833,7 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="18"/>
+      <c r="A90" s="19"/>
       <c r="B90" t="s">
         <v>112</v>
       </c>
@@ -4832,7 +4842,7 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="18"/>
+      <c r="A91" s="19"/>
       <c r="B91" t="s">
         <v>113</v>
       </c>
@@ -4841,7 +4851,7 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="18"/>
+      <c r="A92" s="19"/>
       <c r="B92" t="s">
         <v>114</v>
       </c>
@@ -4850,7 +4860,7 @@
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="18"/>
+      <c r="A93" s="19"/>
       <c r="B93" t="s">
         <v>115</v>
       </c>
@@ -4859,7 +4869,7 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="18"/>
+      <c r="A94" s="19"/>
       <c r="B94" t="s">
         <v>116</v>
       </c>
@@ -4868,7 +4878,7 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="18"/>
+      <c r="A95" s="19"/>
       <c r="B95" t="s">
         <v>117</v>
       </c>
@@ -4877,7 +4887,7 @@
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="18" t="s">
+      <c r="A96" s="19" t="s">
         <v>123</v>
       </c>
       <c r="B96" t="s">
@@ -4888,7 +4898,7 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="18"/>
+      <c r="A97" s="19"/>
       <c r="B97" t="s">
         <v>120</v>
       </c>
@@ -4897,7 +4907,7 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="18"/>
+      <c r="A98" s="19"/>
       <c r="B98" t="s">
         <v>121</v>
       </c>
@@ -4906,7 +4916,7 @@
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="18"/>
+      <c r="A99" s="19"/>
       <c r="B99" t="s">
         <v>122</v>
       </c>
@@ -4915,7 +4925,7 @@
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="18" t="s">
+      <c r="A100" s="19" t="s">
         <v>129</v>
       </c>
       <c r="B100" t="s">
@@ -4926,7 +4936,7 @@
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="18"/>
+      <c r="A101" s="19"/>
       <c r="B101" t="s">
         <v>125</v>
       </c>
@@ -4935,7 +4945,7 @@
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="18"/>
+      <c r="A102" s="19"/>
       <c r="B102" t="s">
         <v>126</v>
       </c>
@@ -4944,7 +4954,7 @@
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="18"/>
+      <c r="A103" s="19"/>
       <c r="B103" t="s">
         <v>127</v>
       </c>
@@ -4953,7 +4963,7 @@
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="18"/>
+      <c r="A104" s="19"/>
       <c r="B104" t="s">
         <v>128</v>
       </c>
@@ -4962,7 +4972,7 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="18" t="s">
+      <c r="A105" s="19" t="s">
         <v>137</v>
       </c>
       <c r="B105" t="s">
@@ -4973,7 +4983,7 @@
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="18"/>
+      <c r="A106" s="19"/>
       <c r="B106" t="s">
         <v>131</v>
       </c>
@@ -4982,7 +4992,7 @@
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="18"/>
+      <c r="A107" s="19"/>
       <c r="B107" t="s">
         <v>132</v>
       </c>
@@ -4991,7 +5001,7 @@
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="18"/>
+      <c r="A108" s="19"/>
       <c r="B108" t="s">
         <v>133</v>
       </c>
@@ -5000,7 +5010,7 @@
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="18"/>
+      <c r="A109" s="19"/>
       <c r="B109" t="s">
         <v>134</v>
       </c>
@@ -5009,7 +5019,7 @@
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="18"/>
+      <c r="A110" s="19"/>
       <c r="B110" t="s">
         <v>135</v>
       </c>
@@ -5018,7 +5028,7 @@
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="18"/>
+      <c r="A111" s="19"/>
       <c r="B111" t="s">
         <v>136</v>
       </c>
@@ -5027,7 +5037,7 @@
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="18" t="s">
+      <c r="A112" s="19" t="s">
         <v>141</v>
       </c>
       <c r="B112" t="s">
@@ -5038,7 +5048,7 @@
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="18"/>
+      <c r="A113" s="19"/>
       <c r="B113" t="s">
         <v>139</v>
       </c>
@@ -5047,7 +5057,7 @@
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="18"/>
+      <c r="A114" s="19"/>
       <c r="B114" t="s">
         <v>140</v>
       </c>
@@ -5056,7 +5066,7 @@
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="19" t="s">
+      <c r="A115" s="20" t="s">
         <v>145</v>
       </c>
       <c r="B115" t="s">
@@ -5067,7 +5077,7 @@
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="19"/>
+      <c r="A116" s="20"/>
       <c r="B116" t="s">
         <v>143</v>
       </c>
@@ -5076,7 +5086,7 @@
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="19"/>
+      <c r="A117" s="20"/>
       <c r="B117" t="s">
         <v>144</v>
       </c>
@@ -5085,7 +5095,7 @@
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="18" t="s">
+      <c r="A118" s="19" t="s">
         <v>148</v>
       </c>
       <c r="B118" t="s">
@@ -5096,7 +5106,7 @@
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="18"/>
+      <c r="A119" s="19"/>
       <c r="B119" t="s">
         <v>147</v>
       </c>
@@ -5105,7 +5115,7 @@
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="18" t="s">
+      <c r="A120" s="19" t="s">
         <v>151</v>
       </c>
       <c r="B120" t="s">
@@ -5116,7 +5126,7 @@
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="18"/>
+      <c r="A121" s="19"/>
       <c r="B121" t="s">
         <v>150</v>
       </c>
@@ -5125,7 +5135,7 @@
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="18" t="s">
+      <c r="A122" s="19" t="s">
         <v>154</v>
       </c>
       <c r="B122" t="s">
@@ -5136,7 +5146,7 @@
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="18"/>
+      <c r="A123" s="19"/>
       <c r="B123" t="s">
         <v>153</v>
       </c>
@@ -5145,7 +5155,7 @@
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="18" t="s">
+      <c r="A124" s="19" t="s">
         <v>158</v>
       </c>
       <c r="B124" t="s">
@@ -5156,7 +5166,7 @@
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="18"/>
+      <c r="A125" s="19"/>
       <c r="B125" t="s">
         <v>156</v>
       </c>
@@ -5165,7 +5175,7 @@
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="18"/>
+      <c r="A126" s="19"/>
       <c r="B126" t="s">
         <v>157</v>
       </c>
@@ -5174,7 +5184,7 @@
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="18" t="s">
+      <c r="A127" s="19" t="s">
         <v>164</v>
       </c>
       <c r="B127" t="s">
@@ -5185,7 +5195,7 @@
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="18"/>
+      <c r="A128" s="19"/>
       <c r="B128" t="s">
         <v>160</v>
       </c>
@@ -5194,7 +5204,7 @@
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="18"/>
+      <c r="A129" s="19"/>
       <c r="B129" t="s">
         <v>161</v>
       </c>
@@ -5203,7 +5213,7 @@
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="18"/>
+      <c r="A130" s="19"/>
       <c r="B130" t="s">
         <v>162</v>
       </c>
@@ -5212,7 +5222,7 @@
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="18"/>
+      <c r="A131" s="19"/>
       <c r="B131" t="s">
         <v>163</v>
       </c>
@@ -5221,7 +5231,7 @@
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="18" t="s">
+      <c r="A132" s="19" t="s">
         <v>168</v>
       </c>
       <c r="B132" t="s">
@@ -5232,7 +5242,7 @@
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="18"/>
+      <c r="A133" s="19"/>
       <c r="B133" t="s">
         <v>166</v>
       </c>
@@ -5241,7 +5251,7 @@
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="18"/>
+      <c r="A134" s="19"/>
       <c r="B134" t="s">
         <v>167</v>
       </c>
@@ -5250,7 +5260,7 @@
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="18" t="s">
+      <c r="A135" s="19" t="s">
         <v>174</v>
       </c>
       <c r="B135" t="s">
@@ -5261,7 +5271,7 @@
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="18"/>
+      <c r="A136" s="19"/>
       <c r="B136" t="s">
         <v>170</v>
       </c>
@@ -5270,7 +5280,7 @@
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="18"/>
+      <c r="A137" s="19"/>
       <c r="B137" t="s">
         <v>171</v>
       </c>
@@ -5279,7 +5289,7 @@
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="18"/>
+      <c r="A138" s="19"/>
       <c r="B138" t="s">
         <v>172</v>
       </c>
@@ -5288,7 +5298,7 @@
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="18"/>
+      <c r="A139" s="19"/>
       <c r="B139" t="s">
         <v>173</v>
       </c>
@@ -5297,7 +5307,7 @@
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="18" t="s">
+      <c r="A140" s="19" t="s">
         <v>177</v>
       </c>
       <c r="B140" t="s">
@@ -5308,7 +5318,7 @@
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="18"/>
+      <c r="A141" s="19"/>
       <c r="B141" t="s">
         <v>176</v>
       </c>
@@ -5317,7 +5327,7 @@
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="18" t="s">
+      <c r="A142" s="19" t="s">
         <v>180</v>
       </c>
       <c r="B142" t="s">
@@ -5328,7 +5338,7 @@
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="18"/>
+      <c r="A143" s="19"/>
       <c r="B143" t="s">
         <v>179</v>
       </c>
@@ -5337,7 +5347,7 @@
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="18" t="s">
+      <c r="A144" s="19" t="s">
         <v>183</v>
       </c>
       <c r="B144" t="s">
@@ -5348,7 +5358,7 @@
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="18"/>
+      <c r="A145" s="19"/>
       <c r="B145" t="s">
         <v>182</v>
       </c>
@@ -5357,7 +5367,7 @@
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="18" t="s">
+      <c r="A146" s="19" t="s">
         <v>188</v>
       </c>
       <c r="B146" t="s">
@@ -5368,7 +5378,7 @@
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="18"/>
+      <c r="A147" s="19"/>
       <c r="B147" t="s">
         <v>185</v>
       </c>
@@ -5377,7 +5387,7 @@
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="18"/>
+      <c r="A148" s="19"/>
       <c r="B148" t="s">
         <v>186</v>
       </c>
@@ -5386,7 +5396,7 @@
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="18"/>
+      <c r="A149" s="19"/>
       <c r="B149" t="s">
         <v>187</v>
       </c>
@@ -5395,7 +5405,7 @@
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="18" t="s">
+      <c r="A150" s="19" t="s">
         <v>192</v>
       </c>
       <c r="B150" t="s">
@@ -5406,7 +5416,7 @@
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="18"/>
+      <c r="A151" s="19"/>
       <c r="B151" t="s">
         <v>190</v>
       </c>
@@ -5415,7 +5425,7 @@
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="18"/>
+      <c r="A152" s="19"/>
       <c r="B152" t="s">
         <v>191</v>
       </c>
@@ -5424,7 +5434,7 @@
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="18" t="s">
+      <c r="A153" s="19" t="s">
         <v>196</v>
       </c>
       <c r="B153" t="s">
@@ -5435,7 +5445,7 @@
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="18"/>
+      <c r="A154" s="19"/>
       <c r="B154" t="s">
         <v>194</v>
       </c>
@@ -5444,7 +5454,7 @@
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="18"/>
+      <c r="A155" s="19"/>
       <c r="B155" t="s">
         <v>195</v>
       </c>
@@ -5453,7 +5463,7 @@
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="18" t="s">
+      <c r="A156" s="19" t="s">
         <v>202</v>
       </c>
       <c r="B156" t="s">
@@ -5464,7 +5474,7 @@
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="18"/>
+      <c r="A157" s="19"/>
       <c r="B157" t="s">
         <v>198</v>
       </c>
@@ -5473,7 +5483,7 @@
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="18"/>
+      <c r="A158" s="19"/>
       <c r="B158" t="s">
         <v>199</v>
       </c>
@@ -5482,7 +5492,7 @@
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="18"/>
+      <c r="A159" s="19"/>
       <c r="B159" t="s">
         <v>200</v>
       </c>
@@ -5491,7 +5501,7 @@
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="18"/>
+      <c r="A160" s="19"/>
       <c r="B160" t="s">
         <v>201</v>
       </c>
@@ -5500,7 +5510,7 @@
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="18" t="s">
+      <c r="A161" s="19" t="s">
         <v>212</v>
       </c>
       <c r="B161" t="s">
@@ -5511,7 +5521,7 @@
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="18"/>
+      <c r="A162" s="19"/>
       <c r="B162" t="s">
         <v>204</v>
       </c>
@@ -5520,7 +5530,7 @@
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="18"/>
+      <c r="A163" s="19"/>
       <c r="B163" t="s">
         <v>205</v>
       </c>
@@ -5529,7 +5539,7 @@
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="18"/>
+      <c r="A164" s="19"/>
       <c r="B164" t="s">
         <v>206</v>
       </c>
@@ -5538,7 +5548,7 @@
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="18"/>
+      <c r="A165" s="19"/>
       <c r="B165" t="s">
         <v>207</v>
       </c>
@@ -5547,7 +5557,7 @@
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="18"/>
+      <c r="A166" s="19"/>
       <c r="B166" t="s">
         <v>208</v>
       </c>
@@ -5556,7 +5566,7 @@
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="18"/>
+      <c r="A167" s="19"/>
       <c r="B167" t="s">
         <v>209</v>
       </c>
@@ -5565,7 +5575,7 @@
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="18"/>
+      <c r="A168" s="19"/>
       <c r="B168" t="s">
         <v>210</v>
       </c>
@@ -5574,7 +5584,7 @@
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="18"/>
+      <c r="A169" s="19"/>
       <c r="B169" t="s">
         <v>211</v>
       </c>
@@ -5594,7 +5604,7 @@
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="18" t="s">
+      <c r="A171" s="19" t="s">
         <v>219</v>
       </c>
       <c r="B171" t="s">
@@ -5605,7 +5615,7 @@
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="18"/>
+      <c r="A172" s="19"/>
       <c r="B172" t="s">
         <v>216</v>
       </c>
@@ -5614,7 +5624,7 @@
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="18"/>
+      <c r="A173" s="19"/>
       <c r="B173" t="s">
         <v>217</v>
       </c>
@@ -5623,7 +5633,7 @@
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="18"/>
+      <c r="A174" s="19"/>
       <c r="B174" t="s">
         <v>218</v>
       </c>
@@ -5632,7 +5642,7 @@
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="18" t="s">
+      <c r="A175" s="19" t="s">
         <v>226</v>
       </c>
       <c r="B175" t="s">
@@ -5643,7 +5653,7 @@
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="18"/>
+      <c r="A176" s="19"/>
       <c r="B176" t="s">
         <v>221</v>
       </c>
@@ -5652,7 +5662,7 @@
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="18"/>
+      <c r="A177" s="19"/>
       <c r="B177" t="s">
         <v>222</v>
       </c>
@@ -5661,7 +5671,7 @@
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="18"/>
+      <c r="A178" s="19"/>
       <c r="B178" t="s">
         <v>223</v>
       </c>
@@ -5670,7 +5680,7 @@
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="18"/>
+      <c r="A179" s="19"/>
       <c r="B179" t="s">
         <v>224</v>
       </c>
@@ -5679,7 +5689,7 @@
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="18"/>
+      <c r="A180" s="19"/>
       <c r="B180" t="s">
         <v>225</v>
       </c>
@@ -5688,7 +5698,7 @@
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="18" t="s">
+      <c r="A181" s="19" t="s">
         <v>229</v>
       </c>
       <c r="B181" t="s">
@@ -5699,7 +5709,7 @@
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="18"/>
+      <c r="A182" s="19"/>
       <c r="B182" t="s">
         <v>228</v>
       </c>
@@ -5708,7 +5718,7 @@
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="18" t="s">
+      <c r="A183" s="19" t="s">
         <v>236</v>
       </c>
       <c r="B183" t="s">
@@ -5719,7 +5729,7 @@
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="18"/>
+      <c r="A184" s="19"/>
       <c r="B184" t="s">
         <v>231</v>
       </c>
@@ -5728,7 +5738,7 @@
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="18"/>
+      <c r="A185" s="19"/>
       <c r="B185" t="s">
         <v>232</v>
       </c>
@@ -5737,7 +5747,7 @@
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="18"/>
+      <c r="A186" s="19"/>
       <c r="B186" t="s">
         <v>233</v>
       </c>
@@ -5746,7 +5756,7 @@
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="18"/>
+      <c r="A187" s="19"/>
       <c r="B187" t="s">
         <v>234</v>
       </c>
@@ -5755,7 +5765,7 @@
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="18"/>
+      <c r="A188" s="19"/>
       <c r="B188" t="s">
         <v>235</v>
       </c>
@@ -5764,7 +5774,7 @@
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="18" t="s">
+      <c r="A189" s="19" t="s">
         <v>243</v>
       </c>
       <c r="B189" t="s">
@@ -5775,7 +5785,7 @@
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="18"/>
+      <c r="A190" s="19"/>
       <c r="B190" t="s">
         <v>238</v>
       </c>
@@ -5784,7 +5794,7 @@
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="18"/>
+      <c r="A191" s="19"/>
       <c r="B191" t="s">
         <v>239</v>
       </c>
@@ -5793,7 +5803,7 @@
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="18"/>
+      <c r="A192" s="19"/>
       <c r="B192" t="s">
         <v>240</v>
       </c>
@@ -5802,7 +5812,7 @@
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="18"/>
+      <c r="A193" s="19"/>
       <c r="B193" t="s">
         <v>241</v>
       </c>
@@ -5811,7 +5821,7 @@
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="18"/>
+      <c r="A194" s="19"/>
       <c r="B194" t="s">
         <v>242</v>
       </c>
@@ -5820,7 +5830,7 @@
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="18" t="s">
+      <c r="A195" s="19" t="s">
         <v>252</v>
       </c>
       <c r="B195" t="s">
@@ -5831,7 +5841,7 @@
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="18"/>
+      <c r="A196" s="19"/>
       <c r="B196" t="s">
         <v>245</v>
       </c>
@@ -5840,7 +5850,7 @@
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="18"/>
+      <c r="A197" s="19"/>
       <c r="B197" t="s">
         <v>246</v>
       </c>
@@ -5849,7 +5859,7 @@
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="18"/>
+      <c r="A198" s="19"/>
       <c r="B198" t="s">
         <v>247</v>
       </c>
@@ -5858,7 +5868,7 @@
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="18"/>
+      <c r="A199" s="19"/>
       <c r="B199" t="s">
         <v>248</v>
       </c>
@@ -5867,7 +5877,7 @@
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="18"/>
+      <c r="A200" s="19"/>
       <c r="B200" t="s">
         <v>249</v>
       </c>
@@ -5876,7 +5886,7 @@
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="18"/>
+      <c r="A201" s="19"/>
       <c r="B201" t="s">
         <v>250</v>
       </c>
@@ -5885,7 +5895,7 @@
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="18"/>
+      <c r="A202" s="19"/>
       <c r="B202" t="s">
         <v>251</v>
       </c>
@@ -5894,7 +5904,7 @@
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="18" t="s">
+      <c r="A203" s="19" t="s">
         <v>257</v>
       </c>
       <c r="B203" t="s">
@@ -5905,7 +5915,7 @@
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="18"/>
+      <c r="A204" s="19"/>
       <c r="B204" t="s">
         <v>254</v>
       </c>
@@ -5914,7 +5924,7 @@
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="18"/>
+      <c r="A205" s="19"/>
       <c r="B205" t="s">
         <v>255</v>
       </c>
@@ -5923,7 +5933,7 @@
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="18"/>
+      <c r="A206" s="19"/>
       <c r="B206" t="s">
         <v>256</v>
       </c>
@@ -5932,7 +5942,7 @@
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="18" t="s">
+      <c r="A207" s="19" t="s">
         <v>261</v>
       </c>
       <c r="B207" t="s">
@@ -5943,7 +5953,7 @@
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="18"/>
+      <c r="A208" s="19"/>
       <c r="B208" t="s">
         <v>259</v>
       </c>
@@ -5952,7 +5962,7 @@
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="18"/>
+      <c r="A209" s="19"/>
       <c r="B209" t="s">
         <v>260</v>
       </c>
@@ -5961,7 +5971,7 @@
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="18" t="s">
+      <c r="A210" s="19" t="s">
         <v>271</v>
       </c>
       <c r="B210" t="s">
@@ -5972,7 +5982,7 @@
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="18"/>
+      <c r="A211" s="19"/>
       <c r="B211" t="s">
         <v>263</v>
       </c>
@@ -5981,7 +5991,7 @@
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="18"/>
+      <c r="A212" s="19"/>
       <c r="B212" t="s">
         <v>264</v>
       </c>
@@ -5990,7 +6000,7 @@
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="18"/>
+      <c r="A213" s="19"/>
       <c r="B213" t="s">
         <v>265</v>
       </c>
@@ -5999,7 +6009,7 @@
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="18"/>
+      <c r="A214" s="19"/>
       <c r="B214" t="s">
         <v>266</v>
       </c>
@@ -6008,7 +6018,7 @@
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="18"/>
+      <c r="A215" s="19"/>
       <c r="B215" t="s">
         <v>267</v>
       </c>
@@ -6017,7 +6027,7 @@
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="18"/>
+      <c r="A216" s="19"/>
       <c r="B216" t="s">
         <v>268</v>
       </c>
@@ -6026,7 +6036,7 @@
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="18"/>
+      <c r="A217" s="19"/>
       <c r="B217" t="s">
         <v>269</v>
       </c>
@@ -6035,7 +6045,7 @@
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="18"/>
+      <c r="A218" s="19"/>
       <c r="B218" t="s">
         <v>270</v>
       </c>
@@ -6044,7 +6054,7 @@
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="18" t="s">
+      <c r="A219" s="19" t="s">
         <v>278</v>
       </c>
       <c r="B219" t="s">
@@ -6055,7 +6065,7 @@
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="18"/>
+      <c r="A220" s="19"/>
       <c r="B220" t="s">
         <v>273</v>
       </c>
@@ -6064,7 +6074,7 @@
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="18"/>
+      <c r="A221" s="19"/>
       <c r="B221" t="s">
         <v>274</v>
       </c>
@@ -6073,7 +6083,7 @@
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="18"/>
+      <c r="A222" s="19"/>
       <c r="B222" t="s">
         <v>275</v>
       </c>
@@ -6082,7 +6092,7 @@
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="18"/>
+      <c r="A223" s="19"/>
       <c r="B223" t="s">
         <v>276</v>
       </c>
@@ -6091,7 +6101,7 @@
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" s="18"/>
+      <c r="A224" s="19"/>
       <c r="B224" t="s">
         <v>277</v>
       </c>
@@ -6100,7 +6110,7 @@
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="18" t="s">
+      <c r="A225" s="19" t="s">
         <v>282</v>
       </c>
       <c r="B225" t="s">
@@ -6111,7 +6121,7 @@
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="18"/>
+      <c r="A226" s="19"/>
       <c r="B226" t="s">
         <v>280</v>
       </c>
@@ -6120,7 +6130,7 @@
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="18"/>
+      <c r="A227" s="19"/>
       <c r="B227" t="s">
         <v>281</v>
       </c>
@@ -6129,7 +6139,7 @@
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="18" t="s">
+      <c r="A228" s="19" t="s">
         <v>286</v>
       </c>
       <c r="B228" t="s">
@@ -6140,7 +6150,7 @@
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="18"/>
+      <c r="A229" s="19"/>
       <c r="B229" t="s">
         <v>284</v>
       </c>
@@ -6149,7 +6159,7 @@
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="18"/>
+      <c r="A230" s="19"/>
       <c r="B230" t="s">
         <v>285</v>
       </c>
@@ -6158,7 +6168,7 @@
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="18" t="s">
+      <c r="A231" s="19" t="s">
         <v>290</v>
       </c>
       <c r="B231" t="s">
@@ -6169,7 +6179,7 @@
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="18"/>
+      <c r="A232" s="19"/>
       <c r="B232" t="s">
         <v>288</v>
       </c>
@@ -6178,7 +6188,7 @@
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="18"/>
+      <c r="A233" s="19"/>
       <c r="B233" t="s">
         <v>289</v>
       </c>
@@ -6187,7 +6197,7 @@
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" s="18" t="s">
+      <c r="A234" s="19" t="s">
         <v>295</v>
       </c>
       <c r="B234" t="s">
@@ -6198,7 +6208,7 @@
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="18"/>
+      <c r="A235" s="19"/>
       <c r="B235" t="s">
         <v>292</v>
       </c>
@@ -6207,7 +6217,7 @@
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="18"/>
+      <c r="A236" s="19"/>
       <c r="B236" t="s">
         <v>293</v>
       </c>
@@ -6216,7 +6226,7 @@
       </c>
     </row>
     <row r="237" spans="1:3">
-      <c r="A237" s="18"/>
+      <c r="A237" s="19"/>
       <c r="B237" t="s">
         <v>294</v>
       </c>
@@ -6225,7 +6235,7 @@
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" s="18" t="s">
+      <c r="A238" s="19" t="s">
         <v>299</v>
       </c>
       <c r="B238" t="s">
@@ -6236,7 +6246,7 @@
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" s="18"/>
+      <c r="A239" s="19"/>
       <c r="B239" t="s">
         <v>297</v>
       </c>
@@ -6245,7 +6255,7 @@
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" s="18"/>
+      <c r="A240" s="19"/>
       <c r="B240" t="s">
         <v>298</v>
       </c>
@@ -6254,7 +6264,7 @@
       </c>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241" s="18" t="s">
+      <c r="A241" s="19" t="s">
         <v>304</v>
       </c>
       <c r="B241" t="s">
@@ -6265,7 +6275,7 @@
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" s="18"/>
+      <c r="A242" s="19"/>
       <c r="B242" t="s">
         <v>301</v>
       </c>
@@ -6274,7 +6284,7 @@
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="18"/>
+      <c r="A243" s="19"/>
       <c r="B243" t="s">
         <v>302</v>
       </c>
@@ -6283,7 +6293,7 @@
       </c>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244" s="18"/>
+      <c r="A244" s="19"/>
       <c r="B244" t="s">
         <v>303</v>
       </c>
@@ -6292,7 +6302,7 @@
       </c>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245" s="18" t="s">
+      <c r="A245" s="19" t="s">
         <v>310</v>
       </c>
       <c r="B245" t="s">
@@ -6303,7 +6313,7 @@
       </c>
     </row>
     <row r="246" spans="1:3">
-      <c r="A246" s="18"/>
+      <c r="A246" s="19"/>
       <c r="B246" t="s">
         <v>306</v>
       </c>
@@ -6312,7 +6322,7 @@
       </c>
     </row>
     <row r="247" spans="1:3">
-      <c r="A247" s="18"/>
+      <c r="A247" s="19"/>
       <c r="B247" t="s">
         <v>307</v>
       </c>
@@ -6321,7 +6331,7 @@
       </c>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248" s="18"/>
+      <c r="A248" s="19"/>
       <c r="B248" t="s">
         <v>308</v>
       </c>
@@ -6330,7 +6340,7 @@
       </c>
     </row>
     <row r="249" spans="1:3">
-      <c r="A249" s="18"/>
+      <c r="A249" s="19"/>
       <c r="B249" t="s">
         <v>309</v>
       </c>
@@ -6339,7 +6349,7 @@
       </c>
     </row>
     <row r="250" spans="1:3">
-      <c r="A250" s="18"/>
+      <c r="A250" s="19"/>
       <c r="B250" t="s">
         <v>235</v>
       </c>
@@ -6348,7 +6358,7 @@
       </c>
     </row>
     <row r="251" spans="1:3">
-      <c r="A251" s="18" t="s">
+      <c r="A251" s="19" t="s">
         <v>314</v>
       </c>
       <c r="B251" t="s">
@@ -6359,7 +6369,7 @@
       </c>
     </row>
     <row r="252" spans="1:3">
-      <c r="A252" s="18"/>
+      <c r="A252" s="19"/>
       <c r="B252" t="s">
         <v>312</v>
       </c>
@@ -6368,7 +6378,7 @@
       </c>
     </row>
     <row r="253" spans="1:3">
-      <c r="A253" s="18"/>
+      <c r="A253" s="19"/>
       <c r="B253" t="s">
         <v>313</v>
       </c>
@@ -6377,7 +6387,7 @@
       </c>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254" s="18" t="s">
+      <c r="A254" s="19" t="s">
         <v>318</v>
       </c>
       <c r="B254" t="s">
@@ -6388,7 +6398,7 @@
       </c>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255" s="18"/>
+      <c r="A255" s="19"/>
       <c r="B255" t="s">
         <v>316</v>
       </c>
@@ -6397,7 +6407,7 @@
       </c>
     </row>
     <row r="256" spans="1:3">
-      <c r="A256" s="18"/>
+      <c r="A256" s="19"/>
       <c r="B256" t="s">
         <v>317</v>
       </c>
@@ -6406,7 +6416,7 @@
       </c>
     </row>
     <row r="257" spans="1:3">
-      <c r="A257" s="18" t="s">
+      <c r="A257" s="19" t="s">
         <v>323</v>
       </c>
       <c r="B257" t="s">
@@ -6417,7 +6427,7 @@
       </c>
     </row>
     <row r="258" spans="1:3">
-      <c r="A258" s="18"/>
+      <c r="A258" s="19"/>
       <c r="B258" t="s">
         <v>320</v>
       </c>
@@ -6426,7 +6436,7 @@
       </c>
     </row>
     <row r="259" spans="1:3">
-      <c r="A259" s="18"/>
+      <c r="A259" s="19"/>
       <c r="B259" t="s">
         <v>321</v>
       </c>
@@ -6435,7 +6445,7 @@
       </c>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="18"/>
+      <c r="A260" s="19"/>
       <c r="B260" t="s">
         <v>322</v>
       </c>
@@ -6444,7 +6454,7 @@
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="18" t="s">
+      <c r="A261" s="19" t="s">
         <v>329</v>
       </c>
       <c r="B261" t="s">
@@ -6455,7 +6465,7 @@
       </c>
     </row>
     <row r="262" spans="1:3">
-      <c r="A262" s="18"/>
+      <c r="A262" s="19"/>
       <c r="B262" t="s">
         <v>325</v>
       </c>
@@ -6464,7 +6474,7 @@
       </c>
     </row>
     <row r="263" spans="1:3">
-      <c r="A263" s="18"/>
+      <c r="A263" s="19"/>
       <c r="B263" t="s">
         <v>326</v>
       </c>
@@ -6473,7 +6483,7 @@
       </c>
     </row>
     <row r="264" spans="1:3">
-      <c r="A264" s="18"/>
+      <c r="A264" s="19"/>
       <c r="B264" t="s">
         <v>327</v>
       </c>
@@ -6482,7 +6492,7 @@
       </c>
     </row>
     <row r="265" spans="1:3">
-      <c r="A265" s="18"/>
+      <c r="A265" s="19"/>
       <c r="B265" t="s">
         <v>328</v>
       </c>
@@ -6491,7 +6501,7 @@
       </c>
     </row>
     <row r="266" spans="1:3">
-      <c r="A266" s="18" t="s">
+      <c r="A266" s="19" t="s">
         <v>333</v>
       </c>
       <c r="B266" t="s">
@@ -6502,7 +6512,7 @@
       </c>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="18"/>
+      <c r="A267" s="19"/>
       <c r="B267" t="s">
         <v>331</v>
       </c>
@@ -6511,7 +6521,7 @@
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="18"/>
+      <c r="A268" s="19"/>
       <c r="B268" t="s">
         <v>332</v>
       </c>
@@ -6520,7 +6530,7 @@
       </c>
     </row>
     <row r="269" spans="1:3">
-      <c r="A269" s="18" t="s">
+      <c r="A269" s="19" t="s">
         <v>336</v>
       </c>
       <c r="B269" t="s">
@@ -6531,7 +6541,7 @@
       </c>
     </row>
     <row r="270" spans="1:3">
-      <c r="A270" s="18"/>
+      <c r="A270" s="19"/>
       <c r="B270" t="s">
         <v>335</v>
       </c>
@@ -6540,7 +6550,7 @@
       </c>
     </row>
     <row r="271" spans="1:3">
-      <c r="A271" s="18" t="s">
+      <c r="A271" s="19" t="s">
         <v>344</v>
       </c>
       <c r="B271" t="s">
@@ -6551,7 +6561,7 @@
       </c>
     </row>
     <row r="272" spans="1:3">
-      <c r="A272" s="18"/>
+      <c r="A272" s="19"/>
       <c r="B272" t="s">
         <v>338</v>
       </c>
@@ -6560,7 +6570,7 @@
       </c>
     </row>
     <row r="273" spans="1:3">
-      <c r="A273" s="18"/>
+      <c r="A273" s="19"/>
       <c r="B273" t="s">
         <v>339</v>
       </c>
@@ -6569,7 +6579,7 @@
       </c>
     </row>
     <row r="274" spans="1:3">
-      <c r="A274" s="18"/>
+      <c r="A274" s="19"/>
       <c r="B274" t="s">
         <v>340</v>
       </c>
@@ -6578,7 +6588,7 @@
       </c>
     </row>
     <row r="275" spans="1:3">
-      <c r="A275" s="18"/>
+      <c r="A275" s="19"/>
       <c r="B275" t="s">
         <v>341</v>
       </c>
@@ -6587,7 +6597,7 @@
       </c>
     </row>
     <row r="276" spans="1:3">
-      <c r="A276" s="18"/>
+      <c r="A276" s="19"/>
       <c r="B276" t="s">
         <v>342</v>
       </c>
@@ -6596,7 +6606,7 @@
       </c>
     </row>
     <row r="277" spans="1:3">
-      <c r="A277" s="18"/>
+      <c r="A277" s="19"/>
       <c r="B277" t="s">
         <v>343</v>
       </c>
@@ -6605,7 +6615,7 @@
       </c>
     </row>
     <row r="278" spans="1:3">
-      <c r="A278" s="18" t="s">
+      <c r="A278" s="19" t="s">
         <v>351</v>
       </c>
       <c r="B278" t="s">
@@ -6616,7 +6626,7 @@
       </c>
     </row>
     <row r="279" spans="1:3">
-      <c r="A279" s="18"/>
+      <c r="A279" s="19"/>
       <c r="B279" t="s">
         <v>346</v>
       </c>
@@ -6625,7 +6635,7 @@
       </c>
     </row>
     <row r="280" spans="1:3">
-      <c r="A280" s="18"/>
+      <c r="A280" s="19"/>
       <c r="B280" t="s">
         <v>347</v>
       </c>
@@ -6634,7 +6644,7 @@
       </c>
     </row>
     <row r="281" spans="1:3">
-      <c r="A281" s="18"/>
+      <c r="A281" s="19"/>
       <c r="B281" t="s">
         <v>348</v>
       </c>
@@ -6643,7 +6653,7 @@
       </c>
     </row>
     <row r="282" spans="1:3">
-      <c r="A282" s="18"/>
+      <c r="A282" s="19"/>
       <c r="B282" t="s">
         <v>349</v>
       </c>
@@ -6652,7 +6662,7 @@
       </c>
     </row>
     <row r="283" spans="1:3">
-      <c r="A283" s="18"/>
+      <c r="A283" s="19"/>
       <c r="B283" t="s">
         <v>350</v>
       </c>
@@ -6661,7 +6671,7 @@
       </c>
     </row>
     <row r="284" spans="1:3">
-      <c r="A284" s="18" t="s">
+      <c r="A284" s="19" t="s">
         <v>355</v>
       </c>
       <c r="B284" t="s">
@@ -6672,7 +6682,7 @@
       </c>
     </row>
     <row r="285" spans="1:3">
-      <c r="A285" s="18"/>
+      <c r="A285" s="19"/>
       <c r="B285" t="s">
         <v>353</v>
       </c>
@@ -6681,7 +6691,7 @@
       </c>
     </row>
     <row r="286" spans="1:3">
-      <c r="A286" s="18"/>
+      <c r="A286" s="19"/>
       <c r="B286" t="s">
         <v>354</v>
       </c>
@@ -6690,7 +6700,7 @@
       </c>
     </row>
     <row r="287" spans="1:3">
-      <c r="A287" s="18" t="s">
+      <c r="A287" s="19" t="s">
         <v>361</v>
       </c>
       <c r="B287" t="s">
@@ -6701,7 +6711,7 @@
       </c>
     </row>
     <row r="288" spans="1:3">
-      <c r="A288" s="18"/>
+      <c r="A288" s="19"/>
       <c r="B288" t="s">
         <v>357</v>
       </c>
@@ -6710,7 +6720,7 @@
       </c>
     </row>
     <row r="289" spans="1:3">
-      <c r="A289" s="18"/>
+      <c r="A289" s="19"/>
       <c r="B289" t="s">
         <v>358</v>
       </c>
@@ -6719,7 +6729,7 @@
       </c>
     </row>
     <row r="290" spans="1:3">
-      <c r="A290" s="18"/>
+      <c r="A290" s="19"/>
       <c r="B290" t="s">
         <v>359</v>
       </c>
@@ -6728,7 +6738,7 @@
       </c>
     </row>
     <row r="291" spans="1:3">
-      <c r="A291" s="18"/>
+      <c r="A291" s="19"/>
       <c r="B291" t="s">
         <v>360</v>
       </c>
@@ -6737,7 +6747,7 @@
       </c>
     </row>
     <row r="292" spans="1:3">
-      <c r="A292" s="18" t="s">
+      <c r="A292" s="19" t="s">
         <v>370</v>
       </c>
       <c r="B292" t="s">
@@ -6748,7 +6758,7 @@
       </c>
     </row>
     <row r="293" spans="1:3">
-      <c r="A293" s="18"/>
+      <c r="A293" s="19"/>
       <c r="B293" t="s">
         <v>363</v>
       </c>
@@ -6757,7 +6767,7 @@
       </c>
     </row>
     <row r="294" spans="1:3">
-      <c r="A294" s="18"/>
+      <c r="A294" s="19"/>
       <c r="B294" t="s">
         <v>364</v>
       </c>
@@ -6766,7 +6776,7 @@
       </c>
     </row>
     <row r="295" spans="1:3">
-      <c r="A295" s="18"/>
+      <c r="A295" s="19"/>
       <c r="B295" t="s">
         <v>365</v>
       </c>
@@ -6775,7 +6785,7 @@
       </c>
     </row>
     <row r="296" spans="1:3">
-      <c r="A296" s="18"/>
+      <c r="A296" s="19"/>
       <c r="B296" t="s">
         <v>366</v>
       </c>
@@ -6784,7 +6794,7 @@
       </c>
     </row>
     <row r="297" spans="1:3">
-      <c r="A297" s="18"/>
+      <c r="A297" s="19"/>
       <c r="B297" t="s">
         <v>367</v>
       </c>
@@ -6793,7 +6803,7 @@
       </c>
     </row>
     <row r="298" spans="1:3">
-      <c r="A298" s="18"/>
+      <c r="A298" s="19"/>
       <c r="B298" t="s">
         <v>368</v>
       </c>
@@ -6802,7 +6812,7 @@
       </c>
     </row>
     <row r="299" spans="1:3">
-      <c r="A299" s="18"/>
+      <c r="A299" s="19"/>
       <c r="B299" t="s">
         <v>369</v>
       </c>
@@ -6811,7 +6821,7 @@
       </c>
     </row>
     <row r="300" spans="1:3">
-      <c r="A300" s="18" t="s">
+      <c r="A300" s="19" t="s">
         <v>379</v>
       </c>
       <c r="B300" t="s">
@@ -6822,7 +6832,7 @@
       </c>
     </row>
     <row r="301" spans="1:3">
-      <c r="A301" s="18"/>
+      <c r="A301" s="19"/>
       <c r="B301" t="s">
         <v>372</v>
       </c>
@@ -6831,7 +6841,7 @@
       </c>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302" s="18"/>
+      <c r="A302" s="19"/>
       <c r="B302" t="s">
         <v>373</v>
       </c>
@@ -6840,7 +6850,7 @@
       </c>
     </row>
     <row r="303" spans="1:3">
-      <c r="A303" s="18"/>
+      <c r="A303" s="19"/>
       <c r="B303" t="s">
         <v>374</v>
       </c>
@@ -6849,7 +6859,7 @@
       </c>
     </row>
     <row r="304" spans="1:3">
-      <c r="A304" s="18"/>
+      <c r="A304" s="19"/>
       <c r="B304" t="s">
         <v>375</v>
       </c>
@@ -6858,7 +6868,7 @@
       </c>
     </row>
     <row r="305" spans="1:3">
-      <c r="A305" s="18"/>
+      <c r="A305" s="19"/>
       <c r="B305" t="s">
         <v>376</v>
       </c>
@@ -6867,7 +6877,7 @@
       </c>
     </row>
     <row r="306" spans="1:3">
-      <c r="A306" s="18"/>
+      <c r="A306" s="19"/>
       <c r="B306" t="s">
         <v>377</v>
       </c>
@@ -6876,7 +6886,7 @@
       </c>
     </row>
     <row r="307" spans="1:3">
-      <c r="A307" s="18"/>
+      <c r="A307" s="19"/>
       <c r="B307" t="s">
         <v>378</v>
       </c>
@@ -6885,7 +6895,7 @@
       </c>
     </row>
     <row r="308" spans="1:3">
-      <c r="A308" s="18" t="s">
+      <c r="A308" s="19" t="s">
         <v>387</v>
       </c>
       <c r="B308" t="s">
@@ -6896,7 +6906,7 @@
       </c>
     </row>
     <row r="309" spans="1:3">
-      <c r="A309" s="18"/>
+      <c r="A309" s="19"/>
       <c r="B309" t="s">
         <v>389</v>
       </c>
@@ -6905,7 +6915,7 @@
       </c>
     </row>
     <row r="310" spans="1:3">
-      <c r="A310" s="18"/>
+      <c r="A310" s="19"/>
       <c r="B310" t="s">
         <v>390</v>
       </c>
@@ -6914,7 +6924,7 @@
       </c>
     </row>
     <row r="311" spans="1:3">
-      <c r="A311" s="18"/>
+      <c r="A311" s="19"/>
       <c r="B311" t="s">
         <v>391</v>
       </c>
@@ -6923,7 +6933,7 @@
       </c>
     </row>
     <row r="312" spans="1:3">
-      <c r="A312" s="18"/>
+      <c r="A312" s="19"/>
       <c r="B312" t="s">
         <v>392</v>
       </c>
@@ -6932,7 +6942,7 @@
       </c>
     </row>
     <row r="313" spans="1:3">
-      <c r="A313" s="18"/>
+      <c r="A313" s="19"/>
       <c r="B313" t="s">
         <v>393</v>
       </c>
@@ -6941,7 +6951,7 @@
       </c>
     </row>
     <row r="314" spans="1:3">
-      <c r="A314" s="18"/>
+      <c r="A314" s="19"/>
       <c r="B314" t="s">
         <v>394</v>
       </c>
@@ -6950,7 +6960,7 @@
       </c>
     </row>
     <row r="315" spans="1:3">
-      <c r="A315" s="18" t="s">
+      <c r="A315" s="19" t="s">
         <v>395</v>
       </c>
       <c r="B315" t="s">
@@ -6961,7 +6971,7 @@
       </c>
     </row>
     <row r="316" spans="1:3">
-      <c r="A316" s="18"/>
+      <c r="A316" s="19"/>
       <c r="B316" t="s">
         <v>381</v>
       </c>
@@ -6970,7 +6980,7 @@
       </c>
     </row>
     <row r="317" spans="1:3">
-      <c r="A317" s="18"/>
+      <c r="A317" s="19"/>
       <c r="B317" t="s">
         <v>382</v>
       </c>
@@ -6979,7 +6989,7 @@
       </c>
     </row>
     <row r="318" spans="1:3">
-      <c r="A318" s="18"/>
+      <c r="A318" s="19"/>
       <c r="B318" t="s">
         <v>383</v>
       </c>
@@ -6988,7 +6998,7 @@
       </c>
     </row>
     <row r="319" spans="1:3">
-      <c r="A319" s="18"/>
+      <c r="A319" s="19"/>
       <c r="B319" t="s">
         <v>396</v>
       </c>
@@ -6997,7 +7007,7 @@
       </c>
     </row>
     <row r="320" spans="1:3">
-      <c r="A320" s="18"/>
+      <c r="A320" s="19"/>
       <c r="B320" t="s">
         <v>384</v>
       </c>
@@ -7006,7 +7016,7 @@
       </c>
     </row>
     <row r="321" spans="1:3">
-      <c r="A321" s="18"/>
+      <c r="A321" s="19"/>
       <c r="B321" t="s">
         <v>385</v>
       </c>
@@ -7015,7 +7025,7 @@
       </c>
     </row>
     <row r="322" spans="1:3">
-      <c r="A322" s="18"/>
+      <c r="A322" s="19"/>
       <c r="B322" t="s">
         <v>386</v>
       </c>
@@ -7024,7 +7034,7 @@
       </c>
     </row>
     <row r="323" spans="1:3">
-      <c r="A323" s="18" t="s">
+      <c r="A323" s="19" t="s">
         <v>402</v>
       </c>
       <c r="B323" t="s">
@@ -7035,7 +7045,7 @@
       </c>
     </row>
     <row r="324" spans="1:3">
-      <c r="A324" s="18"/>
+      <c r="A324" s="19"/>
       <c r="B324" t="s">
         <v>398</v>
       </c>
@@ -7044,7 +7054,7 @@
       </c>
     </row>
     <row r="325" spans="1:3">
-      <c r="A325" s="18"/>
+      <c r="A325" s="19"/>
       <c r="B325" t="s">
         <v>399</v>
       </c>
@@ -7053,7 +7063,7 @@
       </c>
     </row>
     <row r="326" spans="1:3">
-      <c r="A326" s="18"/>
+      <c r="A326" s="19"/>
       <c r="B326" t="s">
         <v>400</v>
       </c>
@@ -7062,7 +7072,7 @@
       </c>
     </row>
     <row r="327" spans="1:3">
-      <c r="A327" s="18"/>
+      <c r="A327" s="19"/>
       <c r="B327" t="s">
         <v>401</v>
       </c>
@@ -7071,7 +7081,7 @@
       </c>
     </row>
     <row r="328" spans="1:3">
-      <c r="A328" s="18" t="s">
+      <c r="A328" s="19" t="s">
         <v>412</v>
       </c>
       <c r="B328" t="s">
@@ -7082,7 +7092,7 @@
       </c>
     </row>
     <row r="329" spans="1:3">
-      <c r="A329" s="18"/>
+      <c r="A329" s="19"/>
       <c r="B329" t="s">
         <v>404</v>
       </c>
@@ -7091,7 +7101,7 @@
       </c>
     </row>
     <row r="330" spans="1:3">
-      <c r="A330" s="18"/>
+      <c r="A330" s="19"/>
       <c r="B330" t="s">
         <v>405</v>
       </c>
@@ -7100,7 +7110,7 @@
       </c>
     </row>
     <row r="331" spans="1:3">
-      <c r="A331" s="18"/>
+      <c r="A331" s="19"/>
       <c r="B331" t="s">
         <v>406</v>
       </c>
@@ -7109,7 +7119,7 @@
       </c>
     </row>
     <row r="332" spans="1:3">
-      <c r="A332" s="18"/>
+      <c r="A332" s="19"/>
       <c r="B332" t="s">
         <v>407</v>
       </c>
@@ -7118,7 +7128,7 @@
       </c>
     </row>
     <row r="333" spans="1:3">
-      <c r="A333" s="18"/>
+      <c r="A333" s="19"/>
       <c r="B333" t="s">
         <v>408</v>
       </c>
@@ -7127,7 +7137,7 @@
       </c>
     </row>
     <row r="334" spans="1:3">
-      <c r="A334" s="18"/>
+      <c r="A334" s="19"/>
       <c r="B334" t="s">
         <v>409</v>
       </c>
@@ -7136,7 +7146,7 @@
       </c>
     </row>
     <row r="335" spans="1:3">
-      <c r="A335" s="18"/>
+      <c r="A335" s="19"/>
       <c r="B335" t="s">
         <v>410</v>
       </c>
@@ -7145,7 +7155,7 @@
       </c>
     </row>
     <row r="336" spans="1:3">
-      <c r="A336" s="18"/>
+      <c r="A336" s="19"/>
       <c r="B336" t="s">
         <v>411</v>
       </c>
@@ -7154,7 +7164,7 @@
       </c>
     </row>
     <row r="337" spans="1:3">
-      <c r="A337" s="18" t="s">
+      <c r="A337" s="19" t="s">
         <v>418</v>
       </c>
       <c r="B337" t="s">
@@ -7165,7 +7175,7 @@
       </c>
     </row>
     <row r="338" spans="1:3">
-      <c r="A338" s="18"/>
+      <c r="A338" s="19"/>
       <c r="B338" t="s">
         <v>414</v>
       </c>
@@ -7174,7 +7184,7 @@
       </c>
     </row>
     <row r="339" spans="1:3">
-      <c r="A339" s="18"/>
+      <c r="A339" s="19"/>
       <c r="B339" t="s">
         <v>415</v>
       </c>
@@ -7183,7 +7193,7 @@
       </c>
     </row>
     <row r="340" spans="1:3">
-      <c r="A340" s="18"/>
+      <c r="A340" s="19"/>
       <c r="B340" t="s">
         <v>416</v>
       </c>
@@ -7192,7 +7202,7 @@
       </c>
     </row>
     <row r="341" spans="1:3">
-      <c r="A341" s="18"/>
+      <c r="A341" s="19"/>
       <c r="B341" t="s">
         <v>417</v>
       </c>
@@ -7201,7 +7211,7 @@
       </c>
     </row>
     <row r="342" spans="1:3">
-      <c r="A342" s="18" t="s">
+      <c r="A342" s="19" t="s">
         <v>426</v>
       </c>
       <c r="B342" t="s">
@@ -7212,7 +7222,7 @@
       </c>
     </row>
     <row r="343" spans="1:3">
-      <c r="A343" s="18"/>
+      <c r="A343" s="19"/>
       <c r="B343" t="s">
         <v>420</v>
       </c>
@@ -7221,7 +7231,7 @@
       </c>
     </row>
     <row r="344" spans="1:3">
-      <c r="A344" s="18"/>
+      <c r="A344" s="19"/>
       <c r="B344" t="s">
         <v>421</v>
       </c>
@@ -7230,7 +7240,7 @@
       </c>
     </row>
     <row r="345" spans="1:3">
-      <c r="A345" s="18"/>
+      <c r="A345" s="19"/>
       <c r="B345" t="s">
         <v>422</v>
       </c>
@@ -7239,7 +7249,7 @@
       </c>
     </row>
     <row r="346" spans="1:3">
-      <c r="A346" s="18"/>
+      <c r="A346" s="19"/>
       <c r="B346" t="s">
         <v>423</v>
       </c>
@@ -7248,7 +7258,7 @@
       </c>
     </row>
     <row r="347" spans="1:3">
-      <c r="A347" s="18"/>
+      <c r="A347" s="19"/>
       <c r="B347" t="s">
         <v>424</v>
       </c>
@@ -7257,7 +7267,7 @@
       </c>
     </row>
     <row r="348" spans="1:3">
-      <c r="A348" s="18"/>
+      <c r="A348" s="19"/>
       <c r="B348" t="s">
         <v>425</v>
       </c>
@@ -7266,7 +7276,7 @@
       </c>
     </row>
     <row r="349" spans="1:3">
-      <c r="A349" s="18" t="s">
+      <c r="A349" s="19" t="s">
         <v>433</v>
       </c>
       <c r="B349" t="s">
@@ -7277,7 +7287,7 @@
       </c>
     </row>
     <row r="350" spans="1:3">
-      <c r="A350" s="18"/>
+      <c r="A350" s="19"/>
       <c r="B350" t="s">
         <v>428</v>
       </c>
@@ -7286,7 +7296,7 @@
       </c>
     </row>
     <row r="351" spans="1:3">
-      <c r="A351" s="18"/>
+      <c r="A351" s="19"/>
       <c r="B351" t="s">
         <v>429</v>
       </c>
@@ -7295,7 +7305,7 @@
       </c>
     </row>
     <row r="352" spans="1:3">
-      <c r="A352" s="18"/>
+      <c r="A352" s="19"/>
       <c r="B352" t="s">
         <v>430</v>
       </c>
@@ -7304,7 +7314,7 @@
       </c>
     </row>
     <row r="353" spans="1:3">
-      <c r="A353" s="18"/>
+      <c r="A353" s="19"/>
       <c r="B353" t="s">
         <v>431</v>
       </c>
@@ -7313,7 +7323,7 @@
       </c>
     </row>
     <row r="354" spans="1:3">
-      <c r="A354" s="18"/>
+      <c r="A354" s="19"/>
       <c r="B354" t="s">
         <v>432</v>
       </c>
@@ -7322,7 +7332,7 @@
       </c>
     </row>
     <row r="355" spans="1:3">
-      <c r="A355" s="18" t="s">
+      <c r="A355" s="19" t="s">
         <v>438</v>
       </c>
       <c r="B355" t="s">
@@ -7333,7 +7343,7 @@
       </c>
     </row>
     <row r="356" spans="1:3">
-      <c r="A356" s="18"/>
+      <c r="A356" s="19"/>
       <c r="B356" t="s">
         <v>435</v>
       </c>
@@ -7342,7 +7352,7 @@
       </c>
     </row>
     <row r="357" spans="1:3">
-      <c r="A357" s="18"/>
+      <c r="A357" s="19"/>
       <c r="B357" t="s">
         <v>436</v>
       </c>
@@ -7351,7 +7361,7 @@
       </c>
     </row>
     <row r="358" spans="1:3">
-      <c r="A358" s="18"/>
+      <c r="A358" s="19"/>
       <c r="B358" t="s">
         <v>437</v>
       </c>
@@ -7360,7 +7370,7 @@
       </c>
     </row>
     <row r="359" spans="1:3">
-      <c r="A359" s="18" t="s">
+      <c r="A359" s="19" t="s">
         <v>445</v>
       </c>
       <c r="B359" t="s">
@@ -7371,7 +7381,7 @@
       </c>
     </row>
     <row r="360" spans="1:3">
-      <c r="A360" s="18"/>
+      <c r="A360" s="19"/>
       <c r="B360" t="s">
         <v>440</v>
       </c>
@@ -7380,7 +7390,7 @@
       </c>
     </row>
     <row r="361" spans="1:3">
-      <c r="A361" s="18"/>
+      <c r="A361" s="19"/>
       <c r="B361" t="s">
         <v>441</v>
       </c>
@@ -7389,7 +7399,7 @@
       </c>
     </row>
     <row r="362" spans="1:3">
-      <c r="A362" s="18"/>
+      <c r="A362" s="19"/>
       <c r="B362" t="s">
         <v>442</v>
       </c>
@@ -7398,7 +7408,7 @@
       </c>
     </row>
     <row r="363" spans="1:3">
-      <c r="A363" s="18"/>
+      <c r="A363" s="19"/>
       <c r="B363" t="s">
         <v>443</v>
       </c>
@@ -7407,7 +7417,7 @@
       </c>
     </row>
     <row r="364" spans="1:3">
-      <c r="A364" s="18"/>
+      <c r="A364" s="19"/>
       <c r="B364" t="s">
         <v>444</v>
       </c>
@@ -7416,7 +7426,7 @@
       </c>
     </row>
     <row r="365" spans="1:3">
-      <c r="A365" s="18" t="s">
+      <c r="A365" s="19" t="s">
         <v>448</v>
       </c>
       <c r="B365" t="s">
@@ -7427,7 +7437,7 @@
       </c>
     </row>
     <row r="366" spans="1:3">
-      <c r="A366" s="18"/>
+      <c r="A366" s="19"/>
       <c r="B366" t="s">
         <v>447</v>
       </c>
@@ -7436,7 +7446,7 @@
       </c>
     </row>
     <row r="367" spans="1:3">
-      <c r="A367" s="18" t="s">
+      <c r="A367" s="19" t="s">
         <v>451</v>
       </c>
       <c r="B367" t="s">
@@ -7447,7 +7457,7 @@
       </c>
     </row>
     <row r="368" spans="1:3">
-      <c r="A368" s="18"/>
+      <c r="A368" s="19"/>
       <c r="B368" t="s">
         <v>450</v>
       </c>
@@ -7456,7 +7466,7 @@
       </c>
     </row>
     <row r="369" spans="1:3">
-      <c r="A369" s="18" t="s">
+      <c r="A369" s="19" t="s">
         <v>455</v>
       </c>
       <c r="B369" t="s">
@@ -7467,7 +7477,7 @@
       </c>
     </row>
     <row r="370" spans="1:3">
-      <c r="A370" s="18"/>
+      <c r="A370" s="19"/>
       <c r="B370" t="s">
         <v>453</v>
       </c>
@@ -7476,7 +7486,7 @@
       </c>
     </row>
     <row r="371" spans="1:3">
-      <c r="A371" s="18"/>
+      <c r="A371" s="19"/>
       <c r="B371" t="s">
         <v>454</v>
       </c>
@@ -7485,7 +7495,7 @@
       </c>
     </row>
     <row r="372" spans="1:3">
-      <c r="A372" s="18" t="s">
+      <c r="A372" s="19" t="s">
         <v>461</v>
       </c>
       <c r="B372" t="s">
@@ -7496,7 +7506,7 @@
       </c>
     </row>
     <row r="373" spans="1:3">
-      <c r="A373" s="18"/>
+      <c r="A373" s="19"/>
       <c r="B373" t="s">
         <v>457</v>
       </c>
@@ -7505,7 +7515,7 @@
       </c>
     </row>
     <row r="374" spans="1:3">
-      <c r="A374" s="18"/>
+      <c r="A374" s="19"/>
       <c r="B374" t="s">
         <v>458</v>
       </c>
@@ -7514,7 +7524,7 @@
       </c>
     </row>
     <row r="375" spans="1:3">
-      <c r="A375" s="18"/>
+      <c r="A375" s="19"/>
       <c r="B375" t="s">
         <v>459</v>
       </c>
@@ -7523,7 +7533,7 @@
       </c>
     </row>
     <row r="376" spans="1:3">
-      <c r="A376" s="18"/>
+      <c r="A376" s="19"/>
       <c r="B376" t="s">
         <v>460</v>
       </c>
@@ -7532,7 +7542,7 @@
       </c>
     </row>
     <row r="377" spans="1:3">
-      <c r="A377" s="18" t="s">
+      <c r="A377" s="19" t="s">
         <v>468</v>
       </c>
       <c r="B377" t="s">
@@ -7543,7 +7553,7 @@
       </c>
     </row>
     <row r="378" spans="1:3">
-      <c r="A378" s="18"/>
+      <c r="A378" s="19"/>
       <c r="B378" t="s">
         <v>463</v>
       </c>
@@ -7552,7 +7562,7 @@
       </c>
     </row>
     <row r="379" spans="1:3">
-      <c r="A379" s="18"/>
+      <c r="A379" s="19"/>
       <c r="B379" t="s">
         <v>464</v>
       </c>
@@ -7561,7 +7571,7 @@
       </c>
     </row>
     <row r="380" spans="1:3">
-      <c r="A380" s="18"/>
+      <c r="A380" s="19"/>
       <c r="B380" t="s">
         <v>465</v>
       </c>
@@ -7570,7 +7580,7 @@
       </c>
     </row>
     <row r="381" spans="1:3">
-      <c r="A381" s="18"/>
+      <c r="A381" s="19"/>
       <c r="B381" t="s">
         <v>466</v>
       </c>
@@ -7579,7 +7589,7 @@
       </c>
     </row>
     <row r="382" spans="1:3">
-      <c r="A382" s="18"/>
+      <c r="A382" s="19"/>
       <c r="B382" t="s">
         <v>467</v>
       </c>
@@ -7588,7 +7598,7 @@
       </c>
     </row>
     <row r="383" spans="1:3">
-      <c r="A383" s="18" t="s">
+      <c r="A383" s="19" t="s">
         <v>479</v>
       </c>
       <c r="B383" t="s">
@@ -7599,7 +7609,7 @@
       </c>
     </row>
     <row r="384" spans="1:3">
-      <c r="A384" s="18"/>
+      <c r="A384" s="19"/>
       <c r="B384" t="s">
         <v>470</v>
       </c>
@@ -7608,7 +7618,7 @@
       </c>
     </row>
     <row r="385" spans="1:3">
-      <c r="A385" s="18"/>
+      <c r="A385" s="19"/>
       <c r="B385" t="s">
         <v>471</v>
       </c>
@@ -7617,7 +7627,7 @@
       </c>
     </row>
     <row r="386" spans="1:3">
-      <c r="A386" s="18"/>
+      <c r="A386" s="19"/>
       <c r="B386" t="s">
         <v>472</v>
       </c>
@@ -7626,7 +7636,7 @@
       </c>
     </row>
     <row r="387" spans="1:3">
-      <c r="A387" s="18"/>
+      <c r="A387" s="19"/>
       <c r="B387" t="s">
         <v>473</v>
       </c>
@@ -7635,7 +7645,7 @@
       </c>
     </row>
     <row r="388" spans="1:3">
-      <c r="A388" s="18"/>
+      <c r="A388" s="19"/>
       <c r="B388" t="s">
         <v>474</v>
       </c>
@@ -7644,7 +7654,7 @@
       </c>
     </row>
     <row r="389" spans="1:3">
-      <c r="A389" s="18"/>
+      <c r="A389" s="19"/>
       <c r="B389" t="s">
         <v>475</v>
       </c>
@@ -7653,7 +7663,7 @@
       </c>
     </row>
     <row r="390" spans="1:3">
-      <c r="A390" s="18"/>
+      <c r="A390" s="19"/>
       <c r="B390" t="s">
         <v>476</v>
       </c>
@@ -7662,7 +7672,7 @@
       </c>
     </row>
     <row r="391" spans="1:3">
-      <c r="A391" s="18"/>
+      <c r="A391" s="19"/>
       <c r="B391" t="s">
         <v>477</v>
       </c>
@@ -7671,7 +7681,7 @@
       </c>
     </row>
     <row r="392" spans="1:3">
-      <c r="A392" s="18"/>
+      <c r="A392" s="19"/>
       <c r="B392" t="s">
         <v>478</v>
       </c>
@@ -7680,7 +7690,7 @@
       </c>
     </row>
     <row r="393" spans="1:3">
-      <c r="A393" s="18" t="s">
+      <c r="A393" s="19" t="s">
         <v>483</v>
       </c>
       <c r="B393" t="s">
@@ -7691,7 +7701,7 @@
       </c>
     </row>
     <row r="394" spans="1:3">
-      <c r="A394" s="18"/>
+      <c r="A394" s="19"/>
       <c r="B394" t="s">
         <v>481</v>
       </c>
@@ -7700,7 +7710,7 @@
       </c>
     </row>
     <row r="395" spans="1:3">
-      <c r="A395" s="18"/>
+      <c r="A395" s="19"/>
       <c r="B395" t="s">
         <v>482</v>
       </c>
@@ -7709,7 +7719,7 @@
       </c>
     </row>
     <row r="396" spans="1:3">
-      <c r="A396" s="18" t="s">
+      <c r="A396" s="19" t="s">
         <v>497</v>
       </c>
       <c r="B396" t="s">
@@ -7720,7 +7730,7 @@
       </c>
     </row>
     <row r="397" spans="1:3">
-      <c r="A397" s="18"/>
+      <c r="A397" s="19"/>
       <c r="B397" t="s">
         <v>485</v>
       </c>
@@ -7729,7 +7739,7 @@
       </c>
     </row>
     <row r="398" spans="1:3">
-      <c r="A398" s="18"/>
+      <c r="A398" s="19"/>
       <c r="B398" t="s">
         <v>486</v>
       </c>
@@ -7738,7 +7748,7 @@
       </c>
     </row>
     <row r="399" spans="1:3">
-      <c r="A399" s="18"/>
+      <c r="A399" s="19"/>
       <c r="B399" t="s">
         <v>487</v>
       </c>
@@ -7747,7 +7757,7 @@
       </c>
     </row>
     <row r="400" spans="1:3">
-      <c r="A400" s="18"/>
+      <c r="A400" s="19"/>
       <c r="B400" t="s">
         <v>488</v>
       </c>
@@ -7756,7 +7766,7 @@
       </c>
     </row>
     <row r="401" spans="1:3">
-      <c r="A401" s="18"/>
+      <c r="A401" s="19"/>
       <c r="B401" t="s">
         <v>489</v>
       </c>
@@ -7765,7 +7775,7 @@
       </c>
     </row>
     <row r="402" spans="1:3">
-      <c r="A402" s="18"/>
+      <c r="A402" s="19"/>
       <c r="B402" t="s">
         <v>490</v>
       </c>
@@ -7774,7 +7784,7 @@
       </c>
     </row>
     <row r="403" spans="1:3">
-      <c r="A403" s="18"/>
+      <c r="A403" s="19"/>
       <c r="B403" t="s">
         <v>491</v>
       </c>
@@ -7783,7 +7793,7 @@
       </c>
     </row>
     <row r="404" spans="1:3">
-      <c r="A404" s="18"/>
+      <c r="A404" s="19"/>
       <c r="B404" t="s">
         <v>492</v>
       </c>
@@ -7792,7 +7802,7 @@
       </c>
     </row>
     <row r="405" spans="1:3">
-      <c r="A405" s="18"/>
+      <c r="A405" s="19"/>
       <c r="B405" t="s">
         <v>493</v>
       </c>
@@ -7801,7 +7811,7 @@
       </c>
     </row>
     <row r="406" spans="1:3">
-      <c r="A406" s="18"/>
+      <c r="A406" s="19"/>
       <c r="B406" t="s">
         <v>494</v>
       </c>
@@ -7810,7 +7820,7 @@
       </c>
     </row>
     <row r="407" spans="1:3">
-      <c r="A407" s="18"/>
+      <c r="A407" s="19"/>
       <c r="B407" t="s">
         <v>495</v>
       </c>
@@ -7819,7 +7829,7 @@
       </c>
     </row>
     <row r="408" spans="1:3">
-      <c r="A408" s="18"/>
+      <c r="A408" s="19"/>
       <c r="B408" t="s">
         <v>496</v>
       </c>
@@ -7828,7 +7838,7 @@
       </c>
     </row>
     <row r="409" spans="1:3">
-      <c r="A409" s="18" t="s">
+      <c r="A409" s="19" t="s">
         <v>509</v>
       </c>
       <c r="B409" t="s">
@@ -7839,7 +7849,7 @@
       </c>
     </row>
     <row r="410" spans="1:3">
-      <c r="A410" s="18"/>
+      <c r="A410" s="19"/>
       <c r="B410" t="s">
         <v>499</v>
       </c>
@@ -7848,7 +7858,7 @@
       </c>
     </row>
     <row r="411" spans="1:3">
-      <c r="A411" s="18"/>
+      <c r="A411" s="19"/>
       <c r="B411" t="s">
         <v>500</v>
       </c>
@@ -7857,7 +7867,7 @@
       </c>
     </row>
     <row r="412" spans="1:3">
-      <c r="A412" s="18"/>
+      <c r="A412" s="19"/>
       <c r="B412" t="s">
         <v>501</v>
       </c>
@@ -7866,7 +7876,7 @@
       </c>
     </row>
     <row r="413" spans="1:3">
-      <c r="A413" s="18"/>
+      <c r="A413" s="19"/>
       <c r="B413" t="s">
         <v>502</v>
       </c>
@@ -7875,7 +7885,7 @@
       </c>
     </row>
     <row r="414" spans="1:3">
-      <c r="A414" s="18"/>
+      <c r="A414" s="19"/>
       <c r="B414" t="s">
         <v>503</v>
       </c>
@@ -7884,7 +7894,7 @@
       </c>
     </row>
     <row r="415" spans="1:3">
-      <c r="A415" s="18"/>
+      <c r="A415" s="19"/>
       <c r="B415" t="s">
         <v>504</v>
       </c>
@@ -7893,7 +7903,7 @@
       </c>
     </row>
     <row r="416" spans="1:3">
-      <c r="A416" s="18"/>
+      <c r="A416" s="19"/>
       <c r="B416" t="s">
         <v>505</v>
       </c>
@@ -7902,7 +7912,7 @@
       </c>
     </row>
     <row r="417" spans="1:3">
-      <c r="A417" s="18"/>
+      <c r="A417" s="19"/>
       <c r="B417" t="s">
         <v>506</v>
       </c>
@@ -7911,7 +7921,7 @@
       </c>
     </row>
     <row r="418" spans="1:3">
-      <c r="A418" s="18"/>
+      <c r="A418" s="19"/>
       <c r="B418" t="s">
         <v>507</v>
       </c>
@@ -7920,7 +7930,7 @@
       </c>
     </row>
     <row r="419" spans="1:3">
-      <c r="A419" s="18"/>
+      <c r="A419" s="19"/>
       <c r="B419" t="s">
         <v>508</v>
       </c>
@@ -7929,7 +7939,7 @@
       </c>
     </row>
     <row r="420" spans="1:3">
-      <c r="A420" s="18" t="s">
+      <c r="A420" s="19" t="s">
         <v>522</v>
       </c>
       <c r="B420" t="s">
@@ -7940,7 +7950,7 @@
       </c>
     </row>
     <row r="421" spans="1:3">
-      <c r="A421" s="18"/>
+      <c r="A421" s="19"/>
       <c r="B421" t="s">
         <v>511</v>
       </c>
@@ -7949,7 +7959,7 @@
       </c>
     </row>
     <row r="422" spans="1:3" ht="33">
-      <c r="A422" s="18"/>
+      <c r="A422" s="19"/>
       <c r="B422" t="s">
         <v>512</v>
       </c>
@@ -7958,7 +7968,7 @@
       </c>
     </row>
     <row r="423" spans="1:3">
-      <c r="A423" s="18"/>
+      <c r="A423" s="19"/>
       <c r="B423" t="s">
         <v>513</v>
       </c>
@@ -7967,7 +7977,7 @@
       </c>
     </row>
     <row r="424" spans="1:3">
-      <c r="A424" s="18"/>
+      <c r="A424" s="19"/>
       <c r="B424" t="s">
         <v>514</v>
       </c>
@@ -7976,7 +7986,7 @@
       </c>
     </row>
     <row r="425" spans="1:3">
-      <c r="A425" s="18"/>
+      <c r="A425" s="19"/>
       <c r="B425" t="s">
         <v>515</v>
       </c>
@@ -7985,7 +7995,7 @@
       </c>
     </row>
     <row r="426" spans="1:3">
-      <c r="A426" s="18"/>
+      <c r="A426" s="19"/>
       <c r="B426" t="s">
         <v>516</v>
       </c>
@@ -7994,7 +8004,7 @@
       </c>
     </row>
     <row r="427" spans="1:3">
-      <c r="A427" s="18"/>
+      <c r="A427" s="19"/>
       <c r="B427" t="s">
         <v>517</v>
       </c>
@@ -8003,7 +8013,7 @@
       </c>
     </row>
     <row r="428" spans="1:3">
-      <c r="A428" s="18"/>
+      <c r="A428" s="19"/>
       <c r="B428" t="s">
         <v>518</v>
       </c>
@@ -8012,7 +8022,7 @@
       </c>
     </row>
     <row r="429" spans="1:3">
-      <c r="A429" s="18"/>
+      <c r="A429" s="19"/>
       <c r="B429" t="s">
         <v>519</v>
       </c>
@@ -8021,7 +8031,7 @@
       </c>
     </row>
     <row r="430" spans="1:3">
-      <c r="A430" s="18"/>
+      <c r="A430" s="19"/>
       <c r="B430" t="s">
         <v>520</v>
       </c>
@@ -8030,7 +8040,7 @@
       </c>
     </row>
     <row r="431" spans="1:3">
-      <c r="A431" s="18"/>
+      <c r="A431" s="19"/>
       <c r="B431" t="s">
         <v>521</v>
       </c>
@@ -8039,7 +8049,7 @@
       </c>
     </row>
     <row r="432" spans="1:3">
-      <c r="A432" s="18" t="s">
+      <c r="A432" s="19" t="s">
         <v>526</v>
       </c>
       <c r="B432" t="s">
@@ -8050,7 +8060,7 @@
       </c>
     </row>
     <row r="433" spans="1:3">
-      <c r="A433" s="18"/>
+      <c r="A433" s="19"/>
       <c r="B433" t="s">
         <v>524</v>
       </c>
@@ -8059,7 +8069,7 @@
       </c>
     </row>
     <row r="434" spans="1:3">
-      <c r="A434" s="18"/>
+      <c r="A434" s="19"/>
       <c r="B434" t="s">
         <v>525</v>
       </c>
@@ -8068,7 +8078,7 @@
       </c>
     </row>
     <row r="435" spans="1:3">
-      <c r="A435" s="18" t="s">
+      <c r="A435" s="19" t="s">
         <v>529</v>
       </c>
       <c r="B435" t="s">
@@ -8079,7 +8089,7 @@
       </c>
     </row>
     <row r="436" spans="1:3">
-      <c r="A436" s="18"/>
+      <c r="A436" s="19"/>
       <c r="B436" t="s">
         <v>528</v>
       </c>
@@ -8088,7 +8098,7 @@
       </c>
     </row>
     <row r="437" spans="1:3">
-      <c r="A437" s="18" t="s">
+      <c r="A437" s="19" t="s">
         <v>536</v>
       </c>
       <c r="B437" t="s">
@@ -8099,7 +8109,7 @@
       </c>
     </row>
     <row r="438" spans="1:3">
-      <c r="A438" s="18"/>
+      <c r="A438" s="19"/>
       <c r="B438" t="s">
         <v>531</v>
       </c>
@@ -8108,7 +8118,7 @@
       </c>
     </row>
     <row r="439" spans="1:3">
-      <c r="A439" s="18"/>
+      <c r="A439" s="19"/>
       <c r="B439" t="s">
         <v>532</v>
       </c>
@@ -8117,7 +8127,7 @@
       </c>
     </row>
     <row r="440" spans="1:3">
-      <c r="A440" s="18"/>
+      <c r="A440" s="19"/>
       <c r="B440" t="s">
         <v>533</v>
       </c>
@@ -8126,7 +8136,7 @@
       </c>
     </row>
     <row r="441" spans="1:3">
-      <c r="A441" s="18"/>
+      <c r="A441" s="19"/>
       <c r="B441" t="s">
         <v>534</v>
       </c>
@@ -8135,7 +8145,7 @@
       </c>
     </row>
     <row r="442" spans="1:3">
-      <c r="A442" s="18"/>
+      <c r="A442" s="19"/>
       <c r="B442" t="s">
         <v>535</v>
       </c>
@@ -8144,7 +8154,7 @@
       </c>
     </row>
     <row r="443" spans="1:3">
-      <c r="A443" s="18" t="s">
+      <c r="A443" s="19" t="s">
         <v>542</v>
       </c>
       <c r="B443" t="s">
@@ -8155,7 +8165,7 @@
       </c>
     </row>
     <row r="444" spans="1:3">
-      <c r="A444" s="18"/>
+      <c r="A444" s="19"/>
       <c r="B444" t="s">
         <v>538</v>
       </c>
@@ -8164,7 +8174,7 @@
       </c>
     </row>
     <row r="445" spans="1:3">
-      <c r="A445" s="18"/>
+      <c r="A445" s="19"/>
       <c r="B445" t="s">
         <v>539</v>
       </c>
@@ -8173,7 +8183,7 @@
       </c>
     </row>
     <row r="446" spans="1:3">
-      <c r="A446" s="18"/>
+      <c r="A446" s="19"/>
       <c r="B446" t="s">
         <v>540</v>
       </c>
@@ -8182,7 +8192,7 @@
       </c>
     </row>
     <row r="447" spans="1:3">
-      <c r="A447" s="18"/>
+      <c r="A447" s="19"/>
       <c r="B447" t="s">
         <v>541</v>
       </c>
@@ -8191,7 +8201,7 @@
       </c>
     </row>
     <row r="448" spans="1:3">
-      <c r="A448" s="18" t="s">
+      <c r="A448" s="19" t="s">
         <v>550</v>
       </c>
       <c r="B448" t="s">
@@ -8202,7 +8212,7 @@
       </c>
     </row>
     <row r="449" spans="1:3">
-      <c r="A449" s="18"/>
+      <c r="A449" s="19"/>
       <c r="B449" t="s">
         <v>544</v>
       </c>
@@ -8211,7 +8221,7 @@
       </c>
     </row>
     <row r="450" spans="1:3">
-      <c r="A450" s="18"/>
+      <c r="A450" s="19"/>
       <c r="B450" t="s">
         <v>545</v>
       </c>
@@ -8220,7 +8230,7 @@
       </c>
     </row>
     <row r="451" spans="1:3">
-      <c r="A451" s="18"/>
+      <c r="A451" s="19"/>
       <c r="B451" t="s">
         <v>546</v>
       </c>
@@ -8229,7 +8239,7 @@
       </c>
     </row>
     <row r="452" spans="1:3">
-      <c r="A452" s="18"/>
+      <c r="A452" s="19"/>
       <c r="B452" t="s">
         <v>547</v>
       </c>
@@ -8238,7 +8248,7 @@
       </c>
     </row>
     <row r="453" spans="1:3">
-      <c r="A453" s="18"/>
+      <c r="A453" s="19"/>
       <c r="B453" t="s">
         <v>548</v>
       </c>
@@ -8247,7 +8257,7 @@
       </c>
     </row>
     <row r="454" spans="1:3">
-      <c r="A454" s="18"/>
+      <c r="A454" s="19"/>
       <c r="B454" t="s">
         <v>549</v>
       </c>
@@ -8256,7 +8266,7 @@
       </c>
     </row>
     <row r="455" spans="1:3">
-      <c r="A455" s="18" t="s">
+      <c r="A455" s="19" t="s">
         <v>556</v>
       </c>
       <c r="B455" t="s">
@@ -8267,7 +8277,7 @@
       </c>
     </row>
     <row r="456" spans="1:3">
-      <c r="A456" s="18"/>
+      <c r="A456" s="19"/>
       <c r="B456" t="s">
         <v>552</v>
       </c>
@@ -8276,7 +8286,7 @@
       </c>
     </row>
     <row r="457" spans="1:3">
-      <c r="A457" s="18"/>
+      <c r="A457" s="19"/>
       <c r="B457" t="s">
         <v>553</v>
       </c>
@@ -8285,7 +8295,7 @@
       </c>
     </row>
     <row r="458" spans="1:3">
-      <c r="A458" s="18"/>
+      <c r="A458" s="19"/>
       <c r="B458" t="s">
         <v>554</v>
       </c>
@@ -8294,7 +8304,7 @@
       </c>
     </row>
     <row r="459" spans="1:3">
-      <c r="A459" s="18"/>
+      <c r="A459" s="19"/>
       <c r="B459" t="s">
         <v>555</v>
       </c>
@@ -8303,7 +8313,7 @@
       </c>
     </row>
     <row r="460" spans="1:3">
-      <c r="A460" s="18" t="s">
+      <c r="A460" s="19" t="s">
         <v>561</v>
       </c>
       <c r="B460" t="s">
@@ -8314,7 +8324,7 @@
       </c>
     </row>
     <row r="461" spans="1:3">
-      <c r="A461" s="18"/>
+      <c r="A461" s="19"/>
       <c r="B461" t="s">
         <v>558</v>
       </c>
@@ -8323,7 +8333,7 @@
       </c>
     </row>
     <row r="462" spans="1:3">
-      <c r="A462" s="18"/>
+      <c r="A462" s="19"/>
       <c r="B462" t="s">
         <v>559</v>
       </c>
@@ -8332,7 +8342,7 @@
       </c>
     </row>
     <row r="463" spans="1:3">
-      <c r="A463" s="18"/>
+      <c r="A463" s="19"/>
       <c r="B463" t="s">
         <v>560</v>
       </c>
@@ -8341,7 +8351,7 @@
       </c>
     </row>
     <row r="464" spans="1:3">
-      <c r="A464" s="18" t="s">
+      <c r="A464" s="19" t="s">
         <v>567</v>
       </c>
       <c r="B464" t="s">
@@ -8352,7 +8362,7 @@
       </c>
     </row>
     <row r="465" spans="1:3">
-      <c r="A465" s="18"/>
+      <c r="A465" s="19"/>
       <c r="B465" t="s">
         <v>563</v>
       </c>
@@ -8361,7 +8371,7 @@
       </c>
     </row>
     <row r="466" spans="1:3">
-      <c r="A466" s="18"/>
+      <c r="A466" s="19"/>
       <c r="B466" t="s">
         <v>564</v>
       </c>
@@ -8370,7 +8380,7 @@
       </c>
     </row>
     <row r="467" spans="1:3">
-      <c r="A467" s="18"/>
+      <c r="A467" s="19"/>
       <c r="B467" t="s">
         <v>565</v>
       </c>
@@ -8379,7 +8389,7 @@
       </c>
     </row>
     <row r="468" spans="1:3">
-      <c r="A468" s="18"/>
+      <c r="A468" s="19"/>
       <c r="B468" t="s">
         <v>566</v>
       </c>
@@ -8388,7 +8398,7 @@
       </c>
     </row>
     <row r="469" spans="1:3">
-      <c r="A469" s="18" t="s">
+      <c r="A469" s="19" t="s">
         <v>576</v>
       </c>
       <c r="B469" t="s">
@@ -8399,7 +8409,7 @@
       </c>
     </row>
     <row r="470" spans="1:3">
-      <c r="A470" s="18"/>
+      <c r="A470" s="19"/>
       <c r="B470" t="s">
         <v>569</v>
       </c>
@@ -8408,7 +8418,7 @@
       </c>
     </row>
     <row r="471" spans="1:3">
-      <c r="A471" s="18"/>
+      <c r="A471" s="19"/>
       <c r="B471" t="s">
         <v>570</v>
       </c>
@@ -8417,7 +8427,7 @@
       </c>
     </row>
     <row r="472" spans="1:3">
-      <c r="A472" s="18"/>
+      <c r="A472" s="19"/>
       <c r="B472" t="s">
         <v>571</v>
       </c>
@@ -8426,7 +8436,7 @@
       </c>
     </row>
     <row r="473" spans="1:3">
-      <c r="A473" s="18"/>
+      <c r="A473" s="19"/>
       <c r="B473" t="s">
         <v>572</v>
       </c>
@@ -8435,7 +8445,7 @@
       </c>
     </row>
     <row r="474" spans="1:3">
-      <c r="A474" s="18"/>
+      <c r="A474" s="19"/>
       <c r="B474" t="s">
         <v>573</v>
       </c>
@@ -8444,7 +8454,7 @@
       </c>
     </row>
     <row r="475" spans="1:3">
-      <c r="A475" s="18"/>
+      <c r="A475" s="19"/>
       <c r="B475" t="s">
         <v>574</v>
       </c>
@@ -8453,7 +8463,7 @@
       </c>
     </row>
     <row r="476" spans="1:3">
-      <c r="A476" s="18"/>
+      <c r="A476" s="19"/>
       <c r="B476" t="s">
         <v>575</v>
       </c>
@@ -8473,7 +8483,7 @@
       </c>
     </row>
     <row r="478" spans="1:3">
-      <c r="A478" s="18" t="s">
+      <c r="A478" s="19" t="s">
         <v>584</v>
       </c>
       <c r="B478" t="s">
@@ -8484,7 +8494,7 @@
       </c>
     </row>
     <row r="479" spans="1:3">
-      <c r="A479" s="18"/>
+      <c r="A479" s="19"/>
       <c r="B479" t="s">
         <v>580</v>
       </c>
@@ -8493,7 +8503,7 @@
       </c>
     </row>
     <row r="480" spans="1:3">
-      <c r="A480" s="18"/>
+      <c r="A480" s="19"/>
       <c r="B480" t="s">
         <v>581</v>
       </c>
@@ -8502,7 +8512,7 @@
       </c>
     </row>
     <row r="481" spans="1:3">
-      <c r="A481" s="18"/>
+      <c r="A481" s="19"/>
       <c r="B481" t="s">
         <v>582</v>
       </c>
@@ -8511,7 +8521,7 @@
       </c>
     </row>
     <row r="482" spans="1:3">
-      <c r="A482" s="18"/>
+      <c r="A482" s="19"/>
       <c r="B482" t="s">
         <v>583</v>
       </c>
@@ -8520,7 +8530,7 @@
       </c>
     </row>
     <row r="483" spans="1:3">
-      <c r="A483" s="18" t="s">
+      <c r="A483" s="19" t="s">
         <v>590</v>
       </c>
       <c r="B483" t="s">
@@ -8531,7 +8541,7 @@
       </c>
     </row>
     <row r="484" spans="1:3">
-      <c r="A484" s="18"/>
+      <c r="A484" s="19"/>
       <c r="B484" t="s">
         <v>586</v>
       </c>
@@ -8540,7 +8550,7 @@
       </c>
     </row>
     <row r="485" spans="1:3">
-      <c r="A485" s="18"/>
+      <c r="A485" s="19"/>
       <c r="B485" t="s">
         <v>587</v>
       </c>
@@ -8549,7 +8559,7 @@
       </c>
     </row>
     <row r="486" spans="1:3">
-      <c r="A486" s="18"/>
+      <c r="A486" s="19"/>
       <c r="B486" t="s">
         <v>588</v>
       </c>
@@ -8558,7 +8568,7 @@
       </c>
     </row>
     <row r="487" spans="1:3">
-      <c r="A487" s="18"/>
+      <c r="A487" s="19"/>
       <c r="B487" t="s">
         <v>589</v>
       </c>
@@ -8567,7 +8577,7 @@
       </c>
     </row>
     <row r="488" spans="1:3">
-      <c r="A488" s="18" t="s">
+      <c r="A488" s="19" t="s">
         <v>593</v>
       </c>
       <c r="B488" t="s">
@@ -8578,7 +8588,7 @@
       </c>
     </row>
     <row r="489" spans="1:3">
-      <c r="A489" s="18"/>
+      <c r="A489" s="19"/>
       <c r="B489" t="s">
         <v>592</v>
       </c>
@@ -8594,14 +8604,78 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="A483:A487"/>
-    <mergeCell ref="A488:A489"/>
-    <mergeCell ref="A448:A454"/>
-    <mergeCell ref="A455:A459"/>
-    <mergeCell ref="A460:A463"/>
-    <mergeCell ref="A464:A468"/>
-    <mergeCell ref="A469:A476"/>
-    <mergeCell ref="A478:A482"/>
+    <mergeCell ref="A89:A95"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="A57:A66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A71:A79"/>
+    <mergeCell ref="A80:A88"/>
+    <mergeCell ref="A135:A139"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="A105:A111"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A183:A188"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="A156:A160"/>
+    <mergeCell ref="A161:A169"/>
+    <mergeCell ref="A171:A174"/>
+    <mergeCell ref="A175:A180"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="A241:A244"/>
+    <mergeCell ref="A189:A194"/>
+    <mergeCell ref="A195:A202"/>
+    <mergeCell ref="A203:A206"/>
+    <mergeCell ref="A207:A209"/>
+    <mergeCell ref="A210:A218"/>
+    <mergeCell ref="A219:A224"/>
+    <mergeCell ref="A225:A227"/>
+    <mergeCell ref="A228:A230"/>
+    <mergeCell ref="A231:A233"/>
+    <mergeCell ref="A234:A237"/>
+    <mergeCell ref="A238:A240"/>
+    <mergeCell ref="A292:A299"/>
+    <mergeCell ref="A245:A250"/>
+    <mergeCell ref="A251:A253"/>
+    <mergeCell ref="A254:A256"/>
+    <mergeCell ref="A257:A260"/>
+    <mergeCell ref="A261:A265"/>
+    <mergeCell ref="A266:A268"/>
+    <mergeCell ref="A269:A270"/>
+    <mergeCell ref="A271:A277"/>
+    <mergeCell ref="A278:A283"/>
+    <mergeCell ref="A284:A286"/>
+    <mergeCell ref="A287:A291"/>
+    <mergeCell ref="A367:A368"/>
+    <mergeCell ref="A300:A307"/>
+    <mergeCell ref="A315:A322"/>
+    <mergeCell ref="A308:A314"/>
+    <mergeCell ref="A323:A327"/>
+    <mergeCell ref="A328:A336"/>
+    <mergeCell ref="A337:A341"/>
+    <mergeCell ref="A342:A348"/>
+    <mergeCell ref="A349:A354"/>
+    <mergeCell ref="A355:A358"/>
+    <mergeCell ref="A359:A364"/>
+    <mergeCell ref="A365:A366"/>
     <mergeCell ref="A443:A447"/>
     <mergeCell ref="A369:A371"/>
     <mergeCell ref="A372:A376"/>
@@ -8614,78 +8688,14 @@
     <mergeCell ref="A432:A434"/>
     <mergeCell ref="A435:A436"/>
     <mergeCell ref="A437:A442"/>
-    <mergeCell ref="A367:A368"/>
-    <mergeCell ref="A300:A307"/>
-    <mergeCell ref="A315:A322"/>
-    <mergeCell ref="A308:A314"/>
-    <mergeCell ref="A323:A327"/>
-    <mergeCell ref="A328:A336"/>
-    <mergeCell ref="A337:A341"/>
-    <mergeCell ref="A342:A348"/>
-    <mergeCell ref="A349:A354"/>
-    <mergeCell ref="A355:A358"/>
-    <mergeCell ref="A359:A364"/>
-    <mergeCell ref="A365:A366"/>
-    <mergeCell ref="A292:A299"/>
-    <mergeCell ref="A245:A250"/>
-    <mergeCell ref="A251:A253"/>
-    <mergeCell ref="A254:A256"/>
-    <mergeCell ref="A257:A260"/>
-    <mergeCell ref="A261:A265"/>
-    <mergeCell ref="A266:A268"/>
-    <mergeCell ref="A269:A270"/>
-    <mergeCell ref="A271:A277"/>
-    <mergeCell ref="A278:A283"/>
-    <mergeCell ref="A284:A286"/>
-    <mergeCell ref="A287:A291"/>
-    <mergeCell ref="A241:A244"/>
-    <mergeCell ref="A189:A194"/>
-    <mergeCell ref="A195:A202"/>
-    <mergeCell ref="A203:A206"/>
-    <mergeCell ref="A207:A209"/>
-    <mergeCell ref="A210:A218"/>
-    <mergeCell ref="A219:A224"/>
-    <mergeCell ref="A225:A227"/>
-    <mergeCell ref="A228:A230"/>
-    <mergeCell ref="A231:A233"/>
-    <mergeCell ref="A234:A237"/>
-    <mergeCell ref="A238:A240"/>
-    <mergeCell ref="A183:A188"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="A156:A160"/>
-    <mergeCell ref="A161:A169"/>
-    <mergeCell ref="A171:A174"/>
-    <mergeCell ref="A175:A180"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="A135:A139"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="A105:A111"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A89:A95"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A32"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="A57:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A71:A79"/>
-    <mergeCell ref="A80:A88"/>
+    <mergeCell ref="A483:A487"/>
+    <mergeCell ref="A488:A489"/>
+    <mergeCell ref="A448:A454"/>
+    <mergeCell ref="A455:A459"/>
+    <mergeCell ref="A460:A463"/>
+    <mergeCell ref="A464:A468"/>
+    <mergeCell ref="A469:A476"/>
+    <mergeCell ref="A478:A482"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/play/play.xlsx
+++ b/play/play.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="631">
   <si>
     <t>待办事项列表</t>
   </si>
@@ -42,10 +42,6 @@
   </si>
   <si>
     <t>第一周</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二周</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2072,6 +2068,84 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>四号没有完成任务，纠结在了elasticsearch，网络上的资料看源文档是最稳的，英语是很重要的，所以这段时间先不要看新东西了，就按计划走，否则心情会很差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五章：LINUX的文件权限与目录配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六章：linux文件与目录管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>05-（重要）单进程、线程、非堵塞实现并发的原理</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">06-单进程、线程、非堵塞实现并发的验证-1
+07-单进程、线程、非堵塞实现并发的验证-2、debug的思想
+08-长连接、短连接
+09-单进程、线程、非堵塞、长连接的http服务器
+10-（重要）epoll的原理过程讲解
+11-epoll版的http服务器
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五本书一个开源项目：
+11.5~12.5  鸟叔的Linux私房菜
+12.6~1.5   接口自动化(写了集中监测)
+1.6~2.5    网络抓包+TCP卷1
+2.6~3.5    Jmeter性能测试
+3.6~4.5    flask框架源码
+测试方面需要做的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+一期：Python到微信公众号结束
+简单构建自己的资料整理网站
+二期：牛客算法初中级
+地铁早上四小时做的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01-tcp ip协议
+02-wireshark抓包工具-安装
+03-wireshark抓包工具-使用
+04-2台电脑通信、网络掩码
+05-集线器、交换器组网、arp获取mac地址等
+06-路由器链接多个网络、默认网关
+07-浏览器访问服务器的过程
+08-ip不变、mac地址发生变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.1 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第八章：磁盘与文件系统管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第八章：磁盘与文件系统管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01-课程介绍
+02-多进程-面向对象-web服务器
+03-静态资源、动态资源、web服务器支持动态解析
+04-静态、动态资源强调
+05-实现很简单的框架，让web服务器支持
+06-（重点）WSGI的介绍
+07-web服务器支持WSGI
+08-web服务器通过字典将需要的参数传递给mini_frame框架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>11-（重点）进程、线程、协程对比
 01-此阶段知识的介绍
 02-HTTP协议的通俗讲解
@@ -2079,22 +2153,6 @@
 01-案例：返回固定页面的http服务器
 02-tcp3次握手、4次挥手</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>四号没有完成任务，纠结在了elasticsearch，网络上的资料看源文档是最稳的，英语是很重要的，所以这段时间先不要看新东西了，就按计划走，否则心情会很差</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第五章：LINUX的文件权限与目录配置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第六章：linux文件与目录管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>05-（重要）单进程、线程、非堵塞实现并发的原理</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>03-tcp3次握手、4次挥手-强调
@@ -2108,72 +2166,125 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">06-单进程、线程、非堵塞实现并发的验证-1
-07-单进程、线程、非堵塞实现并发的验证-2、debug的思想
-08-长连接、短连接
-09-单进程、线程、非堵塞、长连接的http服务器
-10-（重要）epoll的原理过程讲解
-11-epoll版的http服务器
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>五本书一个开源项目：
-11.5~12.5  鸟叔的Linux私房菜
-12.6~1.5   接口自动化(写了集中监测)
-1.6~2.5    网络抓包+TCP卷1
-2.6~3.5    Jmeter性能测试
-3.6~4.5    flask框架源码
-测试方面需要做的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-一期：Python到微信公众号结束
-简单构建自己的资料整理网站
-二期：牛客算法初中级
-地铁早上四小时做的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>01-tcp ip协议
-02-wireshark抓包工具-安装
-03-wireshark抓包工具-使用
-04-2台电脑通信、网络掩码
-05-集线器、交换器组网、arp获取mac地址等
-06-路由器链接多个网络、默认网关
-07-浏览器访问服务器的过程
-08-ip不变、mac地址发生变化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.1 0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第八章：磁盘与文件系统管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第八章：磁盘与文件系统管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>01-课程介绍
-02-多进程-面向对象-web服务器
-03-静态资源、动态资源、web服务器支持动态解析
-04-静态、动态资源强调
-05-实现很简单的框架，让web服务器支持
-06-（重点）WSGI的介绍
-07-web服务器支持WSGI
-08-web服务器通过字典将需要的参数传递给mini_frame框架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">09-mini_frame获取页面模板数据
 10-给程序传递参数、添加web服务器的配置文件、添加shell功能
 01-数据的准备，基本查询
 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-数据操作演练：拆为多个表
+03-数据操作演练：拆为多个表2
+04-python安装pymysql
+05-python操作sql：查询数据
+06-案例：京东商城-查询
+07-python操作sql：添加、修改、删除数据
+08-案例：京东商城-添加，防止SQL注入
+09-作业要求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09-作业要求
+01-视图
+02-事务-1
+03-事务-2
+04-索引-1
+05-索引-2
+06-（了解）账户管理
+07-MySQL主从</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01-闭包-1
+02-闭包-2
+03-闭包-3-补充
+04-闭包-4-修改数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01-装饰器-1-介绍
+02-装饰器-2-手动实现装饰器
+03-装饰器-3-作用demo、对有参数函数、无参数函数的装饰
+04-装饰器-4-再理解
+05-装饰器-5-不定长参数的函数装饰
+06-装饰器-6-对应有返回值函数进行装饰、通用装饰器
+07-装饰器-7-多个装饰器对同一个函数装饰
+08-装饰器-8-多个装饰器对同一个函数装饰demo
+09-装饰器-9-（了解）用类对函数进行装饰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">01-带有参数的装饰器
+02-用装饰器完成路由功能-1
+03-用装饰器完成路由功能-2
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>elasticsearch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.10号左右开始了一周的elasticsearch文档，输出为博客预计到22号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前(11.19)号来看这部分就做的更差了，代码完全没跟上，需要做的是将代码完成本天后慢慢往前补充</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>python</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.2 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-用装饰器完成路由功能-3
+05-用装饰器完成路由功能-4
+06-静态、动态、伪静态url
+07-让web服务器支持伪静态
+08-mini_frame框架添加MySQL功能-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09-mini_frame框架添加MySQL功能-2
+01-今日课程介绍
+02-股票列表
+03-关注股票
+04-取消关注
+05-更新备注信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">06-url编解码
+07-log日志功能
+01-类也是对象、globals查看所有的全局对象引用
+02-元类创建类，类创建实例对象
+03-通过type来创建复杂的类，元类应用demo
+04-元类应用demo-补充
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux软件安装与更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>elasticsearch没有写博客的必要，因为看的2.0版本实际已经到7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2531,7 +2642,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2634,6 +2745,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2697,30 +2823,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2728,25 +2832,51 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="4">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2804,12 +2934,140 @@
     <cellStyle name="适中" xfId="14" builtinId="28" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="18" builtinId="24" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="179" formatCode="yyyy/m/d"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -2907,13 +3165,13 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="项目的待办事项列表">
     <tableStyle name="项目的待办事项列表" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="8"/>
-      <tableStyleElement type="headerRow" dxfId="7"/>
-      <tableStyleElement type="totalRow" dxfId="6"/>
-      <tableStyleElement type="firstColumn" dxfId="5"/>
-      <tableStyleElement type="lastColumn" dxfId="4"/>
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="2"/>
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="totalRow" dxfId="11"/>
+      <tableStyleElement type="firstColumn" dxfId="10"/>
+      <tableStyleElement type="lastColumn" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2928,14 +3186,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="项目_1" displayName="项目_1" ref="B7:F79" totalsRowShown="0">
-  <autoFilter ref="B7:F79"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="项目_1" displayName="项目_1" ref="B7:F78" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B7:F78"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="完成百分比"/>
-    <tableColumn id="2" name="阶段" dataDxfId="1"/>
-    <tableColumn id="3" name="测试" dataDxfId="0"/>
-    <tableColumn id="4" name="python"/>
-    <tableColumn id="6" name="备注"/>
+    <tableColumn id="1" name="完成百分比" dataDxfId="4"/>
+    <tableColumn id="2" name="阶段" dataDxfId="3"/>
+    <tableColumn id="3" name="测试" dataDxfId="2"/>
+    <tableColumn id="4" name="python" dataDxfId="1"/>
+    <tableColumn id="6" name="备注" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="项目的待办事项列表" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3294,656 +3552,700 @@
     <tabColor theme="5" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="30.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" customWidth="1"/>
-    <col min="10" max="10" width="36.21875" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="4" customWidth="1"/>
+    <col min="8" max="9" width="9.21875" style="4"/>
+    <col min="10" max="10" width="36.21875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9.21875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1"/>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="52.5" customHeight="1">
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="52.5" customHeight="1">
+      <c r="B3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="46.5" customHeight="1">
+      <c r="E3" s="14"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" s="6" customFormat="1" ht="46.5" customHeight="1">
       <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="17"/>
-      <c r="D4" s="14" t="s">
-        <v>598</v>
-      </c>
-      <c r="E4" s="15"/>
+      <c r="D4" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1"/>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="6" spans="1:11" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B7" s="3" t="s">
+      <c r="J6" s="7"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B8" s="5">
+      <c r="F7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="B8" s="10">
         <v>1</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="48" customHeight="1">
-      <c r="B9" s="5">
+      <c r="D8" s="11"/>
+      <c r="E8" s="9"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" s="6" customFormat="1" ht="48" customHeight="1">
+      <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="4">
         <v>11.1</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" s="6" customFormat="1" ht="136.5" customHeight="1">
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>11.2</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="9" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="136.5" customHeight="1">
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9">
-        <v>11.2</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="6" customFormat="1" ht="106.5" customHeight="1">
+      <c r="B11" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="C11" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="9"/>
+      <c r="J11" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="6" customFormat="1" ht="81" customHeight="1">
+      <c r="B12" s="10">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" s="6" customFormat="1" ht="128.25" customHeight="1">
+      <c r="B13" s="10">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" s="6" customFormat="1" ht="193.5" customHeight="1">
+      <c r="B14" s="10">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" s="6" customFormat="1" ht="129.75" customHeight="1">
+      <c r="B15" s="10">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" ht="164.25" customHeight="1">
+      <c r="B16" s="10">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="30" customHeight="1">
+      <c r="B17" s="10">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="2:5" ht="30" customHeight="1">
+      <c r="B18" s="10">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B11" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="C11" s="9">
-        <v>11.3</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" ht="119.25" customHeight="1">
-      <c r="B12" s="5">
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="2:5" ht="168" customHeight="1">
+      <c r="B19" s="10">
         <v>0</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="81" customHeight="1">
-      <c r="B13" s="5">
+      <c r="C19" s="4">
+        <v>11.11</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="87.75" customHeight="1">
+      <c r="B20" s="10">
         <v>0</v>
       </c>
-      <c r="C13" s="9">
-        <v>11.4</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="3" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="128.25" customHeight="1">
-      <c r="B14" s="5">
+      <c r="C20" s="4">
+        <v>11.12</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="188.25" customHeight="1">
+      <c r="B21" s="10">
         <v>0</v>
       </c>
-      <c r="C14" s="9">
-        <v>11.5</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="165.75" customHeight="1">
-      <c r="B15" s="5">
+      <c r="C21" s="4">
+        <v>11.13</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="133.5" customHeight="1">
+      <c r="B22" s="10">
         <v>0</v>
       </c>
-      <c r="C15" s="9">
-        <v>11.6</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="129.75" customHeight="1">
-      <c r="B16" s="5">
+      <c r="C22" s="4">
+        <v>11.14</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="88.5" customHeight="1">
+      <c r="B23" s="10">
         <v>0</v>
       </c>
-      <c r="C16" s="9">
-        <v>11.7</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="164.25" customHeight="1">
-      <c r="B17" s="5">
+      <c r="C23" s="4">
+        <v>11.15</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="30" customHeight="1">
+      <c r="B24" s="10">
         <v>0</v>
       </c>
-      <c r="C17" s="9">
-        <v>11.8</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="E17" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="30" customHeight="1">
-      <c r="B18" s="5">
+      <c r="C24" s="4">
+        <v>11.16</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="30" customHeight="1">
+      <c r="B25" s="10">
         <v>0</v>
       </c>
-      <c r="C18" s="9">
-        <v>11.9</v>
-      </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="2:5" ht="30" customHeight="1">
-      <c r="B19" s="5">
+      <c r="C25" s="4">
+        <v>11.17</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="227.25" customHeight="1">
+      <c r="B26" s="10">
         <v>0</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="2:5" ht="168" customHeight="1">
-      <c r="B20" s="5">
+      <c r="C26" s="4">
+        <v>11.18</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="68.25" customHeight="1">
+      <c r="B27" s="10">
         <v>0</v>
       </c>
-      <c r="C20" s="9">
-        <v>11.11</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>611</v>
-      </c>
-      <c r="E20" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="87.75" customHeight="1">
-      <c r="B21" s="5">
+      <c r="C27" s="4">
+        <v>11.19</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="88.5" customHeight="1">
+      <c r="B28" s="10">
         <v>0</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="12"/>
-      <c r="E21" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="30" customHeight="1">
-      <c r="B22" s="5">
+      <c r="C28" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="96.75" customHeight="1">
+      <c r="B29" s="10">
         <v>0</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="2:5" ht="30" customHeight="1">
-      <c r="B23" s="5">
+      <c r="C29" s="4">
+        <v>11.21</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="143.25" customHeight="1">
+      <c r="B30" s="10">
         <v>0</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="2:5" ht="30" customHeight="1">
-      <c r="B24" s="5">
+      <c r="C30" s="4">
+        <v>11.22</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="30" customHeight="1">
+      <c r="B31" s="10">
         <v>0</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="2:5" ht="30" customHeight="1">
-      <c r="B25" s="5">
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" spans="2:5" ht="30" customHeight="1">
+      <c r="B32" s="10">
         <v>0</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="2:5" ht="30" customHeight="1">
-      <c r="B26" s="5">
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="2:4" ht="30" customHeight="1">
+      <c r="B33" s="10">
         <v>0</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" spans="2:5" ht="30" customHeight="1">
-      <c r="B27" s="5">
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="2:4" ht="30" customHeight="1">
+      <c r="B34" s="10">
         <v>0</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="2:5" ht="30" customHeight="1">
-      <c r="B28" s="5">
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" spans="2:4" ht="30" customHeight="1">
+      <c r="B35" s="10">
         <v>0</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="2:5" ht="30" customHeight="1">
-      <c r="B29" s="5">
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" spans="2:4" ht="30" customHeight="1">
+      <c r="B36" s="10">
         <v>0</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="2:5" ht="30" customHeight="1">
-      <c r="B30" s="5">
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" spans="2:4" ht="30" customHeight="1">
+      <c r="B37" s="10">
         <v>0</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="12"/>
-    </row>
-    <row r="31" spans="2:5" ht="30" customHeight="1">
-      <c r="B31" s="5">
+      <c r="D37" s="13"/>
+    </row>
+    <row r="38" spans="2:4" ht="30" customHeight="1">
+      <c r="B38" s="10">
         <v>0</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" spans="2:5" ht="30" customHeight="1">
-      <c r="B32" s="5">
+      <c r="D38" s="13"/>
+    </row>
+    <row r="39" spans="2:4" ht="30" customHeight="1">
+      <c r="B39" s="10">
         <v>0</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="12"/>
-    </row>
-    <row r="33" spans="2:4" ht="30" customHeight="1">
-      <c r="B33" s="5">
+      <c r="D39" s="13"/>
+    </row>
+    <row r="40" spans="2:4" ht="30" customHeight="1">
+      <c r="B40" s="10">
         <v>0</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="2:4" ht="30" customHeight="1">
-      <c r="B34" s="5">
+      <c r="D40" s="13"/>
+    </row>
+    <row r="41" spans="2:4" ht="30" customHeight="1">
+      <c r="B41" s="10">
         <v>0</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="12"/>
-    </row>
-    <row r="35" spans="2:4" ht="30" customHeight="1">
-      <c r="B35" s="5">
+      <c r="D41" s="13"/>
+    </row>
+    <row r="42" spans="2:4" ht="30" customHeight="1">
+      <c r="B42" s="10">
         <v>0</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="2:4" ht="30" customHeight="1">
-      <c r="B36" s="5">
+      <c r="D42" s="13"/>
+    </row>
+    <row r="43" spans="2:4" ht="30" customHeight="1">
+      <c r="B43" s="10">
         <v>0</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="2:4" ht="30" customHeight="1">
-      <c r="B37" s="5">
+      <c r="D43" s="13"/>
+    </row>
+    <row r="44" spans="2:4" ht="30" customHeight="1">
+      <c r="B44" s="10">
         <v>0</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="12"/>
-    </row>
-    <row r="38" spans="2:4" ht="30" customHeight="1">
-      <c r="B38" s="5">
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" spans="2:4" ht="30" customHeight="1">
+      <c r="B45" s="10">
         <v>0</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="12"/>
-    </row>
-    <row r="39" spans="2:4" ht="30" customHeight="1">
-      <c r="B39" s="5">
+      <c r="D45" s="13"/>
+    </row>
+    <row r="46" spans="2:4" ht="30" customHeight="1">
+      <c r="B46" s="10">
         <v>0</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="12"/>
-    </row>
-    <row r="40" spans="2:4" ht="30" customHeight="1">
-      <c r="B40" s="5">
+      <c r="D46" s="13"/>
+    </row>
+    <row r="47" spans="2:4" ht="30" customHeight="1">
+      <c r="B47" s="10">
         <v>0</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="12"/>
-    </row>
-    <row r="41" spans="2:4" ht="30" customHeight="1">
-      <c r="B41" s="5">
+      <c r="D47" s="13"/>
+    </row>
+    <row r="48" spans="2:4" ht="30" customHeight="1">
+      <c r="B48" s="10">
         <v>0</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="12"/>
-    </row>
-    <row r="42" spans="2:4" ht="30" customHeight="1">
-      <c r="B42" s="5">
+      <c r="D48" s="13"/>
+    </row>
+    <row r="49" spans="2:4" ht="30" customHeight="1">
+      <c r="B49" s="10">
         <v>0</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="12"/>
-    </row>
-    <row r="43" spans="2:4" ht="30" customHeight="1">
-      <c r="B43" s="5">
+      <c r="D49" s="13"/>
+    </row>
+    <row r="50" spans="2:4" ht="30" customHeight="1">
+      <c r="B50" s="10">
         <v>0</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="12"/>
-    </row>
-    <row r="44" spans="2:4" ht="30" customHeight="1">
-      <c r="B44" s="5">
+      <c r="D50" s="13"/>
+    </row>
+    <row r="51" spans="2:4" ht="30" customHeight="1">
+      <c r="B51" s="10">
         <v>0</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="12"/>
-    </row>
-    <row r="45" spans="2:4" ht="30" customHeight="1">
-      <c r="B45" s="5">
+      <c r="D51" s="13"/>
+    </row>
+    <row r="52" spans="2:4" ht="30" customHeight="1">
+      <c r="B52" s="10">
         <v>0</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="12"/>
-    </row>
-    <row r="46" spans="2:4" ht="30" customHeight="1">
-      <c r="B46" s="5">
+      <c r="D52" s="13"/>
+    </row>
+    <row r="53" spans="2:4" ht="30" customHeight="1">
+      <c r="B53" s="10">
         <v>0</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="12"/>
-    </row>
-    <row r="47" spans="2:4" ht="30" customHeight="1">
-      <c r="B47" s="5">
+      <c r="D53" s="13"/>
+    </row>
+    <row r="54" spans="2:4" ht="30" customHeight="1">
+      <c r="B54" s="10">
         <v>0</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="12"/>
-    </row>
-    <row r="48" spans="2:4" ht="30" customHeight="1">
-      <c r="B48" s="5">
+      <c r="D54" s="13"/>
+    </row>
+    <row r="55" spans="2:4" ht="30" customHeight="1">
+      <c r="B55" s="10">
         <v>0</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="12"/>
-    </row>
-    <row r="49" spans="2:4" ht="30" customHeight="1">
-      <c r="B49" s="5">
+      <c r="D55" s="13"/>
+    </row>
+    <row r="56" spans="2:4" ht="30" customHeight="1">
+      <c r="B56" s="10">
         <v>0</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="12"/>
-    </row>
-    <row r="50" spans="2:4" ht="30" customHeight="1">
-      <c r="B50" s="5">
+      <c r="D56" s="13"/>
+    </row>
+    <row r="57" spans="2:4" ht="30" customHeight="1">
+      <c r="B57" s="10">
         <v>0</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="12"/>
-    </row>
-    <row r="51" spans="2:4" ht="30" customHeight="1">
-      <c r="B51" s="5">
+      <c r="D57" s="13"/>
+    </row>
+    <row r="58" spans="2:4" ht="30" customHeight="1">
+      <c r="B58" s="10">
         <v>0</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="12"/>
-    </row>
-    <row r="52" spans="2:4" ht="30" customHeight="1">
-      <c r="B52" s="5">
+      <c r="D58" s="13"/>
+    </row>
+    <row r="59" spans="2:4" ht="30" customHeight="1">
+      <c r="B59" s="10">
         <v>0</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="12"/>
-    </row>
-    <row r="53" spans="2:4" ht="30" customHeight="1">
-      <c r="B53" s="5">
+      <c r="D59" s="13"/>
+    </row>
+    <row r="60" spans="2:4" ht="30" customHeight="1">
+      <c r="B60" s="10">
         <v>0</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="12"/>
-    </row>
-    <row r="54" spans="2:4" ht="30" customHeight="1">
-      <c r="B54" s="5">
+      <c r="D60" s="13"/>
+    </row>
+    <row r="61" spans="2:4" ht="30" customHeight="1">
+      <c r="B61" s="10">
         <v>0</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="12"/>
-    </row>
-    <row r="55" spans="2:4" ht="30" customHeight="1">
-      <c r="B55" s="5">
+      <c r="D61" s="13"/>
+    </row>
+    <row r="62" spans="2:4" ht="30" customHeight="1">
+      <c r="B62" s="10">
         <v>0</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="12"/>
-    </row>
-    <row r="56" spans="2:4" ht="30" customHeight="1">
-      <c r="B56" s="5">
+      <c r="D62" s="13"/>
+    </row>
+    <row r="63" spans="2:4" ht="30" customHeight="1">
+      <c r="B63" s="10">
         <v>0</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="12"/>
-    </row>
-    <row r="57" spans="2:4" ht="30" customHeight="1">
-      <c r="B57" s="5">
+      <c r="D63" s="13"/>
+    </row>
+    <row r="64" spans="2:4" ht="30" customHeight="1">
+      <c r="B64" s="10">
         <v>0</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="12"/>
-    </row>
-    <row r="58" spans="2:4" ht="30" customHeight="1">
-      <c r="B58" s="5">
+      <c r="D64" s="13"/>
+    </row>
+    <row r="65" spans="2:4" ht="30" customHeight="1">
+      <c r="B65" s="10">
         <v>0</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="12"/>
-    </row>
-    <row r="59" spans="2:4" ht="30" customHeight="1">
-      <c r="B59" s="5">
+      <c r="D65" s="13"/>
+    </row>
+    <row r="66" spans="2:4" ht="30" customHeight="1">
+      <c r="B66" s="10">
         <v>0</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="12"/>
-    </row>
-    <row r="60" spans="2:4" ht="30" customHeight="1">
-      <c r="B60" s="5">
+      <c r="D66" s="13"/>
+    </row>
+    <row r="67" spans="2:4" ht="30" customHeight="1">
+      <c r="B67" s="10">
         <v>0</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="12"/>
-    </row>
-    <row r="61" spans="2:4" ht="30" customHeight="1">
-      <c r="B61" s="5">
+      <c r="D67" s="13"/>
+    </row>
+    <row r="68" spans="2:4" ht="30" customHeight="1">
+      <c r="B68" s="10">
         <v>0</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="12"/>
-    </row>
-    <row r="62" spans="2:4" ht="30" customHeight="1">
-      <c r="B62" s="5">
+      <c r="D68" s="13"/>
+    </row>
+    <row r="69" spans="2:4" ht="30" customHeight="1">
+      <c r="B69" s="10">
         <v>0</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="12"/>
-    </row>
-    <row r="63" spans="2:4" ht="30" customHeight="1">
-      <c r="B63" s="5">
+      <c r="D69" s="13"/>
+    </row>
+    <row r="70" spans="2:4" ht="30" customHeight="1">
+      <c r="B70" s="10">
         <v>0</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="12"/>
-    </row>
-    <row r="64" spans="2:4" ht="30" customHeight="1">
-      <c r="B64" s="5">
+      <c r="D70" s="13"/>
+    </row>
+    <row r="71" spans="2:4" ht="30" customHeight="1">
+      <c r="B71" s="10">
         <v>0</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="12"/>
-    </row>
-    <row r="65" spans="2:4" ht="30" customHeight="1">
-      <c r="B65" s="5">
+      <c r="D71" s="13"/>
+    </row>
+    <row r="72" spans="2:4" ht="30" customHeight="1">
+      <c r="B72" s="10">
         <v>0</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="12"/>
-    </row>
-    <row r="66" spans="2:4" ht="30" customHeight="1">
-      <c r="B66" s="5">
+      <c r="D72" s="13"/>
+    </row>
+    <row r="73" spans="2:4" ht="30" customHeight="1">
+      <c r="B73" s="10">
         <v>0</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="12"/>
-    </row>
-    <row r="67" spans="2:4" ht="30" customHeight="1">
-      <c r="B67" s="5">
+      <c r="D73" s="13"/>
+    </row>
+    <row r="74" spans="2:4" ht="30" customHeight="1">
+      <c r="B74" s="10">
         <v>0</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="12"/>
-    </row>
-    <row r="68" spans="2:4" ht="30" customHeight="1">
-      <c r="B68" s="5">
+      <c r="D74" s="13"/>
+    </row>
+    <row r="75" spans="2:4" ht="30" customHeight="1">
+      <c r="B75" s="10">
         <v>0</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="12"/>
-    </row>
-    <row r="69" spans="2:4" ht="30" customHeight="1">
-      <c r="B69" s="5">
+      <c r="D75" s="13"/>
+    </row>
+    <row r="76" spans="2:4" ht="30" customHeight="1">
+      <c r="B76" s="10">
         <v>0</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="12"/>
-    </row>
-    <row r="70" spans="2:4" ht="30" customHeight="1">
-      <c r="B70" s="5">
+      <c r="D76" s="13"/>
+    </row>
+    <row r="77" spans="2:4" ht="30" customHeight="1">
+      <c r="B77" s="10">
         <v>0</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="12"/>
-    </row>
-    <row r="71" spans="2:4" ht="30" customHeight="1">
-      <c r="B71" s="5">
+      <c r="D77" s="13"/>
+    </row>
+    <row r="78" spans="2:4" ht="30" customHeight="1">
+      <c r="B78" s="10">
         <v>0</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="12"/>
-    </row>
-    <row r="72" spans="2:4" ht="30" customHeight="1">
-      <c r="B72" s="5">
-        <v>0</v>
-      </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="12"/>
-    </row>
-    <row r="73" spans="2:4" ht="30" customHeight="1">
-      <c r="B73" s="5">
-        <v>0</v>
-      </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="12"/>
-    </row>
-    <row r="74" spans="2:4" ht="30" customHeight="1">
-      <c r="B74" s="5">
-        <v>0</v>
-      </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="12"/>
-    </row>
-    <row r="75" spans="2:4" ht="30" customHeight="1">
-      <c r="B75" s="5">
-        <v>0</v>
-      </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="12"/>
-    </row>
-    <row r="76" spans="2:4" ht="30" customHeight="1">
-      <c r="B76" s="5">
-        <v>0</v>
-      </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="12"/>
-    </row>
-    <row r="77" spans="2:4" ht="30" customHeight="1">
-      <c r="B77" s="5">
-        <v>0</v>
-      </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="12"/>
-    </row>
-    <row r="78" spans="2:4" ht="30" customHeight="1">
-      <c r="B78" s="5">
-        <v>0</v>
-      </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="12"/>
-    </row>
-    <row r="79" spans="2:4" ht="30" customHeight="1">
-      <c r="B79" s="5">
-        <v>0</v>
-      </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="12"/>
+      <c r="D78" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3954,8 +4256,8 @@
     <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B8:B79">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="B8:B78">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3992,4612 +4294,4612 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C490"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A465" workbookViewId="0">
+      <selection activeCell="F480" sqref="F480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="38.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="10" t="s">
-        <v>25</v>
+      <c r="A1" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="10" t="s">
-        <v>22</v>
+      <c r="A2" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>594</v>
-      </c>
-      <c r="C2" s="8">
+        <v>593</v>
+      </c>
+      <c r="C2" s="1">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>595</v>
-      </c>
-      <c r="C3" s="8">
+        <v>594</v>
+      </c>
+      <c r="C3" s="1">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="19"/>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="8">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="19"/>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="8">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="19"/>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="8">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="19"/>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="8">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="19"/>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="8">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="19"/>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="8">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="19"/>
       <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="8">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="19"/>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="8">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="19"/>
       <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="8">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="19"/>
       <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="8">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="8">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="19"/>
       <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="8">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="33">
       <c r="A16" s="19"/>
       <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="8">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="8">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="19"/>
       <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="8">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="19"/>
       <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="8">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="19"/>
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="8">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="33">
       <c r="A21" s="19"/>
       <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="8">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="8">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="19"/>
       <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="8">
+        <v>37</v>
+      </c>
+      <c r="C23" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="19"/>
       <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="8">
+        <v>38</v>
+      </c>
+      <c r="C24" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="19"/>
       <c r="B25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="8">
+        <v>39</v>
+      </c>
+      <c r="C25" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="33">
       <c r="A26" s="19"/>
       <c r="B26" t="s">
-        <v>603</v>
-      </c>
-      <c r="C26" s="8">
+        <v>601</v>
+      </c>
+      <c r="C26" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="19"/>
       <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="8">
+        <v>40</v>
+      </c>
+      <c r="C27" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="33">
       <c r="A28" s="19"/>
       <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="8">
+        <v>41</v>
+      </c>
+      <c r="C28" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="19"/>
       <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="8">
+        <v>42</v>
+      </c>
+      <c r="C29" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="19"/>
       <c r="B30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="8">
+        <v>43</v>
+      </c>
+      <c r="C30" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="19"/>
       <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="8">
+        <v>44</v>
+      </c>
+      <c r="C31" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="19"/>
       <c r="B32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="8">
+        <v>45</v>
+      </c>
+      <c r="C32" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="8">
+        <v>47</v>
+      </c>
+      <c r="C33" s="1">
         <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="19"/>
       <c r="B34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="8">
+        <v>48</v>
+      </c>
+      <c r="C34" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="19"/>
       <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="8">
+        <v>49</v>
+      </c>
+      <c r="C35" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="19"/>
       <c r="B36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="8">
+        <v>50</v>
+      </c>
+      <c r="C36" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="19"/>
       <c r="B37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="8">
+        <v>51</v>
+      </c>
+      <c r="C37" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="19"/>
       <c r="B38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="8">
+        <v>52</v>
+      </c>
+      <c r="C38" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="19"/>
       <c r="B39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="8">
+        <v>53</v>
+      </c>
+      <c r="C39" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="19"/>
       <c r="B40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="8">
+        <v>54</v>
+      </c>
+      <c r="C40" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="8">
+        <v>56</v>
+      </c>
+      <c r="C41" s="1">
         <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="19"/>
       <c r="B42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="8">
+        <v>57</v>
+      </c>
+      <c r="C42" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="19"/>
       <c r="B43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="8">
+        <v>58</v>
+      </c>
+      <c r="C43" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="19"/>
       <c r="B44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="8">
+        <v>59</v>
+      </c>
+      <c r="C44" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="19"/>
       <c r="B45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="8">
+        <v>60</v>
+      </c>
+      <c r="C45" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="19"/>
       <c r="B46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="8">
+        <v>61</v>
+      </c>
+      <c r="C46" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="19"/>
       <c r="B47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="8">
+        <v>62</v>
+      </c>
+      <c r="C47" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="19"/>
       <c r="B48" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="8">
+        <v>63</v>
+      </c>
+      <c r="C48" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="19"/>
       <c r="B49" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="8">
+        <v>64</v>
+      </c>
+      <c r="C49" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="8">
+        <v>66</v>
+      </c>
+      <c r="C50" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="19"/>
       <c r="B51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="8">
+        <v>67</v>
+      </c>
+      <c r="C51" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="19"/>
       <c r="B52" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="8">
+        <v>68</v>
+      </c>
+      <c r="C52" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="19"/>
       <c r="B53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="8">
+        <v>69</v>
+      </c>
+      <c r="C53" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="19"/>
       <c r="B54" t="s">
-        <v>73</v>
-      </c>
-      <c r="C54" s="8">
+        <v>72</v>
+      </c>
+      <c r="C54" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="19"/>
       <c r="B55" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="8">
+        <v>70</v>
+      </c>
+      <c r="C55" s="1">
         <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="19"/>
       <c r="B56" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="8">
+        <v>71</v>
+      </c>
+      <c r="C56" s="1">
         <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="8">
+        <v>74</v>
+      </c>
+      <c r="C57" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="19"/>
       <c r="B58" t="s">
-        <v>76</v>
-      </c>
-      <c r="C58" s="8">
+        <v>75</v>
+      </c>
+      <c r="C58" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="33">
       <c r="A59" s="19"/>
       <c r="B59" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="8">
+        <v>76</v>
+      </c>
+      <c r="C59" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="19"/>
       <c r="B60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" s="8">
+        <v>77</v>
+      </c>
+      <c r="C60" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="19"/>
       <c r="B61" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="8">
+        <v>78</v>
+      </c>
+      <c r="C61" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="19"/>
       <c r="B62" t="s">
-        <v>80</v>
-      </c>
-      <c r="C62" s="8">
+        <v>79</v>
+      </c>
+      <c r="C62" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="19"/>
       <c r="B63" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="8">
+        <v>80</v>
+      </c>
+      <c r="C63" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="33">
       <c r="A64" s="19"/>
       <c r="B64" t="s">
-        <v>82</v>
-      </c>
-      <c r="C64" s="8">
+        <v>81</v>
+      </c>
+      <c r="C64" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="19"/>
       <c r="B65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" s="8">
+        <v>82</v>
+      </c>
+      <c r="C65" s="1">
         <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="33">
       <c r="A66" s="19"/>
       <c r="B66" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" s="8">
+        <v>83</v>
+      </c>
+      <c r="C66" s="1">
         <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" s="8">
+        <v>85</v>
+      </c>
+      <c r="C67" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="19"/>
       <c r="B68" t="s">
-        <v>87</v>
-      </c>
-      <c r="C68" s="8">
+        <v>86</v>
+      </c>
+      <c r="C68" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="19"/>
       <c r="B69" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" s="8">
+        <v>87</v>
+      </c>
+      <c r="C69" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="19"/>
       <c r="B70" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" s="8">
+        <v>88</v>
+      </c>
+      <c r="C70" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
-      </c>
-      <c r="C71" s="8">
+        <v>90</v>
+      </c>
+      <c r="C71" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="19"/>
       <c r="B72" t="s">
-        <v>92</v>
-      </c>
-      <c r="C72" s="8">
+        <v>91</v>
+      </c>
+      <c r="C72" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="33">
       <c r="A73" s="19"/>
       <c r="B73" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" s="8">
+        <v>92</v>
+      </c>
+      <c r="C73" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="19"/>
       <c r="B74" t="s">
-        <v>94</v>
-      </c>
-      <c r="C74" s="8">
+        <v>93</v>
+      </c>
+      <c r="C74" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="19"/>
       <c r="B75" t="s">
-        <v>95</v>
-      </c>
-      <c r="C75" s="8">
+        <v>94</v>
+      </c>
+      <c r="C75" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="33">
       <c r="A76" s="19"/>
       <c r="B76" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" s="8">
+        <v>95</v>
+      </c>
+      <c r="C76" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="19"/>
       <c r="B77" t="s">
-        <v>97</v>
-      </c>
-      <c r="C77" s="8">
+        <v>96</v>
+      </c>
+      <c r="C77" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="19"/>
       <c r="B78" t="s">
-        <v>98</v>
-      </c>
-      <c r="C78" s="8">
+        <v>97</v>
+      </c>
+      <c r="C78" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="19"/>
       <c r="B79" t="s">
-        <v>99</v>
-      </c>
-      <c r="C79" s="8">
+        <v>98</v>
+      </c>
+      <c r="C79" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B80" t="s">
-        <v>101</v>
-      </c>
-      <c r="C80" s="8">
+        <v>100</v>
+      </c>
+      <c r="C80" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="19"/>
       <c r="B81" t="s">
-        <v>102</v>
-      </c>
-      <c r="C81" s="8">
+        <v>101</v>
+      </c>
+      <c r="C81" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="19"/>
       <c r="B82" t="s">
-        <v>103</v>
-      </c>
-      <c r="C82" s="8">
+        <v>102</v>
+      </c>
+      <c r="C82" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="19"/>
       <c r="B83" t="s">
-        <v>104</v>
-      </c>
-      <c r="C83" s="8">
+        <v>103</v>
+      </c>
+      <c r="C83" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="19"/>
       <c r="B84" t="s">
-        <v>105</v>
-      </c>
-      <c r="C84" s="8">
+        <v>104</v>
+      </c>
+      <c r="C84" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="19"/>
       <c r="B85" t="s">
-        <v>106</v>
-      </c>
-      <c r="C85" s="8">
+        <v>105</v>
+      </c>
+      <c r="C85" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="19"/>
       <c r="B86" t="s">
-        <v>107</v>
-      </c>
-      <c r="C86" s="8">
+        <v>106</v>
+      </c>
+      <c r="C86" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="19"/>
       <c r="B87" t="s">
-        <v>108</v>
-      </c>
-      <c r="C87" s="8">
+        <v>107</v>
+      </c>
+      <c r="C87" s="1">
         <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="19"/>
       <c r="B88" t="s">
-        <v>109</v>
-      </c>
-      <c r="C88" s="8">
+        <v>108</v>
+      </c>
+      <c r="C88" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B89" t="s">
-        <v>111</v>
-      </c>
-      <c r="C89" s="8">
+        <v>110</v>
+      </c>
+      <c r="C89" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="19"/>
       <c r="B90" t="s">
-        <v>112</v>
-      </c>
-      <c r="C90" s="8">
+        <v>111</v>
+      </c>
+      <c r="C90" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="19"/>
       <c r="B91" t="s">
-        <v>113</v>
-      </c>
-      <c r="C91" s="8">
+        <v>112</v>
+      </c>
+      <c r="C91" s="1">
         <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="19"/>
       <c r="B92" t="s">
-        <v>114</v>
-      </c>
-      <c r="C92" s="8">
+        <v>113</v>
+      </c>
+      <c r="C92" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="19"/>
       <c r="B93" t="s">
-        <v>115</v>
-      </c>
-      <c r="C93" s="8">
+        <v>114</v>
+      </c>
+      <c r="C93" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="19"/>
       <c r="B94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C94" s="8">
+        <v>115</v>
+      </c>
+      <c r="C94" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="19"/>
       <c r="B95" t="s">
-        <v>117</v>
-      </c>
-      <c r="C95" s="8">
+        <v>116</v>
+      </c>
+      <c r="C95" s="1">
         <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B96" t="s">
-        <v>119</v>
-      </c>
-      <c r="C96" s="8">
+        <v>118</v>
+      </c>
+      <c r="C96" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="19"/>
       <c r="B97" t="s">
-        <v>120</v>
-      </c>
-      <c r="C97" s="8">
+        <v>119</v>
+      </c>
+      <c r="C97" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="19"/>
       <c r="B98" t="s">
-        <v>121</v>
-      </c>
-      <c r="C98" s="8">
+        <v>120</v>
+      </c>
+      <c r="C98" s="1">
         <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="19"/>
       <c r="B99" t="s">
-        <v>122</v>
-      </c>
-      <c r="C99" s="8">
+        <v>121</v>
+      </c>
+      <c r="C99" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B100" t="s">
-        <v>124</v>
-      </c>
-      <c r="C100" s="8">
+        <v>123</v>
+      </c>
+      <c r="C100" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="19"/>
       <c r="B101" t="s">
-        <v>125</v>
-      </c>
-      <c r="C101" s="8">
+        <v>124</v>
+      </c>
+      <c r="C101" s="1">
         <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="19"/>
       <c r="B102" t="s">
-        <v>126</v>
-      </c>
-      <c r="C102" s="8">
+        <v>125</v>
+      </c>
+      <c r="C102" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="19"/>
       <c r="B103" t="s">
-        <v>127</v>
-      </c>
-      <c r="C103" s="8">
+        <v>126</v>
+      </c>
+      <c r="C103" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="19"/>
       <c r="B104" t="s">
-        <v>128</v>
-      </c>
-      <c r="C104" s="8">
+        <v>127</v>
+      </c>
+      <c r="C104" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B105" t="s">
-        <v>130</v>
-      </c>
-      <c r="C105" s="8">
+        <v>129</v>
+      </c>
+      <c r="C105" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="19"/>
       <c r="B106" t="s">
-        <v>131</v>
-      </c>
-      <c r="C106" s="8">
+        <v>130</v>
+      </c>
+      <c r="C106" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="19"/>
       <c r="B107" t="s">
-        <v>132</v>
-      </c>
-      <c r="C107" s="8">
+        <v>131</v>
+      </c>
+      <c r="C107" s="1">
         <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="19"/>
       <c r="B108" t="s">
-        <v>133</v>
-      </c>
-      <c r="C108" s="8">
+        <v>132</v>
+      </c>
+      <c r="C108" s="1">
         <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="19"/>
       <c r="B109" t="s">
-        <v>134</v>
-      </c>
-      <c r="C109" s="8">
+        <v>133</v>
+      </c>
+      <c r="C109" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="19"/>
       <c r="B110" t="s">
-        <v>135</v>
-      </c>
-      <c r="C110" s="8">
+        <v>134</v>
+      </c>
+      <c r="C110" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="19"/>
       <c r="B111" t="s">
-        <v>136</v>
-      </c>
-      <c r="C111" s="8">
+        <v>135</v>
+      </c>
+      <c r="C111" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B112" t="s">
-        <v>138</v>
-      </c>
-      <c r="C112" s="8">
+        <v>137</v>
+      </c>
+      <c r="C112" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="19"/>
       <c r="B113" t="s">
-        <v>139</v>
-      </c>
-      <c r="C113" s="8">
+        <v>138</v>
+      </c>
+      <c r="C113" s="1">
         <v>52</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="19"/>
       <c r="B114" t="s">
-        <v>140</v>
-      </c>
-      <c r="C114" s="8">
+        <v>139</v>
+      </c>
+      <c r="C114" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B115" t="s">
-        <v>142</v>
-      </c>
-      <c r="C115" s="8">
+        <v>141</v>
+      </c>
+      <c r="C115" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="20"/>
       <c r="B116" t="s">
-        <v>143</v>
-      </c>
-      <c r="C116" s="8">
+        <v>142</v>
+      </c>
+      <c r="C116" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="20"/>
       <c r="B117" t="s">
-        <v>144</v>
-      </c>
-      <c r="C117" s="8">
+        <v>143</v>
+      </c>
+      <c r="C117" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B118" t="s">
-        <v>146</v>
-      </c>
-      <c r="C118" s="8">
+        <v>145</v>
+      </c>
+      <c r="C118" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="19"/>
       <c r="B119" t="s">
-        <v>147</v>
-      </c>
-      <c r="C119" s="8">
+        <v>146</v>
+      </c>
+      <c r="C119" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B120" t="s">
-        <v>149</v>
-      </c>
-      <c r="C120" s="8">
+        <v>148</v>
+      </c>
+      <c r="C120" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="19"/>
       <c r="B121" t="s">
-        <v>150</v>
-      </c>
-      <c r="C121" s="8">
+        <v>149</v>
+      </c>
+      <c r="C121" s="1">
         <v>31</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B122" t="s">
-        <v>152</v>
-      </c>
-      <c r="C122" s="8">
+        <v>151</v>
+      </c>
+      <c r="C122" s="1">
         <v>28</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="19"/>
       <c r="B123" t="s">
-        <v>153</v>
-      </c>
-      <c r="C123" s="8">
+        <v>152</v>
+      </c>
+      <c r="C123" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B124" t="s">
-        <v>155</v>
-      </c>
-      <c r="C124" s="8">
+        <v>154</v>
+      </c>
+      <c r="C124" s="1">
         <v>36</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="19"/>
       <c r="B125" t="s">
-        <v>156</v>
-      </c>
-      <c r="C125" s="8">
+        <v>155</v>
+      </c>
+      <c r="C125" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="19"/>
       <c r="B126" t="s">
-        <v>157</v>
-      </c>
-      <c r="C126" s="8">
+        <v>156</v>
+      </c>
+      <c r="C126" s="1">
         <v>38</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B127" t="s">
-        <v>159</v>
-      </c>
-      <c r="C127" s="8">
+        <v>158</v>
+      </c>
+      <c r="C127" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="19"/>
       <c r="B128" t="s">
-        <v>160</v>
-      </c>
-      <c r="C128" s="8">
+        <v>159</v>
+      </c>
+      <c r="C128" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="19"/>
       <c r="B129" t="s">
-        <v>161</v>
-      </c>
-      <c r="C129" s="8">
+        <v>160</v>
+      </c>
+      <c r="C129" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="19"/>
       <c r="B130" t="s">
-        <v>162</v>
-      </c>
-      <c r="C130" s="8">
+        <v>161</v>
+      </c>
+      <c r="C130" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="19"/>
       <c r="B131" t="s">
-        <v>163</v>
-      </c>
-      <c r="C131" s="8">
+        <v>162</v>
+      </c>
+      <c r="C131" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B132" t="s">
-        <v>165</v>
-      </c>
-      <c r="C132" s="8">
+        <v>164</v>
+      </c>
+      <c r="C132" s="1">
         <v>39</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="19"/>
       <c r="B133" t="s">
-        <v>166</v>
-      </c>
-      <c r="C133" s="8">
+        <v>165</v>
+      </c>
+      <c r="C133" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="19"/>
       <c r="B134" t="s">
-        <v>167</v>
-      </c>
-      <c r="C134" s="8">
+        <v>166</v>
+      </c>
+      <c r="C134" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B135" t="s">
-        <v>169</v>
-      </c>
-      <c r="C135" s="8">
+        <v>168</v>
+      </c>
+      <c r="C135" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="19"/>
       <c r="B136" t="s">
-        <v>170</v>
-      </c>
-      <c r="C136" s="8">
+        <v>169</v>
+      </c>
+      <c r="C136" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="19"/>
       <c r="B137" t="s">
-        <v>171</v>
-      </c>
-      <c r="C137" s="8">
+        <v>170</v>
+      </c>
+      <c r="C137" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="19"/>
       <c r="B138" t="s">
-        <v>172</v>
-      </c>
-      <c r="C138" s="8">
+        <v>171</v>
+      </c>
+      <c r="C138" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="19"/>
       <c r="B139" t="s">
-        <v>173</v>
-      </c>
-      <c r="C139" s="8">
+        <v>172</v>
+      </c>
+      <c r="C139" s="1">
         <v>43</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B140" t="s">
-        <v>175</v>
-      </c>
-      <c r="C140" s="8">
+        <v>174</v>
+      </c>
+      <c r="C140" s="1">
         <v>51</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="19"/>
       <c r="B141" t="s">
-        <v>176</v>
-      </c>
-      <c r="C141" s="8">
+        <v>175</v>
+      </c>
+      <c r="C141" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B142" t="s">
-        <v>178</v>
-      </c>
-      <c r="C142" s="8">
+        <v>177</v>
+      </c>
+      <c r="C142" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="19"/>
       <c r="B143" t="s">
-        <v>179</v>
-      </c>
-      <c r="C143" s="8">
+        <v>178</v>
+      </c>
+      <c r="C143" s="1">
         <v>39</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B144" t="s">
-        <v>181</v>
-      </c>
-      <c r="C144" s="8">
+        <v>180</v>
+      </c>
+      <c r="C144" s="1">
         <v>57</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="19"/>
       <c r="B145" t="s">
-        <v>182</v>
-      </c>
-      <c r="C145" s="8">
+        <v>181</v>
+      </c>
+      <c r="C145" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B146" t="s">
-        <v>184</v>
-      </c>
-      <c r="C146" s="8">
+        <v>183</v>
+      </c>
+      <c r="C146" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="19"/>
       <c r="B147" t="s">
-        <v>185</v>
-      </c>
-      <c r="C147" s="8">
+        <v>184</v>
+      </c>
+      <c r="C147" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="19"/>
       <c r="B148" t="s">
-        <v>186</v>
-      </c>
-      <c r="C148" s="8">
+        <v>185</v>
+      </c>
+      <c r="C148" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="19"/>
       <c r="B149" t="s">
-        <v>187</v>
-      </c>
-      <c r="C149" s="8">
+        <v>186</v>
+      </c>
+      <c r="C149" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B150" t="s">
-        <v>189</v>
-      </c>
-      <c r="C150" s="8">
+        <v>188</v>
+      </c>
+      <c r="C150" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="19"/>
       <c r="B151" t="s">
-        <v>190</v>
-      </c>
-      <c r="C151" s="8">
+        <v>189</v>
+      </c>
+      <c r="C151" s="1">
         <v>31</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="19"/>
       <c r="B152" t="s">
-        <v>191</v>
-      </c>
-      <c r="C152" s="8">
+        <v>190</v>
+      </c>
+      <c r="C152" s="1">
         <v>60</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B153" t="s">
-        <v>193</v>
-      </c>
-      <c r="C153" s="8">
+        <v>192</v>
+      </c>
+      <c r="C153" s="1">
         <v>34</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="19"/>
       <c r="B154" t="s">
-        <v>194</v>
-      </c>
-      <c r="C154" s="8">
+        <v>193</v>
+      </c>
+      <c r="C154" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="19"/>
       <c r="B155" t="s">
-        <v>195</v>
-      </c>
-      <c r="C155" s="8">
+        <v>194</v>
+      </c>
+      <c r="C155" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B156" t="s">
-        <v>197</v>
-      </c>
-      <c r="C156" s="8">
+        <v>196</v>
+      </c>
+      <c r="C156" s="1">
         <v>78</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="19"/>
       <c r="B157" t="s">
-        <v>198</v>
-      </c>
-      <c r="C157" s="8">
+        <v>197</v>
+      </c>
+      <c r="C157" s="1">
         <v>51</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="19"/>
       <c r="B158" t="s">
-        <v>199</v>
-      </c>
-      <c r="C158" s="8">
+        <v>198</v>
+      </c>
+      <c r="C158" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="19"/>
       <c r="B159" t="s">
-        <v>200</v>
-      </c>
-      <c r="C159" s="8">
+        <v>199</v>
+      </c>
+      <c r="C159" s="1">
         <v>42</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="19"/>
       <c r="B160" t="s">
-        <v>201</v>
-      </c>
-      <c r="C160" s="8">
+        <v>200</v>
+      </c>
+      <c r="C160" s="1">
         <v>44</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B161" t="s">
-        <v>203</v>
-      </c>
-      <c r="C161" s="8">
+        <v>202</v>
+      </c>
+      <c r="C161" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="19"/>
       <c r="B162" t="s">
-        <v>204</v>
-      </c>
-      <c r="C162" s="8">
+        <v>203</v>
+      </c>
+      <c r="C162" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="19"/>
       <c r="B163" t="s">
-        <v>205</v>
-      </c>
-      <c r="C163" s="8">
+        <v>204</v>
+      </c>
+      <c r="C163" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="19"/>
       <c r="B164" t="s">
-        <v>206</v>
-      </c>
-      <c r="C164" s="8">
+        <v>205</v>
+      </c>
+      <c r="C164" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="19"/>
       <c r="B165" t="s">
-        <v>207</v>
-      </c>
-      <c r="C165" s="8">
+        <v>206</v>
+      </c>
+      <c r="C165" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="19"/>
       <c r="B166" t="s">
-        <v>208</v>
-      </c>
-      <c r="C166" s="8">
+        <v>207</v>
+      </c>
+      <c r="C166" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="19"/>
       <c r="B167" t="s">
-        <v>209</v>
-      </c>
-      <c r="C167" s="8">
+        <v>208</v>
+      </c>
+      <c r="C167" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="19"/>
       <c r="B168" t="s">
-        <v>210</v>
-      </c>
-      <c r="C168" s="8">
+        <v>209</v>
+      </c>
+      <c r="C168" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="19"/>
       <c r="B169" t="s">
-        <v>211</v>
-      </c>
-      <c r="C169" s="8">
+        <v>210</v>
+      </c>
+      <c r="C169" s="1">
         <v>48</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="10" t="s">
-        <v>214</v>
+      <c r="A170" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B170" t="s">
-        <v>213</v>
-      </c>
-      <c r="C170" s="8">
+        <v>212</v>
+      </c>
+      <c r="C170" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B171" t="s">
-        <v>215</v>
-      </c>
-      <c r="C171" s="8">
+        <v>214</v>
+      </c>
+      <c r="C171" s="1">
         <v>29</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="19"/>
       <c r="B172" t="s">
-        <v>216</v>
-      </c>
-      <c r="C172" s="8">
+        <v>215</v>
+      </c>
+      <c r="C172" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="19"/>
       <c r="B173" t="s">
-        <v>217</v>
-      </c>
-      <c r="C173" s="8">
+        <v>216</v>
+      </c>
+      <c r="C173" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="19"/>
       <c r="B174" t="s">
-        <v>218</v>
-      </c>
-      <c r="C174" s="8">
+        <v>217</v>
+      </c>
+      <c r="C174" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B175" t="s">
-        <v>220</v>
-      </c>
-      <c r="C175" s="8">
+        <v>219</v>
+      </c>
+      <c r="C175" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="19"/>
       <c r="B176" t="s">
-        <v>221</v>
-      </c>
-      <c r="C176" s="8">
+        <v>220</v>
+      </c>
+      <c r="C176" s="1">
         <v>37</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="19"/>
       <c r="B177" t="s">
-        <v>222</v>
-      </c>
-      <c r="C177" s="8">
+        <v>221</v>
+      </c>
+      <c r="C177" s="1">
         <v>47</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="19"/>
       <c r="B178" t="s">
-        <v>223</v>
-      </c>
-      <c r="C178" s="8">
+        <v>222</v>
+      </c>
+      <c r="C178" s="1">
         <v>66</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="19"/>
       <c r="B179" t="s">
-        <v>224</v>
-      </c>
-      <c r="C179" s="8">
+        <v>223</v>
+      </c>
+      <c r="C179" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="19"/>
       <c r="B180" t="s">
-        <v>225</v>
-      </c>
-      <c r="C180" s="8">
+        <v>224</v>
+      </c>
+      <c r="C180" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B181" t="s">
-        <v>227</v>
-      </c>
-      <c r="C181" s="8">
+        <v>226</v>
+      </c>
+      <c r="C181" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="19"/>
       <c r="B182" t="s">
-        <v>228</v>
-      </c>
-      <c r="C182" s="8">
+        <v>227</v>
+      </c>
+      <c r="C182" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B183" t="s">
-        <v>230</v>
-      </c>
-      <c r="C183" s="8">
+        <v>229</v>
+      </c>
+      <c r="C183" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="19"/>
       <c r="B184" t="s">
-        <v>231</v>
-      </c>
-      <c r="C184" s="8">
+        <v>230</v>
+      </c>
+      <c r="C184" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="19"/>
       <c r="B185" t="s">
-        <v>232</v>
-      </c>
-      <c r="C185" s="8">
+        <v>231</v>
+      </c>
+      <c r="C185" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="19"/>
       <c r="B186" t="s">
-        <v>233</v>
-      </c>
-      <c r="C186" s="8">
+        <v>232</v>
+      </c>
+      <c r="C186" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="19"/>
       <c r="B187" t="s">
-        <v>234</v>
-      </c>
-      <c r="C187" s="8">
+        <v>233</v>
+      </c>
+      <c r="C187" s="1">
         <v>34</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="19"/>
       <c r="B188" t="s">
-        <v>235</v>
-      </c>
-      <c r="C188" s="8">
+        <v>234</v>
+      </c>
+      <c r="C188" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B189" t="s">
-        <v>237</v>
-      </c>
-      <c r="C189" s="8">
+        <v>236</v>
+      </c>
+      <c r="C189" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="19"/>
       <c r="B190" t="s">
-        <v>238</v>
-      </c>
-      <c r="C190" s="8">
+        <v>237</v>
+      </c>
+      <c r="C190" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="19"/>
       <c r="B191" t="s">
-        <v>239</v>
-      </c>
-      <c r="C191" s="8">
+        <v>238</v>
+      </c>
+      <c r="C191" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="19"/>
       <c r="B192" t="s">
-        <v>240</v>
-      </c>
-      <c r="C192" s="8">
+        <v>239</v>
+      </c>
+      <c r="C192" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="19"/>
       <c r="B193" t="s">
-        <v>241</v>
-      </c>
-      <c r="C193" s="8">
+        <v>240</v>
+      </c>
+      <c r="C193" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="19"/>
       <c r="B194" t="s">
-        <v>242</v>
-      </c>
-      <c r="C194" s="8">
+        <v>241</v>
+      </c>
+      <c r="C194" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B195" t="s">
-        <v>244</v>
-      </c>
-      <c r="C195" s="8">
+        <v>243</v>
+      </c>
+      <c r="C195" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="19"/>
       <c r="B196" t="s">
-        <v>245</v>
-      </c>
-      <c r="C196" s="8">
+        <v>244</v>
+      </c>
+      <c r="C196" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="19"/>
       <c r="B197" t="s">
-        <v>246</v>
-      </c>
-      <c r="C197" s="8">
+        <v>245</v>
+      </c>
+      <c r="C197" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="19"/>
       <c r="B198" t="s">
-        <v>247</v>
-      </c>
-      <c r="C198" s="8">
+        <v>246</v>
+      </c>
+      <c r="C198" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="19"/>
       <c r="B199" t="s">
-        <v>248</v>
-      </c>
-      <c r="C199" s="8">
+        <v>247</v>
+      </c>
+      <c r="C199" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="19"/>
       <c r="B200" t="s">
-        <v>249</v>
-      </c>
-      <c r="C200" s="8">
+        <v>248</v>
+      </c>
+      <c r="C200" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="19"/>
       <c r="B201" t="s">
-        <v>250</v>
-      </c>
-      <c r="C201" s="8">
+        <v>249</v>
+      </c>
+      <c r="C201" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="19"/>
       <c r="B202" t="s">
-        <v>251</v>
-      </c>
-      <c r="C202" s="8">
+        <v>250</v>
+      </c>
+      <c r="C202" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B203" t="s">
-        <v>253</v>
-      </c>
-      <c r="C203" s="8">
+        <v>252</v>
+      </c>
+      <c r="C203" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="19"/>
       <c r="B204" t="s">
-        <v>254</v>
-      </c>
-      <c r="C204" s="8">
+        <v>253</v>
+      </c>
+      <c r="C204" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="19"/>
       <c r="B205" t="s">
-        <v>255</v>
-      </c>
-      <c r="C205" s="8">
+        <v>254</v>
+      </c>
+      <c r="C205" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="19"/>
       <c r="B206" t="s">
-        <v>256</v>
-      </c>
-      <c r="C206" s="8">
+        <v>255</v>
+      </c>
+      <c r="C206" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B207" t="s">
-        <v>258</v>
-      </c>
-      <c r="C207" s="8">
+        <v>257</v>
+      </c>
+      <c r="C207" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="19"/>
       <c r="B208" t="s">
-        <v>259</v>
-      </c>
-      <c r="C208" s="8">
+        <v>258</v>
+      </c>
+      <c r="C208" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="19"/>
       <c r="B209" t="s">
-        <v>260</v>
-      </c>
-      <c r="C209" s="8">
+        <v>259</v>
+      </c>
+      <c r="C209" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B210" t="s">
-        <v>262</v>
-      </c>
-      <c r="C210" s="8">
+        <v>261</v>
+      </c>
+      <c r="C210" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="19"/>
       <c r="B211" t="s">
-        <v>263</v>
-      </c>
-      <c r="C211" s="8">
+        <v>262</v>
+      </c>
+      <c r="C211" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="19"/>
       <c r="B212" t="s">
-        <v>264</v>
-      </c>
-      <c r="C212" s="8">
+        <v>263</v>
+      </c>
+      <c r="C212" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="19"/>
       <c r="B213" t="s">
-        <v>265</v>
-      </c>
-      <c r="C213" s="8">
+        <v>264</v>
+      </c>
+      <c r="C213" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="19"/>
       <c r="B214" t="s">
-        <v>266</v>
-      </c>
-      <c r="C214" s="8">
+        <v>265</v>
+      </c>
+      <c r="C214" s="1">
         <v>36</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="19"/>
       <c r="B215" t="s">
-        <v>267</v>
-      </c>
-      <c r="C215" s="8">
+        <v>266</v>
+      </c>
+      <c r="C215" s="1">
         <v>41</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="19"/>
       <c r="B216" t="s">
-        <v>268</v>
-      </c>
-      <c r="C216" s="8">
+        <v>267</v>
+      </c>
+      <c r="C216" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="19"/>
       <c r="B217" t="s">
-        <v>269</v>
-      </c>
-      <c r="C217" s="8">
+        <v>268</v>
+      </c>
+      <c r="C217" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="19"/>
       <c r="B218" t="s">
-        <v>270</v>
-      </c>
-      <c r="C218" s="8">
+        <v>269</v>
+      </c>
+      <c r="C218" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B219" t="s">
-        <v>272</v>
-      </c>
-      <c r="C219" s="8">
+        <v>271</v>
+      </c>
+      <c r="C219" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="19"/>
       <c r="B220" t="s">
-        <v>273</v>
-      </c>
-      <c r="C220" s="8">
+        <v>272</v>
+      </c>
+      <c r="C220" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="19"/>
       <c r="B221" t="s">
-        <v>274</v>
-      </c>
-      <c r="C221" s="8">
+        <v>273</v>
+      </c>
+      <c r="C221" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="19"/>
       <c r="B222" t="s">
-        <v>275</v>
-      </c>
-      <c r="C222" s="8">
+        <v>274</v>
+      </c>
+      <c r="C222" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="19"/>
       <c r="B223" t="s">
-        <v>276</v>
-      </c>
-      <c r="C223" s="8">
+        <v>275</v>
+      </c>
+      <c r="C223" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="19"/>
       <c r="B224" t="s">
-        <v>277</v>
-      </c>
-      <c r="C224" s="8">
+        <v>276</v>
+      </c>
+      <c r="C224" s="1">
         <v>31</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B225" t="s">
-        <v>279</v>
-      </c>
-      <c r="C225" s="8">
+        <v>278</v>
+      </c>
+      <c r="C225" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="19"/>
       <c r="B226" t="s">
-        <v>280</v>
-      </c>
-      <c r="C226" s="8">
+        <v>279</v>
+      </c>
+      <c r="C226" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="19"/>
       <c r="B227" t="s">
-        <v>281</v>
-      </c>
-      <c r="C227" s="8">
+        <v>280</v>
+      </c>
+      <c r="C227" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B228" t="s">
-        <v>283</v>
-      </c>
-      <c r="C228" s="8">
+        <v>282</v>
+      </c>
+      <c r="C228" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="19"/>
       <c r="B229" t="s">
-        <v>284</v>
-      </c>
-      <c r="C229" s="8">
+        <v>283</v>
+      </c>
+      <c r="C229" s="1">
         <v>29</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="19"/>
       <c r="B230" t="s">
-        <v>285</v>
-      </c>
-      <c r="C230" s="8">
+        <v>284</v>
+      </c>
+      <c r="C230" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B231" t="s">
-        <v>287</v>
-      </c>
-      <c r="C231" s="8">
+        <v>286</v>
+      </c>
+      <c r="C231" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="19"/>
       <c r="B232" t="s">
-        <v>288</v>
-      </c>
-      <c r="C232" s="8">
+        <v>287</v>
+      </c>
+      <c r="C232" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="19"/>
       <c r="B233" t="s">
-        <v>289</v>
-      </c>
-      <c r="C233" s="8">
+        <v>288</v>
+      </c>
+      <c r="C233" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B234" t="s">
-        <v>291</v>
-      </c>
-      <c r="C234" s="8">
+        <v>290</v>
+      </c>
+      <c r="C234" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="19"/>
       <c r="B235" t="s">
-        <v>292</v>
-      </c>
-      <c r="C235" s="8">
+        <v>291</v>
+      </c>
+      <c r="C235" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="19"/>
       <c r="B236" t="s">
-        <v>293</v>
-      </c>
-      <c r="C236" s="8">
+        <v>292</v>
+      </c>
+      <c r="C236" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="19"/>
       <c r="B237" t="s">
-        <v>294</v>
-      </c>
-      <c r="C237" s="8">
+        <v>293</v>
+      </c>
+      <c r="C237" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B238" t="s">
-        <v>296</v>
-      </c>
-      <c r="C238" s="8">
+        <v>295</v>
+      </c>
+      <c r="C238" s="1">
         <v>47</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="19"/>
       <c r="B239" t="s">
-        <v>297</v>
-      </c>
-      <c r="C239" s="8">
+        <v>296</v>
+      </c>
+      <c r="C239" s="1">
         <v>35</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="19"/>
       <c r="B240" t="s">
-        <v>298</v>
-      </c>
-      <c r="C240" s="8">
+        <v>297</v>
+      </c>
+      <c r="C240" s="1">
         <v>29</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B241" t="s">
-        <v>300</v>
-      </c>
-      <c r="C241" s="8">
+        <v>299</v>
+      </c>
+      <c r="C241" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="19"/>
       <c r="B242" t="s">
-        <v>301</v>
-      </c>
-      <c r="C242" s="8">
+        <v>300</v>
+      </c>
+      <c r="C242" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="19"/>
       <c r="B243" t="s">
-        <v>302</v>
-      </c>
-      <c r="C243" s="8">
+        <v>301</v>
+      </c>
+      <c r="C243" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="19"/>
       <c r="B244" t="s">
-        <v>303</v>
-      </c>
-      <c r="C244" s="8">
+        <v>302</v>
+      </c>
+      <c r="C244" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B245" t="s">
-        <v>305</v>
-      </c>
-      <c r="C245" s="8">
+        <v>304</v>
+      </c>
+      <c r="C245" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="19"/>
       <c r="B246" t="s">
-        <v>306</v>
-      </c>
-      <c r="C246" s="8">
+        <v>305</v>
+      </c>
+      <c r="C246" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="19"/>
       <c r="B247" t="s">
-        <v>307</v>
-      </c>
-      <c r="C247" s="8">
+        <v>306</v>
+      </c>
+      <c r="C247" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="19"/>
       <c r="B248" t="s">
-        <v>308</v>
-      </c>
-      <c r="C248" s="8">
+        <v>307</v>
+      </c>
+      <c r="C248" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="19"/>
       <c r="B249" t="s">
-        <v>309</v>
-      </c>
-      <c r="C249" s="8">
+        <v>308</v>
+      </c>
+      <c r="C249" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="19"/>
       <c r="B250" t="s">
-        <v>235</v>
-      </c>
-      <c r="C250" s="8">
+        <v>234</v>
+      </c>
+      <c r="C250" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B251" t="s">
-        <v>311</v>
-      </c>
-      <c r="C251" s="8">
+        <v>310</v>
+      </c>
+      <c r="C251" s="1">
         <v>36</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="19"/>
       <c r="B252" t="s">
-        <v>312</v>
-      </c>
-      <c r="C252" s="8">
+        <v>311</v>
+      </c>
+      <c r="C252" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="19"/>
       <c r="B253" t="s">
-        <v>313</v>
-      </c>
-      <c r="C253" s="8">
+        <v>312</v>
+      </c>
+      <c r="C253" s="1">
         <v>29</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B254" t="s">
-        <v>315</v>
-      </c>
-      <c r="C254" s="8">
+        <v>314</v>
+      </c>
+      <c r="C254" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="19"/>
       <c r="B255" t="s">
-        <v>316</v>
-      </c>
-      <c r="C255" s="8">
+        <v>315</v>
+      </c>
+      <c r="C255" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="19"/>
       <c r="B256" t="s">
-        <v>317</v>
-      </c>
-      <c r="C256" s="8">
+        <v>316</v>
+      </c>
+      <c r="C256" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B257" t="s">
-        <v>319</v>
-      </c>
-      <c r="C257" s="8">
+        <v>318</v>
+      </c>
+      <c r="C257" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="19"/>
       <c r="B258" t="s">
-        <v>320</v>
-      </c>
-      <c r="C258" s="8">
+        <v>319</v>
+      </c>
+      <c r="C258" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="19"/>
       <c r="B259" t="s">
-        <v>321</v>
-      </c>
-      <c r="C259" s="8">
+        <v>320</v>
+      </c>
+      <c r="C259" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="19"/>
       <c r="B260" t="s">
-        <v>322</v>
-      </c>
-      <c r="C260" s="8">
+        <v>321</v>
+      </c>
+      <c r="C260" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B261" t="s">
-        <v>324</v>
-      </c>
-      <c r="C261" s="8">
+        <v>323</v>
+      </c>
+      <c r="C261" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="19"/>
       <c r="B262" t="s">
-        <v>325</v>
-      </c>
-      <c r="C262" s="8">
+        <v>324</v>
+      </c>
+      <c r="C262" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="19"/>
       <c r="B263" t="s">
-        <v>326</v>
-      </c>
-      <c r="C263" s="8">
+        <v>325</v>
+      </c>
+      <c r="C263" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="19"/>
       <c r="B264" t="s">
-        <v>327</v>
-      </c>
-      <c r="C264" s="8">
+        <v>326</v>
+      </c>
+      <c r="C264" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="19"/>
       <c r="B265" t="s">
-        <v>328</v>
-      </c>
-      <c r="C265" s="8">
+        <v>327</v>
+      </c>
+      <c r="C265" s="1">
         <v>37</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B266" t="s">
-        <v>330</v>
-      </c>
-      <c r="C266" s="8">
+        <v>329</v>
+      </c>
+      <c r="C266" s="1">
         <v>29</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="19"/>
       <c r="B267" t="s">
-        <v>331</v>
-      </c>
-      <c r="C267" s="8">
+        <v>330</v>
+      </c>
+      <c r="C267" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="19"/>
       <c r="B268" t="s">
-        <v>332</v>
-      </c>
-      <c r="C268" s="8">
+        <v>331</v>
+      </c>
+      <c r="C268" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B269" t="s">
-        <v>334</v>
-      </c>
-      <c r="C269" s="8">
+        <v>333</v>
+      </c>
+      <c r="C269" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="19"/>
       <c r="B270" t="s">
-        <v>335</v>
-      </c>
-      <c r="C270" s="8">
+        <v>334</v>
+      </c>
+      <c r="C270" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B271" t="s">
-        <v>337</v>
-      </c>
-      <c r="C271" s="8">
+        <v>336</v>
+      </c>
+      <c r="C271" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="19"/>
       <c r="B272" t="s">
-        <v>338</v>
-      </c>
-      <c r="C272" s="8">
+        <v>337</v>
+      </c>
+      <c r="C272" s="1">
         <v>28</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="19"/>
       <c r="B273" t="s">
-        <v>339</v>
-      </c>
-      <c r="C273" s="8">
+        <v>338</v>
+      </c>
+      <c r="C273" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="19"/>
       <c r="B274" t="s">
-        <v>340</v>
-      </c>
-      <c r="C274" s="8">
+        <v>339</v>
+      </c>
+      <c r="C274" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="19"/>
       <c r="B275" t="s">
-        <v>341</v>
-      </c>
-      <c r="C275" s="8">
+        <v>340</v>
+      </c>
+      <c r="C275" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="19"/>
       <c r="B276" t="s">
-        <v>342</v>
-      </c>
-      <c r="C276" s="8">
+        <v>341</v>
+      </c>
+      <c r="C276" s="1">
         <v>31</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="19"/>
       <c r="B277" t="s">
-        <v>343</v>
-      </c>
-      <c r="C277" s="8">
+        <v>342</v>
+      </c>
+      <c r="C277" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B278" t="s">
-        <v>345</v>
-      </c>
-      <c r="C278" s="8">
+        <v>344</v>
+      </c>
+      <c r="C278" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="19"/>
       <c r="B279" t="s">
-        <v>346</v>
-      </c>
-      <c r="C279" s="8">
+        <v>345</v>
+      </c>
+      <c r="C279" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="19"/>
       <c r="B280" t="s">
-        <v>347</v>
-      </c>
-      <c r="C280" s="8">
+        <v>346</v>
+      </c>
+      <c r="C280" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="19"/>
       <c r="B281" t="s">
-        <v>348</v>
-      </c>
-      <c r="C281" s="8">
+        <v>347</v>
+      </c>
+      <c r="C281" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="19"/>
       <c r="B282" t="s">
-        <v>349</v>
-      </c>
-      <c r="C282" s="8">
+        <v>348</v>
+      </c>
+      <c r="C282" s="1">
         <v>44</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="19"/>
       <c r="B283" t="s">
-        <v>350</v>
-      </c>
-      <c r="C283" s="8">
+        <v>349</v>
+      </c>
+      <c r="C283" s="1">
         <v>67</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B284" t="s">
-        <v>352</v>
-      </c>
-      <c r="C284" s="8">
+        <v>351</v>
+      </c>
+      <c r="C284" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="19"/>
       <c r="B285" t="s">
-        <v>353</v>
-      </c>
-      <c r="C285" s="8">
+        <v>352</v>
+      </c>
+      <c r="C285" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="19"/>
       <c r="B286" t="s">
-        <v>354</v>
-      </c>
-      <c r="C286" s="8">
+        <v>353</v>
+      </c>
+      <c r="C286" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B287" t="s">
-        <v>356</v>
-      </c>
-      <c r="C287" s="8">
+        <v>355</v>
+      </c>
+      <c r="C287" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="19"/>
       <c r="B288" t="s">
-        <v>357</v>
-      </c>
-      <c r="C288" s="8">
+        <v>356</v>
+      </c>
+      <c r="C288" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="19"/>
       <c r="B289" t="s">
-        <v>358</v>
-      </c>
-      <c r="C289" s="8">
+        <v>357</v>
+      </c>
+      <c r="C289" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="19"/>
       <c r="B290" t="s">
-        <v>359</v>
-      </c>
-      <c r="C290" s="8">
+        <v>358</v>
+      </c>
+      <c r="C290" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="19"/>
       <c r="B291" t="s">
-        <v>360</v>
-      </c>
-      <c r="C291" s="8">
+        <v>359</v>
+      </c>
+      <c r="C291" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B292" t="s">
-        <v>362</v>
-      </c>
-      <c r="C292" s="8">
+        <v>361</v>
+      </c>
+      <c r="C292" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="19"/>
       <c r="B293" t="s">
-        <v>363</v>
-      </c>
-      <c r="C293" s="8">
+        <v>362</v>
+      </c>
+      <c r="C293" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="19"/>
       <c r="B294" t="s">
-        <v>364</v>
-      </c>
-      <c r="C294" s="8">
+        <v>363</v>
+      </c>
+      <c r="C294" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="19"/>
       <c r="B295" t="s">
-        <v>365</v>
-      </c>
-      <c r="C295" s="8">
+        <v>364</v>
+      </c>
+      <c r="C295" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="19"/>
       <c r="B296" t="s">
-        <v>366</v>
-      </c>
-      <c r="C296" s="8">
+        <v>365</v>
+      </c>
+      <c r="C296" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="19"/>
       <c r="B297" t="s">
-        <v>367</v>
-      </c>
-      <c r="C297" s="8">
+        <v>366</v>
+      </c>
+      <c r="C297" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="19"/>
       <c r="B298" t="s">
-        <v>368</v>
-      </c>
-      <c r="C298" s="8">
+        <v>367</v>
+      </c>
+      <c r="C298" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="19"/>
       <c r="B299" t="s">
-        <v>369</v>
-      </c>
-      <c r="C299" s="8">
+        <v>368</v>
+      </c>
+      <c r="C299" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B300" t="s">
-        <v>371</v>
-      </c>
-      <c r="C300" s="8">
+        <v>370</v>
+      </c>
+      <c r="C300" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="19"/>
       <c r="B301" t="s">
-        <v>372</v>
-      </c>
-      <c r="C301" s="8">
+        <v>371</v>
+      </c>
+      <c r="C301" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="19"/>
       <c r="B302" t="s">
-        <v>373</v>
-      </c>
-      <c r="C302" s="8">
+        <v>372</v>
+      </c>
+      <c r="C302" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="19"/>
       <c r="B303" t="s">
-        <v>374</v>
-      </c>
-      <c r="C303" s="8">
+        <v>373</v>
+      </c>
+      <c r="C303" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="19"/>
       <c r="B304" t="s">
-        <v>375</v>
-      </c>
-      <c r="C304" s="8">
+        <v>374</v>
+      </c>
+      <c r="C304" s="1">
         <v>29</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="19"/>
       <c r="B305" t="s">
-        <v>376</v>
-      </c>
-      <c r="C305" s="8">
+        <v>375</v>
+      </c>
+      <c r="C305" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="19"/>
       <c r="B306" t="s">
-        <v>377</v>
-      </c>
-      <c r="C306" s="8">
+        <v>376</v>
+      </c>
+      <c r="C306" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="19"/>
       <c r="B307" t="s">
-        <v>378</v>
-      </c>
-      <c r="C307" s="8">
+        <v>377</v>
+      </c>
+      <c r="C307" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="B308" t="s">
         <v>387</v>
       </c>
-      <c r="B308" t="s">
-        <v>388</v>
-      </c>
-      <c r="C308" s="8">
+      <c r="C308" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="19"/>
       <c r="B309" t="s">
-        <v>389</v>
-      </c>
-      <c r="C309" s="8">
+        <v>388</v>
+      </c>
+      <c r="C309" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="19"/>
       <c r="B310" t="s">
-        <v>390</v>
-      </c>
-      <c r="C310" s="8">
+        <v>389</v>
+      </c>
+      <c r="C310" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="19"/>
       <c r="B311" t="s">
-        <v>391</v>
-      </c>
-      <c r="C311" s="8">
+        <v>390</v>
+      </c>
+      <c r="C311" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="19"/>
       <c r="B312" t="s">
-        <v>392</v>
-      </c>
-      <c r="C312" s="8">
+        <v>391</v>
+      </c>
+      <c r="C312" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="19"/>
       <c r="B313" t="s">
-        <v>393</v>
-      </c>
-      <c r="C313" s="8">
+        <v>392</v>
+      </c>
+      <c r="C313" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="19"/>
       <c r="B314" t="s">
-        <v>394</v>
-      </c>
-      <c r="C314" s="8">
+        <v>393</v>
+      </c>
+      <c r="C314" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B315" t="s">
-        <v>380</v>
-      </c>
-      <c r="C315" s="8">
+        <v>379</v>
+      </c>
+      <c r="C315" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="19"/>
       <c r="B316" t="s">
-        <v>381</v>
-      </c>
-      <c r="C316" s="8">
+        <v>380</v>
+      </c>
+      <c r="C316" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="19"/>
       <c r="B317" t="s">
-        <v>382</v>
-      </c>
-      <c r="C317" s="8">
+        <v>381</v>
+      </c>
+      <c r="C317" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="19"/>
       <c r="B318" t="s">
-        <v>383</v>
-      </c>
-      <c r="C318" s="8">
+        <v>382</v>
+      </c>
+      <c r="C318" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="19"/>
       <c r="B319" t="s">
-        <v>396</v>
-      </c>
-      <c r="C319" s="8">
+        <v>395</v>
+      </c>
+      <c r="C319" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="19"/>
       <c r="B320" t="s">
-        <v>384</v>
-      </c>
-      <c r="C320" s="8">
+        <v>383</v>
+      </c>
+      <c r="C320" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="19"/>
       <c r="B321" t="s">
-        <v>385</v>
-      </c>
-      <c r="C321" s="8">
+        <v>384</v>
+      </c>
+      <c r="C321" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="19"/>
       <c r="B322" t="s">
-        <v>386</v>
-      </c>
-      <c r="C322" s="8">
+        <v>385</v>
+      </c>
+      <c r="C322" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B323" t="s">
-        <v>397</v>
-      </c>
-      <c r="C323" s="8">
+        <v>396</v>
+      </c>
+      <c r="C323" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="19"/>
       <c r="B324" t="s">
-        <v>398</v>
-      </c>
-      <c r="C324" s="8">
+        <v>397</v>
+      </c>
+      <c r="C324" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="19"/>
       <c r="B325" t="s">
-        <v>399</v>
-      </c>
-      <c r="C325" s="8">
+        <v>398</v>
+      </c>
+      <c r="C325" s="1">
         <v>31</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="19"/>
       <c r="B326" t="s">
-        <v>400</v>
-      </c>
-      <c r="C326" s="8">
+        <v>399</v>
+      </c>
+      <c r="C326" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="19"/>
       <c r="B327" t="s">
-        <v>401</v>
-      </c>
-      <c r="C327" s="8">
+        <v>400</v>
+      </c>
+      <c r="C327" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B328" t="s">
-        <v>403</v>
-      </c>
-      <c r="C328" s="8">
+        <v>402</v>
+      </c>
+      <c r="C328" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="19"/>
       <c r="B329" t="s">
-        <v>404</v>
-      </c>
-      <c r="C329" s="8">
+        <v>403</v>
+      </c>
+      <c r="C329" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="19"/>
       <c r="B330" t="s">
-        <v>405</v>
-      </c>
-      <c r="C330" s="8">
+        <v>404</v>
+      </c>
+      <c r="C330" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="19"/>
       <c r="B331" t="s">
-        <v>406</v>
-      </c>
-      <c r="C331" s="8">
+        <v>405</v>
+      </c>
+      <c r="C331" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="19"/>
       <c r="B332" t="s">
-        <v>407</v>
-      </c>
-      <c r="C332" s="8">
+        <v>406</v>
+      </c>
+      <c r="C332" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="19"/>
       <c r="B333" t="s">
-        <v>408</v>
-      </c>
-      <c r="C333" s="8">
+        <v>407</v>
+      </c>
+      <c r="C333" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="19"/>
       <c r="B334" t="s">
-        <v>409</v>
-      </c>
-      <c r="C334" s="8">
+        <v>408</v>
+      </c>
+      <c r="C334" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="19"/>
       <c r="B335" t="s">
-        <v>410</v>
-      </c>
-      <c r="C335" s="8">
+        <v>409</v>
+      </c>
+      <c r="C335" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="19"/>
       <c r="B336" t="s">
-        <v>411</v>
-      </c>
-      <c r="C336" s="8">
+        <v>410</v>
+      </c>
+      <c r="C336" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="19" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B337" t="s">
-        <v>413</v>
-      </c>
-      <c r="C337" s="8">
+        <v>412</v>
+      </c>
+      <c r="C337" s="1">
         <v>29</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="19"/>
       <c r="B338" t="s">
-        <v>414</v>
-      </c>
-      <c r="C338" s="8">
+        <v>413</v>
+      </c>
+      <c r="C338" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="19"/>
       <c r="B339" t="s">
-        <v>415</v>
-      </c>
-      <c r="C339" s="8">
+        <v>414</v>
+      </c>
+      <c r="C339" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="19"/>
       <c r="B340" t="s">
-        <v>416</v>
-      </c>
-      <c r="C340" s="8">
+        <v>415</v>
+      </c>
+      <c r="C340" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="19"/>
       <c r="B341" t="s">
-        <v>417</v>
-      </c>
-      <c r="C341" s="8">
+        <v>416</v>
+      </c>
+      <c r="C341" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B342" t="s">
-        <v>419</v>
-      </c>
-      <c r="C342" s="8">
+        <v>418</v>
+      </c>
+      <c r="C342" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="19"/>
       <c r="B343" t="s">
-        <v>420</v>
-      </c>
-      <c r="C343" s="8">
+        <v>419</v>
+      </c>
+      <c r="C343" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="19"/>
       <c r="B344" t="s">
-        <v>421</v>
-      </c>
-      <c r="C344" s="8">
+        <v>420</v>
+      </c>
+      <c r="C344" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="19"/>
       <c r="B345" t="s">
-        <v>422</v>
-      </c>
-      <c r="C345" s="8">
+        <v>421</v>
+      </c>
+      <c r="C345" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="19"/>
       <c r="B346" t="s">
-        <v>423</v>
-      </c>
-      <c r="C346" s="8">
+        <v>422</v>
+      </c>
+      <c r="C346" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="19"/>
       <c r="B347" t="s">
-        <v>424</v>
-      </c>
-      <c r="C347" s="8">
+        <v>423</v>
+      </c>
+      <c r="C347" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="19"/>
       <c r="B348" t="s">
-        <v>425</v>
-      </c>
-      <c r="C348" s="8">
+        <v>424</v>
+      </c>
+      <c r="C348" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B349" t="s">
-        <v>427</v>
-      </c>
-      <c r="C349" s="8">
+        <v>426</v>
+      </c>
+      <c r="C349" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="19"/>
       <c r="B350" t="s">
-        <v>428</v>
-      </c>
-      <c r="C350" s="8">
+        <v>427</v>
+      </c>
+      <c r="C350" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="19"/>
       <c r="B351" t="s">
-        <v>429</v>
-      </c>
-      <c r="C351" s="8">
+        <v>428</v>
+      </c>
+      <c r="C351" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="19"/>
       <c r="B352" t="s">
-        <v>430</v>
-      </c>
-      <c r="C352" s="8">
+        <v>429</v>
+      </c>
+      <c r="C352" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="19"/>
       <c r="B353" t="s">
-        <v>431</v>
-      </c>
-      <c r="C353" s="8">
+        <v>430</v>
+      </c>
+      <c r="C353" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="19"/>
       <c r="B354" t="s">
-        <v>432</v>
-      </c>
-      <c r="C354" s="8">
+        <v>431</v>
+      </c>
+      <c r="C354" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B355" t="s">
-        <v>434</v>
-      </c>
-      <c r="C355" s="8">
+        <v>433</v>
+      </c>
+      <c r="C355" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="19"/>
       <c r="B356" t="s">
-        <v>435</v>
-      </c>
-      <c r="C356" s="8">
+        <v>434</v>
+      </c>
+      <c r="C356" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="19"/>
       <c r="B357" t="s">
-        <v>436</v>
-      </c>
-      <c r="C357" s="8">
+        <v>435</v>
+      </c>
+      <c r="C357" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="19"/>
       <c r="B358" t="s">
-        <v>437</v>
-      </c>
-      <c r="C358" s="8">
+        <v>436</v>
+      </c>
+      <c r="C358" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="19" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B359" t="s">
-        <v>439</v>
-      </c>
-      <c r="C359" s="8">
+        <v>438</v>
+      </c>
+      <c r="C359" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="19"/>
       <c r="B360" t="s">
-        <v>440</v>
-      </c>
-      <c r="C360" s="8">
+        <v>439</v>
+      </c>
+      <c r="C360" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="19"/>
       <c r="B361" t="s">
-        <v>441</v>
-      </c>
-      <c r="C361" s="8">
+        <v>440</v>
+      </c>
+      <c r="C361" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="19"/>
       <c r="B362" t="s">
-        <v>442</v>
-      </c>
-      <c r="C362" s="8">
+        <v>441</v>
+      </c>
+      <c r="C362" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="19"/>
       <c r="B363" t="s">
-        <v>443</v>
-      </c>
-      <c r="C363" s="8">
+        <v>442</v>
+      </c>
+      <c r="C363" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="19"/>
       <c r="B364" t="s">
-        <v>444</v>
-      </c>
-      <c r="C364" s="8">
+        <v>443</v>
+      </c>
+      <c r="C364" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B365" t="s">
-        <v>446</v>
-      </c>
-      <c r="C365" s="8">
+        <v>445</v>
+      </c>
+      <c r="C365" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="19"/>
       <c r="B366" t="s">
-        <v>447</v>
-      </c>
-      <c r="C366" s="8">
+        <v>446</v>
+      </c>
+      <c r="C366" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B367" t="s">
-        <v>449</v>
-      </c>
-      <c r="C367" s="8">
+        <v>448</v>
+      </c>
+      <c r="C367" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="19"/>
       <c r="B368" t="s">
-        <v>450</v>
-      </c>
-      <c r="C368" s="8">
+        <v>449</v>
+      </c>
+      <c r="C368" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B369" t="s">
-        <v>452</v>
-      </c>
-      <c r="C369" s="8">
+        <v>451</v>
+      </c>
+      <c r="C369" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="19"/>
       <c r="B370" t="s">
-        <v>453</v>
-      </c>
-      <c r="C370" s="8">
+        <v>452</v>
+      </c>
+      <c r="C370" s="1">
         <v>29</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="19"/>
       <c r="B371" t="s">
-        <v>454</v>
-      </c>
-      <c r="C371" s="8">
+        <v>453</v>
+      </c>
+      <c r="C371" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B372" t="s">
-        <v>456</v>
-      </c>
-      <c r="C372" s="8">
+        <v>455</v>
+      </c>
+      <c r="C372" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="19"/>
       <c r="B373" t="s">
-        <v>457</v>
-      </c>
-      <c r="C373" s="8">
+        <v>456</v>
+      </c>
+      <c r="C373" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="19"/>
       <c r="B374" t="s">
-        <v>458</v>
-      </c>
-      <c r="C374" s="8">
+        <v>457</v>
+      </c>
+      <c r="C374" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="19"/>
       <c r="B375" t="s">
-        <v>459</v>
-      </c>
-      <c r="C375" s="8">
+        <v>458</v>
+      </c>
+      <c r="C375" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="19"/>
       <c r="B376" t="s">
-        <v>460</v>
-      </c>
-      <c r="C376" s="8">
+        <v>459</v>
+      </c>
+      <c r="C376" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B377" t="s">
-        <v>462</v>
-      </c>
-      <c r="C377" s="8">
+        <v>461</v>
+      </c>
+      <c r="C377" s="1">
         <v>44</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="19"/>
       <c r="B378" t="s">
-        <v>463</v>
-      </c>
-      <c r="C378" s="8">
+        <v>462</v>
+      </c>
+      <c r="C378" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="19"/>
       <c r="B379" t="s">
-        <v>464</v>
-      </c>
-      <c r="C379" s="8">
+        <v>463</v>
+      </c>
+      <c r="C379" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="19"/>
       <c r="B380" t="s">
-        <v>465</v>
-      </c>
-      <c r="C380" s="8">
+        <v>464</v>
+      </c>
+      <c r="C380" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="19"/>
       <c r="B381" t="s">
-        <v>466</v>
-      </c>
-      <c r="C381" s="8">
+        <v>465</v>
+      </c>
+      <c r="C381" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="19"/>
       <c r="B382" t="s">
-        <v>467</v>
-      </c>
-      <c r="C382" s="8">
+        <v>466</v>
+      </c>
+      <c r="C382" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B383" t="s">
-        <v>469</v>
-      </c>
-      <c r="C383" s="8">
+        <v>468</v>
+      </c>
+      <c r="C383" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="19"/>
       <c r="B384" t="s">
-        <v>470</v>
-      </c>
-      <c r="C384" s="8">
+        <v>469</v>
+      </c>
+      <c r="C384" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="19"/>
       <c r="B385" t="s">
-        <v>471</v>
-      </c>
-      <c r="C385" s="8">
+        <v>470</v>
+      </c>
+      <c r="C385" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="19"/>
       <c r="B386" t="s">
-        <v>472</v>
-      </c>
-      <c r="C386" s="8">
+        <v>471</v>
+      </c>
+      <c r="C386" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="19"/>
       <c r="B387" t="s">
-        <v>473</v>
-      </c>
-      <c r="C387" s="8">
+        <v>472</v>
+      </c>
+      <c r="C387" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="19"/>
       <c r="B388" t="s">
-        <v>474</v>
-      </c>
-      <c r="C388" s="8">
+        <v>473</v>
+      </c>
+      <c r="C388" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="19"/>
       <c r="B389" t="s">
-        <v>475</v>
-      </c>
-      <c r="C389" s="8">
+        <v>474</v>
+      </c>
+      <c r="C389" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="19"/>
       <c r="B390" t="s">
-        <v>476</v>
-      </c>
-      <c r="C390" s="8">
+        <v>475</v>
+      </c>
+      <c r="C390" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="19"/>
       <c r="B391" t="s">
-        <v>477</v>
-      </c>
-      <c r="C391" s="8">
+        <v>476</v>
+      </c>
+      <c r="C391" s="1">
         <v>36</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="19"/>
       <c r="B392" t="s">
-        <v>478</v>
-      </c>
-      <c r="C392" s="8">
+        <v>477</v>
+      </c>
+      <c r="C392" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B393" t="s">
-        <v>480</v>
-      </c>
-      <c r="C393" s="8">
+        <v>479</v>
+      </c>
+      <c r="C393" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="19"/>
       <c r="B394" t="s">
-        <v>481</v>
-      </c>
-      <c r="C394" s="8">
+        <v>480</v>
+      </c>
+      <c r="C394" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="19"/>
       <c r="B395" t="s">
-        <v>482</v>
-      </c>
-      <c r="C395" s="8">
+        <v>481</v>
+      </c>
+      <c r="C395" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B396" t="s">
-        <v>484</v>
-      </c>
-      <c r="C396" s="8">
+        <v>483</v>
+      </c>
+      <c r="C396" s="1">
         <v>31</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="19"/>
       <c r="B397" t="s">
-        <v>485</v>
-      </c>
-      <c r="C397" s="8">
+        <v>484</v>
+      </c>
+      <c r="C397" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="19"/>
       <c r="B398" t="s">
-        <v>486</v>
-      </c>
-      <c r="C398" s="8">
+        <v>485</v>
+      </c>
+      <c r="C398" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="19"/>
       <c r="B399" t="s">
-        <v>487</v>
-      </c>
-      <c r="C399" s="8">
+        <v>486</v>
+      </c>
+      <c r="C399" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="19"/>
       <c r="B400" t="s">
-        <v>488</v>
-      </c>
-      <c r="C400" s="8">
+        <v>487</v>
+      </c>
+      <c r="C400" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="19"/>
       <c r="B401" t="s">
-        <v>489</v>
-      </c>
-      <c r="C401" s="8">
+        <v>488</v>
+      </c>
+      <c r="C401" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="19"/>
       <c r="B402" t="s">
-        <v>490</v>
-      </c>
-      <c r="C402" s="8">
+        <v>489</v>
+      </c>
+      <c r="C402" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="19"/>
       <c r="B403" t="s">
-        <v>491</v>
-      </c>
-      <c r="C403" s="8">
+        <v>490</v>
+      </c>
+      <c r="C403" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="19"/>
       <c r="B404" t="s">
-        <v>492</v>
-      </c>
-      <c r="C404" s="8">
+        <v>491</v>
+      </c>
+      <c r="C404" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="19"/>
       <c r="B405" t="s">
-        <v>493</v>
-      </c>
-      <c r="C405" s="8">
+        <v>492</v>
+      </c>
+      <c r="C405" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="19"/>
       <c r="B406" t="s">
-        <v>494</v>
-      </c>
-      <c r="C406" s="8">
+        <v>493</v>
+      </c>
+      <c r="C406" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="19"/>
       <c r="B407" t="s">
-        <v>495</v>
-      </c>
-      <c r="C407" s="8">
+        <v>494</v>
+      </c>
+      <c r="C407" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="19"/>
       <c r="B408" t="s">
-        <v>496</v>
-      </c>
-      <c r="C408" s="8">
+        <v>495</v>
+      </c>
+      <c r="C408" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B409" t="s">
-        <v>498</v>
-      </c>
-      <c r="C409" s="8">
+        <v>497</v>
+      </c>
+      <c r="C409" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="19"/>
       <c r="B410" t="s">
-        <v>499</v>
-      </c>
-      <c r="C410" s="8">
+        <v>498</v>
+      </c>
+      <c r="C410" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="19"/>
       <c r="B411" t="s">
-        <v>500</v>
-      </c>
-      <c r="C411" s="8">
+        <v>499</v>
+      </c>
+      <c r="C411" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="19"/>
       <c r="B412" t="s">
-        <v>501</v>
-      </c>
-      <c r="C412" s="8">
+        <v>500</v>
+      </c>
+      <c r="C412" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="19"/>
       <c r="B413" t="s">
-        <v>502</v>
-      </c>
-      <c r="C413" s="8">
+        <v>501</v>
+      </c>
+      <c r="C413" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="19"/>
       <c r="B414" t="s">
-        <v>503</v>
-      </c>
-      <c r="C414" s="8">
+        <v>502</v>
+      </c>
+      <c r="C414" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="19"/>
       <c r="B415" t="s">
-        <v>504</v>
-      </c>
-      <c r="C415" s="8">
+        <v>503</v>
+      </c>
+      <c r="C415" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="19"/>
       <c r="B416" t="s">
-        <v>505</v>
-      </c>
-      <c r="C416" s="8">
+        <v>504</v>
+      </c>
+      <c r="C416" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="19"/>
       <c r="B417" t="s">
-        <v>506</v>
-      </c>
-      <c r="C417" s="8">
+        <v>505</v>
+      </c>
+      <c r="C417" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="19"/>
       <c r="B418" t="s">
-        <v>507</v>
-      </c>
-      <c r="C418" s="8">
+        <v>506</v>
+      </c>
+      <c r="C418" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="19"/>
       <c r="B419" t="s">
-        <v>508</v>
-      </c>
-      <c r="C419" s="8">
+        <v>507</v>
+      </c>
+      <c r="C419" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="19" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B420" t="s">
-        <v>510</v>
-      </c>
-      <c r="C420" s="8">
+        <v>509</v>
+      </c>
+      <c r="C420" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="19"/>
       <c r="B421" t="s">
-        <v>511</v>
-      </c>
-      <c r="C421" s="8">
+        <v>510</v>
+      </c>
+      <c r="C421" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="33">
       <c r="A422" s="19"/>
       <c r="B422" t="s">
-        <v>512</v>
-      </c>
-      <c r="C422" s="8">
+        <v>511</v>
+      </c>
+      <c r="C422" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="19"/>
       <c r="B423" t="s">
-        <v>513</v>
-      </c>
-      <c r="C423" s="8">
+        <v>512</v>
+      </c>
+      <c r="C423" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="19"/>
       <c r="B424" t="s">
-        <v>514</v>
-      </c>
-      <c r="C424" s="8">
+        <v>513</v>
+      </c>
+      <c r="C424" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="19"/>
       <c r="B425" t="s">
-        <v>515</v>
-      </c>
-      <c r="C425" s="8">
+        <v>514</v>
+      </c>
+      <c r="C425" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="19"/>
       <c r="B426" t="s">
-        <v>516</v>
-      </c>
-      <c r="C426" s="8">
+        <v>515</v>
+      </c>
+      <c r="C426" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="19"/>
       <c r="B427" t="s">
-        <v>517</v>
-      </c>
-      <c r="C427" s="8">
+        <v>516</v>
+      </c>
+      <c r="C427" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="19"/>
       <c r="B428" t="s">
-        <v>518</v>
-      </c>
-      <c r="C428" s="8">
+        <v>517</v>
+      </c>
+      <c r="C428" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="19"/>
       <c r="B429" t="s">
-        <v>519</v>
-      </c>
-      <c r="C429" s="8">
+        <v>518</v>
+      </c>
+      <c r="C429" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="19"/>
       <c r="B430" t="s">
-        <v>520</v>
-      </c>
-      <c r="C430" s="8">
+        <v>519</v>
+      </c>
+      <c r="C430" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="19"/>
       <c r="B431" t="s">
-        <v>521</v>
-      </c>
-      <c r="C431" s="8">
+        <v>520</v>
+      </c>
+      <c r="C431" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B432" t="s">
-        <v>523</v>
-      </c>
-      <c r="C432" s="8">
+        <v>522</v>
+      </c>
+      <c r="C432" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="19"/>
       <c r="B433" t="s">
-        <v>524</v>
-      </c>
-      <c r="C433" s="8">
+        <v>523</v>
+      </c>
+      <c r="C433" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="19"/>
       <c r="B434" t="s">
-        <v>525</v>
-      </c>
-      <c r="C434" s="8">
+        <v>524</v>
+      </c>
+      <c r="C434" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B435" t="s">
-        <v>527</v>
-      </c>
-      <c r="C435" s="8">
+        <v>526</v>
+      </c>
+      <c r="C435" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="19"/>
       <c r="B436" t="s">
-        <v>528</v>
-      </c>
-      <c r="C436" s="8">
+        <v>527</v>
+      </c>
+      <c r="C436" s="1">
         <v>41</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="19" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B437" t="s">
-        <v>530</v>
-      </c>
-      <c r="C437" s="8">
+        <v>529</v>
+      </c>
+      <c r="C437" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="19"/>
       <c r="B438" t="s">
-        <v>531</v>
-      </c>
-      <c r="C438" s="8">
+        <v>530</v>
+      </c>
+      <c r="C438" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="19"/>
       <c r="B439" t="s">
-        <v>532</v>
-      </c>
-      <c r="C439" s="8">
+        <v>531</v>
+      </c>
+      <c r="C439" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="19"/>
       <c r="B440" t="s">
-        <v>533</v>
-      </c>
-      <c r="C440" s="8">
+        <v>532</v>
+      </c>
+      <c r="C440" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="19"/>
       <c r="B441" t="s">
-        <v>534</v>
-      </c>
-      <c r="C441" s="8">
+        <v>533</v>
+      </c>
+      <c r="C441" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="19"/>
       <c r="B442" t="s">
-        <v>535</v>
-      </c>
-      <c r="C442" s="8">
+        <v>534</v>
+      </c>
+      <c r="C442" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B443" t="s">
-        <v>537</v>
-      </c>
-      <c r="C443" s="8">
+        <v>536</v>
+      </c>
+      <c r="C443" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="19"/>
       <c r="B444" t="s">
-        <v>538</v>
-      </c>
-      <c r="C444" s="8">
+        <v>537</v>
+      </c>
+      <c r="C444" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="19"/>
       <c r="B445" t="s">
-        <v>539</v>
-      </c>
-      <c r="C445" s="8">
+        <v>538</v>
+      </c>
+      <c r="C445" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="19"/>
       <c r="B446" t="s">
-        <v>540</v>
-      </c>
-      <c r="C446" s="8">
+        <v>539</v>
+      </c>
+      <c r="C446" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="19"/>
       <c r="B447" t="s">
-        <v>541</v>
-      </c>
-      <c r="C447" s="8">
+        <v>540</v>
+      </c>
+      <c r="C447" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B448" t="s">
-        <v>543</v>
-      </c>
-      <c r="C448" s="8">
+        <v>542</v>
+      </c>
+      <c r="C448" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="19"/>
       <c r="B449" t="s">
-        <v>544</v>
-      </c>
-      <c r="C449" s="8">
+        <v>543</v>
+      </c>
+      <c r="C449" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="19"/>
       <c r="B450" t="s">
-        <v>545</v>
-      </c>
-      <c r="C450" s="8">
+        <v>544</v>
+      </c>
+      <c r="C450" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="19"/>
       <c r="B451" t="s">
-        <v>546</v>
-      </c>
-      <c r="C451" s="8">
+        <v>545</v>
+      </c>
+      <c r="C451" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="19"/>
       <c r="B452" t="s">
-        <v>547</v>
-      </c>
-      <c r="C452" s="8">
+        <v>546</v>
+      </c>
+      <c r="C452" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="19"/>
       <c r="B453" t="s">
-        <v>548</v>
-      </c>
-      <c r="C453" s="8">
+        <v>547</v>
+      </c>
+      <c r="C453" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="19"/>
       <c r="B454" t="s">
-        <v>549</v>
-      </c>
-      <c r="C454" s="8">
+        <v>548</v>
+      </c>
+      <c r="C454" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="19" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B455" t="s">
-        <v>551</v>
-      </c>
-      <c r="C455" s="8">
+        <v>550</v>
+      </c>
+      <c r="C455" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="19"/>
       <c r="B456" t="s">
-        <v>552</v>
-      </c>
-      <c r="C456" s="8">
+        <v>551</v>
+      </c>
+      <c r="C456" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="19"/>
       <c r="B457" t="s">
-        <v>553</v>
-      </c>
-      <c r="C457" s="8">
+        <v>552</v>
+      </c>
+      <c r="C457" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="19"/>
       <c r="B458" t="s">
-        <v>554</v>
-      </c>
-      <c r="C458" s="8">
+        <v>553</v>
+      </c>
+      <c r="C458" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="19"/>
       <c r="B459" t="s">
-        <v>555</v>
-      </c>
-      <c r="C459" s="8">
+        <v>554</v>
+      </c>
+      <c r="C459" s="1">
         <v>38</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="19" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B460" t="s">
-        <v>557</v>
-      </c>
-      <c r="C460" s="8">
+        <v>556</v>
+      </c>
+      <c r="C460" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="19"/>
       <c r="B461" t="s">
-        <v>558</v>
-      </c>
-      <c r="C461" s="8">
+        <v>557</v>
+      </c>
+      <c r="C461" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="19"/>
       <c r="B462" t="s">
-        <v>559</v>
-      </c>
-      <c r="C462" s="8">
+        <v>558</v>
+      </c>
+      <c r="C462" s="1">
         <v>29</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="19"/>
       <c r="B463" t="s">
-        <v>560</v>
-      </c>
-      <c r="C463" s="8">
+        <v>559</v>
+      </c>
+      <c r="C463" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="19" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B464" t="s">
-        <v>562</v>
-      </c>
-      <c r="C464" s="8">
+        <v>561</v>
+      </c>
+      <c r="C464" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="19"/>
       <c r="B465" t="s">
-        <v>563</v>
-      </c>
-      <c r="C465" s="8">
+        <v>562</v>
+      </c>
+      <c r="C465" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="19"/>
       <c r="B466" t="s">
-        <v>564</v>
-      </c>
-      <c r="C466" s="8">
+        <v>563</v>
+      </c>
+      <c r="C466" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="19"/>
       <c r="B467" t="s">
-        <v>565</v>
-      </c>
-      <c r="C467" s="8">
+        <v>564</v>
+      </c>
+      <c r="C467" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="19"/>
       <c r="B468" t="s">
-        <v>566</v>
-      </c>
-      <c r="C468" s="8">
+        <v>565</v>
+      </c>
+      <c r="C468" s="1">
         <v>37</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="19" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B469" t="s">
-        <v>568</v>
-      </c>
-      <c r="C469" s="8">
+        <v>567</v>
+      </c>
+      <c r="C469" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="19"/>
       <c r="B470" t="s">
-        <v>569</v>
-      </c>
-      <c r="C470" s="8">
+        <v>568</v>
+      </c>
+      <c r="C470" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="19"/>
       <c r="B471" t="s">
-        <v>570</v>
-      </c>
-      <c r="C471" s="8">
+        <v>569</v>
+      </c>
+      <c r="C471" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="19"/>
       <c r="B472" t="s">
-        <v>571</v>
-      </c>
-      <c r="C472" s="8">
+        <v>570</v>
+      </c>
+      <c r="C472" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="19"/>
       <c r="B473" t="s">
-        <v>572</v>
-      </c>
-      <c r="C473" s="8">
+        <v>571</v>
+      </c>
+      <c r="C473" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="19"/>
       <c r="B474" t="s">
-        <v>573</v>
-      </c>
-      <c r="C474" s="8">
+        <v>572</v>
+      </c>
+      <c r="C474" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="19"/>
       <c r="B475" t="s">
-        <v>574</v>
-      </c>
-      <c r="C475" s="8">
+        <v>573</v>
+      </c>
+      <c r="C475" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="19"/>
       <c r="B476" t="s">
-        <v>575</v>
-      </c>
-      <c r="C476" s="8">
+        <v>574</v>
+      </c>
+      <c r="C476" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="477" spans="1:3">
-      <c r="A477" s="10" t="s">
-        <v>578</v>
+      <c r="A477" s="2" t="s">
+        <v>577</v>
       </c>
       <c r="B477" t="s">
-        <v>577</v>
-      </c>
-      <c r="C477" s="8">
+        <v>576</v>
+      </c>
+      <c r="C477" s="1">
         <v>63</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="19" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B478" t="s">
-        <v>579</v>
-      </c>
-      <c r="C478" s="8">
+        <v>578</v>
+      </c>
+      <c r="C478" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="19"/>
       <c r="B479" t="s">
-        <v>580</v>
-      </c>
-      <c r="C479" s="8">
+        <v>579</v>
+      </c>
+      <c r="C479" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="19"/>
       <c r="B480" t="s">
-        <v>581</v>
-      </c>
-      <c r="C480" s="8">
+        <v>580</v>
+      </c>
+      <c r="C480" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="19"/>
       <c r="B481" t="s">
-        <v>582</v>
-      </c>
-      <c r="C481" s="8">
+        <v>581</v>
+      </c>
+      <c r="C481" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" s="19"/>
       <c r="B482" t="s">
-        <v>583</v>
-      </c>
-      <c r="C482" s="8">
+        <v>582</v>
+      </c>
+      <c r="C482" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B483" t="s">
-        <v>585</v>
-      </c>
-      <c r="C483" s="8">
+        <v>584</v>
+      </c>
+      <c r="C483" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="19"/>
       <c r="B484" t="s">
-        <v>586</v>
-      </c>
-      <c r="C484" s="8">
+        <v>585</v>
+      </c>
+      <c r="C484" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="19"/>
       <c r="B485" t="s">
-        <v>587</v>
-      </c>
-      <c r="C485" s="8">
+        <v>586</v>
+      </c>
+      <c r="C485" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="19"/>
       <c r="B486" t="s">
-        <v>588</v>
-      </c>
-      <c r="C486" s="8">
+        <v>587</v>
+      </c>
+      <c r="C486" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="19"/>
       <c r="B487" t="s">
-        <v>589</v>
-      </c>
-      <c r="C487" s="8">
+        <v>588</v>
+      </c>
+      <c r="C487" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="19" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B488" t="s">
-        <v>591</v>
-      </c>
-      <c r="C488" s="8">
+        <v>590</v>
+      </c>
+      <c r="C488" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="19"/>
       <c r="B489" t="s">
-        <v>592</v>
-      </c>
-      <c r="C489" s="8">
+        <v>591</v>
+      </c>
+      <c r="C489" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:3">
-      <c r="C490" s="11">
+      <c r="C490" s="3">
         <f>SUM(C2:C489)</f>
         <v>9216</v>
       </c>

--- a/play/play.xlsx
+++ b/play/play.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="632">
   <si>
     <t>待办事项列表</t>
   </si>
@@ -2091,16 +2091,6 @@
 10-（重要）epoll的原理过程讲解
 11-epoll版的http服务器
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>五本书一个开源项目：
-11.5~12.5  鸟叔的Linux私房菜
-12.6~1.5   接口自动化(写了集中监测)
-1.6~2.5    网络抓包+TCP卷1
-2.6~3.5    Jmeter性能测试
-3.6~4.5    flask框架源码
-测试方面需要做的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2285,6 +2275,25 @@
   </si>
   <si>
     <t>elasticsearch没有写博客的必要，因为看的2.0版本实际已经到7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">01-orm介绍
+02-orm-实现
+03-orm-实现2
+04-python高级知识快速复习-1
+05-python高级知识快速复习-2
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五本书一个开源项目：
+11.5~12.5  鸟叔的Linux私房菜
+12.6~1.5   接口自动化(写了集中监测)
+1.6~2.5    网络抓包+TCP卷1
+2.6~3.5    Jmeter性能测试
+3.6~4.5    flask框架源码
+测试方面需要做的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3554,8 +3563,8 @@
   </sheetPr>
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="30" customHeight="1"/>
@@ -3637,10 +3646,10 @@
         <v>10</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>623</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1" ht="30" customHeight="1">
@@ -3681,10 +3690,10 @@
         <v>596</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>603</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="6" customFormat="1" ht="106.5" customHeight="1">
@@ -3697,10 +3706,10 @@
       <c r="D11" s="11"/>
       <c r="E11" s="9"/>
       <c r="J11" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>621</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="6" customFormat="1" ht="81" customHeight="1">
@@ -3715,7 +3724,7 @@
         <v>598</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K12" s="8"/>
     </row>
@@ -3730,7 +3739,7 @@
         <v>599</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="8"/>
@@ -3746,7 +3755,7 @@
         <v>600</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="8"/>
@@ -3775,10 +3784,10 @@
         <v>11.8</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="30" customHeight="1">
@@ -3795,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D18" s="12"/>
     </row>
@@ -3807,10 +3816,10 @@
         <v>11.11</v>
       </c>
       <c r="D19" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>608</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="87.75" customHeight="1">
@@ -3821,10 +3830,10 @@
         <v>11.12</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="188.25" customHeight="1">
@@ -3835,10 +3844,10 @@
         <v>11.13</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="133.5" customHeight="1">
@@ -3849,10 +3858,10 @@
         <v>11.14</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="88.5" customHeight="1">
@@ -3863,10 +3872,10 @@
         <v>11.15</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="30" customHeight="1">
@@ -3878,7 +3887,7 @@
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="30" customHeight="1">
@@ -3890,7 +3899,7 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="227.25" customHeight="1">
@@ -3901,10 +3910,10 @@
         <v>11.18</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="68.25" customHeight="1">
@@ -3915,10 +3924,10 @@
         <v>11.19</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="88.5" customHeight="1">
@@ -3926,11 +3935,11 @@
         <v>0</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="96.75" customHeight="1">
@@ -3941,10 +3950,10 @@
         <v>11.21</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="143.25" customHeight="1">
@@ -3956,112 +3965,124 @@
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="30" customHeight="1">
       <c r="B31" s="10">
         <v>0</v>
       </c>
+      <c r="C31" s="4">
+        <v>11.23</v>
+      </c>
       <c r="D31" s="13"/>
     </row>
     <row r="32" spans="2:5" ht="30" customHeight="1">
       <c r="B32" s="10">
         <v>0</v>
       </c>
+      <c r="C32" s="4">
+        <v>11.24</v>
+      </c>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="2:4" ht="30" customHeight="1">
+    <row r="33" spans="2:5" ht="95.25" customHeight="1">
       <c r="B33" s="10">
         <v>0</v>
       </c>
+      <c r="C33" s="4">
+        <v>11.25</v>
+      </c>
       <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="2:4" ht="30" customHeight="1">
+      <c r="E33" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="30" customHeight="1">
       <c r="B34" s="10">
         <v>0</v>
       </c>
       <c r="D34" s="13"/>
     </row>
-    <row r="35" spans="2:4" ht="30" customHeight="1">
+    <row r="35" spans="2:5" ht="30" customHeight="1">
       <c r="B35" s="10">
         <v>0</v>
       </c>
       <c r="D35" s="13"/>
     </row>
-    <row r="36" spans="2:4" ht="30" customHeight="1">
+    <row r="36" spans="2:5" ht="30" customHeight="1">
       <c r="B36" s="10">
         <v>0</v>
       </c>
       <c r="D36" s="13"/>
     </row>
-    <row r="37" spans="2:4" ht="30" customHeight="1">
+    <row r="37" spans="2:5" ht="30" customHeight="1">
       <c r="B37" s="10">
         <v>0</v>
       </c>
       <c r="D37" s="13"/>
     </row>
-    <row r="38" spans="2:4" ht="30" customHeight="1">
+    <row r="38" spans="2:5" ht="30" customHeight="1">
       <c r="B38" s="10">
         <v>0</v>
       </c>
       <c r="D38" s="13"/>
     </row>
-    <row r="39" spans="2:4" ht="30" customHeight="1">
+    <row r="39" spans="2:5" ht="30" customHeight="1">
       <c r="B39" s="10">
         <v>0</v>
       </c>
       <c r="D39" s="13"/>
     </row>
-    <row r="40" spans="2:4" ht="30" customHeight="1">
+    <row r="40" spans="2:5" ht="30" customHeight="1">
       <c r="B40" s="10">
         <v>0</v>
       </c>
       <c r="D40" s="13"/>
     </row>
-    <row r="41" spans="2:4" ht="30" customHeight="1">
+    <row r="41" spans="2:5" ht="30" customHeight="1">
       <c r="B41" s="10">
         <v>0</v>
       </c>
       <c r="D41" s="13"/>
     </row>
-    <row r="42" spans="2:4" ht="30" customHeight="1">
+    <row r="42" spans="2:5" ht="30" customHeight="1">
       <c r="B42" s="10">
         <v>0</v>
       </c>
       <c r="D42" s="13"/>
     </row>
-    <row r="43" spans="2:4" ht="30" customHeight="1">
+    <row r="43" spans="2:5" ht="30" customHeight="1">
       <c r="B43" s="10">
         <v>0</v>
       </c>
       <c r="D43" s="13"/>
     </row>
-    <row r="44" spans="2:4" ht="30" customHeight="1">
+    <row r="44" spans="2:5" ht="30" customHeight="1">
       <c r="B44" s="10">
         <v>0</v>
       </c>
       <c r="D44" s="13"/>
     </row>
-    <row r="45" spans="2:4" ht="30" customHeight="1">
+    <row r="45" spans="2:5" ht="30" customHeight="1">
       <c r="B45" s="10">
         <v>0</v>
       </c>
       <c r="D45" s="13"/>
     </row>
-    <row r="46" spans="2:4" ht="30" customHeight="1">
+    <row r="46" spans="2:5" ht="30" customHeight="1">
       <c r="B46" s="10">
         <v>0</v>
       </c>
       <c r="D46" s="13"/>
     </row>
-    <row r="47" spans="2:4" ht="30" customHeight="1">
+    <row r="47" spans="2:5" ht="30" customHeight="1">
       <c r="B47" s="10">
         <v>0</v>
       </c>
       <c r="D47" s="13"/>
     </row>
-    <row r="48" spans="2:4" ht="30" customHeight="1">
+    <row r="48" spans="2:5" ht="30" customHeight="1">
       <c r="B48" s="10">
         <v>0</v>
       </c>
@@ -4294,8 +4315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C490"/>
   <sheetViews>
-    <sheetView topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="F480" sqref="F480"/>
+    <sheetView topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="A183" sqref="A183:A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/play/play.xlsx
+++ b/play/play.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="567">
   <si>
     <t>待办事项列表</t>
   </si>
@@ -1736,6 +1736,239 @@
     <t>12.3清除了前端部分，12.4开始javascript部分</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>算法方面进展缓慢，需要加强(12.11)，这部分不能再妥协了</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Groovy基础知识</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用Groovy操作数据库</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用Groovy操作文件</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口request body管理</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口response body验证</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何校验接口的response schema</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>XML格式接口测试</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理接口测试配置信息和测试数据</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何在Jenkins上运行自动化脚本</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目实战：运行web测试</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.2 0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.3 0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中监测项目接口</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>初二</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目实战：测试代码详解/总结</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>01操作元素属性
+02中括号操作属性
+03改变元素内容
+04js介绍-js引入页面
+05js变量类型-获取元素
+06复习
+01函数定义和调用
+02提取行间事件
+03复习-匿名函数
+04网页换肤
+05函数和变量预解析</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>06函数传参-return关键字
+01加法运算练习
+02求余-赋值运算符
+03条件运算符
+04switch语句
+05条件语句-切换例子
+06多重条件判读语句
+07作业
+08复习
+01数组及操作方法
+02多维数组
+03for循环-实例
+04复习-数组去重
+01标签获取元素-实例
+02javascript组成</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>初三</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>初三/初四</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>初四</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>03字符串操作方法-实例
+01往复运动动画
+02无缝滚动01
+03无缝滚动02
+04变量作用域
+05时钟
+06倒计时</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>07定时器-动画实例
+08作业
+09复习
+01封闭函数
+02常用内置对象01
+03Math对象
+04调试js的方法
+05作业
+06复习-倒计时弹框练习
+01jqury介绍-jquery加载</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>02jquery选择器01
+03jquery选择器02
+01样式的操作
+02绑定click事件
+03索引值-选项卡
+01jquery特性效果
+02特性效果-链式调用-层级菜单
+03修正反复点击持续动画的bug
+01滑动选项卡
+02animate动画
+03作业</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>初五</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>初五/初六</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>初六</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>04复习
+01元素尺寸-元素位置-加入购物车
+02scrollleft-top-悬浮菜单
+03悬浮菜单-滚动到顶部
+01属性操作
+02手风琴01
+03手风琴02</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>04jquery循环
+01bind绑定事件和解绑
+02事件冒泡-阻止事件冒泡
+03阻止事件冒泡-弹框实例
+04事件委托
+05jquery事件
+06复习
+01节点操作</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>02todolist01
+03todolist02
+01整屏滚动01
+02复习
+02整屏滚动02
+01幻灯片01
+01幻灯片02</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>初七</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>初七/初八</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>初八</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>01幻灯片03
+01幻灯片04
+01json
+02配置服务器环境
+03ajax01
+04ajax02
+05jsonp-360联想词获取
+01本地存储
+02只弹一次的弹框</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>03jqueryui-拖拽
+01移动端js事件和库
+02swiper参数设置-自定义
+01表单-字体图标
+02bootstrap介绍-容器
+03栅格系统
+04栅格响应式原理</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>05栅格偏移-栅格隐藏
+06按钮的创建
+07复习
+01菜单01
+02菜单切换效果
+03模态框
+04js控制弹框弹出和隐藏
+05布局实例01</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1745,7 +1978,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1819,8 +2052,16 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1851,6 +2092,11 @@
         <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1876,7 +2122,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -1884,8 +2130,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -1931,6 +2180,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1946,11 +2198,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="解释性文本" xfId="2" builtinId="53" customBuiltin="1"/>
@@ -2319,8 +2572,8 @@
   </sheetPr>
   <dimension ref="A1:AMK78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2351,37 +2604,37 @@
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1"/>
     <row r="3" spans="1:11" s="6" customFormat="1" ht="52.5" customHeight="1">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="17"/>
       <c r="J3" s="2"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" s="6" customFormat="1" ht="46.5" customHeight="1">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="18"/>
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1"/>
     <row r="6" spans="1:11" s="6" customFormat="1" ht="30" customHeight="1">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
     </row>
@@ -2519,7 +2772,9 @@
       <c r="E14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>531</v>
+      </c>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" s="6" customFormat="1" ht="129.75" customHeight="1">
@@ -2764,183 +3019,371 @@
       <c r="B34" s="8">
         <v>0</v>
       </c>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" spans="2:5" ht="30" customHeight="1">
+      <c r="C34" s="1">
+        <v>12.11</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="200.25" customHeight="1">
       <c r="B35" s="8">
         <v>0</v>
       </c>
-      <c r="D35" s="11"/>
+      <c r="C35" s="1">
+        <v>12.12</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="36" spans="2:5" ht="30" customHeight="1">
       <c r="B36" s="8">
         <v>0</v>
       </c>
-      <c r="D36" s="11"/>
-    </row>
-    <row r="37" spans="2:5" ht="30" customHeight="1">
+      <c r="C36" s="1">
+        <v>12.13</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="280.5" customHeight="1">
       <c r="B37" s="8">
         <v>0</v>
       </c>
-      <c r="D37" s="11"/>
+      <c r="C37" s="1">
+        <v>12.14</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="38" spans="2:5" ht="30" customHeight="1">
       <c r="B38" s="8">
         <v>0</v>
       </c>
+      <c r="C38" s="21">
+        <v>12.15</v>
+      </c>
       <c r="D38" s="11"/>
     </row>
     <row r="39" spans="2:5" ht="30" customHeight="1">
       <c r="B39" s="8">
         <v>0</v>
       </c>
-      <c r="D39" s="11"/>
-    </row>
-    <row r="40" spans="2:5" ht="30" customHeight="1">
+      <c r="C39" s="1">
+        <v>12.16</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="121.5" customHeight="1">
       <c r="B40" s="8">
         <v>0</v>
       </c>
-      <c r="D40" s="11"/>
+      <c r="C40" s="1">
+        <v>12.17</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="41" spans="2:5" ht="30" customHeight="1">
       <c r="B41" s="8">
         <v>0</v>
       </c>
-      <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="2:5" ht="30" customHeight="1">
+      <c r="C41" s="1">
+        <v>12.18</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="195.75" customHeight="1">
       <c r="B42" s="8">
         <v>0</v>
       </c>
-      <c r="D42" s="11"/>
+      <c r="C42" s="1">
+        <v>12.19</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="43" spans="2:5" ht="30" customHeight="1">
       <c r="B43" s="8">
         <v>0</v>
       </c>
-      <c r="D43" s="11"/>
-    </row>
-    <row r="44" spans="2:5" ht="30" customHeight="1">
+      <c r="C43" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="195.75" customHeight="1">
       <c r="B44" s="8">
         <v>0</v>
       </c>
-      <c r="D44" s="11"/>
+      <c r="C44" s="1">
+        <v>12.21</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="45" spans="2:5" ht="30" customHeight="1">
       <c r="B45" s="8">
         <v>0</v>
       </c>
+      <c r="C45" s="21">
+        <v>12.22</v>
+      </c>
       <c r="D45" s="11"/>
     </row>
     <row r="46" spans="2:5" ht="30" customHeight="1">
       <c r="B46" s="8">
         <v>0</v>
       </c>
-      <c r="D46" s="11"/>
-    </row>
-    <row r="47" spans="2:5" ht="30" customHeight="1">
+      <c r="C46" s="1">
+        <v>12.23</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="119.25" customHeight="1">
       <c r="B47" s="8">
         <v>0</v>
       </c>
-      <c r="D47" s="11"/>
+      <c r="C47" s="1">
+        <v>12.24</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="48" spans="2:5" ht="30" customHeight="1">
       <c r="B48" s="8">
         <v>0</v>
       </c>
-      <c r="D48" s="11"/>
-    </row>
-    <row r="49" spans="2:4" ht="30" customHeight="1">
+      <c r="C48" s="1">
+        <v>12.25</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="150" customHeight="1">
       <c r="B49" s="8">
         <v>0</v>
       </c>
-      <c r="D49" s="11"/>
-    </row>
-    <row r="50" spans="2:4" ht="30" customHeight="1">
+      <c r="C49" s="1">
+        <v>12.26</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="30" customHeight="1">
       <c r="B50" s="8">
         <v>0</v>
       </c>
-      <c r="D50" s="11"/>
-    </row>
-    <row r="51" spans="2:4" ht="30" customHeight="1">
+      <c r="C50" s="1">
+        <v>12.27</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="129" customHeight="1">
       <c r="B51" s="8">
         <v>0</v>
       </c>
-      <c r="D51" s="11"/>
-    </row>
-    <row r="52" spans="2:4" ht="30" customHeight="1">
+      <c r="C51" s="1">
+        <v>12.28</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="30" customHeight="1">
       <c r="B52" s="8">
         <v>0</v>
       </c>
+      <c r="C52" s="21">
+        <v>12.29</v>
+      </c>
       <c r="D52" s="11"/>
     </row>
-    <row r="53" spans="2:4" ht="30" customHeight="1">
+    <row r="53" spans="2:5" ht="30" customHeight="1">
       <c r="B53" s="8">
         <v>0</v>
       </c>
-      <c r="D53" s="11"/>
-    </row>
-    <row r="54" spans="2:4" ht="30" customHeight="1">
+      <c r="C53" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="177.75" customHeight="1">
       <c r="B54" s="8">
         <v>0</v>
       </c>
-      <c r="D54" s="11"/>
-    </row>
-    <row r="55" spans="2:4" ht="30" customHeight="1">
+      <c r="C54" s="1">
+        <v>12.31</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="30" customHeight="1">
       <c r="B55" s="8">
         <v>0</v>
       </c>
-      <c r="D55" s="11"/>
-    </row>
-    <row r="56" spans="2:4" ht="30" customHeight="1">
+      <c r="C55" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="114.75" customHeight="1">
       <c r="B56" s="8">
         <v>0</v>
       </c>
-      <c r="D56" s="11"/>
-    </row>
-    <row r="57" spans="2:4" ht="30" customHeight="1">
+      <c r="C56" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="30" customHeight="1">
       <c r="B57" s="8">
         <v>0</v>
       </c>
-      <c r="D57" s="11"/>
-    </row>
-    <row r="58" spans="2:4" ht="30" customHeight="1">
+      <c r="C57" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="168.75" customHeight="1">
       <c r="B58" s="8">
         <v>0</v>
       </c>
-      <c r="D58" s="11"/>
-    </row>
-    <row r="59" spans="2:4" ht="30" customHeight="1">
+      <c r="C58" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="30" customHeight="1">
       <c r="B59" s="8">
         <v>0</v>
       </c>
+      <c r="C59" s="21">
+        <v>1.5</v>
+      </c>
       <c r="D59" s="11"/>
     </row>
-    <row r="60" spans="2:4" ht="30" customHeight="1">
+    <row r="60" spans="2:5" ht="30" customHeight="1">
       <c r="B60" s="8">
         <v>0</v>
       </c>
       <c r="D60" s="11"/>
     </row>
-    <row r="61" spans="2:4" ht="30" customHeight="1">
+    <row r="61" spans="2:5" ht="30" customHeight="1">
       <c r="B61" s="8">
         <v>0</v>
       </c>
       <c r="D61" s="11"/>
     </row>
-    <row r="62" spans="2:4" ht="30" customHeight="1">
+    <row r="62" spans="2:5" ht="30" customHeight="1">
       <c r="B62" s="8">
         <v>0</v>
       </c>
       <c r="D62" s="11"/>
     </row>
-    <row r="63" spans="2:4" ht="30" customHeight="1">
+    <row r="63" spans="2:5" ht="30" customHeight="1">
       <c r="B63" s="8">
         <v>0</v>
       </c>
       <c r="D63" s="11"/>
     </row>
-    <row r="64" spans="2:4" ht="30" customHeight="1">
+    <row r="64" spans="2:5" ht="30" customHeight="1">
       <c r="B64" s="8">
         <v>0</v>
       </c>
@@ -3131,8 +3574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D412"/>
   <sheetViews>
-    <sheetView topLeftCell="A344" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView topLeftCell="A374" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B205" sqref="B205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3166,7 +3609,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>47</v>
       </c>
       <c r="B3" t="s">
@@ -3177,7 +3620,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" t="s">
         <v>49</v>
       </c>
@@ -3186,7 +3629,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" t="s">
         <v>50</v>
       </c>
@@ -3195,7 +3638,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" t="s">
         <v>51</v>
       </c>
@@ -3204,7 +3647,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" t="s">
         <v>52</v>
       </c>
@@ -3213,7 +3656,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" t="s">
         <v>53</v>
       </c>
@@ -3222,7 +3665,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" t="s">
         <v>54</v>
       </c>
@@ -3231,7 +3674,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" t="s">
         <v>55</v>
       </c>
@@ -3240,7 +3683,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" t="s">
         <v>56</v>
       </c>
@@ -3249,7 +3692,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" t="s">
         <v>57</v>
       </c>
@@ -3258,7 +3701,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" t="s">
         <v>58</v>
       </c>
@@ -3267,7 +3710,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B14" t="s">
@@ -3278,7 +3721,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="19"/>
+      <c r="A15" s="20"/>
       <c r="B15" t="s">
         <v>61</v>
       </c>
@@ -3287,7 +3730,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="33">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" t="s">
         <v>62</v>
       </c>
@@ -3296,7 +3739,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B17" t="s">
@@ -3307,7 +3750,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="19"/>
+      <c r="A18" s="20"/>
       <c r="B18" t="s">
         <v>65</v>
       </c>
@@ -3316,7 +3759,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="19"/>
+      <c r="A19" s="20"/>
       <c r="B19" t="s">
         <v>66</v>
       </c>
@@ -3325,7 +3768,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="19"/>
+      <c r="A20" s="20"/>
       <c r="B20" t="s">
         <v>67</v>
       </c>
@@ -3334,7 +3777,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="33">
-      <c r="A21" s="19"/>
+      <c r="A21" s="20"/>
       <c r="B21" t="s">
         <v>68</v>
       </c>
@@ -3343,7 +3786,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B22" t="s">
@@ -3354,7 +3797,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="19"/>
+      <c r="A23" s="20"/>
       <c r="B23" t="s">
         <v>71</v>
       </c>
@@ -3363,7 +3806,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="19"/>
+      <c r="A24" s="20"/>
       <c r="B24" t="s">
         <v>72</v>
       </c>
@@ -3372,7 +3815,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="19"/>
+      <c r="A25" s="20"/>
       <c r="B25" t="s">
         <v>73</v>
       </c>
@@ -3381,7 +3824,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="33">
-      <c r="A26" s="19"/>
+      <c r="A26" s="20"/>
       <c r="B26" t="s">
         <v>74</v>
       </c>
@@ -3390,7 +3833,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="19"/>
+      <c r="A27" s="20"/>
       <c r="B27" t="s">
         <v>75</v>
       </c>
@@ -3399,7 +3842,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="33">
-      <c r="A28" s="19"/>
+      <c r="A28" s="20"/>
       <c r="B28" t="s">
         <v>76</v>
       </c>
@@ -3408,7 +3851,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="19"/>
+      <c r="A29" s="20"/>
       <c r="B29" t="s">
         <v>77</v>
       </c>
@@ -3417,7 +3860,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="19"/>
+      <c r="A30" s="20"/>
       <c r="B30" t="s">
         <v>78</v>
       </c>
@@ -3426,7 +3869,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="19"/>
+      <c r="A31" s="20"/>
       <c r="B31" t="s">
         <v>79</v>
       </c>
@@ -3435,7 +3878,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="19"/>
+      <c r="A32" s="20"/>
       <c r="B32" t="s">
         <v>80</v>
       </c>
@@ -3444,7 +3887,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="20" t="s">
         <v>81</v>
       </c>
       <c r="B33" t="s">
@@ -3455,7 +3898,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="19"/>
+      <c r="A34" s="20"/>
       <c r="B34" t="s">
         <v>83</v>
       </c>
@@ -3464,7 +3907,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="19"/>
+      <c r="A35" s="20"/>
       <c r="B35" t="s">
         <v>84</v>
       </c>
@@ -3473,7 +3916,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="19"/>
+      <c r="A36" s="20"/>
       <c r="B36" t="s">
         <v>85</v>
       </c>
@@ -3482,7 +3925,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="19"/>
+      <c r="A37" s="20"/>
       <c r="B37" t="s">
         <v>86</v>
       </c>
@@ -3491,7 +3934,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="19"/>
+      <c r="A38" s="20"/>
       <c r="B38" t="s">
         <v>87</v>
       </c>
@@ -3500,7 +3943,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="19"/>
+      <c r="A39" s="20"/>
       <c r="B39" t="s">
         <v>88</v>
       </c>
@@ -3509,7 +3952,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="19"/>
+      <c r="A40" s="20"/>
       <c r="B40" t="s">
         <v>89</v>
       </c>
@@ -3518,7 +3961,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="20" t="s">
         <v>90</v>
       </c>
       <c r="B41" t="s">
@@ -3529,7 +3972,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="19"/>
+      <c r="A42" s="20"/>
       <c r="B42" t="s">
         <v>92</v>
       </c>
@@ -3538,7 +3981,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="19"/>
+      <c r="A43" s="20"/>
       <c r="B43" t="s">
         <v>93</v>
       </c>
@@ -3547,7 +3990,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="19"/>
+      <c r="A44" s="20"/>
       <c r="B44" t="s">
         <v>94</v>
       </c>
@@ -3556,7 +3999,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="19"/>
+      <c r="A45" s="20"/>
       <c r="B45" t="s">
         <v>95</v>
       </c>
@@ -3565,7 +4008,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="19"/>
+      <c r="A46" s="20"/>
       <c r="B46" t="s">
         <v>96</v>
       </c>
@@ -3574,7 +4017,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="19"/>
+      <c r="A47" s="20"/>
       <c r="B47" t="s">
         <v>97</v>
       </c>
@@ -3583,7 +4026,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="19"/>
+      <c r="A48" s="20"/>
       <c r="B48" t="s">
         <v>98</v>
       </c>
@@ -3592,7 +4035,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="19"/>
+      <c r="A49" s="20"/>
       <c r="B49" t="s">
         <v>99</v>
       </c>
@@ -3601,7 +4044,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="20" t="s">
         <v>100</v>
       </c>
       <c r="B50" t="s">
@@ -3612,7 +4055,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="19"/>
+      <c r="A51" s="20"/>
       <c r="B51" t="s">
         <v>102</v>
       </c>
@@ -3621,7 +4064,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="19"/>
+      <c r="A52" s="20"/>
       <c r="B52" t="s">
         <v>103</v>
       </c>
@@ -3630,7 +4073,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="19"/>
+      <c r="A53" s="20"/>
       <c r="B53" t="s">
         <v>104</v>
       </c>
@@ -3639,7 +4082,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="19"/>
+      <c r="A54" s="20"/>
       <c r="B54" t="s">
         <v>105</v>
       </c>
@@ -3648,7 +4091,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="19"/>
+      <c r="A55" s="20"/>
       <c r="B55" t="s">
         <v>106</v>
       </c>
@@ -3657,7 +4100,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="19"/>
+      <c r="A56" s="20"/>
       <c r="B56" t="s">
         <v>107</v>
       </c>
@@ -3666,7 +4109,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="20" t="s">
         <v>108</v>
       </c>
       <c r="B57" t="s">
@@ -3677,7 +4120,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="19"/>
+      <c r="A58" s="20"/>
       <c r="B58" t="s">
         <v>110</v>
       </c>
@@ -3686,7 +4129,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="33">
-      <c r="A59" s="19"/>
+      <c r="A59" s="20"/>
       <c r="B59" t="s">
         <v>111</v>
       </c>
@@ -3695,7 +4138,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="19"/>
+      <c r="A60" s="20"/>
       <c r="B60" t="s">
         <v>112</v>
       </c>
@@ -3704,7 +4147,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="19"/>
+      <c r="A61" s="20"/>
       <c r="B61" t="s">
         <v>113</v>
       </c>
@@ -3713,7 +4156,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="19"/>
+      <c r="A62" s="20"/>
       <c r="B62" t="s">
         <v>114</v>
       </c>
@@ -3722,7 +4165,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="19"/>
+      <c r="A63" s="20"/>
       <c r="B63" t="s">
         <v>115</v>
       </c>
@@ -3731,7 +4174,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="33">
-      <c r="A64" s="19"/>
+      <c r="A64" s="20"/>
       <c r="B64" t="s">
         <v>116</v>
       </c>
@@ -3740,7 +4183,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="19"/>
+      <c r="A65" s="20"/>
       <c r="B65" t="s">
         <v>117</v>
       </c>
@@ -3749,7 +4192,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="33">
-      <c r="A66" s="19"/>
+      <c r="A66" s="20"/>
       <c r="B66" t="s">
         <v>118</v>
       </c>
@@ -3758,7 +4201,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="20" t="s">
         <v>119</v>
       </c>
       <c r="B67" t="s">
@@ -3769,7 +4212,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="19"/>
+      <c r="A68" s="20"/>
       <c r="B68" t="s">
         <v>121</v>
       </c>
@@ -3778,7 +4221,7 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="19"/>
+      <c r="A69" s="20"/>
       <c r="B69" t="s">
         <v>122</v>
       </c>
@@ -3787,7 +4230,7 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="19"/>
+      <c r="A70" s="20"/>
       <c r="B70" t="s">
         <v>123</v>
       </c>
@@ -3796,7 +4239,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="20" t="s">
         <v>124</v>
       </c>
       <c r="B71" t="s">
@@ -3807,7 +4250,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="19"/>
+      <c r="A72" s="20"/>
       <c r="B72" t="s">
         <v>126</v>
       </c>
@@ -3816,7 +4259,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="33">
-      <c r="A73" s="19"/>
+      <c r="A73" s="20"/>
       <c r="B73" t="s">
         <v>127</v>
       </c>
@@ -3825,7 +4268,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="19"/>
+      <c r="A74" s="20"/>
       <c r="B74" t="s">
         <v>128</v>
       </c>
@@ -3834,7 +4277,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="19"/>
+      <c r="A75" s="20"/>
       <c r="B75" t="s">
         <v>129</v>
       </c>
@@ -3843,7 +4286,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="33">
-      <c r="A76" s="19"/>
+      <c r="A76" s="20"/>
       <c r="B76" t="s">
         <v>130</v>
       </c>
@@ -3852,7 +4295,7 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="19"/>
+      <c r="A77" s="20"/>
       <c r="B77" t="s">
         <v>131</v>
       </c>
@@ -3861,7 +4304,7 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="19"/>
+      <c r="A78" s="20"/>
       <c r="B78" t="s">
         <v>132</v>
       </c>
@@ -3870,7 +4313,7 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="19"/>
+      <c r="A79" s="20"/>
       <c r="B79" t="s">
         <v>133</v>
       </c>
@@ -3879,7 +4322,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="20" t="s">
         <v>134</v>
       </c>
       <c r="B80" t="s">
@@ -3890,7 +4333,7 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="19"/>
+      <c r="A81" s="20"/>
       <c r="B81" t="s">
         <v>136</v>
       </c>
@@ -3899,7 +4342,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="19"/>
+      <c r="A82" s="20"/>
       <c r="B82" t="s">
         <v>137</v>
       </c>
@@ -3908,7 +4351,7 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="19"/>
+      <c r="A83" s="20"/>
       <c r="B83" t="s">
         <v>138</v>
       </c>
@@ -3917,7 +4360,7 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="19"/>
+      <c r="A84" s="20"/>
       <c r="B84" t="s">
         <v>139</v>
       </c>
@@ -3926,7 +4369,7 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="19"/>
+      <c r="A85" s="20"/>
       <c r="B85" t="s">
         <v>140</v>
       </c>
@@ -3935,7 +4378,7 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="19"/>
+      <c r="A86" s="20"/>
       <c r="B86" t="s">
         <v>141</v>
       </c>
@@ -3944,7 +4387,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="19"/>
+      <c r="A87" s="20"/>
       <c r="B87" t="s">
         <v>142</v>
       </c>
@@ -3953,7 +4396,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="19"/>
+      <c r="A88" s="20"/>
       <c r="B88" t="s">
         <v>143</v>
       </c>
@@ -3962,7 +4405,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="20" t="s">
         <v>144</v>
       </c>
       <c r="B89" t="s">
@@ -3973,7 +4416,7 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="19"/>
+      <c r="A90" s="20"/>
       <c r="B90" t="s">
         <v>146</v>
       </c>
@@ -3982,7 +4425,7 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="19"/>
+      <c r="A91" s="20"/>
       <c r="B91" t="s">
         <v>147</v>
       </c>
@@ -3991,7 +4434,7 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="19"/>
+      <c r="A92" s="20"/>
       <c r="B92" t="s">
         <v>148</v>
       </c>
@@ -4000,7 +4443,7 @@
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="19"/>
+      <c r="A93" s="20"/>
       <c r="B93" t="s">
         <v>149</v>
       </c>
@@ -4009,7 +4452,7 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="19"/>
+      <c r="A94" s="20"/>
       <c r="B94" t="s">
         <v>150</v>
       </c>
@@ -4018,7 +4461,7 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="19"/>
+      <c r="A95" s="20"/>
       <c r="B95" t="s">
         <v>151</v>
       </c>
@@ -4027,7 +4470,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A96" s="19" t="s">
+      <c r="A96" s="20" t="s">
         <v>152</v>
       </c>
       <c r="B96" t="s">
@@ -4038,7 +4481,7 @@
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="19"/>
+      <c r="A97" s="20"/>
       <c r="B97" t="s">
         <v>154</v>
       </c>
@@ -4047,7 +4490,7 @@
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="19"/>
+      <c r="A98" s="20"/>
       <c r="B98" t="s">
         <v>155</v>
       </c>
@@ -4056,7 +4499,7 @@
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="19"/>
+      <c r="A99" s="20"/>
       <c r="B99" t="s">
         <v>156</v>
       </c>
@@ -4065,7 +4508,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A100" s="19" t="s">
+      <c r="A100" s="20" t="s">
         <v>157</v>
       </c>
       <c r="B100" t="s">
@@ -4076,7 +4519,7 @@
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="19"/>
+      <c r="A101" s="20"/>
       <c r="B101" t="s">
         <v>159</v>
       </c>
@@ -4085,7 +4528,7 @@
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="19"/>
+      <c r="A102" s="20"/>
       <c r="B102" t="s">
         <v>160</v>
       </c>
@@ -4094,7 +4537,7 @@
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="19"/>
+      <c r="A103" s="20"/>
       <c r="B103" t="s">
         <v>161</v>
       </c>
@@ -4103,7 +4546,7 @@
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="19"/>
+      <c r="A104" s="20"/>
       <c r="B104" t="s">
         <v>162</v>
       </c>
@@ -4112,7 +4555,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A105" s="19" t="s">
+      <c r="A105" s="20" t="s">
         <v>163</v>
       </c>
       <c r="B105" t="s">
@@ -4121,60 +4564,60 @@
       <c r="C105" s="13">
         <v>18</v>
       </c>
-      <c r="D105" s="20"/>
+      <c r="D105" s="15"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="19"/>
+      <c r="A106" s="20"/>
       <c r="B106" t="s">
         <v>165</v>
       </c>
       <c r="C106" s="13">
         <v>12</v>
       </c>
-      <c r="D106" s="20"/>
+      <c r="D106" s="15"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="19"/>
+      <c r="A107" s="20"/>
       <c r="B107" t="s">
         <v>166</v>
       </c>
       <c r="C107" s="13">
         <v>7</v>
       </c>
-      <c r="D107" s="20"/>
+      <c r="D107" s="15"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="19"/>
+      <c r="A108" s="20"/>
       <c r="B108" t="s">
         <v>167</v>
       </c>
       <c r="C108" s="13">
         <v>16</v>
       </c>
-      <c r="D108" s="20"/>
+      <c r="D108" s="15"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="19"/>
+      <c r="A109" s="20"/>
       <c r="B109" t="s">
         <v>168</v>
       </c>
       <c r="C109" s="13">
         <v>34</v>
       </c>
-      <c r="D109" s="20"/>
+      <c r="D109" s="15"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="19"/>
+      <c r="A110" s="20"/>
       <c r="B110" t="s">
         <v>169</v>
       </c>
       <c r="C110" s="13">
         <v>20</v>
       </c>
-      <c r="D110" s="20"/>
+      <c r="D110" s="15"/>
     </row>
     <row r="111" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A111" s="19" t="s">
+      <c r="A111" s="20" t="s">
         <v>170</v>
       </c>
       <c r="B111" t="s">
@@ -4183,60 +4626,60 @@
       <c r="C111" s="13">
         <v>14</v>
       </c>
-      <c r="D111" s="20"/>
+      <c r="D111" s="15"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="19"/>
+      <c r="A112" s="20"/>
       <c r="B112" t="s">
         <v>172</v>
       </c>
       <c r="C112" s="13">
         <v>10</v>
       </c>
-      <c r="D112" s="20"/>
+      <c r="D112" s="15"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="19"/>
+      <c r="A113" s="20"/>
       <c r="B113" t="s">
         <v>173</v>
       </c>
       <c r="C113" s="13">
         <v>11</v>
       </c>
-      <c r="D113" s="20"/>
+      <c r="D113" s="15"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="19"/>
+      <c r="A114" s="20"/>
       <c r="B114" t="s">
         <v>174</v>
       </c>
       <c r="C114" s="13">
         <v>16</v>
       </c>
-      <c r="D114" s="20"/>
+      <c r="D114" s="15"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="19"/>
+      <c r="A115" s="20"/>
       <c r="B115" t="s">
         <v>175</v>
       </c>
       <c r="C115" s="13">
         <v>11</v>
       </c>
-      <c r="D115" s="20"/>
+      <c r="D115" s="15"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="19"/>
+      <c r="A116" s="20"/>
       <c r="B116" t="s">
         <v>176</v>
       </c>
       <c r="C116" s="13">
         <v>20</v>
       </c>
-      <c r="D116" s="20"/>
+      <c r="D116" s="15"/>
     </row>
     <row r="117" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A117" s="19" t="s">
+      <c r="A117" s="20" t="s">
         <v>177</v>
       </c>
       <c r="B117" t="s">
@@ -4245,80 +4688,80 @@
       <c r="C117" s="13">
         <v>9</v>
       </c>
-      <c r="D117" s="20"/>
+      <c r="D117" s="15"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="19"/>
+      <c r="A118" s="20"/>
       <c r="B118" t="s">
         <v>179</v>
       </c>
       <c r="C118" s="13">
         <v>15</v>
       </c>
-      <c r="D118" s="20"/>
+      <c r="D118" s="15"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="19"/>
+      <c r="A119" s="20"/>
       <c r="B119" t="s">
         <v>180</v>
       </c>
       <c r="C119" s="13">
         <v>15</v>
       </c>
-      <c r="D119" s="20"/>
+      <c r="D119" s="15"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="19"/>
+      <c r="A120" s="20"/>
       <c r="B120" t="s">
         <v>181</v>
       </c>
       <c r="C120" s="13">
         <v>8</v>
       </c>
-      <c r="D120" s="20"/>
+      <c r="D120" s="15"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="19"/>
+      <c r="A121" s="20"/>
       <c r="B121" t="s">
         <v>182</v>
       </c>
       <c r="C121" s="13">
         <v>17</v>
       </c>
-      <c r="D121" s="20"/>
+      <c r="D121" s="15"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="19"/>
+      <c r="A122" s="20"/>
       <c r="B122" t="s">
         <v>183</v>
       </c>
       <c r="C122" s="13">
         <v>20</v>
       </c>
-      <c r="D122" s="20"/>
+      <c r="D122" s="15"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="19"/>
+      <c r="A123" s="20"/>
       <c r="B123" t="s">
         <v>184</v>
       </c>
       <c r="C123" s="13">
         <v>7</v>
       </c>
-      <c r="D123" s="20"/>
+      <c r="D123" s="15"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="19"/>
+      <c r="A124" s="20"/>
       <c r="B124" t="s">
         <v>185</v>
       </c>
       <c r="C124" s="13">
         <v>12</v>
       </c>
-      <c r="D124" s="20"/>
+      <c r="D124" s="15"/>
     </row>
     <row r="125" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A125" s="19" t="s">
+      <c r="A125" s="20" t="s">
         <v>186</v>
       </c>
       <c r="B125" t="s">
@@ -4327,40 +4770,40 @@
       <c r="C125" s="13">
         <v>30</v>
       </c>
-      <c r="D125" s="20"/>
+      <c r="D125" s="15"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="19"/>
+      <c r="A126" s="20"/>
       <c r="B126" t="s">
         <v>188</v>
       </c>
       <c r="C126" s="13">
         <v>5</v>
       </c>
-      <c r="D126" s="20"/>
+      <c r="D126" s="15"/>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="19"/>
+      <c r="A127" s="20"/>
       <c r="B127" t="s">
         <v>189</v>
       </c>
       <c r="C127" s="13">
         <v>19</v>
       </c>
-      <c r="D127" s="20"/>
+      <c r="D127" s="15"/>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="19"/>
+      <c r="A128" s="20"/>
       <c r="B128" t="s">
         <v>190</v>
       </c>
       <c r="C128" s="13">
         <v>20</v>
       </c>
-      <c r="D128" s="20"/>
+      <c r="D128" s="15"/>
     </row>
     <row r="129" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A129" s="19" t="s">
+      <c r="A129" s="20" t="s">
         <v>191</v>
       </c>
       <c r="B129" t="s">
@@ -4369,30 +4812,30 @@
       <c r="C129" s="13">
         <v>20</v>
       </c>
-      <c r="D129" s="20"/>
+      <c r="D129" s="15"/>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="19"/>
+      <c r="A130" s="20"/>
       <c r="B130" t="s">
         <v>193</v>
       </c>
       <c r="C130" s="13">
         <v>6</v>
       </c>
-      <c r="D130" s="20"/>
+      <c r="D130" s="15"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="19"/>
+      <c r="A131" s="20"/>
       <c r="B131" t="s">
         <v>194</v>
       </c>
       <c r="C131" s="13">
         <v>33</v>
       </c>
-      <c r="D131" s="20"/>
+      <c r="D131" s="15"/>
     </row>
     <row r="132" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A132" s="19" t="s">
+      <c r="A132" s="20" t="s">
         <v>195</v>
       </c>
       <c r="B132" t="s">
@@ -4401,90 +4844,90 @@
       <c r="C132" s="13">
         <v>10</v>
       </c>
-      <c r="D132" s="20"/>
+      <c r="D132" s="15"/>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="19"/>
+      <c r="A133" s="20"/>
       <c r="B133" t="s">
         <v>197</v>
       </c>
       <c r="C133" s="13">
         <v>23</v>
       </c>
-      <c r="D133" s="20"/>
+      <c r="D133" s="15"/>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="19"/>
+      <c r="A134" s="20"/>
       <c r="B134" t="s">
         <v>198</v>
       </c>
       <c r="C134" s="13">
         <v>15</v>
       </c>
-      <c r="D134" s="20"/>
+      <c r="D134" s="15"/>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="19"/>
+      <c r="A135" s="20"/>
       <c r="B135" t="s">
         <v>199</v>
       </c>
       <c r="C135" s="13">
         <v>17</v>
       </c>
-      <c r="D135" s="20"/>
+      <c r="D135" s="15"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="19"/>
+      <c r="A136" s="20"/>
       <c r="B136" t="s">
         <v>200</v>
       </c>
       <c r="C136" s="13">
         <v>36</v>
       </c>
-      <c r="D136" s="20"/>
+      <c r="D136" s="15"/>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="19"/>
+      <c r="A137" s="20"/>
       <c r="B137" t="s">
         <v>201</v>
       </c>
       <c r="C137" s="13">
         <v>41</v>
       </c>
-      <c r="D137" s="20"/>
+      <c r="D137" s="15"/>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="19"/>
+      <c r="A138" s="20"/>
       <c r="B138" t="s">
         <v>202</v>
       </c>
       <c r="C138" s="13">
         <v>25</v>
       </c>
-      <c r="D138" s="20"/>
+      <c r="D138" s="15"/>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="19"/>
+      <c r="A139" s="20"/>
       <c r="B139" t="s">
         <v>203</v>
       </c>
       <c r="C139" s="13">
         <v>2</v>
       </c>
-      <c r="D139" s="20"/>
+      <c r="D139" s="15"/>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="19"/>
+      <c r="A140" s="20"/>
       <c r="B140" t="s">
         <v>204</v>
       </c>
       <c r="C140" s="13">
         <v>15</v>
       </c>
-      <c r="D140" s="20"/>
+      <c r="D140" s="15"/>
     </row>
     <row r="141" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A141" s="19" t="s">
+      <c r="A141" s="20" t="s">
         <v>205</v>
       </c>
       <c r="B141" t="s">
@@ -4493,60 +4936,60 @@
       <c r="C141" s="13">
         <v>23</v>
       </c>
-      <c r="D141" s="20"/>
+      <c r="D141" s="15"/>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="19"/>
+      <c r="A142" s="20"/>
       <c r="B142" t="s">
         <v>207</v>
       </c>
       <c r="C142" s="13">
         <v>27</v>
       </c>
-      <c r="D142" s="20"/>
+      <c r="D142" s="15"/>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="19"/>
+      <c r="A143" s="20"/>
       <c r="B143" t="s">
         <v>208</v>
       </c>
       <c r="C143" s="13">
         <v>21</v>
       </c>
-      <c r="D143" s="20"/>
+      <c r="D143" s="15"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="19"/>
+      <c r="A144" s="20"/>
       <c r="B144" t="s">
         <v>209</v>
       </c>
       <c r="C144" s="13">
         <v>15</v>
       </c>
-      <c r="D144" s="20"/>
+      <c r="D144" s="15"/>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="19"/>
+      <c r="A145" s="20"/>
       <c r="B145" t="s">
         <v>210</v>
       </c>
       <c r="C145" s="13">
         <v>3</v>
       </c>
-      <c r="D145" s="20"/>
+      <c r="D145" s="15"/>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="19"/>
+      <c r="A146" s="20"/>
       <c r="B146" t="s">
         <v>211</v>
       </c>
       <c r="C146" s="13">
         <v>31</v>
       </c>
-      <c r="D146" s="20"/>
+      <c r="D146" s="15"/>
     </row>
     <row r="147" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A147" s="19" t="s">
+      <c r="A147" s="20" t="s">
         <v>212</v>
       </c>
       <c r="B147" t="s">
@@ -4555,30 +4998,30 @@
       <c r="C147" s="13">
         <v>33</v>
       </c>
-      <c r="D147" s="20"/>
+      <c r="D147" s="15"/>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="19"/>
+      <c r="A148" s="20"/>
       <c r="B148" t="s">
         <v>214</v>
       </c>
       <c r="C148" s="13">
         <v>21</v>
       </c>
-      <c r="D148" s="20"/>
+      <c r="D148" s="15"/>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="19"/>
+      <c r="A149" s="20"/>
       <c r="B149" t="s">
         <v>215</v>
       </c>
       <c r="C149" s="13">
         <v>24</v>
       </c>
-      <c r="D149" s="20"/>
+      <c r="D149" s="15"/>
     </row>
     <row r="150" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A150" s="19" t="s">
+      <c r="A150" s="20" t="s">
         <v>216</v>
       </c>
       <c r="B150" t="s">
@@ -4587,30 +5030,30 @@
       <c r="C150" s="13">
         <v>19</v>
       </c>
-      <c r="D150" s="20"/>
+      <c r="D150" s="15"/>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="19"/>
+      <c r="A151" s="20"/>
       <c r="B151" t="s">
         <v>218</v>
       </c>
       <c r="C151" s="13">
         <v>29</v>
       </c>
-      <c r="D151" s="20"/>
+      <c r="D151" s="15"/>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="19"/>
+      <c r="A152" s="20"/>
       <c r="B152" t="s">
         <v>219</v>
       </c>
       <c r="C152" s="13">
         <v>30</v>
       </c>
-      <c r="D152" s="20"/>
+      <c r="D152" s="15"/>
     </row>
     <row r="153" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A153" s="19" t="s">
+      <c r="A153" s="20" t="s">
         <v>220</v>
       </c>
       <c r="B153" t="s">
@@ -4619,30 +5062,30 @@
       <c r="C153" s="13">
         <v>16</v>
       </c>
-      <c r="D153" s="20"/>
+      <c r="D153" s="15"/>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="19"/>
+      <c r="A154" s="20"/>
       <c r="B154" t="s">
         <v>222</v>
       </c>
       <c r="C154" s="13">
         <v>11</v>
       </c>
-      <c r="D154" s="20"/>
+      <c r="D154" s="15"/>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="19"/>
+      <c r="A155" s="20"/>
       <c r="B155" t="s">
         <v>223</v>
       </c>
       <c r="C155" s="13">
         <v>4</v>
       </c>
-      <c r="D155" s="20"/>
+      <c r="D155" s="15"/>
     </row>
     <row r="156" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A156" s="19" t="s">
+      <c r="A156" s="20" t="s">
         <v>224</v>
       </c>
       <c r="B156" t="s">
@@ -4651,40 +5094,40 @@
       <c r="C156" s="13">
         <v>13</v>
       </c>
-      <c r="D156" s="20"/>
+      <c r="D156" s="15"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="19"/>
+      <c r="A157" s="20"/>
       <c r="B157" t="s">
         <v>226</v>
       </c>
       <c r="C157" s="13">
         <v>17</v>
       </c>
-      <c r="D157" s="20"/>
+      <c r="D157" s="15"/>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="19"/>
+      <c r="A158" s="20"/>
       <c r="B158" t="s">
         <v>227</v>
       </c>
       <c r="C158" s="13">
         <v>3</v>
       </c>
-      <c r="D158" s="20"/>
+      <c r="D158" s="15"/>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="19"/>
+      <c r="A159" s="20"/>
       <c r="B159" t="s">
         <v>228</v>
       </c>
       <c r="C159" s="13">
         <v>20</v>
       </c>
-      <c r="D159" s="20"/>
+      <c r="D159" s="15"/>
     </row>
     <row r="160" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A160" s="19" t="s">
+      <c r="A160" s="20" t="s">
         <v>229</v>
       </c>
       <c r="B160" t="s">
@@ -4693,30 +5136,30 @@
       <c r="C160" s="13">
         <v>47</v>
       </c>
-      <c r="D160" s="20"/>
+      <c r="D160" s="15"/>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="19"/>
+      <c r="A161" s="20"/>
       <c r="B161" t="s">
         <v>231</v>
       </c>
       <c r="C161" s="13">
         <v>35</v>
       </c>
-      <c r="D161" s="20"/>
+      <c r="D161" s="15"/>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="19"/>
+      <c r="A162" s="20"/>
       <c r="B162" t="s">
         <v>232</v>
       </c>
       <c r="C162" s="13">
         <v>29</v>
       </c>
-      <c r="D162" s="20"/>
+      <c r="D162" s="15"/>
     </row>
     <row r="163" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A163" s="19" t="s">
+      <c r="A163" s="20" t="s">
         <v>233</v>
       </c>
       <c r="B163" t="s">
@@ -4725,40 +5168,40 @@
       <c r="C163" s="13">
         <v>17</v>
       </c>
-      <c r="D163" s="20"/>
+      <c r="D163" s="15"/>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="19"/>
+      <c r="A164" s="20"/>
       <c r="B164" t="s">
         <v>235</v>
       </c>
       <c r="C164" s="13">
         <v>17</v>
       </c>
-      <c r="D164" s="20"/>
+      <c r="D164" s="15"/>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="19"/>
+      <c r="A165" s="20"/>
       <c r="B165" t="s">
         <v>236</v>
       </c>
       <c r="C165" s="13">
         <v>11</v>
       </c>
-      <c r="D165" s="20"/>
+      <c r="D165" s="15"/>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="19"/>
+      <c r="A166" s="20"/>
       <c r="B166" t="s">
         <v>237</v>
       </c>
       <c r="C166" s="13">
         <v>10</v>
       </c>
-      <c r="D166" s="20"/>
+      <c r="D166" s="15"/>
     </row>
     <row r="167" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A167" s="19" t="s">
+      <c r="A167" s="20" t="s">
         <v>238</v>
       </c>
       <c r="B167" t="s">
@@ -4767,60 +5210,60 @@
       <c r="C167" s="13">
         <v>9</v>
       </c>
-      <c r="D167" s="20"/>
+      <c r="D167" s="15"/>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="19"/>
+      <c r="A168" s="20"/>
       <c r="B168" t="s">
         <v>240</v>
       </c>
       <c r="C168" s="13">
         <v>19</v>
       </c>
-      <c r="D168" s="20"/>
+      <c r="D168" s="15"/>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="19"/>
+      <c r="A169" s="20"/>
       <c r="B169" t="s">
         <v>241</v>
       </c>
       <c r="C169" s="13">
         <v>27</v>
       </c>
-      <c r="D169" s="20"/>
+      <c r="D169" s="15"/>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="19"/>
+      <c r="A170" s="20"/>
       <c r="B170" t="s">
         <v>242</v>
       </c>
       <c r="C170" s="13">
         <v>21</v>
       </c>
-      <c r="D170" s="20"/>
+      <c r="D170" s="15"/>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="19"/>
+      <c r="A171" s="20"/>
       <c r="B171" t="s">
         <v>243</v>
       </c>
       <c r="C171" s="13">
         <v>40</v>
       </c>
-      <c r="D171" s="20"/>
+      <c r="D171" s="15"/>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="19"/>
+      <c r="A172" s="20"/>
       <c r="B172" t="s">
         <v>169</v>
       </c>
       <c r="C172" s="13">
         <v>16</v>
       </c>
-      <c r="D172" s="20"/>
+      <c r="D172" s="15"/>
     </row>
     <row r="173" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A173" s="19" t="s">
+      <c r="A173" s="20" t="s">
         <v>244</v>
       </c>
       <c r="B173" t="s">
@@ -4829,30 +5272,30 @@
       <c r="C173" s="13">
         <v>36</v>
       </c>
-      <c r="D173" s="20"/>
+      <c r="D173" s="15"/>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="19"/>
+      <c r="A174" s="20"/>
       <c r="B174" t="s">
         <v>246</v>
       </c>
       <c r="C174" s="13">
         <v>23</v>
       </c>
-      <c r="D174" s="20"/>
+      <c r="D174" s="15"/>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="19"/>
+      <c r="A175" s="20"/>
       <c r="B175" t="s">
         <v>247</v>
       </c>
       <c r="C175" s="13">
         <v>29</v>
       </c>
-      <c r="D175" s="20"/>
+      <c r="D175" s="15"/>
     </row>
     <row r="176" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A176" s="19" t="s">
+      <c r="A176" s="20" t="s">
         <v>248</v>
       </c>
       <c r="B176" t="s">
@@ -4861,30 +5304,30 @@
       <c r="C176" s="13">
         <v>40</v>
       </c>
-      <c r="D176" s="20"/>
+      <c r="D176" s="15"/>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="19"/>
+      <c r="A177" s="20"/>
       <c r="B177" t="s">
         <v>250</v>
       </c>
       <c r="C177" s="13">
         <v>18</v>
       </c>
-      <c r="D177" s="20"/>
+      <c r="D177" s="15"/>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="19"/>
+      <c r="A178" s="20"/>
       <c r="B178" t="s">
         <v>251</v>
       </c>
       <c r="C178" s="13">
         <v>17</v>
       </c>
-      <c r="D178" s="20"/>
+      <c r="D178" s="15"/>
     </row>
     <row r="179" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A179" s="19" t="s">
+      <c r="A179" s="20" t="s">
         <v>252</v>
       </c>
       <c r="B179" t="s">
@@ -4893,40 +5336,40 @@
       <c r="C179" s="13">
         <v>26</v>
       </c>
-      <c r="D179" s="20"/>
+      <c r="D179" s="15"/>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="19"/>
+      <c r="A180" s="20"/>
       <c r="B180" t="s">
         <v>254</v>
       </c>
       <c r="C180" s="13">
         <v>19</v>
       </c>
-      <c r="D180" s="20"/>
+      <c r="D180" s="15"/>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="19"/>
+      <c r="A181" s="20"/>
       <c r="B181" t="s">
         <v>255</v>
       </c>
       <c r="C181" s="13">
         <v>18</v>
       </c>
-      <c r="D181" s="20"/>
+      <c r="D181" s="15"/>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="19"/>
+      <c r="A182" s="20"/>
       <c r="B182" t="s">
         <v>256</v>
       </c>
       <c r="C182" s="13">
         <v>21</v>
       </c>
-      <c r="D182" s="20"/>
+      <c r="D182" s="15"/>
     </row>
     <row r="183" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A183" s="19" t="s">
+      <c r="A183" s="20" t="s">
         <v>257</v>
       </c>
       <c r="B183" t="s">
@@ -4935,50 +5378,50 @@
       <c r="C183" s="13">
         <v>9</v>
       </c>
-      <c r="D183" s="20"/>
+      <c r="D183" s="15"/>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="19"/>
+      <c r="A184" s="20"/>
       <c r="B184" t="s">
         <v>259</v>
       </c>
       <c r="C184" s="13">
         <v>9</v>
       </c>
-      <c r="D184" s="20"/>
+      <c r="D184" s="15"/>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="19"/>
+      <c r="A185" s="20"/>
       <c r="B185" t="s">
         <v>260</v>
       </c>
       <c r="C185" s="13">
         <v>20</v>
       </c>
-      <c r="D185" s="20"/>
+      <c r="D185" s="15"/>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="19"/>
+      <c r="A186" s="20"/>
       <c r="B186" t="s">
         <v>261</v>
       </c>
       <c r="C186" s="13">
         <v>8</v>
       </c>
-      <c r="D186" s="20"/>
+      <c r="D186" s="15"/>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="19"/>
+      <c r="A187" s="20"/>
       <c r="B187" t="s">
         <v>262</v>
       </c>
       <c r="C187" s="13">
         <v>37</v>
       </c>
-      <c r="D187" s="20"/>
+      <c r="D187" s="15"/>
     </row>
     <row r="188" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A188" s="19" t="s">
+      <c r="A188" s="20" t="s">
         <v>263</v>
       </c>
       <c r="B188" t="s">
@@ -4987,30 +5430,30 @@
       <c r="C188" s="13">
         <v>29</v>
       </c>
-      <c r="D188" s="20"/>
+      <c r="D188" s="15"/>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="19"/>
+      <c r="A189" s="20"/>
       <c r="B189" t="s">
         <v>265</v>
       </c>
       <c r="C189" s="13">
         <v>17</v>
       </c>
-      <c r="D189" s="20"/>
+      <c r="D189" s="15"/>
     </row>
     <row r="190" spans="1:4">
-      <c r="A190" s="19"/>
+      <c r="A190" s="20"/>
       <c r="B190" t="s">
         <v>266</v>
       </c>
       <c r="C190" s="13">
         <v>25</v>
       </c>
-      <c r="D190" s="20"/>
+      <c r="D190" s="15"/>
     </row>
     <row r="191" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A191" s="19" t="s">
+      <c r="A191" s="20" t="s">
         <v>267</v>
       </c>
       <c r="B191" t="s">
@@ -5019,20 +5462,20 @@
       <c r="C191" s="13">
         <v>25</v>
       </c>
-      <c r="D191" s="20"/>
+      <c r="D191" s="15"/>
     </row>
     <row r="192" spans="1:4">
-      <c r="A192" s="19"/>
+      <c r="A192" s="20"/>
       <c r="B192" t="s">
         <v>269</v>
       </c>
       <c r="C192" s="13">
         <v>25</v>
       </c>
-      <c r="D192" s="20"/>
+      <c r="D192" s="15"/>
     </row>
     <row r="193" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A193" s="19" t="s">
+      <c r="A193" s="20" t="s">
         <v>270</v>
       </c>
       <c r="B193" t="s">
@@ -5041,70 +5484,70 @@
       <c r="C193" s="13">
         <v>30</v>
       </c>
-      <c r="D193" s="20"/>
+      <c r="D193" s="15"/>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" s="19"/>
+      <c r="A194" s="20"/>
       <c r="B194" t="s">
         <v>272</v>
       </c>
       <c r="C194" s="13">
         <v>28</v>
       </c>
-      <c r="D194" s="20"/>
+      <c r="D194" s="15"/>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="19"/>
+      <c r="A195" s="20"/>
       <c r="B195" t="s">
         <v>273</v>
       </c>
       <c r="C195" s="13">
         <v>19</v>
       </c>
-      <c r="D195" s="20"/>
+      <c r="D195" s="15"/>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="19"/>
+      <c r="A196" s="20"/>
       <c r="B196" t="s">
         <v>274</v>
       </c>
       <c r="C196" s="13">
         <v>14</v>
       </c>
-      <c r="D196" s="20"/>
+      <c r="D196" s="15"/>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="19"/>
+      <c r="A197" s="20"/>
       <c r="B197" t="s">
         <v>275</v>
       </c>
       <c r="C197" s="13">
         <v>19</v>
       </c>
-      <c r="D197" s="20"/>
+      <c r="D197" s="15"/>
     </row>
     <row r="198" spans="1:4">
-      <c r="A198" s="19"/>
+      <c r="A198" s="20"/>
       <c r="B198" t="s">
         <v>276</v>
       </c>
       <c r="C198" s="13">
         <v>31</v>
       </c>
-      <c r="D198" s="20"/>
+      <c r="D198" s="15"/>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" s="19"/>
+      <c r="A199" s="20"/>
       <c r="B199" t="s">
         <v>277</v>
       </c>
       <c r="C199" s="13">
         <v>19</v>
       </c>
-      <c r="D199" s="20"/>
+      <c r="D199" s="15"/>
     </row>
     <row r="200" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A200" s="19" t="s">
+      <c r="A200" s="20" t="s">
         <v>278</v>
       </c>
       <c r="B200" t="s">
@@ -5113,60 +5556,60 @@
       <c r="C200" s="13">
         <v>19</v>
       </c>
-      <c r="D200" s="20"/>
+      <c r="D200" s="15"/>
     </row>
     <row r="201" spans="1:4">
-      <c r="A201" s="19"/>
+      <c r="A201" s="20"/>
       <c r="B201" t="s">
         <v>280</v>
       </c>
       <c r="C201" s="13">
         <v>9</v>
       </c>
-      <c r="D201" s="20"/>
+      <c r="D201" s="15"/>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="19"/>
+      <c r="A202" s="20"/>
       <c r="B202" t="s">
         <v>281</v>
       </c>
       <c r="C202" s="13">
         <v>15</v>
       </c>
-      <c r="D202" s="20"/>
+      <c r="D202" s="15"/>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="19"/>
+      <c r="A203" s="20"/>
       <c r="B203" t="s">
         <v>282</v>
       </c>
       <c r="C203" s="13">
         <v>11</v>
       </c>
-      <c r="D203" s="20"/>
+      <c r="D203" s="15"/>
     </row>
     <row r="204" spans="1:4">
-      <c r="A204" s="19"/>
+      <c r="A204" s="20"/>
       <c r="B204" t="s">
         <v>283</v>
       </c>
       <c r="C204" s="13">
         <v>44</v>
       </c>
-      <c r="D204" s="20"/>
+      <c r="D204" s="15"/>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" s="19"/>
+      <c r="A205" s="20"/>
       <c r="B205" t="s">
         <v>284</v>
       </c>
       <c r="C205" s="13">
         <v>67</v>
       </c>
-      <c r="D205" s="20"/>
+      <c r="D205" s="15"/>
     </row>
     <row r="206" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A206" s="19" t="s">
+      <c r="A206" s="20" t="s">
         <v>285</v>
       </c>
       <c r="B206" t="s">
@@ -5175,30 +5618,30 @@
       <c r="C206" s="13">
         <v>40</v>
       </c>
-      <c r="D206" s="20"/>
+      <c r="D206" s="15"/>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="19"/>
+      <c r="A207" s="20"/>
       <c r="B207" t="s">
         <v>287</v>
       </c>
       <c r="C207" s="13">
         <v>6</v>
       </c>
-      <c r="D207" s="20"/>
+      <c r="D207" s="15"/>
     </row>
     <row r="208" spans="1:4">
-      <c r="A208" s="19"/>
+      <c r="A208" s="20"/>
       <c r="B208" t="s">
         <v>288</v>
       </c>
       <c r="C208" s="13">
         <v>25</v>
       </c>
-      <c r="D208" s="20"/>
+      <c r="D208" s="15"/>
     </row>
     <row r="209" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A209" s="19" t="s">
+      <c r="A209" s="20" t="s">
         <v>289</v>
       </c>
       <c r="B209" t="s">
@@ -5207,50 +5650,50 @@
       <c r="C209" s="13">
         <v>7</v>
       </c>
-      <c r="D209" s="20"/>
+      <c r="D209" s="15"/>
     </row>
     <row r="210" spans="1:4">
-      <c r="A210" s="19"/>
+      <c r="A210" s="20"/>
       <c r="B210" t="s">
         <v>291</v>
       </c>
       <c r="C210" s="13">
         <v>11</v>
       </c>
-      <c r="D210" s="20"/>
+      <c r="D210" s="15"/>
     </row>
     <row r="211" spans="1:4">
-      <c r="A211" s="19"/>
+      <c r="A211" s="20"/>
       <c r="B211" t="s">
         <v>292</v>
       </c>
       <c r="C211" s="13">
         <v>12</v>
       </c>
-      <c r="D211" s="20"/>
+      <c r="D211" s="15"/>
     </row>
     <row r="212" spans="1:4">
-      <c r="A212" s="19"/>
+      <c r="A212" s="20"/>
       <c r="B212" t="s">
         <v>293</v>
       </c>
       <c r="C212" s="13">
         <v>22</v>
       </c>
-      <c r="D212" s="20"/>
+      <c r="D212" s="15"/>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="19"/>
+      <c r="A213" s="20"/>
       <c r="B213" t="s">
         <v>294</v>
       </c>
       <c r="C213" s="13">
         <v>22</v>
       </c>
-      <c r="D213" s="20"/>
+      <c r="D213" s="15"/>
     </row>
     <row r="214" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A214" s="19" t="s">
+      <c r="A214" s="20" t="s">
         <v>295</v>
       </c>
       <c r="B214" t="s">
@@ -5259,80 +5702,80 @@
       <c r="C214" s="13">
         <v>7</v>
       </c>
-      <c r="D214" s="20"/>
+      <c r="D214" s="15"/>
     </row>
     <row r="215" spans="1:4">
-      <c r="A215" s="19"/>
+      <c r="A215" s="20"/>
       <c r="B215" t="s">
         <v>297</v>
       </c>
       <c r="C215" s="13">
         <v>16</v>
       </c>
-      <c r="D215" s="20"/>
+      <c r="D215" s="15"/>
     </row>
     <row r="216" spans="1:4">
-      <c r="A216" s="19"/>
+      <c r="A216" s="20"/>
       <c r="B216" t="s">
         <v>298</v>
       </c>
       <c r="C216" s="13">
         <v>11</v>
       </c>
-      <c r="D216" s="20"/>
+      <c r="D216" s="15"/>
     </row>
     <row r="217" spans="1:4">
-      <c r="A217" s="19"/>
+      <c r="A217" s="20"/>
       <c r="B217" t="s">
         <v>299</v>
       </c>
       <c r="C217" s="13">
         <v>24</v>
       </c>
-      <c r="D217" s="20"/>
+      <c r="D217" s="15"/>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="19"/>
+      <c r="A218" s="20"/>
       <c r="B218" t="s">
         <v>300</v>
       </c>
       <c r="C218" s="13">
         <v>25</v>
       </c>
-      <c r="D218" s="20"/>
+      <c r="D218" s="15"/>
     </row>
     <row r="219" spans="1:4">
-      <c r="A219" s="19"/>
+      <c r="A219" s="20"/>
       <c r="B219" t="s">
         <v>301</v>
       </c>
       <c r="C219" s="13">
         <v>27</v>
       </c>
-      <c r="D219" s="20"/>
+      <c r="D219" s="15"/>
     </row>
     <row r="220" spans="1:4">
-      <c r="A220" s="19"/>
+      <c r="A220" s="20"/>
       <c r="B220" t="s">
         <v>302</v>
       </c>
       <c r="C220" s="13">
         <v>22</v>
       </c>
-      <c r="D220" s="20"/>
+      <c r="D220" s="15"/>
     </row>
     <row r="221" spans="1:4">
-      <c r="A221" s="19"/>
+      <c r="A221" s="20"/>
       <c r="B221" t="s">
         <v>303</v>
       </c>
       <c r="C221" s="13">
         <v>24</v>
       </c>
-      <c r="D221" s="20"/>
+      <c r="D221" s="15"/>
     </row>
     <row r="222" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A222" s="19" t="s">
+      <c r="A222" s="20" t="s">
         <v>304</v>
       </c>
       <c r="B222" t="s">
@@ -5341,80 +5784,80 @@
       <c r="C222" s="13">
         <v>12</v>
       </c>
-      <c r="D222" s="20"/>
+      <c r="D222" s="15"/>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="19"/>
+      <c r="A223" s="20"/>
       <c r="B223" t="s">
         <v>306</v>
       </c>
       <c r="C223" s="13">
         <v>27</v>
       </c>
-      <c r="D223" s="20"/>
+      <c r="D223" s="15"/>
     </row>
     <row r="224" spans="1:4">
-      <c r="A224" s="19"/>
+      <c r="A224" s="20"/>
       <c r="B224" t="s">
         <v>307</v>
       </c>
       <c r="C224" s="13">
         <v>11</v>
       </c>
-      <c r="D224" s="20"/>
+      <c r="D224" s="15"/>
     </row>
     <row r="225" spans="1:4">
-      <c r="A225" s="19"/>
+      <c r="A225" s="20"/>
       <c r="B225" t="s">
         <v>308</v>
       </c>
       <c r="C225" s="13">
         <v>4</v>
       </c>
-      <c r="D225" s="20"/>
+      <c r="D225" s="15"/>
     </row>
     <row r="226" spans="1:4">
-      <c r="A226" s="19"/>
+      <c r="A226" s="20"/>
       <c r="B226" t="s">
         <v>309</v>
       </c>
       <c r="C226" s="13">
         <v>29</v>
       </c>
-      <c r="D226" s="20"/>
+      <c r="D226" s="15"/>
     </row>
     <row r="227" spans="1:4">
-      <c r="A227" s="19"/>
+      <c r="A227" s="20"/>
       <c r="B227" t="s">
         <v>310</v>
       </c>
       <c r="C227" s="13">
         <v>33</v>
       </c>
-      <c r="D227" s="20"/>
+      <c r="D227" s="15"/>
     </row>
     <row r="228" spans="1:4">
-      <c r="A228" s="19"/>
+      <c r="A228" s="20"/>
       <c r="B228" t="s">
         <v>311</v>
       </c>
       <c r="C228" s="13">
         <v>21</v>
       </c>
-      <c r="D228" s="20"/>
+      <c r="D228" s="15"/>
     </row>
     <row r="229" spans="1:4">
-      <c r="A229" s="19"/>
+      <c r="A229" s="20"/>
       <c r="B229" t="s">
         <v>312</v>
       </c>
       <c r="C229" s="13">
         <v>10</v>
       </c>
-      <c r="D229" s="20"/>
+      <c r="D229" s="15"/>
     </row>
     <row r="230" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A230" s="19" t="s">
+      <c r="A230" s="20" t="s">
         <v>313</v>
       </c>
       <c r="B230" t="s">
@@ -5423,70 +5866,70 @@
       <c r="C230" s="13">
         <v>12</v>
       </c>
-      <c r="D230" s="20"/>
+      <c r="D230" s="15"/>
     </row>
     <row r="231" spans="1:4">
-      <c r="A231" s="19"/>
+      <c r="A231" s="20"/>
       <c r="B231" t="s">
         <v>315</v>
       </c>
       <c r="C231" s="13">
         <v>15</v>
       </c>
-      <c r="D231" s="20"/>
+      <c r="D231" s="15"/>
     </row>
     <row r="232" spans="1:4">
-      <c r="A232" s="19"/>
+      <c r="A232" s="20"/>
       <c r="B232" t="s">
         <v>316</v>
       </c>
       <c r="C232" s="13">
         <v>2</v>
       </c>
-      <c r="D232" s="20"/>
+      <c r="D232" s="15"/>
     </row>
     <row r="233" spans="1:4">
-      <c r="A233" s="19"/>
+      <c r="A233" s="20"/>
       <c r="B233" t="s">
         <v>317</v>
       </c>
       <c r="C233" s="13">
         <v>16</v>
       </c>
-      <c r="D233" s="20"/>
+      <c r="D233" s="15"/>
     </row>
     <row r="234" spans="1:4">
-      <c r="A234" s="19"/>
+      <c r="A234" s="20"/>
       <c r="B234" t="s">
         <v>318</v>
       </c>
       <c r="C234" s="13">
         <v>25</v>
       </c>
-      <c r="D234" s="20"/>
+      <c r="D234" s="15"/>
     </row>
     <row r="235" spans="1:4">
-      <c r="A235" s="19"/>
+      <c r="A235" s="20"/>
       <c r="B235" t="s">
         <v>319</v>
       </c>
       <c r="C235" s="13">
         <v>6</v>
       </c>
-      <c r="D235" s="20"/>
+      <c r="D235" s="15"/>
     </row>
     <row r="236" spans="1:4">
-      <c r="A236" s="19"/>
+      <c r="A236" s="20"/>
       <c r="B236" t="s">
         <v>320</v>
       </c>
       <c r="C236" s="13">
         <v>5</v>
       </c>
-      <c r="D236" s="20"/>
+      <c r="D236" s="15"/>
     </row>
     <row r="237" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A237" s="19" t="s">
+      <c r="A237" s="20" t="s">
         <v>321</v>
       </c>
       <c r="B237" t="s">
@@ -5495,80 +5938,80 @@
       <c r="C237" s="13">
         <v>11</v>
       </c>
-      <c r="D237" s="20"/>
+      <c r="D237" s="15"/>
     </row>
     <row r="238" spans="1:4">
-      <c r="A238" s="19"/>
+      <c r="A238" s="20"/>
       <c r="B238" t="s">
         <v>323</v>
       </c>
       <c r="C238" s="13">
         <v>12</v>
       </c>
-      <c r="D238" s="20"/>
+      <c r="D238" s="15"/>
     </row>
     <row r="239" spans="1:4">
-      <c r="A239" s="19"/>
+      <c r="A239" s="20"/>
       <c r="B239" t="s">
         <v>324</v>
       </c>
       <c r="C239" s="13">
         <v>6</v>
       </c>
-      <c r="D239" s="20"/>
+      <c r="D239" s="15"/>
     </row>
     <row r="240" spans="1:4">
-      <c r="A240" s="19"/>
+      <c r="A240" s="20"/>
       <c r="B240" t="s">
         <v>325</v>
       </c>
       <c r="C240" s="13">
         <v>11</v>
       </c>
-      <c r="D240" s="20"/>
+      <c r="D240" s="15"/>
     </row>
     <row r="241" spans="1:4">
-      <c r="A241" s="19"/>
+      <c r="A241" s="20"/>
       <c r="B241" t="s">
         <v>326</v>
       </c>
       <c r="C241" s="13">
         <v>20</v>
       </c>
-      <c r="D241" s="20"/>
+      <c r="D241" s="15"/>
     </row>
     <row r="242" spans="1:4">
-      <c r="A242" s="19"/>
+      <c r="A242" s="20"/>
       <c r="B242" t="s">
         <v>327</v>
       </c>
       <c r="C242" s="13">
         <v>24</v>
       </c>
-      <c r="D242" s="20"/>
+      <c r="D242" s="15"/>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="19"/>
+      <c r="A243" s="20"/>
       <c r="B243" t="s">
         <v>328</v>
       </c>
       <c r="C243" s="13">
         <v>5</v>
       </c>
-      <c r="D243" s="20"/>
+      <c r="D243" s="15"/>
     </row>
     <row r="244" spans="1:4">
-      <c r="A244" s="19"/>
+      <c r="A244" s="20"/>
       <c r="B244" t="s">
         <v>329</v>
       </c>
       <c r="C244" s="13">
         <v>21</v>
       </c>
-      <c r="D244" s="20"/>
+      <c r="D244" s="15"/>
     </row>
     <row r="245" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A245" s="19" t="s">
+      <c r="A245" s="20" t="s">
         <v>330</v>
       </c>
       <c r="B245" t="s">
@@ -5577,50 +6020,50 @@
       <c r="C245" s="13">
         <v>25</v>
       </c>
-      <c r="D245" s="20"/>
+      <c r="D245" s="15"/>
     </row>
     <row r="246" spans="1:4">
-      <c r="A246" s="19"/>
+      <c r="A246" s="20"/>
       <c r="B246" t="s">
         <v>332</v>
       </c>
       <c r="C246" s="13">
         <v>10</v>
       </c>
-      <c r="D246" s="20"/>
+      <c r="D246" s="15"/>
     </row>
     <row r="247" spans="1:4">
-      <c r="A247" s="19"/>
+      <c r="A247" s="20"/>
       <c r="B247" t="s">
         <v>333</v>
       </c>
       <c r="C247" s="13">
         <v>31</v>
       </c>
-      <c r="D247" s="20"/>
+      <c r="D247" s="15"/>
     </row>
     <row r="248" spans="1:4">
-      <c r="A248" s="19"/>
+      <c r="A248" s="20"/>
       <c r="B248" t="s">
         <v>334</v>
       </c>
       <c r="C248" s="13">
         <v>4</v>
       </c>
-      <c r="D248" s="20"/>
+      <c r="D248" s="15"/>
     </row>
     <row r="249" spans="1:4">
-      <c r="A249" s="19"/>
+      <c r="A249" s="20"/>
       <c r="B249" t="s">
         <v>335</v>
       </c>
       <c r="C249" s="13">
         <v>2</v>
       </c>
-      <c r="D249" s="20"/>
+      <c r="D249" s="15"/>
     </row>
     <row r="250" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A250" s="19" t="s">
+      <c r="A250" s="20" t="s">
         <v>336</v>
       </c>
       <c r="B250" t="s">
@@ -5629,90 +6072,90 @@
       <c r="C250" s="13">
         <v>13</v>
       </c>
-      <c r="D250" s="20"/>
+      <c r="D250" s="15"/>
     </row>
     <row r="251" spans="1:4">
-      <c r="A251" s="19"/>
+      <c r="A251" s="20"/>
       <c r="B251" t="s">
         <v>338</v>
       </c>
       <c r="C251" s="13">
         <v>8</v>
       </c>
-      <c r="D251" s="20"/>
+      <c r="D251" s="15"/>
     </row>
     <row r="252" spans="1:4">
-      <c r="A252" s="19"/>
+      <c r="A252" s="20"/>
       <c r="B252" t="s">
         <v>339</v>
       </c>
       <c r="C252" s="13">
         <v>13</v>
       </c>
-      <c r="D252" s="20"/>
+      <c r="D252" s="15"/>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="19"/>
+      <c r="A253" s="20"/>
       <c r="B253" t="s">
         <v>340</v>
       </c>
       <c r="C253" s="13">
         <v>23</v>
       </c>
-      <c r="D253" s="20"/>
+      <c r="D253" s="15"/>
     </row>
     <row r="254" spans="1:4">
-      <c r="A254" s="19"/>
+      <c r="A254" s="20"/>
       <c r="B254" t="s">
         <v>341</v>
       </c>
       <c r="C254" s="13">
         <v>10</v>
       </c>
-      <c r="D254" s="20"/>
+      <c r="D254" s="15"/>
     </row>
     <row r="255" spans="1:4">
-      <c r="A255" s="19"/>
+      <c r="A255" s="20"/>
       <c r="B255" t="s">
         <v>342</v>
       </c>
       <c r="C255" s="13">
         <v>3</v>
       </c>
-      <c r="D255" s="20"/>
+      <c r="D255" s="15"/>
     </row>
     <row r="256" spans="1:4">
-      <c r="A256" s="19"/>
+      <c r="A256" s="20"/>
       <c r="B256" t="s">
         <v>343</v>
       </c>
       <c r="C256" s="13">
         <v>3</v>
       </c>
-      <c r="D256" s="20"/>
+      <c r="D256" s="15"/>
     </row>
     <row r="257" spans="1:4">
-      <c r="A257" s="19"/>
+      <c r="A257" s="20"/>
       <c r="B257" t="s">
         <v>344</v>
       </c>
       <c r="C257" s="13">
         <v>17</v>
       </c>
-      <c r="D257" s="20"/>
+      <c r="D257" s="15"/>
     </row>
     <row r="258" spans="1:4">
-      <c r="A258" s="19"/>
+      <c r="A258" s="20"/>
       <c r="B258" t="s">
         <v>345</v>
       </c>
       <c r="C258" s="13">
         <v>12</v>
       </c>
-      <c r="D258" s="20"/>
+      <c r="D258" s="15"/>
     </row>
     <row r="259" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A259" s="19" t="s">
+      <c r="A259" s="20" t="s">
         <v>346</v>
       </c>
       <c r="B259" t="s">
@@ -5721,50 +6164,50 @@
       <c r="C259" s="13">
         <v>29</v>
       </c>
-      <c r="D259" s="20"/>
+      <c r="D259" s="15"/>
     </row>
     <row r="260" spans="1:4">
-      <c r="A260" s="19"/>
+      <c r="A260" s="20"/>
       <c r="B260" t="s">
         <v>348</v>
       </c>
       <c r="C260" s="13">
         <v>21</v>
       </c>
-      <c r="D260" s="20"/>
+      <c r="D260" s="15"/>
     </row>
     <row r="261" spans="1:4">
-      <c r="A261" s="19"/>
+      <c r="A261" s="20"/>
       <c r="B261" t="s">
         <v>349</v>
       </c>
       <c r="C261" s="13">
         <v>4</v>
       </c>
-      <c r="D261" s="20"/>
+      <c r="D261" s="15"/>
     </row>
     <row r="262" spans="1:4">
-      <c r="A262" s="19"/>
+      <c r="A262" s="20"/>
       <c r="B262" t="s">
         <v>350</v>
       </c>
       <c r="C262" s="13">
         <v>17</v>
       </c>
-      <c r="D262" s="20"/>
+      <c r="D262" s="15"/>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="19"/>
+      <c r="A263" s="20"/>
       <c r="B263" t="s">
         <v>351</v>
       </c>
       <c r="C263" s="13">
         <v>20</v>
       </c>
-      <c r="D263" s="20"/>
+      <c r="D263" s="15"/>
     </row>
     <row r="264" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A264" s="19" t="s">
+      <c r="A264" s="20" t="s">
         <v>352</v>
       </c>
       <c r="B264" t="s">
@@ -5773,70 +6216,70 @@
       <c r="C264" s="13">
         <v>16</v>
       </c>
-      <c r="D264" s="20"/>
+      <c r="D264" s="15"/>
     </row>
     <row r="265" spans="1:4">
-      <c r="A265" s="19"/>
+      <c r="A265" s="20"/>
       <c r="B265" t="s">
         <v>354</v>
       </c>
       <c r="C265" s="13">
         <v>20</v>
       </c>
-      <c r="D265" s="20"/>
+      <c r="D265" s="15"/>
     </row>
     <row r="266" spans="1:4">
-      <c r="A266" s="19"/>
+      <c r="A266" s="20"/>
       <c r="B266" t="s">
         <v>355</v>
       </c>
       <c r="C266" s="13">
         <v>26</v>
       </c>
-      <c r="D266" s="20"/>
+      <c r="D266" s="15"/>
     </row>
     <row r="267" spans="1:4">
-      <c r="A267" s="19"/>
+      <c r="A267" s="20"/>
       <c r="B267" t="s">
         <v>356</v>
       </c>
       <c r="C267" s="13">
         <v>2</v>
       </c>
-      <c r="D267" s="20"/>
+      <c r="D267" s="15"/>
     </row>
     <row r="268" spans="1:4">
-      <c r="A268" s="19"/>
+      <c r="A268" s="20"/>
       <c r="B268" t="s">
         <v>357</v>
       </c>
       <c r="C268" s="13">
         <v>21</v>
       </c>
-      <c r="D268" s="20"/>
+      <c r="D268" s="15"/>
     </row>
     <row r="269" spans="1:4">
-      <c r="A269" s="19"/>
+      <c r="A269" s="20"/>
       <c r="B269" t="s">
         <v>358</v>
       </c>
       <c r="C269" s="13">
         <v>8</v>
       </c>
-      <c r="D269" s="20"/>
+      <c r="D269" s="15"/>
     </row>
     <row r="270" spans="1:4">
-      <c r="A270" s="19"/>
+      <c r="A270" s="20"/>
       <c r="B270" t="s">
         <v>359</v>
       </c>
       <c r="C270" s="13">
         <v>3</v>
       </c>
-      <c r="D270" s="20"/>
+      <c r="D270" s="15"/>
     </row>
     <row r="271" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A271" s="19" t="s">
+      <c r="A271" s="20" t="s">
         <v>360</v>
       </c>
       <c r="B271" t="s">
@@ -5845,60 +6288,60 @@
       <c r="C271" s="13">
         <v>15</v>
       </c>
-      <c r="D271" s="20"/>
+      <c r="D271" s="15"/>
     </row>
     <row r="272" spans="1:4">
-      <c r="A272" s="19"/>
+      <c r="A272" s="20"/>
       <c r="B272" t="s">
         <v>362</v>
       </c>
       <c r="C272" s="13">
         <v>25</v>
       </c>
-      <c r="D272" s="20"/>
+      <c r="D272" s="15"/>
     </row>
     <row r="273" spans="1:4">
-      <c r="A273" s="19"/>
+      <c r="A273" s="20"/>
       <c r="B273" t="s">
         <v>363</v>
       </c>
       <c r="C273" s="13">
         <v>25</v>
       </c>
-      <c r="D273" s="20"/>
+      <c r="D273" s="15"/>
     </row>
     <row r="274" spans="1:4">
-      <c r="A274" s="19"/>
+      <c r="A274" s="20"/>
       <c r="B274" t="s">
         <v>364</v>
       </c>
       <c r="C274" s="13">
         <v>3</v>
       </c>
-      <c r="D274" s="20"/>
+      <c r="D274" s="15"/>
     </row>
     <row r="275" spans="1:4">
-      <c r="A275" s="19"/>
+      <c r="A275" s="20"/>
       <c r="B275" t="s">
         <v>365</v>
       </c>
       <c r="C275" s="13">
         <v>25</v>
       </c>
-      <c r="D275" s="20"/>
+      <c r="D275" s="15"/>
     </row>
     <row r="276" spans="1:4">
-      <c r="A276" s="19"/>
+      <c r="A276" s="20"/>
       <c r="B276" t="s">
         <v>366</v>
       </c>
       <c r="C276" s="13">
         <v>18</v>
       </c>
-      <c r="D276" s="20"/>
+      <c r="D276" s="15"/>
     </row>
     <row r="277" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A277" s="19" t="s">
+      <c r="A277" s="20" t="s">
         <v>367</v>
       </c>
       <c r="B277" t="s">
@@ -5907,40 +6350,40 @@
       <c r="C277" s="13">
         <v>14</v>
       </c>
-      <c r="D277" s="20"/>
+      <c r="D277" s="15"/>
     </row>
     <row r="278" spans="1:4">
-      <c r="A278" s="19"/>
+      <c r="A278" s="20"/>
       <c r="B278" t="s">
         <v>369</v>
       </c>
       <c r="C278" s="13">
         <v>7</v>
       </c>
-      <c r="D278" s="20"/>
+      <c r="D278" s="15"/>
     </row>
     <row r="279" spans="1:4">
-      <c r="A279" s="19"/>
+      <c r="A279" s="20"/>
       <c r="B279" t="s">
         <v>370</v>
       </c>
       <c r="C279" s="13">
         <v>8</v>
       </c>
-      <c r="D279" s="20"/>
+      <c r="D279" s="15"/>
     </row>
     <row r="280" spans="1:4">
-      <c r="A280" s="19"/>
+      <c r="A280" s="20"/>
       <c r="B280" t="s">
         <v>371</v>
       </c>
       <c r="C280" s="13">
         <v>7</v>
       </c>
-      <c r="D280" s="20"/>
+      <c r="D280" s="15"/>
     </row>
     <row r="281" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A281" s="19" t="s">
+      <c r="A281" s="20" t="s">
         <v>372</v>
       </c>
       <c r="B281" t="s">
@@ -5949,60 +6392,60 @@
       <c r="C281" s="13">
         <v>3</v>
       </c>
-      <c r="D281" s="20"/>
+      <c r="D281" s="15"/>
     </row>
     <row r="282" spans="1:4">
-      <c r="A282" s="19"/>
+      <c r="A282" s="20"/>
       <c r="B282" t="s">
         <v>374</v>
       </c>
       <c r="C282" s="13">
         <v>13</v>
       </c>
-      <c r="D282" s="20"/>
+      <c r="D282" s="15"/>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="19"/>
+      <c r="A283" s="20"/>
       <c r="B283" t="s">
         <v>375</v>
       </c>
       <c r="C283" s="13">
         <v>9</v>
       </c>
-      <c r="D283" s="20"/>
+      <c r="D283" s="15"/>
     </row>
     <row r="284" spans="1:4">
-      <c r="A284" s="19"/>
+      <c r="A284" s="20"/>
       <c r="B284" t="s">
         <v>376</v>
       </c>
       <c r="C284" s="13">
         <v>12</v>
       </c>
-      <c r="D284" s="20"/>
+      <c r="D284" s="15"/>
     </row>
     <row r="285" spans="1:4">
-      <c r="A285" s="19"/>
+      <c r="A285" s="20"/>
       <c r="B285" t="s">
         <v>377</v>
       </c>
       <c r="C285" s="13">
         <v>10</v>
       </c>
-      <c r="D285" s="20"/>
+      <c r="D285" s="15"/>
     </row>
     <row r="286" spans="1:4">
-      <c r="A286" s="19"/>
+      <c r="A286" s="20"/>
       <c r="B286" t="s">
         <v>378</v>
       </c>
       <c r="C286" s="13">
         <v>5</v>
       </c>
-      <c r="D286" s="20"/>
+      <c r="D286" s="15"/>
     </row>
     <row r="287" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A287" s="19" t="s">
+      <c r="A287" s="20" t="s">
         <v>379</v>
       </c>
       <c r="B287" t="s">
@@ -6011,20 +6454,20 @@
       <c r="C287" s="13">
         <v>16</v>
       </c>
-      <c r="D287" s="20"/>
+      <c r="D287" s="15"/>
     </row>
     <row r="288" spans="1:4">
-      <c r="A288" s="19"/>
+      <c r="A288" s="20"/>
       <c r="B288" t="s">
         <v>381</v>
       </c>
       <c r="C288" s="13">
         <v>12</v>
       </c>
-      <c r="D288" s="20"/>
+      <c r="D288" s="15"/>
     </row>
     <row r="289" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A289" s="19" t="s">
+      <c r="A289" s="20" t="s">
         <v>382</v>
       </c>
       <c r="B289" t="s">
@@ -6033,20 +6476,20 @@
       <c r="C289" s="13">
         <v>11</v>
       </c>
-      <c r="D289" s="20"/>
+      <c r="D289" s="15"/>
     </row>
     <row r="290" spans="1:4">
-      <c r="A290" s="19"/>
+      <c r="A290" s="20"/>
       <c r="B290" t="s">
         <v>384</v>
       </c>
       <c r="C290" s="13">
         <v>7</v>
       </c>
-      <c r="D290" s="20"/>
+      <c r="D290" s="15"/>
     </row>
     <row r="291" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A291" s="19" t="s">
+      <c r="A291" s="20" t="s">
         <v>385</v>
       </c>
       <c r="B291" t="s">
@@ -6055,30 +6498,30 @@
       <c r="C291" s="13">
         <v>6</v>
       </c>
-      <c r="D291" s="20"/>
+      <c r="D291" s="15"/>
     </row>
     <row r="292" spans="1:4">
-      <c r="A292" s="19"/>
+      <c r="A292" s="20"/>
       <c r="B292" t="s">
         <v>387</v>
       </c>
       <c r="C292" s="13">
         <v>29</v>
       </c>
-      <c r="D292" s="20"/>
+      <c r="D292" s="15"/>
     </row>
     <row r="293" spans="1:4">
-      <c r="A293" s="19"/>
+      <c r="A293" s="20"/>
       <c r="B293" t="s">
         <v>388</v>
       </c>
       <c r="C293" s="13">
         <v>5</v>
       </c>
-      <c r="D293" s="20"/>
+      <c r="D293" s="15"/>
     </row>
     <row r="294" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A294" s="19" t="s">
+      <c r="A294" s="20" t="s">
         <v>389</v>
       </c>
       <c r="B294" t="s">
@@ -6087,50 +6530,50 @@
       <c r="C294" s="13">
         <v>8</v>
       </c>
-      <c r="D294" s="20"/>
+      <c r="D294" s="15"/>
     </row>
     <row r="295" spans="1:4">
-      <c r="A295" s="19"/>
+      <c r="A295" s="20"/>
       <c r="B295" t="s">
         <v>391</v>
       </c>
       <c r="C295" s="13">
         <v>16</v>
       </c>
-      <c r="D295" s="20"/>
+      <c r="D295" s="15"/>
     </row>
     <row r="296" spans="1:4">
-      <c r="A296" s="19"/>
+      <c r="A296" s="20"/>
       <c r="B296" t="s">
         <v>392</v>
       </c>
       <c r="C296" s="13">
         <v>14</v>
       </c>
-      <c r="D296" s="20"/>
+      <c r="D296" s="15"/>
     </row>
     <row r="297" spans="1:4">
-      <c r="A297" s="19"/>
+      <c r="A297" s="20"/>
       <c r="B297" t="s">
         <v>393</v>
       </c>
       <c r="C297" s="13">
         <v>5</v>
       </c>
-      <c r="D297" s="20"/>
+      <c r="D297" s="15"/>
     </row>
     <row r="298" spans="1:4">
-      <c r="A298" s="19"/>
+      <c r="A298" s="20"/>
       <c r="B298" t="s">
         <v>394</v>
       </c>
       <c r="C298" s="13">
         <v>12</v>
       </c>
-      <c r="D298" s="20"/>
+      <c r="D298" s="15"/>
     </row>
     <row r="299" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A299" s="19" t="s">
+      <c r="A299" s="20" t="s">
         <v>395</v>
       </c>
       <c r="B299" t="s">
@@ -6139,60 +6582,60 @@
       <c r="C299" s="13">
         <v>44</v>
       </c>
-      <c r="D299" s="20"/>
+      <c r="D299" s="15"/>
     </row>
     <row r="300" spans="1:4">
-      <c r="A300" s="19"/>
+      <c r="A300" s="20"/>
       <c r="B300" t="s">
         <v>397</v>
       </c>
       <c r="C300" s="13">
         <v>14</v>
       </c>
-      <c r="D300" s="20"/>
+      <c r="D300" s="15"/>
     </row>
     <row r="301" spans="1:4">
-      <c r="A301" s="19"/>
+      <c r="A301" s="20"/>
       <c r="B301" t="s">
         <v>398</v>
       </c>
       <c r="C301" s="13">
         <v>19</v>
       </c>
-      <c r="D301" s="20"/>
+      <c r="D301" s="15"/>
     </row>
     <row r="302" spans="1:4">
-      <c r="A302" s="19"/>
+      <c r="A302" s="20"/>
       <c r="B302" t="s">
         <v>399</v>
       </c>
       <c r="C302" s="13">
         <v>11</v>
       </c>
-      <c r="D302" s="20"/>
+      <c r="D302" s="15"/>
     </row>
     <row r="303" spans="1:4">
-      <c r="A303" s="19"/>
+      <c r="A303" s="20"/>
       <c r="B303" t="s">
         <v>400</v>
       </c>
       <c r="C303" s="13">
         <v>13</v>
       </c>
-      <c r="D303" s="20"/>
+      <c r="D303" s="15"/>
     </row>
     <row r="304" spans="1:4">
-      <c r="A304" s="19"/>
+      <c r="A304" s="20"/>
       <c r="B304" t="s">
         <v>401</v>
       </c>
       <c r="C304" s="13">
         <v>25</v>
       </c>
-      <c r="D304" s="20"/>
+      <c r="D304" s="15"/>
     </row>
     <row r="305" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A305" s="19" t="s">
+      <c r="A305" s="20" t="s">
         <v>402</v>
       </c>
       <c r="B305" t="s">
@@ -6201,100 +6644,100 @@
       <c r="C305" s="13">
         <v>32</v>
       </c>
-      <c r="D305" s="20"/>
+      <c r="D305" s="15"/>
     </row>
     <row r="306" spans="1:4">
-      <c r="A306" s="19"/>
+      <c r="A306" s="20"/>
       <c r="B306" t="s">
         <v>404</v>
       </c>
       <c r="C306" s="13">
         <v>4</v>
       </c>
-      <c r="D306" s="20"/>
+      <c r="D306" s="15"/>
     </row>
     <row r="307" spans="1:4">
-      <c r="A307" s="19"/>
+      <c r="A307" s="20"/>
       <c r="B307" t="s">
         <v>405</v>
       </c>
       <c r="C307" s="13">
         <v>7</v>
       </c>
-      <c r="D307" s="20"/>
+      <c r="D307" s="15"/>
     </row>
     <row r="308" spans="1:4">
-      <c r="A308" s="19"/>
+      <c r="A308" s="20"/>
       <c r="B308" t="s">
         <v>406</v>
       </c>
       <c r="C308" s="13">
         <v>5</v>
       </c>
-      <c r="D308" s="20"/>
+      <c r="D308" s="15"/>
     </row>
     <row r="309" spans="1:4">
-      <c r="A309" s="19"/>
+      <c r="A309" s="20"/>
       <c r="B309" t="s">
         <v>407</v>
       </c>
       <c r="C309" s="13">
         <v>18</v>
       </c>
-      <c r="D309" s="20"/>
+      <c r="D309" s="15"/>
     </row>
     <row r="310" spans="1:4">
-      <c r="A310" s="19"/>
+      <c r="A310" s="20"/>
       <c r="B310" t="s">
         <v>408</v>
       </c>
       <c r="C310" s="13">
         <v>12</v>
       </c>
-      <c r="D310" s="20"/>
+      <c r="D310" s="15"/>
     </row>
     <row r="311" spans="1:4">
-      <c r="A311" s="19"/>
+      <c r="A311" s="20"/>
       <c r="B311" t="s">
         <v>409</v>
       </c>
       <c r="C311" s="13">
         <v>22</v>
       </c>
-      <c r="D311" s="20"/>
+      <c r="D311" s="15"/>
     </row>
     <row r="312" spans="1:4">
-      <c r="A312" s="19"/>
+      <c r="A312" s="20"/>
       <c r="B312" t="s">
         <v>410</v>
       </c>
       <c r="C312" s="13">
         <v>8</v>
       </c>
-      <c r="D312" s="20"/>
+      <c r="D312" s="15"/>
     </row>
     <row r="313" spans="1:4">
-      <c r="A313" s="19"/>
+      <c r="A313" s="20"/>
       <c r="B313" t="s">
         <v>411</v>
       </c>
       <c r="C313" s="13">
         <v>36</v>
       </c>
-      <c r="D313" s="20"/>
+      <c r="D313" s="15"/>
     </row>
     <row r="314" spans="1:4">
-      <c r="A314" s="19"/>
+      <c r="A314" s="20"/>
       <c r="B314" t="s">
         <v>412</v>
       </c>
       <c r="C314" s="13">
         <v>9</v>
       </c>
-      <c r="D314" s="20"/>
+      <c r="D314" s="15"/>
     </row>
     <row r="315" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A315" s="19" t="s">
+      <c r="A315" s="20" t="s">
         <v>413</v>
       </c>
       <c r="B315" t="s">
@@ -6303,30 +6746,30 @@
       <c r="C315" s="13">
         <v>14</v>
       </c>
-      <c r="D315" s="20"/>
+      <c r="D315" s="15"/>
     </row>
     <row r="316" spans="1:4">
-      <c r="A316" s="19"/>
+      <c r="A316" s="20"/>
       <c r="B316" t="s">
         <v>415</v>
       </c>
       <c r="C316" s="13">
         <v>11</v>
       </c>
-      <c r="D316" s="20"/>
+      <c r="D316" s="15"/>
     </row>
     <row r="317" spans="1:4">
-      <c r="A317" s="19"/>
+      <c r="A317" s="20"/>
       <c r="B317" t="s">
         <v>416</v>
       </c>
       <c r="C317" s="13">
         <v>7</v>
       </c>
-      <c r="D317" s="20"/>
+      <c r="D317" s="15"/>
     </row>
     <row r="318" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A318" s="19" t="s">
+      <c r="A318" s="20" t="s">
         <v>417</v>
       </c>
       <c r="B318" t="s">
@@ -6335,130 +6778,130 @@
       <c r="C318" s="13">
         <v>31</v>
       </c>
-      <c r="D318" s="20"/>
+      <c r="D318" s="15"/>
     </row>
     <row r="319" spans="1:4">
-      <c r="A319" s="19"/>
+      <c r="A319" s="20"/>
       <c r="B319" t="s">
         <v>419</v>
       </c>
       <c r="C319" s="13">
         <v>11</v>
       </c>
-      <c r="D319" s="20"/>
+      <c r="D319" s="15"/>
     </row>
     <row r="320" spans="1:4">
-      <c r="A320" s="19"/>
+      <c r="A320" s="20"/>
       <c r="B320" t="s">
         <v>420</v>
       </c>
       <c r="C320" s="13">
         <v>15</v>
       </c>
-      <c r="D320" s="20"/>
+      <c r="D320" s="15"/>
     </row>
     <row r="321" spans="1:4">
-      <c r="A321" s="19"/>
+      <c r="A321" s="20"/>
       <c r="B321" t="s">
         <v>421</v>
       </c>
       <c r="C321" s="13">
         <v>7</v>
       </c>
-      <c r="D321" s="20"/>
+      <c r="D321" s="15"/>
     </row>
     <row r="322" spans="1:4">
-      <c r="A322" s="19"/>
+      <c r="A322" s="20"/>
       <c r="B322" t="s">
         <v>422</v>
       </c>
       <c r="C322" s="13">
         <v>3</v>
       </c>
-      <c r="D322" s="20"/>
+      <c r="D322" s="15"/>
     </row>
     <row r="323" spans="1:4">
-      <c r="A323" s="19"/>
+      <c r="A323" s="20"/>
       <c r="B323" t="s">
         <v>423</v>
       </c>
       <c r="C323" s="13">
         <v>9</v>
       </c>
-      <c r="D323" s="20"/>
+      <c r="D323" s="15"/>
     </row>
     <row r="324" spans="1:4">
-      <c r="A324" s="19"/>
+      <c r="A324" s="20"/>
       <c r="B324" t="s">
         <v>424</v>
       </c>
       <c r="C324" s="13">
         <v>6</v>
       </c>
-      <c r="D324" s="20"/>
+      <c r="D324" s="15"/>
     </row>
     <row r="325" spans="1:4">
-      <c r="A325" s="19"/>
+      <c r="A325" s="20"/>
       <c r="B325" t="s">
         <v>425</v>
       </c>
       <c r="C325" s="13">
         <v>10</v>
       </c>
-      <c r="D325" s="20"/>
+      <c r="D325" s="15"/>
     </row>
     <row r="326" spans="1:4">
-      <c r="A326" s="19"/>
+      <c r="A326" s="20"/>
       <c r="B326" t="s">
         <v>426</v>
       </c>
       <c r="C326" s="13">
         <v>20</v>
       </c>
-      <c r="D326" s="20"/>
+      <c r="D326" s="15"/>
     </row>
     <row r="327" spans="1:4">
-      <c r="A327" s="19"/>
+      <c r="A327" s="20"/>
       <c r="B327" t="s">
         <v>427</v>
       </c>
       <c r="C327" s="13">
         <v>9</v>
       </c>
-      <c r="D327" s="20"/>
+      <c r="D327" s="15"/>
     </row>
     <row r="328" spans="1:4">
-      <c r="A328" s="19"/>
+      <c r="A328" s="20"/>
       <c r="B328" t="s">
         <v>428</v>
       </c>
       <c r="C328" s="13">
         <v>4</v>
       </c>
-      <c r="D328" s="20"/>
+      <c r="D328" s="15"/>
     </row>
     <row r="329" spans="1:4">
-      <c r="A329" s="19"/>
+      <c r="A329" s="20"/>
       <c r="B329" t="s">
         <v>429</v>
       </c>
       <c r="C329" s="13">
         <v>15</v>
       </c>
-      <c r="D329" s="20"/>
+      <c r="D329" s="15"/>
     </row>
     <row r="330" spans="1:4">
-      <c r="A330" s="19"/>
+      <c r="A330" s="20"/>
       <c r="B330" t="s">
         <v>430</v>
       </c>
       <c r="C330" s="13">
         <v>21</v>
       </c>
-      <c r="D330" s="20"/>
+      <c r="D330" s="15"/>
     </row>
     <row r="331" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A331" s="19" t="s">
+      <c r="A331" s="20" t="s">
         <v>431</v>
       </c>
       <c r="B331" t="s">
@@ -6467,110 +6910,110 @@
       <c r="C331" s="13">
         <v>18</v>
       </c>
-      <c r="D331" s="20"/>
+      <c r="D331" s="15"/>
     </row>
     <row r="332" spans="1:4">
-      <c r="A332" s="19"/>
+      <c r="A332" s="20"/>
       <c r="B332" t="s">
         <v>433</v>
       </c>
       <c r="C332" s="13">
         <v>3</v>
       </c>
-      <c r="D332" s="20"/>
+      <c r="D332" s="15"/>
     </row>
     <row r="333" spans="1:4">
-      <c r="A333" s="19"/>
+      <c r="A333" s="20"/>
       <c r="B333" t="s">
         <v>434</v>
       </c>
       <c r="C333" s="13">
         <v>12</v>
       </c>
-      <c r="D333" s="20"/>
+      <c r="D333" s="15"/>
     </row>
     <row r="334" spans="1:4">
-      <c r="A334" s="19"/>
+      <c r="A334" s="20"/>
       <c r="B334" t="s">
         <v>435</v>
       </c>
       <c r="C334" s="13">
         <v>14</v>
       </c>
-      <c r="D334" s="20"/>
+      <c r="D334" s="15"/>
     </row>
     <row r="335" spans="1:4">
-      <c r="A335" s="19"/>
+      <c r="A335" s="20"/>
       <c r="B335" t="s">
         <v>436</v>
       </c>
       <c r="C335" s="13">
         <v>4</v>
       </c>
-      <c r="D335" s="20"/>
+      <c r="D335" s="15"/>
     </row>
     <row r="336" spans="1:4">
-      <c r="A336" s="19"/>
+      <c r="A336" s="20"/>
       <c r="B336" t="s">
         <v>437</v>
       </c>
       <c r="C336" s="13">
         <v>5</v>
       </c>
-      <c r="D336" s="20"/>
+      <c r="D336" s="15"/>
     </row>
     <row r="337" spans="1:4">
-      <c r="A337" s="19"/>
+      <c r="A337" s="20"/>
       <c r="B337" t="s">
         <v>438</v>
       </c>
       <c r="C337" s="13">
         <v>12</v>
       </c>
-      <c r="D337" s="20"/>
+      <c r="D337" s="15"/>
     </row>
     <row r="338" spans="1:4">
-      <c r="A338" s="19"/>
+      <c r="A338" s="20"/>
       <c r="B338" t="s">
         <v>439</v>
       </c>
       <c r="C338" s="13">
         <v>19</v>
       </c>
-      <c r="D338" s="20"/>
+      <c r="D338" s="15"/>
     </row>
     <row r="339" spans="1:4">
-      <c r="A339" s="19"/>
+      <c r="A339" s="20"/>
       <c r="B339" t="s">
         <v>440</v>
       </c>
       <c r="C339" s="13">
         <v>14</v>
       </c>
-      <c r="D339" s="20"/>
+      <c r="D339" s="15"/>
     </row>
     <row r="340" spans="1:4">
-      <c r="A340" s="19"/>
+      <c r="A340" s="20"/>
       <c r="B340" t="s">
         <v>441</v>
       </c>
       <c r="C340" s="13">
         <v>7</v>
       </c>
-      <c r="D340" s="20"/>
+      <c r="D340" s="15"/>
     </row>
     <row r="341" spans="1:4">
-      <c r="A341" s="19"/>
+      <c r="A341" s="20"/>
       <c r="B341" t="s">
         <v>442</v>
       </c>
       <c r="C341" s="13">
         <v>3</v>
       </c>
-      <c r="D341" s="20"/>
+      <c r="D341" s="15"/>
     </row>
     <row r="342" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A342" s="19" t="s">
+      <c r="A342" s="20" t="s">
         <v>443</v>
       </c>
       <c r="B342" t="s">
@@ -6579,120 +7022,120 @@
       <c r="C342" s="13">
         <v>23</v>
       </c>
-      <c r="D342" s="20"/>
+      <c r="D342" s="15"/>
     </row>
     <row r="343" spans="1:4">
-      <c r="A343" s="19"/>
+      <c r="A343" s="20"/>
       <c r="B343" t="s">
         <v>445</v>
       </c>
       <c r="C343" s="13">
         <v>12</v>
       </c>
-      <c r="D343" s="20"/>
+      <c r="D343" s="15"/>
     </row>
     <row r="344" spans="1:4" ht="33">
-      <c r="A344" s="19"/>
+      <c r="A344" s="20"/>
       <c r="B344" t="s">
         <v>446</v>
       </c>
       <c r="C344" s="13">
         <v>16</v>
       </c>
-      <c r="D344" s="20"/>
+      <c r="D344" s="15"/>
     </row>
     <row r="345" spans="1:4">
-      <c r="A345" s="19"/>
+      <c r="A345" s="20"/>
       <c r="B345" t="s">
         <v>447</v>
       </c>
       <c r="C345" s="13">
         <v>11</v>
       </c>
-      <c r="D345" s="20"/>
+      <c r="D345" s="15"/>
     </row>
     <row r="346" spans="1:4">
-      <c r="A346" s="19"/>
+      <c r="A346" s="20"/>
       <c r="B346" t="s">
         <v>448</v>
       </c>
       <c r="C346" s="13">
         <v>18</v>
       </c>
-      <c r="D346" s="20"/>
+      <c r="D346" s="15"/>
     </row>
     <row r="347" spans="1:4">
-      <c r="A347" s="19"/>
+      <c r="A347" s="20"/>
       <c r="B347" t="s">
         <v>449</v>
       </c>
       <c r="C347" s="13">
         <v>4</v>
       </c>
-      <c r="D347" s="20"/>
+      <c r="D347" s="15"/>
     </row>
     <row r="348" spans="1:4">
-      <c r="A348" s="19"/>
+      <c r="A348" s="20"/>
       <c r="B348" t="s">
         <v>450</v>
       </c>
       <c r="C348" s="13">
         <v>4</v>
       </c>
-      <c r="D348" s="20"/>
+      <c r="D348" s="15"/>
     </row>
     <row r="349" spans="1:4">
-      <c r="A349" s="19"/>
+      <c r="A349" s="20"/>
       <c r="B349" t="s">
         <v>451</v>
       </c>
       <c r="C349" s="13">
         <v>13</v>
       </c>
-      <c r="D349" s="20"/>
+      <c r="D349" s="15"/>
     </row>
     <row r="350" spans="1:4">
-      <c r="A350" s="19"/>
+      <c r="A350" s="20"/>
       <c r="B350" t="s">
         <v>452</v>
       </c>
       <c r="C350" s="13">
         <v>26</v>
       </c>
-      <c r="D350" s="20"/>
+      <c r="D350" s="15"/>
     </row>
     <row r="351" spans="1:4">
-      <c r="A351" s="19"/>
+      <c r="A351" s="20"/>
       <c r="B351" t="s">
         <v>453</v>
       </c>
       <c r="C351" s="13">
         <v>4</v>
       </c>
-      <c r="D351" s="20"/>
+      <c r="D351" s="15"/>
     </row>
     <row r="352" spans="1:4">
-      <c r="A352" s="19"/>
+      <c r="A352" s="20"/>
       <c r="B352" t="s">
         <v>454</v>
       </c>
       <c r="C352" s="13">
         <v>13</v>
       </c>
-      <c r="D352" s="20"/>
+      <c r="D352" s="15"/>
     </row>
     <row r="353" spans="1:4">
-      <c r="A353" s="19"/>
+      <c r="A353" s="20"/>
       <c r="B353" t="s">
         <v>455</v>
       </c>
       <c r="C353" s="13">
         <v>8</v>
       </c>
-      <c r="D353" s="20"/>
+      <c r="D353" s="15"/>
     </row>
     <row r="354" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A354" s="19" t="s">
+      <c r="A354" s="20" t="s">
         <v>456</v>
       </c>
       <c r="B354" t="s">
@@ -6701,30 +7144,30 @@
       <c r="C354" s="13">
         <v>13</v>
       </c>
-      <c r="D354" s="20"/>
+      <c r="D354" s="15"/>
     </row>
     <row r="355" spans="1:4">
-      <c r="A355" s="19"/>
+      <c r="A355" s="20"/>
       <c r="B355" t="s">
         <v>458</v>
       </c>
       <c r="C355" s="13">
         <v>27</v>
       </c>
-      <c r="D355" s="20"/>
+      <c r="D355" s="15"/>
     </row>
     <row r="356" spans="1:4">
-      <c r="A356" s="19"/>
+      <c r="A356" s="20"/>
       <c r="B356" t="s">
         <v>459</v>
       </c>
       <c r="C356" s="13">
         <v>7</v>
       </c>
-      <c r="D356" s="20"/>
+      <c r="D356" s="15"/>
     </row>
     <row r="357" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A357" s="19" t="s">
+      <c r="A357" s="20" t="s">
         <v>460</v>
       </c>
       <c r="B357" t="s">
@@ -6733,20 +7176,20 @@
       <c r="C357" s="13">
         <v>8</v>
       </c>
-      <c r="D357" s="20"/>
+      <c r="D357" s="15"/>
     </row>
     <row r="358" spans="1:4">
-      <c r="A358" s="19"/>
+      <c r="A358" s="20"/>
       <c r="B358" t="s">
         <v>462</v>
       </c>
       <c r="C358" s="13">
         <v>41</v>
       </c>
-      <c r="D358" s="20"/>
+      <c r="D358" s="15"/>
     </row>
     <row r="359" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A359" s="19" t="s">
+      <c r="A359" s="20" t="s">
         <v>463</v>
       </c>
       <c r="B359" t="s">
@@ -6755,60 +7198,60 @@
       <c r="C359" s="13">
         <v>12</v>
       </c>
-      <c r="D359" s="20"/>
+      <c r="D359" s="15"/>
     </row>
     <row r="360" spans="1:4">
-      <c r="A360" s="19"/>
+      <c r="A360" s="20"/>
       <c r="B360" t="s">
         <v>465</v>
       </c>
       <c r="C360" s="13">
         <v>7</v>
       </c>
-      <c r="D360" s="20"/>
+      <c r="D360" s="15"/>
     </row>
     <row r="361" spans="1:4">
-      <c r="A361" s="19"/>
+      <c r="A361" s="20"/>
       <c r="B361" t="s">
         <v>466</v>
       </c>
       <c r="C361" s="13">
         <v>15</v>
       </c>
-      <c r="D361" s="20"/>
+      <c r="D361" s="15"/>
     </row>
     <row r="362" spans="1:4">
-      <c r="A362" s="19"/>
+      <c r="A362" s="20"/>
       <c r="B362" t="s">
         <v>467</v>
       </c>
       <c r="C362" s="13">
         <v>16</v>
       </c>
-      <c r="D362" s="20"/>
+      <c r="D362" s="15"/>
     </row>
     <row r="363" spans="1:4">
-      <c r="A363" s="19"/>
+      <c r="A363" s="20"/>
       <c r="B363" t="s">
         <v>468</v>
       </c>
       <c r="C363" s="13">
         <v>12</v>
       </c>
-      <c r="D363" s="20"/>
+      <c r="D363" s="15"/>
     </row>
     <row r="364" spans="1:4">
-      <c r="A364" s="19"/>
+      <c r="A364" s="20"/>
       <c r="B364" t="s">
         <v>469</v>
       </c>
       <c r="C364" s="13">
         <v>7</v>
       </c>
-      <c r="D364" s="20"/>
+      <c r="D364" s="15"/>
     </row>
     <row r="365" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A365" s="19" t="s">
+      <c r="A365" s="20" t="s">
         <v>470</v>
       </c>
       <c r="B365" t="s">
@@ -6817,50 +7260,50 @@
       <c r="C365" s="13">
         <v>16</v>
       </c>
-      <c r="D365" s="20"/>
+      <c r="D365" s="15"/>
     </row>
     <row r="366" spans="1:4">
-      <c r="A366" s="19"/>
+      <c r="A366" s="20"/>
       <c r="B366" t="s">
         <v>472</v>
       </c>
       <c r="C366" s="13">
         <v>26</v>
       </c>
-      <c r="D366" s="20"/>
+      <c r="D366" s="15"/>
     </row>
     <row r="367" spans="1:4">
-      <c r="A367" s="19"/>
+      <c r="A367" s="20"/>
       <c r="B367" t="s">
         <v>473</v>
       </c>
       <c r="C367" s="13">
         <v>20</v>
       </c>
-      <c r="D367" s="20"/>
+      <c r="D367" s="15"/>
     </row>
     <row r="368" spans="1:4">
-      <c r="A368" s="19"/>
+      <c r="A368" s="20"/>
       <c r="B368" t="s">
         <v>474</v>
       </c>
       <c r="C368" s="13">
         <v>6</v>
       </c>
-      <c r="D368" s="20"/>
+      <c r="D368" s="15"/>
     </row>
     <row r="369" spans="1:4">
-      <c r="A369" s="19"/>
+      <c r="A369" s="20"/>
       <c r="B369" t="s">
         <v>475</v>
       </c>
       <c r="C369" s="13">
         <v>20</v>
       </c>
-      <c r="D369" s="20"/>
+      <c r="D369" s="15"/>
     </row>
     <row r="370" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A370" s="19" t="s">
+      <c r="A370" s="20" t="s">
         <v>476</v>
       </c>
       <c r="B370" t="s">
@@ -6869,70 +7312,70 @@
       <c r="C370" s="13">
         <v>25</v>
       </c>
-      <c r="D370" s="20"/>
+      <c r="D370" s="15"/>
     </row>
     <row r="371" spans="1:4">
-      <c r="A371" s="19"/>
+      <c r="A371" s="20"/>
       <c r="B371" t="s">
         <v>478</v>
       </c>
       <c r="C371" s="13">
         <v>9</v>
       </c>
-      <c r="D371" s="20"/>
+      <c r="D371" s="15"/>
     </row>
     <row r="372" spans="1:4">
-      <c r="A372" s="19"/>
+      <c r="A372" s="20"/>
       <c r="B372" t="s">
         <v>479</v>
       </c>
       <c r="C372" s="13">
         <v>23</v>
       </c>
-      <c r="D372" s="20"/>
+      <c r="D372" s="15"/>
     </row>
     <row r="373" spans="1:4">
-      <c r="A373" s="19"/>
+      <c r="A373" s="20"/>
       <c r="B373" t="s">
         <v>480</v>
       </c>
       <c r="C373" s="13">
         <v>13</v>
       </c>
-      <c r="D373" s="20"/>
+      <c r="D373" s="15"/>
     </row>
     <row r="374" spans="1:4">
-      <c r="A374" s="19"/>
+      <c r="A374" s="20"/>
       <c r="B374" t="s">
         <v>481</v>
       </c>
       <c r="C374" s="13">
         <v>7</v>
       </c>
-      <c r="D374" s="20"/>
+      <c r="D374" s="15"/>
     </row>
     <row r="375" spans="1:4">
-      <c r="A375" s="19"/>
+      <c r="A375" s="20"/>
       <c r="B375" t="s">
         <v>482</v>
       </c>
       <c r="C375" s="13">
         <v>10</v>
       </c>
-      <c r="D375" s="20"/>
+      <c r="D375" s="15"/>
     </row>
     <row r="376" spans="1:4">
-      <c r="A376" s="19"/>
+      <c r="A376" s="20"/>
       <c r="B376" t="s">
         <v>483</v>
       </c>
       <c r="C376" s="13">
         <v>18</v>
       </c>
-      <c r="D376" s="20"/>
+      <c r="D376" s="15"/>
     </row>
     <row r="377" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A377" s="19" t="s">
+      <c r="A377" s="20" t="s">
         <v>484</v>
       </c>
       <c r="B377" t="s">
@@ -6941,50 +7384,50 @@
       <c r="C377" s="13">
         <v>17</v>
       </c>
-      <c r="D377" s="20"/>
+      <c r="D377" s="15"/>
     </row>
     <row r="378" spans="1:4">
-      <c r="A378" s="19"/>
+      <c r="A378" s="20"/>
       <c r="B378" t="s">
         <v>486</v>
       </c>
       <c r="C378" s="13">
         <v>11</v>
       </c>
-      <c r="D378" s="20"/>
+      <c r="D378" s="15"/>
     </row>
     <row r="379" spans="1:4">
-      <c r="A379" s="19"/>
+      <c r="A379" s="20"/>
       <c r="B379" t="s">
         <v>487</v>
       </c>
       <c r="C379" s="13">
         <v>32</v>
       </c>
-      <c r="D379" s="20"/>
+      <c r="D379" s="15"/>
     </row>
     <row r="380" spans="1:4">
-      <c r="A380" s="19"/>
+      <c r="A380" s="20"/>
       <c r="B380" t="s">
         <v>488</v>
       </c>
       <c r="C380" s="13">
         <v>18</v>
       </c>
-      <c r="D380" s="20"/>
+      <c r="D380" s="15"/>
     </row>
     <row r="381" spans="1:4">
-      <c r="A381" s="19"/>
+      <c r="A381" s="20"/>
       <c r="B381" t="s">
         <v>489</v>
       </c>
       <c r="C381" s="13">
         <v>38</v>
       </c>
-      <c r="D381" s="20"/>
+      <c r="D381" s="15"/>
     </row>
     <row r="382" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A382" s="19" t="s">
+      <c r="A382" s="20" t="s">
         <v>490</v>
       </c>
       <c r="B382" t="s">
@@ -6993,40 +7436,40 @@
       <c r="C382" s="13">
         <v>7</v>
       </c>
-      <c r="D382" s="20"/>
+      <c r="D382" s="15"/>
     </row>
     <row r="383" spans="1:4">
-      <c r="A383" s="19"/>
+      <c r="A383" s="20"/>
       <c r="B383" t="s">
         <v>492</v>
       </c>
       <c r="C383" s="13">
         <v>12</v>
       </c>
-      <c r="D383" s="20"/>
+      <c r="D383" s="15"/>
     </row>
     <row r="384" spans="1:4">
-      <c r="A384" s="19"/>
+      <c r="A384" s="20"/>
       <c r="B384" t="s">
         <v>493</v>
       </c>
       <c r="C384" s="13">
         <v>29</v>
       </c>
-      <c r="D384" s="20"/>
+      <c r="D384" s="15"/>
     </row>
     <row r="385" spans="1:4">
-      <c r="A385" s="19"/>
+      <c r="A385" s="20"/>
       <c r="B385" t="s">
         <v>494</v>
       </c>
       <c r="C385" s="13">
         <v>5</v>
       </c>
-      <c r="D385" s="20"/>
+      <c r="D385" s="15"/>
     </row>
     <row r="386" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A386" s="19" t="s">
+      <c r="A386" s="20" t="s">
         <v>495</v>
       </c>
       <c r="B386" t="s">
@@ -7035,50 +7478,50 @@
       <c r="C386" s="13">
         <v>32</v>
       </c>
-      <c r="D386" s="20"/>
+      <c r="D386" s="15"/>
     </row>
     <row r="387" spans="1:4">
-      <c r="A387" s="19"/>
+      <c r="A387" s="20"/>
       <c r="B387" t="s">
         <v>497</v>
       </c>
       <c r="C387" s="13">
         <v>27</v>
       </c>
-      <c r="D387" s="20"/>
+      <c r="D387" s="15"/>
     </row>
     <row r="388" spans="1:4">
-      <c r="A388" s="19"/>
+      <c r="A388" s="20"/>
       <c r="B388" t="s">
         <v>498</v>
       </c>
       <c r="C388" s="13">
         <v>30</v>
       </c>
-      <c r="D388" s="20"/>
+      <c r="D388" s="15"/>
     </row>
     <row r="389" spans="1:4">
-      <c r="A389" s="19"/>
+      <c r="A389" s="20"/>
       <c r="B389" t="s">
         <v>499</v>
       </c>
       <c r="C389" s="13">
         <v>20</v>
       </c>
-      <c r="D389" s="20"/>
+      <c r="D389" s="15"/>
     </row>
     <row r="390" spans="1:4">
-      <c r="A390" s="19"/>
+      <c r="A390" s="20"/>
       <c r="B390" t="s">
         <v>500</v>
       </c>
       <c r="C390" s="13">
         <v>37</v>
       </c>
-      <c r="D390" s="20"/>
+      <c r="D390" s="15"/>
     </row>
     <row r="391" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A391" s="19" t="s">
+      <c r="A391" s="20" t="s">
         <v>501</v>
       </c>
       <c r="B391" t="s">
@@ -7087,77 +7530,77 @@
       <c r="C391" s="13">
         <v>22</v>
       </c>
-      <c r="D391" s="20"/>
+      <c r="D391" s="15"/>
     </row>
     <row r="392" spans="1:4">
-      <c r="A392" s="19"/>
+      <c r="A392" s="20"/>
       <c r="B392" t="s">
         <v>503</v>
       </c>
       <c r="C392" s="13">
         <v>13</v>
       </c>
-      <c r="D392" s="20"/>
+      <c r="D392" s="15"/>
     </row>
     <row r="393" spans="1:4">
-      <c r="A393" s="19"/>
+      <c r="A393" s="20"/>
       <c r="B393" t="s">
         <v>504</v>
       </c>
       <c r="C393" s="13">
         <v>10</v>
       </c>
-      <c r="D393" s="20"/>
+      <c r="D393" s="15"/>
     </row>
     <row r="394" spans="1:4">
-      <c r="A394" s="19"/>
+      <c r="A394" s="20"/>
       <c r="B394" t="s">
         <v>505</v>
       </c>
       <c r="C394" s="13">
         <v>7</v>
       </c>
-      <c r="D394" s="20"/>
+      <c r="D394" s="15"/>
     </row>
     <row r="395" spans="1:4">
-      <c r="A395" s="19"/>
+      <c r="A395" s="20"/>
       <c r="B395" t="s">
         <v>506</v>
       </c>
       <c r="C395" s="13">
         <v>13</v>
       </c>
-      <c r="D395" s="20"/>
+      <c r="D395" s="15"/>
     </row>
     <row r="396" spans="1:4">
-      <c r="A396" s="19"/>
+      <c r="A396" s="20"/>
       <c r="B396" t="s">
         <v>507</v>
       </c>
       <c r="C396" s="13">
         <v>16</v>
       </c>
-      <c r="D396" s="20"/>
+      <c r="D396" s="15"/>
     </row>
     <row r="397" spans="1:4">
-      <c r="A397" s="19"/>
+      <c r="A397" s="20"/>
       <c r="B397" t="s">
         <v>508</v>
       </c>
       <c r="C397" s="13">
         <v>13</v>
       </c>
-      <c r="D397" s="20"/>
+      <c r="D397" s="15"/>
     </row>
     <row r="398" spans="1:4">
-      <c r="A398" s="19"/>
+      <c r="A398" s="20"/>
       <c r="B398" t="s">
         <v>509</v>
       </c>
       <c r="C398" s="13">
         <v>3</v>
       </c>
-      <c r="D398" s="20"/>
+      <c r="D398" s="15"/>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="12" t="s">
@@ -7169,10 +7612,10 @@
       <c r="C399" s="13">
         <v>63</v>
       </c>
-      <c r="D399" s="20"/>
+      <c r="D399" s="15"/>
     </row>
     <row r="400" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A400" s="19" t="s">
+      <c r="A400" s="20" t="s">
         <v>512</v>
       </c>
       <c r="B400" t="s">
@@ -7181,50 +7624,50 @@
       <c r="C400" s="13">
         <v>11</v>
       </c>
-      <c r="D400" s="20"/>
+      <c r="D400" s="15"/>
     </row>
     <row r="401" spans="1:4">
-      <c r="A401" s="19"/>
+      <c r="A401" s="20"/>
       <c r="B401" t="s">
         <v>514</v>
       </c>
       <c r="C401" s="13">
         <v>19</v>
       </c>
-      <c r="D401" s="20"/>
+      <c r="D401" s="15"/>
     </row>
     <row r="402" spans="1:4">
-      <c r="A402" s="19"/>
+      <c r="A402" s="20"/>
       <c r="B402" t="s">
         <v>515</v>
       </c>
       <c r="C402" s="13">
         <v>15</v>
       </c>
-      <c r="D402" s="20"/>
+      <c r="D402" s="15"/>
     </row>
     <row r="403" spans="1:4">
-      <c r="A403" s="19"/>
+      <c r="A403" s="20"/>
       <c r="B403" t="s">
         <v>516</v>
       </c>
       <c r="C403" s="13">
         <v>18</v>
       </c>
-      <c r="D403" s="20"/>
+      <c r="D403" s="15"/>
     </row>
     <row r="404" spans="1:4">
-      <c r="A404" s="19"/>
+      <c r="A404" s="20"/>
       <c r="B404" t="s">
         <v>517</v>
       </c>
       <c r="C404" s="13">
         <v>25</v>
       </c>
-      <c r="D404" s="20"/>
+      <c r="D404" s="15"/>
     </row>
     <row r="405" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A405" s="19" t="s">
+      <c r="A405" s="20" t="s">
         <v>518</v>
       </c>
       <c r="B405" t="s">
@@ -7233,50 +7676,50 @@
       <c r="C405" s="13">
         <v>17</v>
       </c>
-      <c r="D405" s="20"/>
+      <c r="D405" s="15"/>
     </row>
     <row r="406" spans="1:4">
-      <c r="A406" s="19"/>
+      <c r="A406" s="20"/>
       <c r="B406" t="s">
         <v>520</v>
       </c>
       <c r="C406" s="13">
         <v>11</v>
       </c>
-      <c r="D406" s="20"/>
+      <c r="D406" s="15"/>
     </row>
     <row r="407" spans="1:4">
-      <c r="A407" s="19"/>
+      <c r="A407" s="20"/>
       <c r="B407" t="s">
         <v>521</v>
       </c>
       <c r="C407" s="13">
         <v>26</v>
       </c>
-      <c r="D407" s="20"/>
+      <c r="D407" s="15"/>
     </row>
     <row r="408" spans="1:4">
-      <c r="A408" s="19"/>
+      <c r="A408" s="20"/>
       <c r="B408" t="s">
         <v>522</v>
       </c>
       <c r="C408" s="13">
         <v>5</v>
       </c>
-      <c r="D408" s="20"/>
+      <c r="D408" s="15"/>
     </row>
     <row r="409" spans="1:4">
-      <c r="A409" s="19"/>
+      <c r="A409" s="20"/>
       <c r="B409" t="s">
         <v>523</v>
       </c>
       <c r="C409" s="13">
         <v>3</v>
       </c>
-      <c r="D409" s="20"/>
+      <c r="D409" s="15"/>
     </row>
     <row r="410" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A410" s="19" t="s">
+      <c r="A410" s="20" t="s">
         <v>524</v>
       </c>
       <c r="B410" t="s">
@@ -7285,17 +7728,17 @@
       <c r="C410" s="13">
         <v>50</v>
       </c>
-      <c r="D410" s="20"/>
+      <c r="D410" s="15"/>
     </row>
     <row r="411" spans="1:4">
-      <c r="A411" s="19"/>
+      <c r="A411" s="20"/>
       <c r="B411" t="s">
         <v>526</v>
       </c>
       <c r="C411" s="13">
         <v>2</v>
       </c>
-      <c r="D411" s="20"/>
+      <c r="D411" s="15"/>
     </row>
     <row r="412" spans="1:4">
       <c r="C412" s="14">
@@ -7305,77 +7748,77 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A32"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="A57:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A71:A79"/>
-    <mergeCell ref="A80:A88"/>
-    <mergeCell ref="A89:A95"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="A111:A116"/>
-    <mergeCell ref="A117:A124"/>
-    <mergeCell ref="A125:A128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="A132:A140"/>
-    <mergeCell ref="A141:A146"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="A156:A159"/>
-    <mergeCell ref="A160:A162"/>
-    <mergeCell ref="A163:A166"/>
-    <mergeCell ref="A167:A172"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="A183:A187"/>
-    <mergeCell ref="A188:A190"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="A193:A199"/>
-    <mergeCell ref="A200:A205"/>
-    <mergeCell ref="A206:A208"/>
-    <mergeCell ref="A209:A213"/>
-    <mergeCell ref="A214:A221"/>
-    <mergeCell ref="A222:A229"/>
-    <mergeCell ref="A230:A236"/>
-    <mergeCell ref="A237:A244"/>
-    <mergeCell ref="A245:A249"/>
-    <mergeCell ref="A250:A258"/>
-    <mergeCell ref="A259:A263"/>
-    <mergeCell ref="A264:A270"/>
-    <mergeCell ref="A271:A276"/>
-    <mergeCell ref="A277:A280"/>
-    <mergeCell ref="A281:A286"/>
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="A291:A293"/>
-    <mergeCell ref="A294:A298"/>
-    <mergeCell ref="A299:A304"/>
-    <mergeCell ref="A305:A314"/>
-    <mergeCell ref="A315:A317"/>
-    <mergeCell ref="A318:A330"/>
-    <mergeCell ref="A331:A341"/>
-    <mergeCell ref="A342:A353"/>
-    <mergeCell ref="A354:A356"/>
-    <mergeCell ref="A357:A358"/>
-    <mergeCell ref="A359:A364"/>
-    <mergeCell ref="A365:A369"/>
-    <mergeCell ref="A370:A376"/>
-    <mergeCell ref="A405:A409"/>
     <mergeCell ref="A410:A411"/>
     <mergeCell ref="A377:A381"/>
     <mergeCell ref="A382:A385"/>
     <mergeCell ref="A386:A390"/>
     <mergeCell ref="A391:A398"/>
     <mergeCell ref="A400:A404"/>
+    <mergeCell ref="A357:A358"/>
+    <mergeCell ref="A359:A364"/>
+    <mergeCell ref="A365:A369"/>
+    <mergeCell ref="A370:A376"/>
+    <mergeCell ref="A405:A409"/>
+    <mergeCell ref="A315:A317"/>
+    <mergeCell ref="A318:A330"/>
+    <mergeCell ref="A331:A341"/>
+    <mergeCell ref="A342:A353"/>
+    <mergeCell ref="A354:A356"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="A291:A293"/>
+    <mergeCell ref="A294:A298"/>
+    <mergeCell ref="A299:A304"/>
+    <mergeCell ref="A305:A314"/>
+    <mergeCell ref="A264:A270"/>
+    <mergeCell ref="A271:A276"/>
+    <mergeCell ref="A277:A280"/>
+    <mergeCell ref="A281:A286"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="A230:A236"/>
+    <mergeCell ref="A237:A244"/>
+    <mergeCell ref="A245:A249"/>
+    <mergeCell ref="A250:A258"/>
+    <mergeCell ref="A259:A263"/>
+    <mergeCell ref="A200:A205"/>
+    <mergeCell ref="A206:A208"/>
+    <mergeCell ref="A209:A213"/>
+    <mergeCell ref="A214:A221"/>
+    <mergeCell ref="A222:A229"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="A183:A187"/>
+    <mergeCell ref="A188:A190"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="A193:A199"/>
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="A163:A166"/>
+    <mergeCell ref="A167:A172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="A156:A159"/>
+    <mergeCell ref="A111:A116"/>
+    <mergeCell ref="A117:A124"/>
+    <mergeCell ref="A125:A128"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="A132:A140"/>
+    <mergeCell ref="A80:A88"/>
+    <mergeCell ref="A89:A95"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="A57:A66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A71:A79"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="A33:A40"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/play/play.xlsx
+++ b/play/play.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="574">
   <si>
     <t>待办事项列表</t>
   </si>
@@ -1894,27 +1894,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>04复习
-01元素尺寸-元素位置-加入购物车
-02scrollleft-top-悬浮菜单
-03悬浮菜单-滚动到顶部
-01属性操作
-02手风琴01
-03手风琴02</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>04jquery循环
-01bind绑定事件和解绑
-02事件冒泡-阻止事件冒泡
-03阻止事件冒泡-弹框实例
-04事件委托
-05jquery事件
-06复习
-01节点操作</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>02todolist01
 03todolist02
 01整屏滚动01
@@ -1967,6 +1946,58 @@
 03模态框
 04js控制弹框弹出和隐藏
 05布局实例01</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>04jquery循环
+01bind绑定事件和解绑
+02事件冒泡-阻止事件冒泡
+03阻止事件冒泡-弹框实例
+04事件委托
+05jquery事件
+06复习
+01节点操作</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>04复习
+01元素尺寸-元素位置-加入购物车
+02scrollleft-top-悬浮菜单
+03悬浮菜单-滚动到顶部
+01属性操作
+02手风琴01
+03手风琴02</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一阶段开始的是网络抓包和TCP卷1
+每一阶段要想完成事情就要删除干扰，不要纠结于以后会不会发生的事情，还有要学会回头看</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前需要补充的总结：python高级以及web的博客部分，接口测试的博客部分以及Crown的总结</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>从1.6号开始算法极客训练营，时间定在早上，周一二完成三小时课程观看，周三四完成总结，周五六完成作业</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>回家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构与算法总览
+训练准备和复杂度分析</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组，链表，跳表
+栈，队列，优先队列，双端队列</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2134,7 +2165,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -2183,6 +2214,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2198,8 +2232,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2572,8 +2606,8 @@
   </sheetPr>
   <dimension ref="A1:AMK78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2604,37 +2638,37 @@
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1"/>
     <row r="3" spans="1:11" s="6" customFormat="1" ht="52.5" customHeight="1">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="18"/>
       <c r="J3" s="2"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" s="6" customFormat="1" ht="46.5" customHeight="1">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="19"/>
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1"/>
     <row r="6" spans="1:11" s="6" customFormat="1" ht="30" customHeight="1">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
     </row>
@@ -3075,7 +3109,7 @@
       <c r="B38" s="8">
         <v>0</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="16">
         <v>12.15</v>
       </c>
       <c r="D38" s="11"/>
@@ -3168,7 +3202,7 @@
       <c r="B45" s="8">
         <v>0</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="16">
         <v>12.22</v>
       </c>
       <c r="D45" s="11"/>
@@ -3198,7 +3232,7 @@
         <v>544</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="30" customHeight="1">
@@ -3215,7 +3249,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="150" customHeight="1">
+    <row r="49" spans="2:10" ht="150" customHeight="1">
       <c r="B49" s="8">
         <v>0</v>
       </c>
@@ -3226,10 +3260,10 @@
         <v>544</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" ht="30" customHeight="1">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="30" customHeight="1">
       <c r="B50" s="8">
         <v>0</v>
       </c>
@@ -3243,7 +3277,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="129" customHeight="1">
+    <row r="51" spans="2:10" ht="129" customHeight="1">
       <c r="B51" s="8">
         <v>0</v>
       </c>
@@ -3254,19 +3288,19 @@
         <v>544</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" ht="30" customHeight="1">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="30" customHeight="1">
       <c r="B52" s="8">
         <v>0</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="16">
         <v>12.29</v>
       </c>
       <c r="D52" s="11"/>
     </row>
-    <row r="53" spans="2:5" ht="30" customHeight="1">
+    <row r="53" spans="2:10" ht="30" customHeight="1">
       <c r="B53" s="8">
         <v>0</v>
       </c>
@@ -3277,10 +3311,10 @@
         <v>544</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="177.75" customHeight="1">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" ht="177.75" customHeight="1">
       <c r="B54" s="8">
         <v>0</v>
       </c>
@@ -3291,10 +3325,10 @@
         <v>544</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" ht="30" customHeight="1">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" ht="30" customHeight="1">
       <c r="B55" s="8">
         <v>0</v>
       </c>
@@ -3305,10 +3339,10 @@
         <v>544</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" ht="114.75" customHeight="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" ht="114.75" customHeight="1">
       <c r="B56" s="8">
         <v>0</v>
       </c>
@@ -3319,10 +3353,10 @@
         <v>544</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="30" customHeight="1">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" ht="30" customHeight="1">
       <c r="B57" s="8">
         <v>0</v>
       </c>
@@ -3333,10 +3367,10 @@
         <v>544</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="168.75" customHeight="1">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" ht="168.75" customHeight="1">
       <c r="B58" s="8">
         <v>0</v>
       </c>
@@ -3347,123 +3381,214 @@
         <v>544</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" ht="30" customHeight="1">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" ht="49.5">
       <c r="B59" s="8">
         <v>0</v>
       </c>
-      <c r="C59" s="21">
-        <v>1.5</v>
-      </c>
-      <c r="D59" s="11"/>
-    </row>
-    <row r="60" spans="2:5" ht="30" customHeight="1">
+      <c r="C59" s="16">
+        <v>1.6</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" ht="30" customHeight="1">
       <c r="B60" s="8">
         <v>0</v>
       </c>
-      <c r="D60" s="11"/>
-    </row>
-    <row r="61" spans="2:5" ht="30" customHeight="1">
+      <c r="C60" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" ht="49.5">
       <c r="B61" s="8">
         <v>0</v>
       </c>
-      <c r="D61" s="11"/>
-    </row>
-    <row r="62" spans="2:5" ht="30" customHeight="1">
+      <c r="C61" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" ht="30" customHeight="1">
       <c r="B62" s="8">
         <v>0</v>
       </c>
-      <c r="D62" s="11"/>
-    </row>
-    <row r="63" spans="2:5" ht="30" customHeight="1">
+      <c r="C62" s="16">
+        <v>1.9</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" ht="30" customHeight="1">
       <c r="B63" s="8">
         <v>0</v>
       </c>
-      <c r="D63" s="11"/>
-    </row>
-    <row r="64" spans="2:5" ht="30" customHeight="1">
+      <c r="C63" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" ht="30" customHeight="1">
       <c r="B64" s="8">
         <v>0</v>
       </c>
-      <c r="D64" s="11"/>
+      <c r="C64" s="16">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="65" spans="2:4" ht="30" customHeight="1">
       <c r="B65" s="8">
         <v>0</v>
       </c>
-      <c r="D65" s="11"/>
+      <c r="C65" s="16">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="66" spans="2:4" ht="30" customHeight="1">
       <c r="B66" s="8">
         <v>0</v>
       </c>
-      <c r="D66" s="11"/>
+      <c r="C66" s="16">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="67" spans="2:4" ht="30" customHeight="1">
       <c r="B67" s="8">
         <v>0</v>
       </c>
-      <c r="D67" s="11"/>
+      <c r="C67" s="16">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="68" spans="2:4" ht="30" customHeight="1">
       <c r="B68" s="8">
         <v>0</v>
       </c>
-      <c r="D68" s="11"/>
+      <c r="C68" s="16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="69" spans="2:4" ht="30" customHeight="1">
       <c r="B69" s="8">
         <v>0</v>
       </c>
-      <c r="D69" s="11"/>
+      <c r="C69" s="16">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="70" spans="2:4" ht="30" customHeight="1">
       <c r="B70" s="8">
         <v>0</v>
       </c>
-      <c r="D70" s="11"/>
+      <c r="C70" s="16">
+        <v>1.17</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="71" spans="2:4" ht="30" customHeight="1">
       <c r="B71" s="8">
         <v>0</v>
       </c>
-      <c r="D71" s="11"/>
+      <c r="C71" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="72" spans="2:4" ht="30" customHeight="1">
       <c r="B72" s="8">
         <v>0</v>
       </c>
-      <c r="D72" s="11"/>
+      <c r="C72" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="73" spans="2:4" ht="30" customHeight="1">
       <c r="B73" s="8">
         <v>0</v>
       </c>
+      <c r="C73" s="1" t="s">
+        <v>570</v>
+      </c>
       <c r="D73" s="11"/>
     </row>
     <row r="74" spans="2:4" ht="30" customHeight="1">
       <c r="B74" s="8">
         <v>0</v>
       </c>
+      <c r="C74" s="1">
+        <v>1.21</v>
+      </c>
       <c r="D74" s="11"/>
     </row>
     <row r="75" spans="2:4" ht="30" customHeight="1">
       <c r="B75" s="8">
         <v>0</v>
       </c>
+      <c r="C75" s="1">
+        <v>1.22</v>
+      </c>
       <c r="D75" s="11"/>
     </row>
     <row r="76" spans="2:4" ht="30" customHeight="1">
       <c r="B76" s="8">
         <v>0</v>
       </c>
+      <c r="C76" s="1">
+        <v>1.23</v>
+      </c>
       <c r="D76" s="11"/>
     </row>
     <row r="77" spans="2:4" ht="30" customHeight="1">
       <c r="B77" s="8">
         <v>0</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>571</v>
       </c>
       <c r="D77" s="11"/>
     </row>
@@ -3574,7 +3699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D412"/>
   <sheetViews>
-    <sheetView topLeftCell="A374" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A392" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B205" sqref="B205"/>
     </sheetView>
   </sheetViews>
@@ -3609,7 +3734,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B3" t="s">
@@ -3620,7 +3745,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" t="s">
         <v>49</v>
       </c>
@@ -3629,7 +3754,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" t="s">
         <v>50</v>
       </c>
@@ -3638,7 +3763,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" t="s">
         <v>51</v>
       </c>
@@ -3647,7 +3772,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" t="s">
         <v>52</v>
       </c>
@@ -3656,7 +3781,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" t="s">
         <v>53</v>
       </c>
@@ -3665,7 +3790,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" t="s">
         <v>54</v>
       </c>
@@ -3674,7 +3799,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" t="s">
         <v>55</v>
       </c>
@@ -3683,7 +3808,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" t="s">
         <v>56</v>
       </c>
@@ -3692,7 +3817,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" t="s">
         <v>57</v>
       </c>
@@ -3701,7 +3826,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" t="s">
         <v>58</v>
       </c>
@@ -3710,7 +3835,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B14" t="s">
@@ -3721,7 +3846,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
       <c r="B15" t="s">
         <v>61</v>
       </c>
@@ -3730,7 +3855,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="33">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
       <c r="B16" t="s">
         <v>62</v>
       </c>
@@ -3739,7 +3864,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="21" t="s">
         <v>63</v>
       </c>
       <c r="B17" t="s">
@@ -3750,7 +3875,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="20"/>
+      <c r="A18" s="21"/>
       <c r="B18" t="s">
         <v>65</v>
       </c>
@@ -3759,7 +3884,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="21"/>
       <c r="B19" t="s">
         <v>66</v>
       </c>
@@ -3768,7 +3893,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="20"/>
+      <c r="A20" s="21"/>
       <c r="B20" t="s">
         <v>67</v>
       </c>
@@ -3777,7 +3902,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="33">
-      <c r="A21" s="20"/>
+      <c r="A21" s="21"/>
       <c r="B21" t="s">
         <v>68</v>
       </c>
@@ -3786,7 +3911,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="21" t="s">
         <v>69</v>
       </c>
       <c r="B22" t="s">
@@ -3797,7 +3922,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="20"/>
+      <c r="A23" s="21"/>
       <c r="B23" t="s">
         <v>71</v>
       </c>
@@ -3806,7 +3931,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="20"/>
+      <c r="A24" s="21"/>
       <c r="B24" t="s">
         <v>72</v>
       </c>
@@ -3815,7 +3940,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="20"/>
+      <c r="A25" s="21"/>
       <c r="B25" t="s">
         <v>73</v>
       </c>
@@ -3824,7 +3949,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="33">
-      <c r="A26" s="20"/>
+      <c r="A26" s="21"/>
       <c r="B26" t="s">
         <v>74</v>
       </c>
@@ -3833,7 +3958,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="20"/>
+      <c r="A27" s="21"/>
       <c r="B27" t="s">
         <v>75</v>
       </c>
@@ -3842,7 +3967,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="33">
-      <c r="A28" s="20"/>
+      <c r="A28" s="21"/>
       <c r="B28" t="s">
         <v>76</v>
       </c>
@@ -3851,7 +3976,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="20"/>
+      <c r="A29" s="21"/>
       <c r="B29" t="s">
         <v>77</v>
       </c>
@@ -3860,7 +3985,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="20"/>
+      <c r="A30" s="21"/>
       <c r="B30" t="s">
         <v>78</v>
       </c>
@@ -3869,7 +3994,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="20"/>
+      <c r="A31" s="21"/>
       <c r="B31" t="s">
         <v>79</v>
       </c>
@@ -3878,7 +4003,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="20"/>
+      <c r="A32" s="21"/>
       <c r="B32" t="s">
         <v>80</v>
       </c>
@@ -3887,7 +4012,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="21" t="s">
         <v>81</v>
       </c>
       <c r="B33" t="s">
@@ -3898,7 +4023,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="20"/>
+      <c r="A34" s="21"/>
       <c r="B34" t="s">
         <v>83</v>
       </c>
@@ -3907,7 +4032,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="20"/>
+      <c r="A35" s="21"/>
       <c r="B35" t="s">
         <v>84</v>
       </c>
@@ -3916,7 +4041,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="20"/>
+      <c r="A36" s="21"/>
       <c r="B36" t="s">
         <v>85</v>
       </c>
@@ -3925,7 +4050,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="20"/>
+      <c r="A37" s="21"/>
       <c r="B37" t="s">
         <v>86</v>
       </c>
@@ -3934,7 +4059,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="20"/>
+      <c r="A38" s="21"/>
       <c r="B38" t="s">
         <v>87</v>
       </c>
@@ -3943,7 +4068,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="20"/>
+      <c r="A39" s="21"/>
       <c r="B39" t="s">
         <v>88</v>
       </c>
@@ -3952,7 +4077,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="20"/>
+      <c r="A40" s="21"/>
       <c r="B40" t="s">
         <v>89</v>
       </c>
@@ -3961,7 +4086,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="21" t="s">
         <v>90</v>
       </c>
       <c r="B41" t="s">
@@ -3972,7 +4097,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="20"/>
+      <c r="A42" s="21"/>
       <c r="B42" t="s">
         <v>92</v>
       </c>
@@ -3981,7 +4106,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="20"/>
+      <c r="A43" s="21"/>
       <c r="B43" t="s">
         <v>93</v>
       </c>
@@ -3990,7 +4115,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="20"/>
+      <c r="A44" s="21"/>
       <c r="B44" t="s">
         <v>94</v>
       </c>
@@ -3999,7 +4124,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="20"/>
+      <c r="A45" s="21"/>
       <c r="B45" t="s">
         <v>95</v>
       </c>
@@ -4008,7 +4133,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="20"/>
+      <c r="A46" s="21"/>
       <c r="B46" t="s">
         <v>96</v>
       </c>
@@ -4017,7 +4142,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="20"/>
+      <c r="A47" s="21"/>
       <c r="B47" t="s">
         <v>97</v>
       </c>
@@ -4026,7 +4151,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="20"/>
+      <c r="A48" s="21"/>
       <c r="B48" t="s">
         <v>98</v>
       </c>
@@ -4035,7 +4160,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="20"/>
+      <c r="A49" s="21"/>
       <c r="B49" t="s">
         <v>99</v>
       </c>
@@ -4044,7 +4169,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="21" t="s">
         <v>100</v>
       </c>
       <c r="B50" t="s">
@@ -4055,7 +4180,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="20"/>
+      <c r="A51" s="21"/>
       <c r="B51" t="s">
         <v>102</v>
       </c>
@@ -4064,7 +4189,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="20"/>
+      <c r="A52" s="21"/>
       <c r="B52" t="s">
         <v>103</v>
       </c>
@@ -4073,7 +4198,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="20"/>
+      <c r="A53" s="21"/>
       <c r="B53" t="s">
         <v>104</v>
       </c>
@@ -4082,7 +4207,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="20"/>
+      <c r="A54" s="21"/>
       <c r="B54" t="s">
         <v>105</v>
       </c>
@@ -4091,7 +4216,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="20"/>
+      <c r="A55" s="21"/>
       <c r="B55" t="s">
         <v>106</v>
       </c>
@@ -4100,7 +4225,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="20"/>
+      <c r="A56" s="21"/>
       <c r="B56" t="s">
         <v>107</v>
       </c>
@@ -4109,7 +4234,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="21" t="s">
         <v>108</v>
       </c>
       <c r="B57" t="s">
@@ -4120,7 +4245,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="20"/>
+      <c r="A58" s="21"/>
       <c r="B58" t="s">
         <v>110</v>
       </c>
@@ -4129,7 +4254,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="33">
-      <c r="A59" s="20"/>
+      <c r="A59" s="21"/>
       <c r="B59" t="s">
         <v>111</v>
       </c>
@@ -4138,7 +4263,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="20"/>
+      <c r="A60" s="21"/>
       <c r="B60" t="s">
         <v>112</v>
       </c>
@@ -4147,7 +4272,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="20"/>
+      <c r="A61" s="21"/>
       <c r="B61" t="s">
         <v>113</v>
       </c>
@@ -4156,7 +4281,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="20"/>
+      <c r="A62" s="21"/>
       <c r="B62" t="s">
         <v>114</v>
       </c>
@@ -4165,7 +4290,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="20"/>
+      <c r="A63" s="21"/>
       <c r="B63" t="s">
         <v>115</v>
       </c>
@@ -4174,7 +4299,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="33">
-      <c r="A64" s="20"/>
+      <c r="A64" s="21"/>
       <c r="B64" t="s">
         <v>116</v>
       </c>
@@ -4183,7 +4308,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="20"/>
+      <c r="A65" s="21"/>
       <c r="B65" t="s">
         <v>117</v>
       </c>
@@ -4192,7 +4317,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="33">
-      <c r="A66" s="20"/>
+      <c r="A66" s="21"/>
       <c r="B66" t="s">
         <v>118</v>
       </c>
@@ -4201,7 +4326,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="21" t="s">
         <v>119</v>
       </c>
       <c r="B67" t="s">
@@ -4212,7 +4337,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="20"/>
+      <c r="A68" s="21"/>
       <c r="B68" t="s">
         <v>121</v>
       </c>
@@ -4221,7 +4346,7 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="20"/>
+      <c r="A69" s="21"/>
       <c r="B69" t="s">
         <v>122</v>
       </c>
@@ -4230,7 +4355,7 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="20"/>
+      <c r="A70" s="21"/>
       <c r="B70" t="s">
         <v>123</v>
       </c>
@@ -4239,7 +4364,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="21" t="s">
         <v>124</v>
       </c>
       <c r="B71" t="s">
@@ -4250,7 +4375,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="20"/>
+      <c r="A72" s="21"/>
       <c r="B72" t="s">
         <v>126</v>
       </c>
@@ -4259,7 +4384,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="33">
-      <c r="A73" s="20"/>
+      <c r="A73" s="21"/>
       <c r="B73" t="s">
         <v>127</v>
       </c>
@@ -4268,7 +4393,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="20"/>
+      <c r="A74" s="21"/>
       <c r="B74" t="s">
         <v>128</v>
       </c>
@@ -4277,7 +4402,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="20"/>
+      <c r="A75" s="21"/>
       <c r="B75" t="s">
         <v>129</v>
       </c>
@@ -4286,7 +4411,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="33">
-      <c r="A76" s="20"/>
+      <c r="A76" s="21"/>
       <c r="B76" t="s">
         <v>130</v>
       </c>
@@ -4295,7 +4420,7 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="20"/>
+      <c r="A77" s="21"/>
       <c r="B77" t="s">
         <v>131</v>
       </c>
@@ -4304,7 +4429,7 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="20"/>
+      <c r="A78" s="21"/>
       <c r="B78" t="s">
         <v>132</v>
       </c>
@@ -4313,7 +4438,7 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="20"/>
+      <c r="A79" s="21"/>
       <c r="B79" t="s">
         <v>133</v>
       </c>
@@ -4322,7 +4447,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A80" s="20" t="s">
+      <c r="A80" s="21" t="s">
         <v>134</v>
       </c>
       <c r="B80" t="s">
@@ -4333,7 +4458,7 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="20"/>
+      <c r="A81" s="21"/>
       <c r="B81" t="s">
         <v>136</v>
       </c>
@@ -4342,7 +4467,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="20"/>
+      <c r="A82" s="21"/>
       <c r="B82" t="s">
         <v>137</v>
       </c>
@@ -4351,7 +4476,7 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="20"/>
+      <c r="A83" s="21"/>
       <c r="B83" t="s">
         <v>138</v>
       </c>
@@ -4360,7 +4485,7 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="20"/>
+      <c r="A84" s="21"/>
       <c r="B84" t="s">
         <v>139</v>
       </c>
@@ -4369,7 +4494,7 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="20"/>
+      <c r="A85" s="21"/>
       <c r="B85" t="s">
         <v>140</v>
       </c>
@@ -4378,7 +4503,7 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="20"/>
+      <c r="A86" s="21"/>
       <c r="B86" t="s">
         <v>141</v>
       </c>
@@ -4387,7 +4512,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="20"/>
+      <c r="A87" s="21"/>
       <c r="B87" t="s">
         <v>142</v>
       </c>
@@ -4396,7 +4521,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="20"/>
+      <c r="A88" s="21"/>
       <c r="B88" t="s">
         <v>143</v>
       </c>
@@ -4405,7 +4530,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A89" s="20" t="s">
+      <c r="A89" s="21" t="s">
         <v>144</v>
       </c>
       <c r="B89" t="s">
@@ -4416,7 +4541,7 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="20"/>
+      <c r="A90" s="21"/>
       <c r="B90" t="s">
         <v>146</v>
       </c>
@@ -4425,7 +4550,7 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="20"/>
+      <c r="A91" s="21"/>
       <c r="B91" t="s">
         <v>147</v>
       </c>
@@ -4434,7 +4559,7 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="20"/>
+      <c r="A92" s="21"/>
       <c r="B92" t="s">
         <v>148</v>
       </c>
@@ -4443,7 +4568,7 @@
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="20"/>
+      <c r="A93" s="21"/>
       <c r="B93" t="s">
         <v>149</v>
       </c>
@@ -4452,7 +4577,7 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="20"/>
+      <c r="A94" s="21"/>
       <c r="B94" t="s">
         <v>150</v>
       </c>
@@ -4461,7 +4586,7 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="20"/>
+      <c r="A95" s="21"/>
       <c r="B95" t="s">
         <v>151</v>
       </c>
@@ -4470,7 +4595,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A96" s="20" t="s">
+      <c r="A96" s="21" t="s">
         <v>152</v>
       </c>
       <c r="B96" t="s">
@@ -4481,7 +4606,7 @@
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="20"/>
+      <c r="A97" s="21"/>
       <c r="B97" t="s">
         <v>154</v>
       </c>
@@ -4490,7 +4615,7 @@
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="20"/>
+      <c r="A98" s="21"/>
       <c r="B98" t="s">
         <v>155</v>
       </c>
@@ -4499,7 +4624,7 @@
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="20"/>
+      <c r="A99" s="21"/>
       <c r="B99" t="s">
         <v>156</v>
       </c>
@@ -4508,7 +4633,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A100" s="20" t="s">
+      <c r="A100" s="21" t="s">
         <v>157</v>
       </c>
       <c r="B100" t="s">
@@ -4519,7 +4644,7 @@
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="20"/>
+      <c r="A101" s="21"/>
       <c r="B101" t="s">
         <v>159</v>
       </c>
@@ -4528,7 +4653,7 @@
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="20"/>
+      <c r="A102" s="21"/>
       <c r="B102" t="s">
         <v>160</v>
       </c>
@@ -4537,7 +4662,7 @@
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="20"/>
+      <c r="A103" s="21"/>
       <c r="B103" t="s">
         <v>161</v>
       </c>
@@ -4546,7 +4671,7 @@
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="20"/>
+      <c r="A104" s="21"/>
       <c r="B104" t="s">
         <v>162</v>
       </c>
@@ -4555,7 +4680,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A105" s="20" t="s">
+      <c r="A105" s="21" t="s">
         <v>163</v>
       </c>
       <c r="B105" t="s">
@@ -4567,7 +4692,7 @@
       <c r="D105" s="15"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="20"/>
+      <c r="A106" s="21"/>
       <c r="B106" t="s">
         <v>165</v>
       </c>
@@ -4577,7 +4702,7 @@
       <c r="D106" s="15"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="20"/>
+      <c r="A107" s="21"/>
       <c r="B107" t="s">
         <v>166</v>
       </c>
@@ -4587,7 +4712,7 @@
       <c r="D107" s="15"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="20"/>
+      <c r="A108" s="21"/>
       <c r="B108" t="s">
         <v>167</v>
       </c>
@@ -4597,7 +4722,7 @@
       <c r="D108" s="15"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="20"/>
+      <c r="A109" s="21"/>
       <c r="B109" t="s">
         <v>168</v>
       </c>
@@ -4607,7 +4732,7 @@
       <c r="D109" s="15"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="20"/>
+      <c r="A110" s="21"/>
       <c r="B110" t="s">
         <v>169</v>
       </c>
@@ -4617,7 +4742,7 @@
       <c r="D110" s="15"/>
     </row>
     <row r="111" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A111" s="20" t="s">
+      <c r="A111" s="21" t="s">
         <v>170</v>
       </c>
       <c r="B111" t="s">
@@ -4629,7 +4754,7 @@
       <c r="D111" s="15"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="20"/>
+      <c r="A112" s="21"/>
       <c r="B112" t="s">
         <v>172</v>
       </c>
@@ -4639,7 +4764,7 @@
       <c r="D112" s="15"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="20"/>
+      <c r="A113" s="21"/>
       <c r="B113" t="s">
         <v>173</v>
       </c>
@@ -4649,7 +4774,7 @@
       <c r="D113" s="15"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="20"/>
+      <c r="A114" s="21"/>
       <c r="B114" t="s">
         <v>174</v>
       </c>
@@ -4659,7 +4784,7 @@
       <c r="D114" s="15"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="20"/>
+      <c r="A115" s="21"/>
       <c r="B115" t="s">
         <v>175</v>
       </c>
@@ -4669,7 +4794,7 @@
       <c r="D115" s="15"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="20"/>
+      <c r="A116" s="21"/>
       <c r="B116" t="s">
         <v>176</v>
       </c>
@@ -4679,7 +4804,7 @@
       <c r="D116" s="15"/>
     </row>
     <row r="117" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A117" s="20" t="s">
+      <c r="A117" s="21" t="s">
         <v>177</v>
       </c>
       <c r="B117" t="s">
@@ -4691,7 +4816,7 @@
       <c r="D117" s="15"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="20"/>
+      <c r="A118" s="21"/>
       <c r="B118" t="s">
         <v>179</v>
       </c>
@@ -4701,7 +4826,7 @@
       <c r="D118" s="15"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="20"/>
+      <c r="A119" s="21"/>
       <c r="B119" t="s">
         <v>180</v>
       </c>
@@ -4711,7 +4836,7 @@
       <c r="D119" s="15"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="20"/>
+      <c r="A120" s="21"/>
       <c r="B120" t="s">
         <v>181</v>
       </c>
@@ -4721,7 +4846,7 @@
       <c r="D120" s="15"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="20"/>
+      <c r="A121" s="21"/>
       <c r="B121" t="s">
         <v>182</v>
       </c>
@@ -4731,7 +4856,7 @@
       <c r="D121" s="15"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="20"/>
+      <c r="A122" s="21"/>
       <c r="B122" t="s">
         <v>183</v>
       </c>
@@ -4741,7 +4866,7 @@
       <c r="D122" s="15"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="20"/>
+      <c r="A123" s="21"/>
       <c r="B123" t="s">
         <v>184</v>
       </c>
@@ -4751,7 +4876,7 @@
       <c r="D123" s="15"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="20"/>
+      <c r="A124" s="21"/>
       <c r="B124" t="s">
         <v>185</v>
       </c>
@@ -4761,7 +4886,7 @@
       <c r="D124" s="15"/>
     </row>
     <row r="125" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A125" s="20" t="s">
+      <c r="A125" s="21" t="s">
         <v>186</v>
       </c>
       <c r="B125" t="s">
@@ -4773,7 +4898,7 @@
       <c r="D125" s="15"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="20"/>
+      <c r="A126" s="21"/>
       <c r="B126" t="s">
         <v>188</v>
       </c>
@@ -4783,7 +4908,7 @@
       <c r="D126" s="15"/>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="20"/>
+      <c r="A127" s="21"/>
       <c r="B127" t="s">
         <v>189</v>
       </c>
@@ -4793,7 +4918,7 @@
       <c r="D127" s="15"/>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="20"/>
+      <c r="A128" s="21"/>
       <c r="B128" t="s">
         <v>190</v>
       </c>
@@ -4803,7 +4928,7 @@
       <c r="D128" s="15"/>
     </row>
     <row r="129" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A129" s="20" t="s">
+      <c r="A129" s="21" t="s">
         <v>191</v>
       </c>
       <c r="B129" t="s">
@@ -4815,7 +4940,7 @@
       <c r="D129" s="15"/>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="20"/>
+      <c r="A130" s="21"/>
       <c r="B130" t="s">
         <v>193</v>
       </c>
@@ -4825,7 +4950,7 @@
       <c r="D130" s="15"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="20"/>
+      <c r="A131" s="21"/>
       <c r="B131" t="s">
         <v>194</v>
       </c>
@@ -4835,7 +4960,7 @@
       <c r="D131" s="15"/>
     </row>
     <row r="132" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A132" s="20" t="s">
+      <c r="A132" s="21" t="s">
         <v>195</v>
       </c>
       <c r="B132" t="s">
@@ -4847,7 +4972,7 @@
       <c r="D132" s="15"/>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="20"/>
+      <c r="A133" s="21"/>
       <c r="B133" t="s">
         <v>197</v>
       </c>
@@ -4857,7 +4982,7 @@
       <c r="D133" s="15"/>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="20"/>
+      <c r="A134" s="21"/>
       <c r="B134" t="s">
         <v>198</v>
       </c>
@@ -4867,7 +4992,7 @@
       <c r="D134" s="15"/>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="20"/>
+      <c r="A135" s="21"/>
       <c r="B135" t="s">
         <v>199</v>
       </c>
@@ -4877,7 +5002,7 @@
       <c r="D135" s="15"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="20"/>
+      <c r="A136" s="21"/>
       <c r="B136" t="s">
         <v>200</v>
       </c>
@@ -4887,7 +5012,7 @@
       <c r="D136" s="15"/>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="20"/>
+      <c r="A137" s="21"/>
       <c r="B137" t="s">
         <v>201</v>
       </c>
@@ -4897,7 +5022,7 @@
       <c r="D137" s="15"/>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="20"/>
+      <c r="A138" s="21"/>
       <c r="B138" t="s">
         <v>202</v>
       </c>
@@ -4907,7 +5032,7 @@
       <c r="D138" s="15"/>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="20"/>
+      <c r="A139" s="21"/>
       <c r="B139" t="s">
         <v>203</v>
       </c>
@@ -4917,7 +5042,7 @@
       <c r="D139" s="15"/>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="20"/>
+      <c r="A140" s="21"/>
       <c r="B140" t="s">
         <v>204</v>
       </c>
@@ -4927,7 +5052,7 @@
       <c r="D140" s="15"/>
     </row>
     <row r="141" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A141" s="20" t="s">
+      <c r="A141" s="21" t="s">
         <v>205</v>
       </c>
       <c r="B141" t="s">
@@ -4939,7 +5064,7 @@
       <c r="D141" s="15"/>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="20"/>
+      <c r="A142" s="21"/>
       <c r="B142" t="s">
         <v>207</v>
       </c>
@@ -4949,7 +5074,7 @@
       <c r="D142" s="15"/>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="20"/>
+      <c r="A143" s="21"/>
       <c r="B143" t="s">
         <v>208</v>
       </c>
@@ -4959,7 +5084,7 @@
       <c r="D143" s="15"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="20"/>
+      <c r="A144" s="21"/>
       <c r="B144" t="s">
         <v>209</v>
       </c>
@@ -4969,7 +5094,7 @@
       <c r="D144" s="15"/>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="20"/>
+      <c r="A145" s="21"/>
       <c r="B145" t="s">
         <v>210</v>
       </c>
@@ -4979,7 +5104,7 @@
       <c r="D145" s="15"/>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="20"/>
+      <c r="A146" s="21"/>
       <c r="B146" t="s">
         <v>211</v>
       </c>
@@ -4989,7 +5114,7 @@
       <c r="D146" s="15"/>
     </row>
     <row r="147" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A147" s="20" t="s">
+      <c r="A147" s="21" t="s">
         <v>212</v>
       </c>
       <c r="B147" t="s">
@@ -5001,7 +5126,7 @@
       <c r="D147" s="15"/>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="20"/>
+      <c r="A148" s="21"/>
       <c r="B148" t="s">
         <v>214</v>
       </c>
@@ -5011,7 +5136,7 @@
       <c r="D148" s="15"/>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="20"/>
+      <c r="A149" s="21"/>
       <c r="B149" t="s">
         <v>215</v>
       </c>
@@ -5021,7 +5146,7 @@
       <c r="D149" s="15"/>
     </row>
     <row r="150" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A150" s="20" t="s">
+      <c r="A150" s="21" t="s">
         <v>216</v>
       </c>
       <c r="B150" t="s">
@@ -5033,7 +5158,7 @@
       <c r="D150" s="15"/>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="20"/>
+      <c r="A151" s="21"/>
       <c r="B151" t="s">
         <v>218</v>
       </c>
@@ -5043,7 +5168,7 @@
       <c r="D151" s="15"/>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="20"/>
+      <c r="A152" s="21"/>
       <c r="B152" t="s">
         <v>219</v>
       </c>
@@ -5053,7 +5178,7 @@
       <c r="D152" s="15"/>
     </row>
     <row r="153" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A153" s="20" t="s">
+      <c r="A153" s="21" t="s">
         <v>220</v>
       </c>
       <c r="B153" t="s">
@@ -5065,7 +5190,7 @@
       <c r="D153" s="15"/>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="20"/>
+      <c r="A154" s="21"/>
       <c r="B154" t="s">
         <v>222</v>
       </c>
@@ -5075,7 +5200,7 @@
       <c r="D154" s="15"/>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="20"/>
+      <c r="A155" s="21"/>
       <c r="B155" t="s">
         <v>223</v>
       </c>
@@ -5085,7 +5210,7 @@
       <c r="D155" s="15"/>
     </row>
     <row r="156" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A156" s="20" t="s">
+      <c r="A156" s="21" t="s">
         <v>224</v>
       </c>
       <c r="B156" t="s">
@@ -5097,7 +5222,7 @@
       <c r="D156" s="15"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="20"/>
+      <c r="A157" s="21"/>
       <c r="B157" t="s">
         <v>226</v>
       </c>
@@ -5107,7 +5232,7 @@
       <c r="D157" s="15"/>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="20"/>
+      <c r="A158" s="21"/>
       <c r="B158" t="s">
         <v>227</v>
       </c>
@@ -5117,7 +5242,7 @@
       <c r="D158" s="15"/>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="20"/>
+      <c r="A159" s="21"/>
       <c r="B159" t="s">
         <v>228</v>
       </c>
@@ -5127,7 +5252,7 @@
       <c r="D159" s="15"/>
     </row>
     <row r="160" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A160" s="20" t="s">
+      <c r="A160" s="21" t="s">
         <v>229</v>
       </c>
       <c r="B160" t="s">
@@ -5139,7 +5264,7 @@
       <c r="D160" s="15"/>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="20"/>
+      <c r="A161" s="21"/>
       <c r="B161" t="s">
         <v>231</v>
       </c>
@@ -5149,7 +5274,7 @@
       <c r="D161" s="15"/>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="20"/>
+      <c r="A162" s="21"/>
       <c r="B162" t="s">
         <v>232</v>
       </c>
@@ -5159,7 +5284,7 @@
       <c r="D162" s="15"/>
     </row>
     <row r="163" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A163" s="20" t="s">
+      <c r="A163" s="21" t="s">
         <v>233</v>
       </c>
       <c r="B163" t="s">
@@ -5171,7 +5296,7 @@
       <c r="D163" s="15"/>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="20"/>
+      <c r="A164" s="21"/>
       <c r="B164" t="s">
         <v>235</v>
       </c>
@@ -5181,7 +5306,7 @@
       <c r="D164" s="15"/>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="20"/>
+      <c r="A165" s="21"/>
       <c r="B165" t="s">
         <v>236</v>
       </c>
@@ -5191,7 +5316,7 @@
       <c r="D165" s="15"/>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="20"/>
+      <c r="A166" s="21"/>
       <c r="B166" t="s">
         <v>237</v>
       </c>
@@ -5201,7 +5326,7 @@
       <c r="D166" s="15"/>
     </row>
     <row r="167" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A167" s="20" t="s">
+      <c r="A167" s="21" t="s">
         <v>238</v>
       </c>
       <c r="B167" t="s">
@@ -5213,7 +5338,7 @@
       <c r="D167" s="15"/>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="20"/>
+      <c r="A168" s="21"/>
       <c r="B168" t="s">
         <v>240</v>
       </c>
@@ -5223,7 +5348,7 @@
       <c r="D168" s="15"/>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="20"/>
+      <c r="A169" s="21"/>
       <c r="B169" t="s">
         <v>241</v>
       </c>
@@ -5233,7 +5358,7 @@
       <c r="D169" s="15"/>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="20"/>
+      <c r="A170" s="21"/>
       <c r="B170" t="s">
         <v>242</v>
       </c>
@@ -5243,7 +5368,7 @@
       <c r="D170" s="15"/>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="20"/>
+      <c r="A171" s="21"/>
       <c r="B171" t="s">
         <v>243</v>
       </c>
@@ -5253,7 +5378,7 @@
       <c r="D171" s="15"/>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="20"/>
+      <c r="A172" s="21"/>
       <c r="B172" t="s">
         <v>169</v>
       </c>
@@ -5263,7 +5388,7 @@
       <c r="D172" s="15"/>
     </row>
     <row r="173" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A173" s="20" t="s">
+      <c r="A173" s="21" t="s">
         <v>244</v>
       </c>
       <c r="B173" t="s">
@@ -5275,7 +5400,7 @@
       <c r="D173" s="15"/>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="20"/>
+      <c r="A174" s="21"/>
       <c r="B174" t="s">
         <v>246</v>
       </c>
@@ -5285,7 +5410,7 @@
       <c r="D174" s="15"/>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="20"/>
+      <c r="A175" s="21"/>
       <c r="B175" t="s">
         <v>247</v>
       </c>
@@ -5295,7 +5420,7 @@
       <c r="D175" s="15"/>
     </row>
     <row r="176" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A176" s="20" t="s">
+      <c r="A176" s="21" t="s">
         <v>248</v>
       </c>
       <c r="B176" t="s">
@@ -5307,7 +5432,7 @@
       <c r="D176" s="15"/>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="20"/>
+      <c r="A177" s="21"/>
       <c r="B177" t="s">
         <v>250</v>
       </c>
@@ -5317,7 +5442,7 @@
       <c r="D177" s="15"/>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="20"/>
+      <c r="A178" s="21"/>
       <c r="B178" t="s">
         <v>251</v>
       </c>
@@ -5327,7 +5452,7 @@
       <c r="D178" s="15"/>
     </row>
     <row r="179" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A179" s="20" t="s">
+      <c r="A179" s="21" t="s">
         <v>252</v>
       </c>
       <c r="B179" t="s">
@@ -5339,7 +5464,7 @@
       <c r="D179" s="15"/>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="20"/>
+      <c r="A180" s="21"/>
       <c r="B180" t="s">
         <v>254</v>
       </c>
@@ -5349,7 +5474,7 @@
       <c r="D180" s="15"/>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="20"/>
+      <c r="A181" s="21"/>
       <c r="B181" t="s">
         <v>255</v>
       </c>
@@ -5359,7 +5484,7 @@
       <c r="D181" s="15"/>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="20"/>
+      <c r="A182" s="21"/>
       <c r="B182" t="s">
         <v>256</v>
       </c>
@@ -5369,7 +5494,7 @@
       <c r="D182" s="15"/>
     </row>
     <row r="183" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A183" s="20" t="s">
+      <c r="A183" s="21" t="s">
         <v>257</v>
       </c>
       <c r="B183" t="s">
@@ -5381,7 +5506,7 @@
       <c r="D183" s="15"/>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="20"/>
+      <c r="A184" s="21"/>
       <c r="B184" t="s">
         <v>259</v>
       </c>
@@ -5391,7 +5516,7 @@
       <c r="D184" s="15"/>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="20"/>
+      <c r="A185" s="21"/>
       <c r="B185" t="s">
         <v>260</v>
       </c>
@@ -5401,7 +5526,7 @@
       <c r="D185" s="15"/>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="20"/>
+      <c r="A186" s="21"/>
       <c r="B186" t="s">
         <v>261</v>
       </c>
@@ -5411,7 +5536,7 @@
       <c r="D186" s="15"/>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="20"/>
+      <c r="A187" s="21"/>
       <c r="B187" t="s">
         <v>262</v>
       </c>
@@ -5421,7 +5546,7 @@
       <c r="D187" s="15"/>
     </row>
     <row r="188" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A188" s="20" t="s">
+      <c r="A188" s="21" t="s">
         <v>263</v>
       </c>
       <c r="B188" t="s">
@@ -5433,7 +5558,7 @@
       <c r="D188" s="15"/>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="20"/>
+      <c r="A189" s="21"/>
       <c r="B189" t="s">
         <v>265</v>
       </c>
@@ -5443,7 +5568,7 @@
       <c r="D189" s="15"/>
     </row>
     <row r="190" spans="1:4">
-      <c r="A190" s="20"/>
+      <c r="A190" s="21"/>
       <c r="B190" t="s">
         <v>266</v>
       </c>
@@ -5453,7 +5578,7 @@
       <c r="D190" s="15"/>
     </row>
     <row r="191" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A191" s="20" t="s">
+      <c r="A191" s="21" t="s">
         <v>267</v>
       </c>
       <c r="B191" t="s">
@@ -5465,7 +5590,7 @@
       <c r="D191" s="15"/>
     </row>
     <row r="192" spans="1:4">
-      <c r="A192" s="20"/>
+      <c r="A192" s="21"/>
       <c r="B192" t="s">
         <v>269</v>
       </c>
@@ -5475,7 +5600,7 @@
       <c r="D192" s="15"/>
     </row>
     <row r="193" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A193" s="20" t="s">
+      <c r="A193" s="21" t="s">
         <v>270</v>
       </c>
       <c r="B193" t="s">
@@ -5487,7 +5612,7 @@
       <c r="D193" s="15"/>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" s="20"/>
+      <c r="A194" s="21"/>
       <c r="B194" t="s">
         <v>272</v>
       </c>
@@ -5497,7 +5622,7 @@
       <c r="D194" s="15"/>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="20"/>
+      <c r="A195" s="21"/>
       <c r="B195" t="s">
         <v>273</v>
       </c>
@@ -5507,7 +5632,7 @@
       <c r="D195" s="15"/>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="20"/>
+      <c r="A196" s="21"/>
       <c r="B196" t="s">
         <v>274</v>
       </c>
@@ -5517,7 +5642,7 @@
       <c r="D196" s="15"/>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="20"/>
+      <c r="A197" s="21"/>
       <c r="B197" t="s">
         <v>275</v>
       </c>
@@ -5527,7 +5652,7 @@
       <c r="D197" s="15"/>
     </row>
     <row r="198" spans="1:4">
-      <c r="A198" s="20"/>
+      <c r="A198" s="21"/>
       <c r="B198" t="s">
         <v>276</v>
       </c>
@@ -5537,7 +5662,7 @@
       <c r="D198" s="15"/>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" s="20"/>
+      <c r="A199" s="21"/>
       <c r="B199" t="s">
         <v>277</v>
       </c>
@@ -5547,7 +5672,7 @@
       <c r="D199" s="15"/>
     </row>
     <row r="200" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A200" s="20" t="s">
+      <c r="A200" s="21" t="s">
         <v>278</v>
       </c>
       <c r="B200" t="s">
@@ -5559,7 +5684,7 @@
       <c r="D200" s="15"/>
     </row>
     <row r="201" spans="1:4">
-      <c r="A201" s="20"/>
+      <c r="A201" s="21"/>
       <c r="B201" t="s">
         <v>280</v>
       </c>
@@ -5569,7 +5694,7 @@
       <c r="D201" s="15"/>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="20"/>
+      <c r="A202" s="21"/>
       <c r="B202" t="s">
         <v>281</v>
       </c>
@@ -5579,7 +5704,7 @@
       <c r="D202" s="15"/>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="20"/>
+      <c r="A203" s="21"/>
       <c r="B203" t="s">
         <v>282</v>
       </c>
@@ -5589,7 +5714,7 @@
       <c r="D203" s="15"/>
     </row>
     <row r="204" spans="1:4">
-      <c r="A204" s="20"/>
+      <c r="A204" s="21"/>
       <c r="B204" t="s">
         <v>283</v>
       </c>
@@ -5599,7 +5724,7 @@
       <c r="D204" s="15"/>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" s="20"/>
+      <c r="A205" s="21"/>
       <c r="B205" t="s">
         <v>284</v>
       </c>
@@ -5609,7 +5734,7 @@
       <c r="D205" s="15"/>
     </row>
     <row r="206" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A206" s="20" t="s">
+      <c r="A206" s="21" t="s">
         <v>285</v>
       </c>
       <c r="B206" t="s">
@@ -5621,7 +5746,7 @@
       <c r="D206" s="15"/>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="20"/>
+      <c r="A207" s="21"/>
       <c r="B207" t="s">
         <v>287</v>
       </c>
@@ -5631,7 +5756,7 @@
       <c r="D207" s="15"/>
     </row>
     <row r="208" spans="1:4">
-      <c r="A208" s="20"/>
+      <c r="A208" s="21"/>
       <c r="B208" t="s">
         <v>288</v>
       </c>
@@ -5641,7 +5766,7 @@
       <c r="D208" s="15"/>
     </row>
     <row r="209" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A209" s="20" t="s">
+      <c r="A209" s="21" t="s">
         <v>289</v>
       </c>
       <c r="B209" t="s">
@@ -5653,7 +5778,7 @@
       <c r="D209" s="15"/>
     </row>
     <row r="210" spans="1:4">
-      <c r="A210" s="20"/>
+      <c r="A210" s="21"/>
       <c r="B210" t="s">
         <v>291</v>
       </c>
@@ -5663,7 +5788,7 @@
       <c r="D210" s="15"/>
     </row>
     <row r="211" spans="1:4">
-      <c r="A211" s="20"/>
+      <c r="A211" s="21"/>
       <c r="B211" t="s">
         <v>292</v>
       </c>
@@ -5673,7 +5798,7 @@
       <c r="D211" s="15"/>
     </row>
     <row r="212" spans="1:4">
-      <c r="A212" s="20"/>
+      <c r="A212" s="21"/>
       <c r="B212" t="s">
         <v>293</v>
       </c>
@@ -5683,7 +5808,7 @@
       <c r="D212" s="15"/>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="20"/>
+      <c r="A213" s="21"/>
       <c r="B213" t="s">
         <v>294</v>
       </c>
@@ -5693,7 +5818,7 @@
       <c r="D213" s="15"/>
     </row>
     <row r="214" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="21" t="s">
         <v>295</v>
       </c>
       <c r="B214" t="s">
@@ -5705,7 +5830,7 @@
       <c r="D214" s="15"/>
     </row>
     <row r="215" spans="1:4">
-      <c r="A215" s="20"/>
+      <c r="A215" s="21"/>
       <c r="B215" t="s">
         <v>297</v>
       </c>
@@ -5715,7 +5840,7 @@
       <c r="D215" s="15"/>
     </row>
     <row r="216" spans="1:4">
-      <c r="A216" s="20"/>
+      <c r="A216" s="21"/>
       <c r="B216" t="s">
         <v>298</v>
       </c>
@@ -5725,7 +5850,7 @@
       <c r="D216" s="15"/>
     </row>
     <row r="217" spans="1:4">
-      <c r="A217" s="20"/>
+      <c r="A217" s="21"/>
       <c r="B217" t="s">
         <v>299</v>
       </c>
@@ -5735,7 +5860,7 @@
       <c r="D217" s="15"/>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="20"/>
+      <c r="A218" s="21"/>
       <c r="B218" t="s">
         <v>300</v>
       </c>
@@ -5745,7 +5870,7 @@
       <c r="D218" s="15"/>
     </row>
     <row r="219" spans="1:4">
-      <c r="A219" s="20"/>
+      <c r="A219" s="21"/>
       <c r="B219" t="s">
         <v>301</v>
       </c>
@@ -5755,7 +5880,7 @@
       <c r="D219" s="15"/>
     </row>
     <row r="220" spans="1:4">
-      <c r="A220" s="20"/>
+      <c r="A220" s="21"/>
       <c r="B220" t="s">
         <v>302</v>
       </c>
@@ -5765,7 +5890,7 @@
       <c r="D220" s="15"/>
     </row>
     <row r="221" spans="1:4">
-      <c r="A221" s="20"/>
+      <c r="A221" s="21"/>
       <c r="B221" t="s">
         <v>303</v>
       </c>
@@ -5775,7 +5900,7 @@
       <c r="D221" s="15"/>
     </row>
     <row r="222" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A222" s="20" t="s">
+      <c r="A222" s="21" t="s">
         <v>304</v>
       </c>
       <c r="B222" t="s">
@@ -5787,7 +5912,7 @@
       <c r="D222" s="15"/>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="20"/>
+      <c r="A223" s="21"/>
       <c r="B223" t="s">
         <v>306</v>
       </c>
@@ -5797,7 +5922,7 @@
       <c r="D223" s="15"/>
     </row>
     <row r="224" spans="1:4">
-      <c r="A224" s="20"/>
+      <c r="A224" s="21"/>
       <c r="B224" t="s">
         <v>307</v>
       </c>
@@ -5807,7 +5932,7 @@
       <c r="D224" s="15"/>
     </row>
     <row r="225" spans="1:4">
-      <c r="A225" s="20"/>
+      <c r="A225" s="21"/>
       <c r="B225" t="s">
         <v>308</v>
       </c>
@@ -5817,7 +5942,7 @@
       <c r="D225" s="15"/>
     </row>
     <row r="226" spans="1:4">
-      <c r="A226" s="20"/>
+      <c r="A226" s="21"/>
       <c r="B226" t="s">
         <v>309</v>
       </c>
@@ -5827,7 +5952,7 @@
       <c r="D226" s="15"/>
     </row>
     <row r="227" spans="1:4">
-      <c r="A227" s="20"/>
+      <c r="A227" s="21"/>
       <c r="B227" t="s">
         <v>310</v>
       </c>
@@ -5837,7 +5962,7 @@
       <c r="D227" s="15"/>
     </row>
     <row r="228" spans="1:4">
-      <c r="A228" s="20"/>
+      <c r="A228" s="21"/>
       <c r="B228" t="s">
         <v>311</v>
       </c>
@@ -5847,7 +5972,7 @@
       <c r="D228" s="15"/>
     </row>
     <row r="229" spans="1:4">
-      <c r="A229" s="20"/>
+      <c r="A229" s="21"/>
       <c r="B229" t="s">
         <v>312</v>
       </c>
@@ -5857,7 +5982,7 @@
       <c r="D229" s="15"/>
     </row>
     <row r="230" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A230" s="20" t="s">
+      <c r="A230" s="21" t="s">
         <v>313</v>
       </c>
       <c r="B230" t="s">
@@ -5869,7 +5994,7 @@
       <c r="D230" s="15"/>
     </row>
     <row r="231" spans="1:4">
-      <c r="A231" s="20"/>
+      <c r="A231" s="21"/>
       <c r="B231" t="s">
         <v>315</v>
       </c>
@@ -5879,7 +6004,7 @@
       <c r="D231" s="15"/>
     </row>
     <row r="232" spans="1:4">
-      <c r="A232" s="20"/>
+      <c r="A232" s="21"/>
       <c r="B232" t="s">
         <v>316</v>
       </c>
@@ -5889,7 +6014,7 @@
       <c r="D232" s="15"/>
     </row>
     <row r="233" spans="1:4">
-      <c r="A233" s="20"/>
+      <c r="A233" s="21"/>
       <c r="B233" t="s">
         <v>317</v>
       </c>
@@ -5899,7 +6024,7 @@
       <c r="D233" s="15"/>
     </row>
     <row r="234" spans="1:4">
-      <c r="A234" s="20"/>
+      <c r="A234" s="21"/>
       <c r="B234" t="s">
         <v>318</v>
       </c>
@@ -5909,7 +6034,7 @@
       <c r="D234" s="15"/>
     </row>
     <row r="235" spans="1:4">
-      <c r="A235" s="20"/>
+      <c r="A235" s="21"/>
       <c r="B235" t="s">
         <v>319</v>
       </c>
@@ -5919,7 +6044,7 @@
       <c r="D235" s="15"/>
     </row>
     <row r="236" spans="1:4">
-      <c r="A236" s="20"/>
+      <c r="A236" s="21"/>
       <c r="B236" t="s">
         <v>320</v>
       </c>
@@ -5929,7 +6054,7 @@
       <c r="D236" s="15"/>
     </row>
     <row r="237" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A237" s="20" t="s">
+      <c r="A237" s="21" t="s">
         <v>321</v>
       </c>
       <c r="B237" t="s">
@@ -5941,7 +6066,7 @@
       <c r="D237" s="15"/>
     </row>
     <row r="238" spans="1:4">
-      <c r="A238" s="20"/>
+      <c r="A238" s="21"/>
       <c r="B238" t="s">
         <v>323</v>
       </c>
@@ -5951,7 +6076,7 @@
       <c r="D238" s="15"/>
     </row>
     <row r="239" spans="1:4">
-      <c r="A239" s="20"/>
+      <c r="A239" s="21"/>
       <c r="B239" t="s">
         <v>324</v>
       </c>
@@ -5961,7 +6086,7 @@
       <c r="D239" s="15"/>
     </row>
     <row r="240" spans="1:4">
-      <c r="A240" s="20"/>
+      <c r="A240" s="21"/>
       <c r="B240" t="s">
         <v>325</v>
       </c>
@@ -5971,7 +6096,7 @@
       <c r="D240" s="15"/>
     </row>
     <row r="241" spans="1:4">
-      <c r="A241" s="20"/>
+      <c r="A241" s="21"/>
       <c r="B241" t="s">
         <v>326</v>
       </c>
@@ -5981,7 +6106,7 @@
       <c r="D241" s="15"/>
     </row>
     <row r="242" spans="1:4">
-      <c r="A242" s="20"/>
+      <c r="A242" s="21"/>
       <c r="B242" t="s">
         <v>327</v>
       </c>
@@ -5991,7 +6116,7 @@
       <c r="D242" s="15"/>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="20"/>
+      <c r="A243" s="21"/>
       <c r="B243" t="s">
         <v>328</v>
       </c>
@@ -6001,7 +6126,7 @@
       <c r="D243" s="15"/>
     </row>
     <row r="244" spans="1:4">
-      <c r="A244" s="20"/>
+      <c r="A244" s="21"/>
       <c r="B244" t="s">
         <v>329</v>
       </c>
@@ -6011,7 +6136,7 @@
       <c r="D244" s="15"/>
     </row>
     <row r="245" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A245" s="20" t="s">
+      <c r="A245" s="21" t="s">
         <v>330</v>
       </c>
       <c r="B245" t="s">
@@ -6023,7 +6148,7 @@
       <c r="D245" s="15"/>
     </row>
     <row r="246" spans="1:4">
-      <c r="A246" s="20"/>
+      <c r="A246" s="21"/>
       <c r="B246" t="s">
         <v>332</v>
       </c>
@@ -6033,7 +6158,7 @@
       <c r="D246" s="15"/>
     </row>
     <row r="247" spans="1:4">
-      <c r="A247" s="20"/>
+      <c r="A247" s="21"/>
       <c r="B247" t="s">
         <v>333</v>
       </c>
@@ -6043,7 +6168,7 @@
       <c r="D247" s="15"/>
     </row>
     <row r="248" spans="1:4">
-      <c r="A248" s="20"/>
+      <c r="A248" s="21"/>
       <c r="B248" t="s">
         <v>334</v>
       </c>
@@ -6053,7 +6178,7 @@
       <c r="D248" s="15"/>
     </row>
     <row r="249" spans="1:4">
-      <c r="A249" s="20"/>
+      <c r="A249" s="21"/>
       <c r="B249" t="s">
         <v>335</v>
       </c>
@@ -6063,7 +6188,7 @@
       <c r="D249" s="15"/>
     </row>
     <row r="250" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A250" s="20" t="s">
+      <c r="A250" s="21" t="s">
         <v>336</v>
       </c>
       <c r="B250" t="s">
@@ -6075,7 +6200,7 @@
       <c r="D250" s="15"/>
     </row>
     <row r="251" spans="1:4">
-      <c r="A251" s="20"/>
+      <c r="A251" s="21"/>
       <c r="B251" t="s">
         <v>338</v>
       </c>
@@ -6085,7 +6210,7 @@
       <c r="D251" s="15"/>
     </row>
     <row r="252" spans="1:4">
-      <c r="A252" s="20"/>
+      <c r="A252" s="21"/>
       <c r="B252" t="s">
         <v>339</v>
       </c>
@@ -6095,7 +6220,7 @@
       <c r="D252" s="15"/>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="20"/>
+      <c r="A253" s="21"/>
       <c r="B253" t="s">
         <v>340</v>
       </c>
@@ -6105,7 +6230,7 @@
       <c r="D253" s="15"/>
     </row>
     <row r="254" spans="1:4">
-      <c r="A254" s="20"/>
+      <c r="A254" s="21"/>
       <c r="B254" t="s">
         <v>341</v>
       </c>
@@ -6115,7 +6240,7 @@
       <c r="D254" s="15"/>
     </row>
     <row r="255" spans="1:4">
-      <c r="A255" s="20"/>
+      <c r="A255" s="21"/>
       <c r="B255" t="s">
         <v>342</v>
       </c>
@@ -6125,7 +6250,7 @@
       <c r="D255" s="15"/>
     </row>
     <row r="256" spans="1:4">
-      <c r="A256" s="20"/>
+      <c r="A256" s="21"/>
       <c r="B256" t="s">
         <v>343</v>
       </c>
@@ -6135,7 +6260,7 @@
       <c r="D256" s="15"/>
     </row>
     <row r="257" spans="1:4">
-      <c r="A257" s="20"/>
+      <c r="A257" s="21"/>
       <c r="B257" t="s">
         <v>344</v>
       </c>
@@ -6145,7 +6270,7 @@
       <c r="D257" s="15"/>
     </row>
     <row r="258" spans="1:4">
-      <c r="A258" s="20"/>
+      <c r="A258" s="21"/>
       <c r="B258" t="s">
         <v>345</v>
       </c>
@@ -6155,7 +6280,7 @@
       <c r="D258" s="15"/>
     </row>
     <row r="259" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A259" s="20" t="s">
+      <c r="A259" s="21" t="s">
         <v>346</v>
       </c>
       <c r="B259" t="s">
@@ -6167,7 +6292,7 @@
       <c r="D259" s="15"/>
     </row>
     <row r="260" spans="1:4">
-      <c r="A260" s="20"/>
+      <c r="A260" s="21"/>
       <c r="B260" t="s">
         <v>348</v>
       </c>
@@ -6177,7 +6302,7 @@
       <c r="D260" s="15"/>
     </row>
     <row r="261" spans="1:4">
-      <c r="A261" s="20"/>
+      <c r="A261" s="21"/>
       <c r="B261" t="s">
         <v>349</v>
       </c>
@@ -6187,7 +6312,7 @@
       <c r="D261" s="15"/>
     </row>
     <row r="262" spans="1:4">
-      <c r="A262" s="20"/>
+      <c r="A262" s="21"/>
       <c r="B262" t="s">
         <v>350</v>
       </c>
@@ -6197,7 +6322,7 @@
       <c r="D262" s="15"/>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="20"/>
+      <c r="A263" s="21"/>
       <c r="B263" t="s">
         <v>351</v>
       </c>
@@ -6207,7 +6332,7 @@
       <c r="D263" s="15"/>
     </row>
     <row r="264" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A264" s="20" t="s">
+      <c r="A264" s="21" t="s">
         <v>352</v>
       </c>
       <c r="B264" t="s">
@@ -6219,7 +6344,7 @@
       <c r="D264" s="15"/>
     </row>
     <row r="265" spans="1:4">
-      <c r="A265" s="20"/>
+      <c r="A265" s="21"/>
       <c r="B265" t="s">
         <v>354</v>
       </c>
@@ -6229,7 +6354,7 @@
       <c r="D265" s="15"/>
     </row>
     <row r="266" spans="1:4">
-      <c r="A266" s="20"/>
+      <c r="A266" s="21"/>
       <c r="B266" t="s">
         <v>355</v>
       </c>
@@ -6239,7 +6364,7 @@
       <c r="D266" s="15"/>
     </row>
     <row r="267" spans="1:4">
-      <c r="A267" s="20"/>
+      <c r="A267" s="21"/>
       <c r="B267" t="s">
         <v>356</v>
       </c>
@@ -6249,7 +6374,7 @@
       <c r="D267" s="15"/>
     </row>
     <row r="268" spans="1:4">
-      <c r="A268" s="20"/>
+      <c r="A268" s="21"/>
       <c r="B268" t="s">
         <v>357</v>
       </c>
@@ -6259,7 +6384,7 @@
       <c r="D268" s="15"/>
     </row>
     <row r="269" spans="1:4">
-      <c r="A269" s="20"/>
+      <c r="A269" s="21"/>
       <c r="B269" t="s">
         <v>358</v>
       </c>
@@ -6269,7 +6394,7 @@
       <c r="D269" s="15"/>
     </row>
     <row r="270" spans="1:4">
-      <c r="A270" s="20"/>
+      <c r="A270" s="21"/>
       <c r="B270" t="s">
         <v>359</v>
       </c>
@@ -6279,7 +6404,7 @@
       <c r="D270" s="15"/>
     </row>
     <row r="271" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A271" s="20" t="s">
+      <c r="A271" s="21" t="s">
         <v>360</v>
       </c>
       <c r="B271" t="s">
@@ -6291,7 +6416,7 @@
       <c r="D271" s="15"/>
     </row>
     <row r="272" spans="1:4">
-      <c r="A272" s="20"/>
+      <c r="A272" s="21"/>
       <c r="B272" t="s">
         <v>362</v>
       </c>
@@ -6301,7 +6426,7 @@
       <c r="D272" s="15"/>
     </row>
     <row r="273" spans="1:4">
-      <c r="A273" s="20"/>
+      <c r="A273" s="21"/>
       <c r="B273" t="s">
         <v>363</v>
       </c>
@@ -6311,7 +6436,7 @@
       <c r="D273" s="15"/>
     </row>
     <row r="274" spans="1:4">
-      <c r="A274" s="20"/>
+      <c r="A274" s="21"/>
       <c r="B274" t="s">
         <v>364</v>
       </c>
@@ -6321,7 +6446,7 @@
       <c r="D274" s="15"/>
     </row>
     <row r="275" spans="1:4">
-      <c r="A275" s="20"/>
+      <c r="A275" s="21"/>
       <c r="B275" t="s">
         <v>365</v>
       </c>
@@ -6331,7 +6456,7 @@
       <c r="D275" s="15"/>
     </row>
     <row r="276" spans="1:4">
-      <c r="A276" s="20"/>
+      <c r="A276" s="21"/>
       <c r="B276" t="s">
         <v>366</v>
       </c>
@@ -6341,7 +6466,7 @@
       <c r="D276" s="15"/>
     </row>
     <row r="277" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A277" s="20" t="s">
+      <c r="A277" s="21" t="s">
         <v>367</v>
       </c>
       <c r="B277" t="s">
@@ -6353,7 +6478,7 @@
       <c r="D277" s="15"/>
     </row>
     <row r="278" spans="1:4">
-      <c r="A278" s="20"/>
+      <c r="A278" s="21"/>
       <c r="B278" t="s">
         <v>369</v>
       </c>
@@ -6363,7 +6488,7 @@
       <c r="D278" s="15"/>
     </row>
     <row r="279" spans="1:4">
-      <c r="A279" s="20"/>
+      <c r="A279" s="21"/>
       <c r="B279" t="s">
         <v>370</v>
       </c>
@@ -6373,7 +6498,7 @@
       <c r="D279" s="15"/>
     </row>
     <row r="280" spans="1:4">
-      <c r="A280" s="20"/>
+      <c r="A280" s="21"/>
       <c r="B280" t="s">
         <v>371</v>
       </c>
@@ -6383,7 +6508,7 @@
       <c r="D280" s="15"/>
     </row>
     <row r="281" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A281" s="20" t="s">
+      <c r="A281" s="21" t="s">
         <v>372</v>
       </c>
       <c r="B281" t="s">
@@ -6395,7 +6520,7 @@
       <c r="D281" s="15"/>
     </row>
     <row r="282" spans="1:4">
-      <c r="A282" s="20"/>
+      <c r="A282" s="21"/>
       <c r="B282" t="s">
         <v>374</v>
       </c>
@@ -6405,7 +6530,7 @@
       <c r="D282" s="15"/>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="20"/>
+      <c r="A283" s="21"/>
       <c r="B283" t="s">
         <v>375</v>
       </c>
@@ -6415,7 +6540,7 @@
       <c r="D283" s="15"/>
     </row>
     <row r="284" spans="1:4">
-      <c r="A284" s="20"/>
+      <c r="A284" s="21"/>
       <c r="B284" t="s">
         <v>376</v>
       </c>
@@ -6425,7 +6550,7 @@
       <c r="D284" s="15"/>
     </row>
     <row r="285" spans="1:4">
-      <c r="A285" s="20"/>
+      <c r="A285" s="21"/>
       <c r="B285" t="s">
         <v>377</v>
       </c>
@@ -6435,7 +6560,7 @@
       <c r="D285" s="15"/>
     </row>
     <row r="286" spans="1:4">
-      <c r="A286" s="20"/>
+      <c r="A286" s="21"/>
       <c r="B286" t="s">
         <v>378</v>
       </c>
@@ -6445,7 +6570,7 @@
       <c r="D286" s="15"/>
     </row>
     <row r="287" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A287" s="20" t="s">
+      <c r="A287" s="21" t="s">
         <v>379</v>
       </c>
       <c r="B287" t="s">
@@ -6457,7 +6582,7 @@
       <c r="D287" s="15"/>
     </row>
     <row r="288" spans="1:4">
-      <c r="A288" s="20"/>
+      <c r="A288" s="21"/>
       <c r="B288" t="s">
         <v>381</v>
       </c>
@@ -6467,7 +6592,7 @@
       <c r="D288" s="15"/>
     </row>
     <row r="289" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A289" s="20" t="s">
+      <c r="A289" s="21" t="s">
         <v>382</v>
       </c>
       <c r="B289" t="s">
@@ -6479,7 +6604,7 @@
       <c r="D289" s="15"/>
     </row>
     <row r="290" spans="1:4">
-      <c r="A290" s="20"/>
+      <c r="A290" s="21"/>
       <c r="B290" t="s">
         <v>384</v>
       </c>
@@ -6489,7 +6614,7 @@
       <c r="D290" s="15"/>
     </row>
     <row r="291" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A291" s="20" t="s">
+      <c r="A291" s="21" t="s">
         <v>385</v>
       </c>
       <c r="B291" t="s">
@@ -6501,7 +6626,7 @@
       <c r="D291" s="15"/>
     </row>
     <row r="292" spans="1:4">
-      <c r="A292" s="20"/>
+      <c r="A292" s="21"/>
       <c r="B292" t="s">
         <v>387</v>
       </c>
@@ -6511,7 +6636,7 @@
       <c r="D292" s="15"/>
     </row>
     <row r="293" spans="1:4">
-      <c r="A293" s="20"/>
+      <c r="A293" s="21"/>
       <c r="B293" t="s">
         <v>388</v>
       </c>
@@ -6521,7 +6646,7 @@
       <c r="D293" s="15"/>
     </row>
     <row r="294" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A294" s="20" t="s">
+      <c r="A294" s="21" t="s">
         <v>389</v>
       </c>
       <c r="B294" t="s">
@@ -6533,7 +6658,7 @@
       <c r="D294" s="15"/>
     </row>
     <row r="295" spans="1:4">
-      <c r="A295" s="20"/>
+      <c r="A295" s="21"/>
       <c r="B295" t="s">
         <v>391</v>
       </c>
@@ -6543,7 +6668,7 @@
       <c r="D295" s="15"/>
     </row>
     <row r="296" spans="1:4">
-      <c r="A296" s="20"/>
+      <c r="A296" s="21"/>
       <c r="B296" t="s">
         <v>392</v>
       </c>
@@ -6553,7 +6678,7 @@
       <c r="D296" s="15"/>
     </row>
     <row r="297" spans="1:4">
-      <c r="A297" s="20"/>
+      <c r="A297" s="21"/>
       <c r="B297" t="s">
         <v>393</v>
       </c>
@@ -6563,7 +6688,7 @@
       <c r="D297" s="15"/>
     </row>
     <row r="298" spans="1:4">
-      <c r="A298" s="20"/>
+      <c r="A298" s="21"/>
       <c r="B298" t="s">
         <v>394</v>
       </c>
@@ -6573,7 +6698,7 @@
       <c r="D298" s="15"/>
     </row>
     <row r="299" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A299" s="20" t="s">
+      <c r="A299" s="21" t="s">
         <v>395</v>
       </c>
       <c r="B299" t="s">
@@ -6585,7 +6710,7 @@
       <c r="D299" s="15"/>
     </row>
     <row r="300" spans="1:4">
-      <c r="A300" s="20"/>
+      <c r="A300" s="21"/>
       <c r="B300" t="s">
         <v>397</v>
       </c>
@@ -6595,7 +6720,7 @@
       <c r="D300" s="15"/>
     </row>
     <row r="301" spans="1:4">
-      <c r="A301" s="20"/>
+      <c r="A301" s="21"/>
       <c r="B301" t="s">
         <v>398</v>
       </c>
@@ -6605,7 +6730,7 @@
       <c r="D301" s="15"/>
     </row>
     <row r="302" spans="1:4">
-      <c r="A302" s="20"/>
+      <c r="A302" s="21"/>
       <c r="B302" t="s">
         <v>399</v>
       </c>
@@ -6615,7 +6740,7 @@
       <c r="D302" s="15"/>
     </row>
     <row r="303" spans="1:4">
-      <c r="A303" s="20"/>
+      <c r="A303" s="21"/>
       <c r="B303" t="s">
         <v>400</v>
       </c>
@@ -6625,7 +6750,7 @@
       <c r="D303" s="15"/>
     </row>
     <row r="304" spans="1:4">
-      <c r="A304" s="20"/>
+      <c r="A304" s="21"/>
       <c r="B304" t="s">
         <v>401</v>
       </c>
@@ -6635,7 +6760,7 @@
       <c r="D304" s="15"/>
     </row>
     <row r="305" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A305" s="20" t="s">
+      <c r="A305" s="21" t="s">
         <v>402</v>
       </c>
       <c r="B305" t="s">
@@ -6647,7 +6772,7 @@
       <c r="D305" s="15"/>
     </row>
     <row r="306" spans="1:4">
-      <c r="A306" s="20"/>
+      <c r="A306" s="21"/>
       <c r="B306" t="s">
         <v>404</v>
       </c>
@@ -6657,7 +6782,7 @@
       <c r="D306" s="15"/>
     </row>
     <row r="307" spans="1:4">
-      <c r="A307" s="20"/>
+      <c r="A307" s="21"/>
       <c r="B307" t="s">
         <v>405</v>
       </c>
@@ -6667,7 +6792,7 @@
       <c r="D307" s="15"/>
     </row>
     <row r="308" spans="1:4">
-      <c r="A308" s="20"/>
+      <c r="A308" s="21"/>
       <c r="B308" t="s">
         <v>406</v>
       </c>
@@ -6677,7 +6802,7 @@
       <c r="D308" s="15"/>
     </row>
     <row r="309" spans="1:4">
-      <c r="A309" s="20"/>
+      <c r="A309" s="21"/>
       <c r="B309" t="s">
         <v>407</v>
       </c>
@@ -6687,7 +6812,7 @@
       <c r="D309" s="15"/>
     </row>
     <row r="310" spans="1:4">
-      <c r="A310" s="20"/>
+      <c r="A310" s="21"/>
       <c r="B310" t="s">
         <v>408</v>
       </c>
@@ -6697,7 +6822,7 @@
       <c r="D310" s="15"/>
     </row>
     <row r="311" spans="1:4">
-      <c r="A311" s="20"/>
+      <c r="A311" s="21"/>
       <c r="B311" t="s">
         <v>409</v>
       </c>
@@ -6707,7 +6832,7 @@
       <c r="D311" s="15"/>
     </row>
     <row r="312" spans="1:4">
-      <c r="A312" s="20"/>
+      <c r="A312" s="21"/>
       <c r="B312" t="s">
         <v>410</v>
       </c>
@@ -6717,7 +6842,7 @@
       <c r="D312" s="15"/>
     </row>
     <row r="313" spans="1:4">
-      <c r="A313" s="20"/>
+      <c r="A313" s="21"/>
       <c r="B313" t="s">
         <v>411</v>
       </c>
@@ -6727,7 +6852,7 @@
       <c r="D313" s="15"/>
     </row>
     <row r="314" spans="1:4">
-      <c r="A314" s="20"/>
+      <c r="A314" s="21"/>
       <c r="B314" t="s">
         <v>412</v>
       </c>
@@ -6737,7 +6862,7 @@
       <c r="D314" s="15"/>
     </row>
     <row r="315" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A315" s="20" t="s">
+      <c r="A315" s="21" t="s">
         <v>413</v>
       </c>
       <c r="B315" t="s">
@@ -6749,7 +6874,7 @@
       <c r="D315" s="15"/>
     </row>
     <row r="316" spans="1:4">
-      <c r="A316" s="20"/>
+      <c r="A316" s="21"/>
       <c r="B316" t="s">
         <v>415</v>
       </c>
@@ -6759,7 +6884,7 @@
       <c r="D316" s="15"/>
     </row>
     <row r="317" spans="1:4">
-      <c r="A317" s="20"/>
+      <c r="A317" s="21"/>
       <c r="B317" t="s">
         <v>416</v>
       </c>
@@ -6769,7 +6894,7 @@
       <c r="D317" s="15"/>
     </row>
     <row r="318" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A318" s="20" t="s">
+      <c r="A318" s="21" t="s">
         <v>417</v>
       </c>
       <c r="B318" t="s">
@@ -6781,7 +6906,7 @@
       <c r="D318" s="15"/>
     </row>
     <row r="319" spans="1:4">
-      <c r="A319" s="20"/>
+      <c r="A319" s="21"/>
       <c r="B319" t="s">
         <v>419</v>
       </c>
@@ -6791,7 +6916,7 @@
       <c r="D319" s="15"/>
     </row>
     <row r="320" spans="1:4">
-      <c r="A320" s="20"/>
+      <c r="A320" s="21"/>
       <c r="B320" t="s">
         <v>420</v>
       </c>
@@ -6801,7 +6926,7 @@
       <c r="D320" s="15"/>
     </row>
     <row r="321" spans="1:4">
-      <c r="A321" s="20"/>
+      <c r="A321" s="21"/>
       <c r="B321" t="s">
         <v>421</v>
       </c>
@@ -6811,7 +6936,7 @@
       <c r="D321" s="15"/>
     </row>
     <row r="322" spans="1:4">
-      <c r="A322" s="20"/>
+      <c r="A322" s="21"/>
       <c r="B322" t="s">
         <v>422</v>
       </c>
@@ -6821,7 +6946,7 @@
       <c r="D322" s="15"/>
     </row>
     <row r="323" spans="1:4">
-      <c r="A323" s="20"/>
+      <c r="A323" s="21"/>
       <c r="B323" t="s">
         <v>423</v>
       </c>
@@ -6831,7 +6956,7 @@
       <c r="D323" s="15"/>
     </row>
     <row r="324" spans="1:4">
-      <c r="A324" s="20"/>
+      <c r="A324" s="21"/>
       <c r="B324" t="s">
         <v>424</v>
       </c>
@@ -6841,7 +6966,7 @@
       <c r="D324" s="15"/>
     </row>
     <row r="325" spans="1:4">
-      <c r="A325" s="20"/>
+      <c r="A325" s="21"/>
       <c r="B325" t="s">
         <v>425</v>
       </c>
@@ -6851,7 +6976,7 @@
       <c r="D325" s="15"/>
     </row>
     <row r="326" spans="1:4">
-      <c r="A326" s="20"/>
+      <c r="A326" s="21"/>
       <c r="B326" t="s">
         <v>426</v>
       </c>
@@ -6861,7 +6986,7 @@
       <c r="D326" s="15"/>
     </row>
     <row r="327" spans="1:4">
-      <c r="A327" s="20"/>
+      <c r="A327" s="21"/>
       <c r="B327" t="s">
         <v>427</v>
       </c>
@@ -6871,7 +6996,7 @@
       <c r="D327" s="15"/>
     </row>
     <row r="328" spans="1:4">
-      <c r="A328" s="20"/>
+      <c r="A328" s="21"/>
       <c r="B328" t="s">
         <v>428</v>
       </c>
@@ -6881,7 +7006,7 @@
       <c r="D328" s="15"/>
     </row>
     <row r="329" spans="1:4">
-      <c r="A329" s="20"/>
+      <c r="A329" s="21"/>
       <c r="B329" t="s">
         <v>429</v>
       </c>
@@ -6891,7 +7016,7 @@
       <c r="D329" s="15"/>
     </row>
     <row r="330" spans="1:4">
-      <c r="A330" s="20"/>
+      <c r="A330" s="21"/>
       <c r="B330" t="s">
         <v>430</v>
       </c>
@@ -6901,7 +7026,7 @@
       <c r="D330" s="15"/>
     </row>
     <row r="331" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A331" s="20" t="s">
+      <c r="A331" s="21" t="s">
         <v>431</v>
       </c>
       <c r="B331" t="s">
@@ -6913,7 +7038,7 @@
       <c r="D331" s="15"/>
     </row>
     <row r="332" spans="1:4">
-      <c r="A332" s="20"/>
+      <c r="A332" s="21"/>
       <c r="B332" t="s">
         <v>433</v>
       </c>
@@ -6923,7 +7048,7 @@
       <c r="D332" s="15"/>
     </row>
     <row r="333" spans="1:4">
-      <c r="A333" s="20"/>
+      <c r="A333" s="21"/>
       <c r="B333" t="s">
         <v>434</v>
       </c>
@@ -6933,7 +7058,7 @@
       <c r="D333" s="15"/>
     </row>
     <row r="334" spans="1:4">
-      <c r="A334" s="20"/>
+      <c r="A334" s="21"/>
       <c r="B334" t="s">
         <v>435</v>
       </c>
@@ -6943,7 +7068,7 @@
       <c r="D334" s="15"/>
     </row>
     <row r="335" spans="1:4">
-      <c r="A335" s="20"/>
+      <c r="A335" s="21"/>
       <c r="B335" t="s">
         <v>436</v>
       </c>
@@ -6953,7 +7078,7 @@
       <c r="D335" s="15"/>
     </row>
     <row r="336" spans="1:4">
-      <c r="A336" s="20"/>
+      <c r="A336" s="21"/>
       <c r="B336" t="s">
         <v>437</v>
       </c>
@@ -6963,7 +7088,7 @@
       <c r="D336" s="15"/>
     </row>
     <row r="337" spans="1:4">
-      <c r="A337" s="20"/>
+      <c r="A337" s="21"/>
       <c r="B337" t="s">
         <v>438</v>
       </c>
@@ -6973,7 +7098,7 @@
       <c r="D337" s="15"/>
     </row>
     <row r="338" spans="1:4">
-      <c r="A338" s="20"/>
+      <c r="A338" s="21"/>
       <c r="B338" t="s">
         <v>439</v>
       </c>
@@ -6983,7 +7108,7 @@
       <c r="D338" s="15"/>
     </row>
     <row r="339" spans="1:4">
-      <c r="A339" s="20"/>
+      <c r="A339" s="21"/>
       <c r="B339" t="s">
         <v>440</v>
       </c>
@@ -6993,7 +7118,7 @@
       <c r="D339" s="15"/>
     </row>
     <row r="340" spans="1:4">
-      <c r="A340" s="20"/>
+      <c r="A340" s="21"/>
       <c r="B340" t="s">
         <v>441</v>
       </c>
@@ -7003,7 +7128,7 @@
       <c r="D340" s="15"/>
     </row>
     <row r="341" spans="1:4">
-      <c r="A341" s="20"/>
+      <c r="A341" s="21"/>
       <c r="B341" t="s">
         <v>442</v>
       </c>
@@ -7013,7 +7138,7 @@
       <c r="D341" s="15"/>
     </row>
     <row r="342" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A342" s="20" t="s">
+      <c r="A342" s="21" t="s">
         <v>443</v>
       </c>
       <c r="B342" t="s">
@@ -7025,7 +7150,7 @@
       <c r="D342" s="15"/>
     </row>
     <row r="343" spans="1:4">
-      <c r="A343" s="20"/>
+      <c r="A343" s="21"/>
       <c r="B343" t="s">
         <v>445</v>
       </c>
@@ -7035,7 +7160,7 @@
       <c r="D343" s="15"/>
     </row>
     <row r="344" spans="1:4" ht="33">
-      <c r="A344" s="20"/>
+      <c r="A344" s="21"/>
       <c r="B344" t="s">
         <v>446</v>
       </c>
@@ -7045,7 +7170,7 @@
       <c r="D344" s="15"/>
     </row>
     <row r="345" spans="1:4">
-      <c r="A345" s="20"/>
+      <c r="A345" s="21"/>
       <c r="B345" t="s">
         <v>447</v>
       </c>
@@ -7055,7 +7180,7 @@
       <c r="D345" s="15"/>
     </row>
     <row r="346" spans="1:4">
-      <c r="A346" s="20"/>
+      <c r="A346" s="21"/>
       <c r="B346" t="s">
         <v>448</v>
       </c>
@@ -7065,7 +7190,7 @@
       <c r="D346" s="15"/>
     </row>
     <row r="347" spans="1:4">
-      <c r="A347" s="20"/>
+      <c r="A347" s="21"/>
       <c r="B347" t="s">
         <v>449</v>
       </c>
@@ -7075,7 +7200,7 @@
       <c r="D347" s="15"/>
     </row>
     <row r="348" spans="1:4">
-      <c r="A348" s="20"/>
+      <c r="A348" s="21"/>
       <c r="B348" t="s">
         <v>450</v>
       </c>
@@ -7085,7 +7210,7 @@
       <c r="D348" s="15"/>
     </row>
     <row r="349" spans="1:4">
-      <c r="A349" s="20"/>
+      <c r="A349" s="21"/>
       <c r="B349" t="s">
         <v>451</v>
       </c>
@@ -7095,7 +7220,7 @@
       <c r="D349" s="15"/>
     </row>
     <row r="350" spans="1:4">
-      <c r="A350" s="20"/>
+      <c r="A350" s="21"/>
       <c r="B350" t="s">
         <v>452</v>
       </c>
@@ -7105,7 +7230,7 @@
       <c r="D350" s="15"/>
     </row>
     <row r="351" spans="1:4">
-      <c r="A351" s="20"/>
+      <c r="A351" s="21"/>
       <c r="B351" t="s">
         <v>453</v>
       </c>
@@ -7115,7 +7240,7 @@
       <c r="D351" s="15"/>
     </row>
     <row r="352" spans="1:4">
-      <c r="A352" s="20"/>
+      <c r="A352" s="21"/>
       <c r="B352" t="s">
         <v>454</v>
       </c>
@@ -7125,7 +7250,7 @@
       <c r="D352" s="15"/>
     </row>
     <row r="353" spans="1:4">
-      <c r="A353" s="20"/>
+      <c r="A353" s="21"/>
       <c r="B353" t="s">
         <v>455</v>
       </c>
@@ -7135,7 +7260,7 @@
       <c r="D353" s="15"/>
     </row>
     <row r="354" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A354" s="20" t="s">
+      <c r="A354" s="21" t="s">
         <v>456</v>
       </c>
       <c r="B354" t="s">
@@ -7147,7 +7272,7 @@
       <c r="D354" s="15"/>
     </row>
     <row r="355" spans="1:4">
-      <c r="A355" s="20"/>
+      <c r="A355" s="21"/>
       <c r="B355" t="s">
         <v>458</v>
       </c>
@@ -7157,7 +7282,7 @@
       <c r="D355" s="15"/>
     </row>
     <row r="356" spans="1:4">
-      <c r="A356" s="20"/>
+      <c r="A356" s="21"/>
       <c r="B356" t="s">
         <v>459</v>
       </c>
@@ -7167,7 +7292,7 @@
       <c r="D356" s="15"/>
     </row>
     <row r="357" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A357" s="20" t="s">
+      <c r="A357" s="21" t="s">
         <v>460</v>
       </c>
       <c r="B357" t="s">
@@ -7179,7 +7304,7 @@
       <c r="D357" s="15"/>
     </row>
     <row r="358" spans="1:4">
-      <c r="A358" s="20"/>
+      <c r="A358" s="21"/>
       <c r="B358" t="s">
         <v>462</v>
       </c>
@@ -7189,7 +7314,7 @@
       <c r="D358" s="15"/>
     </row>
     <row r="359" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A359" s="20" t="s">
+      <c r="A359" s="21" t="s">
         <v>463</v>
       </c>
       <c r="B359" t="s">
@@ -7201,7 +7326,7 @@
       <c r="D359" s="15"/>
     </row>
     <row r="360" spans="1:4">
-      <c r="A360" s="20"/>
+      <c r="A360" s="21"/>
       <c r="B360" t="s">
         <v>465</v>
       </c>
@@ -7211,7 +7336,7 @@
       <c r="D360" s="15"/>
     </row>
     <row r="361" spans="1:4">
-      <c r="A361" s="20"/>
+      <c r="A361" s="21"/>
       <c r="B361" t="s">
         <v>466</v>
       </c>
@@ -7221,7 +7346,7 @@
       <c r="D361" s="15"/>
     </row>
     <row r="362" spans="1:4">
-      <c r="A362" s="20"/>
+      <c r="A362" s="21"/>
       <c r="B362" t="s">
         <v>467</v>
       </c>
@@ -7231,7 +7356,7 @@
       <c r="D362" s="15"/>
     </row>
     <row r="363" spans="1:4">
-      <c r="A363" s="20"/>
+      <c r="A363" s="21"/>
       <c r="B363" t="s">
         <v>468</v>
       </c>
@@ -7241,7 +7366,7 @@
       <c r="D363" s="15"/>
     </row>
     <row r="364" spans="1:4">
-      <c r="A364" s="20"/>
+      <c r="A364" s="21"/>
       <c r="B364" t="s">
         <v>469</v>
       </c>
@@ -7251,7 +7376,7 @@
       <c r="D364" s="15"/>
     </row>
     <row r="365" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A365" s="20" t="s">
+      <c r="A365" s="21" t="s">
         <v>470</v>
       </c>
       <c r="B365" t="s">
@@ -7263,7 +7388,7 @@
       <c r="D365" s="15"/>
     </row>
     <row r="366" spans="1:4">
-      <c r="A366" s="20"/>
+      <c r="A366" s="21"/>
       <c r="B366" t="s">
         <v>472</v>
       </c>
@@ -7273,7 +7398,7 @@
       <c r="D366" s="15"/>
     </row>
     <row r="367" spans="1:4">
-      <c r="A367" s="20"/>
+      <c r="A367" s="21"/>
       <c r="B367" t="s">
         <v>473</v>
       </c>
@@ -7283,7 +7408,7 @@
       <c r="D367" s="15"/>
     </row>
     <row r="368" spans="1:4">
-      <c r="A368" s="20"/>
+      <c r="A368" s="21"/>
       <c r="B368" t="s">
         <v>474</v>
       </c>
@@ -7293,7 +7418,7 @@
       <c r="D368" s="15"/>
     </row>
     <row r="369" spans="1:4">
-      <c r="A369" s="20"/>
+      <c r="A369" s="21"/>
       <c r="B369" t="s">
         <v>475</v>
       </c>
@@ -7303,7 +7428,7 @@
       <c r="D369" s="15"/>
     </row>
     <row r="370" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A370" s="20" t="s">
+      <c r="A370" s="21" t="s">
         <v>476</v>
       </c>
       <c r="B370" t="s">
@@ -7315,7 +7440,7 @@
       <c r="D370" s="15"/>
     </row>
     <row r="371" spans="1:4">
-      <c r="A371" s="20"/>
+      <c r="A371" s="21"/>
       <c r="B371" t="s">
         <v>478</v>
       </c>
@@ -7325,7 +7450,7 @@
       <c r="D371" s="15"/>
     </row>
     <row r="372" spans="1:4">
-      <c r="A372" s="20"/>
+      <c r="A372" s="21"/>
       <c r="B372" t="s">
         <v>479</v>
       </c>
@@ -7335,7 +7460,7 @@
       <c r="D372" s="15"/>
     </row>
     <row r="373" spans="1:4">
-      <c r="A373" s="20"/>
+      <c r="A373" s="21"/>
       <c r="B373" t="s">
         <v>480</v>
       </c>
@@ -7345,7 +7470,7 @@
       <c r="D373" s="15"/>
     </row>
     <row r="374" spans="1:4">
-      <c r="A374" s="20"/>
+      <c r="A374" s="21"/>
       <c r="B374" t="s">
         <v>481</v>
       </c>
@@ -7355,7 +7480,7 @@
       <c r="D374" s="15"/>
     </row>
     <row r="375" spans="1:4">
-      <c r="A375" s="20"/>
+      <c r="A375" s="21"/>
       <c r="B375" t="s">
         <v>482</v>
       </c>
@@ -7365,7 +7490,7 @@
       <c r="D375" s="15"/>
     </row>
     <row r="376" spans="1:4">
-      <c r="A376" s="20"/>
+      <c r="A376" s="21"/>
       <c r="B376" t="s">
         <v>483</v>
       </c>
@@ -7375,7 +7500,7 @@
       <c r="D376" s="15"/>
     </row>
     <row r="377" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A377" s="20" t="s">
+      <c r="A377" s="21" t="s">
         <v>484</v>
       </c>
       <c r="B377" t="s">
@@ -7387,7 +7512,7 @@
       <c r="D377" s="15"/>
     </row>
     <row r="378" spans="1:4">
-      <c r="A378" s="20"/>
+      <c r="A378" s="21"/>
       <c r="B378" t="s">
         <v>486</v>
       </c>
@@ -7397,7 +7522,7 @@
       <c r="D378" s="15"/>
     </row>
     <row r="379" spans="1:4">
-      <c r="A379" s="20"/>
+      <c r="A379" s="21"/>
       <c r="B379" t="s">
         <v>487</v>
       </c>
@@ -7407,7 +7532,7 @@
       <c r="D379" s="15"/>
     </row>
     <row r="380" spans="1:4">
-      <c r="A380" s="20"/>
+      <c r="A380" s="21"/>
       <c r="B380" t="s">
         <v>488</v>
       </c>
@@ -7417,7 +7542,7 @@
       <c r="D380" s="15"/>
     </row>
     <row r="381" spans="1:4">
-      <c r="A381" s="20"/>
+      <c r="A381" s="21"/>
       <c r="B381" t="s">
         <v>489</v>
       </c>
@@ -7427,7 +7552,7 @@
       <c r="D381" s="15"/>
     </row>
     <row r="382" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A382" s="20" t="s">
+      <c r="A382" s="21" t="s">
         <v>490</v>
       </c>
       <c r="B382" t="s">
@@ -7439,7 +7564,7 @@
       <c r="D382" s="15"/>
     </row>
     <row r="383" spans="1:4">
-      <c r="A383" s="20"/>
+      <c r="A383" s="21"/>
       <c r="B383" t="s">
         <v>492</v>
       </c>
@@ -7449,7 +7574,7 @@
       <c r="D383" s="15"/>
     </row>
     <row r="384" spans="1:4">
-      <c r="A384" s="20"/>
+      <c r="A384" s="21"/>
       <c r="B384" t="s">
         <v>493</v>
       </c>
@@ -7459,7 +7584,7 @@
       <c r="D384" s="15"/>
     </row>
     <row r="385" spans="1:4">
-      <c r="A385" s="20"/>
+      <c r="A385" s="21"/>
       <c r="B385" t="s">
         <v>494</v>
       </c>
@@ -7469,7 +7594,7 @@
       <c r="D385" s="15"/>
     </row>
     <row r="386" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A386" s="20" t="s">
+      <c r="A386" s="21" t="s">
         <v>495</v>
       </c>
       <c r="B386" t="s">
@@ -7481,7 +7606,7 @@
       <c r="D386" s="15"/>
     </row>
     <row r="387" spans="1:4">
-      <c r="A387" s="20"/>
+      <c r="A387" s="21"/>
       <c r="B387" t="s">
         <v>497</v>
       </c>
@@ -7491,7 +7616,7 @@
       <c r="D387" s="15"/>
     </row>
     <row r="388" spans="1:4">
-      <c r="A388" s="20"/>
+      <c r="A388" s="21"/>
       <c r="B388" t="s">
         <v>498</v>
       </c>
@@ -7501,7 +7626,7 @@
       <c r="D388" s="15"/>
     </row>
     <row r="389" spans="1:4">
-      <c r="A389" s="20"/>
+      <c r="A389" s="21"/>
       <c r="B389" t="s">
         <v>499</v>
       </c>
@@ -7511,7 +7636,7 @@
       <c r="D389" s="15"/>
     </row>
     <row r="390" spans="1:4">
-      <c r="A390" s="20"/>
+      <c r="A390" s="21"/>
       <c r="B390" t="s">
         <v>500</v>
       </c>
@@ -7521,7 +7646,7 @@
       <c r="D390" s="15"/>
     </row>
     <row r="391" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A391" s="20" t="s">
+      <c r="A391" s="21" t="s">
         <v>501</v>
       </c>
       <c r="B391" t="s">
@@ -7533,7 +7658,7 @@
       <c r="D391" s="15"/>
     </row>
     <row r="392" spans="1:4">
-      <c r="A392" s="20"/>
+      <c r="A392" s="21"/>
       <c r="B392" t="s">
         <v>503</v>
       </c>
@@ -7543,7 +7668,7 @@
       <c r="D392" s="15"/>
     </row>
     <row r="393" spans="1:4">
-      <c r="A393" s="20"/>
+      <c r="A393" s="21"/>
       <c r="B393" t="s">
         <v>504</v>
       </c>
@@ -7553,7 +7678,7 @@
       <c r="D393" s="15"/>
     </row>
     <row r="394" spans="1:4">
-      <c r="A394" s="20"/>
+      <c r="A394" s="21"/>
       <c r="B394" t="s">
         <v>505</v>
       </c>
@@ -7563,7 +7688,7 @@
       <c r="D394" s="15"/>
     </row>
     <row r="395" spans="1:4">
-      <c r="A395" s="20"/>
+      <c r="A395" s="21"/>
       <c r="B395" t="s">
         <v>506</v>
       </c>
@@ -7573,7 +7698,7 @@
       <c r="D395" s="15"/>
     </row>
     <row r="396" spans="1:4">
-      <c r="A396" s="20"/>
+      <c r="A396" s="21"/>
       <c r="B396" t="s">
         <v>507</v>
       </c>
@@ -7583,7 +7708,7 @@
       <c r="D396" s="15"/>
     </row>
     <row r="397" spans="1:4">
-      <c r="A397" s="20"/>
+      <c r="A397" s="21"/>
       <c r="B397" t="s">
         <v>508</v>
       </c>
@@ -7593,7 +7718,7 @@
       <c r="D397" s="15"/>
     </row>
     <row r="398" spans="1:4">
-      <c r="A398" s="20"/>
+      <c r="A398" s="21"/>
       <c r="B398" t="s">
         <v>509</v>
       </c>
@@ -7615,7 +7740,7 @@
       <c r="D399" s="15"/>
     </row>
     <row r="400" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A400" s="20" t="s">
+      <c r="A400" s="21" t="s">
         <v>512</v>
       </c>
       <c r="B400" t="s">
@@ -7627,7 +7752,7 @@
       <c r="D400" s="15"/>
     </row>
     <row r="401" spans="1:4">
-      <c r="A401" s="20"/>
+      <c r="A401" s="21"/>
       <c r="B401" t="s">
         <v>514</v>
       </c>
@@ -7637,7 +7762,7 @@
       <c r="D401" s="15"/>
     </row>
     <row r="402" spans="1:4">
-      <c r="A402" s="20"/>
+      <c r="A402" s="21"/>
       <c r="B402" t="s">
         <v>515</v>
       </c>
@@ -7647,7 +7772,7 @@
       <c r="D402" s="15"/>
     </row>
     <row r="403" spans="1:4">
-      <c r="A403" s="20"/>
+      <c r="A403" s="21"/>
       <c r="B403" t="s">
         <v>516</v>
       </c>
@@ -7657,7 +7782,7 @@
       <c r="D403" s="15"/>
     </row>
     <row r="404" spans="1:4">
-      <c r="A404" s="20"/>
+      <c r="A404" s="21"/>
       <c r="B404" t="s">
         <v>517</v>
       </c>
@@ -7667,7 +7792,7 @@
       <c r="D404" s="15"/>
     </row>
     <row r="405" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A405" s="20" t="s">
+      <c r="A405" s="21" t="s">
         <v>518</v>
       </c>
       <c r="B405" t="s">
@@ -7679,7 +7804,7 @@
       <c r="D405" s="15"/>
     </row>
     <row r="406" spans="1:4">
-      <c r="A406" s="20"/>
+      <c r="A406" s="21"/>
       <c r="B406" t="s">
         <v>520</v>
       </c>
@@ -7689,7 +7814,7 @@
       <c r="D406" s="15"/>
     </row>
     <row r="407" spans="1:4">
-      <c r="A407" s="20"/>
+      <c r="A407" s="21"/>
       <c r="B407" t="s">
         <v>521</v>
       </c>
@@ -7699,7 +7824,7 @@
       <c r="D407" s="15"/>
     </row>
     <row r="408" spans="1:4">
-      <c r="A408" s="20"/>
+      <c r="A408" s="21"/>
       <c r="B408" t="s">
         <v>522</v>
       </c>
@@ -7709,7 +7834,7 @@
       <c r="D408" s="15"/>
     </row>
     <row r="409" spans="1:4">
-      <c r="A409" s="20"/>
+      <c r="A409" s="21"/>
       <c r="B409" t="s">
         <v>523</v>
       </c>
@@ -7719,7 +7844,7 @@
       <c r="D409" s="15"/>
     </row>
     <row r="410" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A410" s="20" t="s">
+      <c r="A410" s="21" t="s">
         <v>524</v>
       </c>
       <c r="B410" t="s">
@@ -7731,7 +7856,7 @@
       <c r="D410" s="15"/>
     </row>
     <row r="411" spans="1:4">
-      <c r="A411" s="20"/>
+      <c r="A411" s="21"/>
       <c r="B411" t="s">
         <v>526</v>
       </c>
@@ -7748,77 +7873,77 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="A57:A66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A71:A79"/>
+    <mergeCell ref="A80:A88"/>
+    <mergeCell ref="A89:A95"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="A111:A116"/>
+    <mergeCell ref="A117:A124"/>
+    <mergeCell ref="A125:A128"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="A132:A140"/>
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="A156:A159"/>
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="A163:A166"/>
+    <mergeCell ref="A167:A172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="A183:A187"/>
+    <mergeCell ref="A188:A190"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="A193:A199"/>
+    <mergeCell ref="A200:A205"/>
+    <mergeCell ref="A206:A208"/>
+    <mergeCell ref="A209:A213"/>
+    <mergeCell ref="A214:A221"/>
+    <mergeCell ref="A222:A229"/>
+    <mergeCell ref="A230:A236"/>
+    <mergeCell ref="A237:A244"/>
+    <mergeCell ref="A245:A249"/>
+    <mergeCell ref="A250:A258"/>
+    <mergeCell ref="A259:A263"/>
+    <mergeCell ref="A264:A270"/>
+    <mergeCell ref="A271:A276"/>
+    <mergeCell ref="A277:A280"/>
+    <mergeCell ref="A281:A286"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="A291:A293"/>
+    <mergeCell ref="A294:A298"/>
+    <mergeCell ref="A299:A304"/>
+    <mergeCell ref="A305:A314"/>
+    <mergeCell ref="A315:A317"/>
+    <mergeCell ref="A318:A330"/>
+    <mergeCell ref="A331:A341"/>
+    <mergeCell ref="A342:A353"/>
+    <mergeCell ref="A354:A356"/>
+    <mergeCell ref="A357:A358"/>
+    <mergeCell ref="A359:A364"/>
+    <mergeCell ref="A365:A369"/>
+    <mergeCell ref="A370:A376"/>
+    <mergeCell ref="A405:A409"/>
     <mergeCell ref="A410:A411"/>
     <mergeCell ref="A377:A381"/>
     <mergeCell ref="A382:A385"/>
     <mergeCell ref="A386:A390"/>
     <mergeCell ref="A391:A398"/>
     <mergeCell ref="A400:A404"/>
-    <mergeCell ref="A357:A358"/>
-    <mergeCell ref="A359:A364"/>
-    <mergeCell ref="A365:A369"/>
-    <mergeCell ref="A370:A376"/>
-    <mergeCell ref="A405:A409"/>
-    <mergeCell ref="A315:A317"/>
-    <mergeCell ref="A318:A330"/>
-    <mergeCell ref="A331:A341"/>
-    <mergeCell ref="A342:A353"/>
-    <mergeCell ref="A354:A356"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="A291:A293"/>
-    <mergeCell ref="A294:A298"/>
-    <mergeCell ref="A299:A304"/>
-    <mergeCell ref="A305:A314"/>
-    <mergeCell ref="A264:A270"/>
-    <mergeCell ref="A271:A276"/>
-    <mergeCell ref="A277:A280"/>
-    <mergeCell ref="A281:A286"/>
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="A230:A236"/>
-    <mergeCell ref="A237:A244"/>
-    <mergeCell ref="A245:A249"/>
-    <mergeCell ref="A250:A258"/>
-    <mergeCell ref="A259:A263"/>
-    <mergeCell ref="A200:A205"/>
-    <mergeCell ref="A206:A208"/>
-    <mergeCell ref="A209:A213"/>
-    <mergeCell ref="A214:A221"/>
-    <mergeCell ref="A222:A229"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="A183:A187"/>
-    <mergeCell ref="A188:A190"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="A193:A199"/>
-    <mergeCell ref="A160:A162"/>
-    <mergeCell ref="A163:A166"/>
-    <mergeCell ref="A167:A172"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="A141:A146"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="A156:A159"/>
-    <mergeCell ref="A111:A116"/>
-    <mergeCell ref="A117:A124"/>
-    <mergeCell ref="A125:A128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="A132:A140"/>
-    <mergeCell ref="A80:A88"/>
-    <mergeCell ref="A89:A95"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="A57:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A71:A79"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A32"/>
-    <mergeCell ref="A33:A40"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
